--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="84">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -58,10 +59,13 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>0-1-0</t>
-  </si>
-  <si>
-    <t>1-0-0</t>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -82,43 +86,130 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Place 11</t>
-  </si>
-  <si>
-    <t>Place 12</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>12.2-2.8</t>
+  </si>
+  <si>
+    <t>10.6-4.4</t>
+  </si>
+  <si>
+    <t>9.7-5.3</t>
+  </si>
+  <si>
+    <t>8.4-6.6</t>
+  </si>
+  <si>
+    <t>8.0-7.0</t>
+  </si>
+  <si>
+    <t>7.2-7.8</t>
+  </si>
+  <si>
+    <t>7.1-7.9</t>
+  </si>
+  <si>
+    <t>6.5-8.5</t>
+  </si>
+  <si>
+    <t>5.5-9.5</t>
+  </si>
+  <si>
+    <t>4.9-10.1</t>
+  </si>
+  <si>
+    <t>3.3-11.7</t>
+  </si>
+  <si>
+    <t>13-2</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>3-12</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -127,7 +218,40 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -596,40 +720,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -637,19 +761,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -658,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -678,16 +802,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -719,40 +843,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -760,16 +884,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -784,13 +908,13 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -801,40 +925,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -842,40 +966,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -883,40 +1007,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -924,22 +1048,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -951,10 +1075,10 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -965,40 +1089,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1006,40 +1130,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1057,13 +1181,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1071,13 +1195,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0.08333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1085,10 +1209,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1099,10 +1223,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1113,13 +1237,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1127,13 +1251,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>0.4166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1141,13 +1265,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1155,13 +1279,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1169,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>0.5833333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1183,13 +1307,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.6666666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1197,13 +1321,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1211,13 +1335,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0.8333333333333334</v>
+        <v>1.5</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1228,10 +1352,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1249,16 +1373,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1269,13 +1393,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1286,13 +1410,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0.9166666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333337</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1300,16 +1424,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>1.25</v>
       </c>
       <c r="D4">
-        <v>-0.1666666666666666</v>
+        <v>-0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1317,16 +1441,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1334,16 +1458,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.3333333333333334</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1351,16 +1475,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-0.4166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1368,13 +1492,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>0.4166666666666667</v>
-      </c>
       <c r="D8">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1385,16 +1509,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D9">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1402,13 +1526,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1419,16 +1543,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1436,16 +1560,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>0.08333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1453,16 +1577,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1480,46 +1604,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1527,25 +1651,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>67.49000000000001</v>
+        <v>73</v>
       </c>
       <c r="C2">
-        <v>31.12</v>
+        <v>18.9</v>
       </c>
       <c r="D2">
-        <v>1.39</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1563,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1571,34 +1695,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>25.09</v>
+        <v>18.8</v>
       </c>
       <c r="C3">
-        <v>33.31</v>
+        <v>41.2</v>
       </c>
       <c r="D3">
-        <v>28.3</v>
+        <v>20.9</v>
       </c>
       <c r="E3">
-        <v>10.26</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F3">
-        <v>2.57</v>
+        <v>5.4</v>
       </c>
       <c r="G3">
-        <v>0.44</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1607,42 +1731,42 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>6.19</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>21.85</v>
+        <v>19.3</v>
       </c>
       <c r="D4">
-        <v>31.26</v>
+        <v>30.6</v>
       </c>
       <c r="E4">
-        <v>23.72</v>
+        <v>18.7</v>
       </c>
       <c r="F4">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="G4">
-        <v>4.35</v>
+        <v>6.6</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>4.7</v>
       </c>
       <c r="I4">
-        <v>0.18</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1651,227 +1775,227 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.06999999999999</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="C5">
-        <v>9.68</v>
+        <v>8.4</v>
       </c>
       <c r="D5">
-        <v>22.12</v>
+        <v>17.4</v>
       </c>
       <c r="E5">
-        <v>27.36</v>
+        <v>19.6</v>
       </c>
       <c r="F5">
-        <v>22.02</v>
+        <v>14.9</v>
       </c>
       <c r="G5">
-        <v>11.34</v>
+        <v>14.8</v>
       </c>
       <c r="H5">
-        <v>4.81</v>
+        <v>8.6</v>
       </c>
       <c r="I5">
-        <v>1.43</v>
+        <v>6.9</v>
       </c>
       <c r="J5">
-        <v>0.18</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>0.03</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
-        <v>93.55</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>3.08</v>
+        <v>3.8</v>
       </c>
       <c r="D6">
-        <v>11.3</v>
+        <v>8.6</v>
       </c>
       <c r="E6">
-        <v>20.09</v>
+        <v>14.1</v>
       </c>
       <c r="F6">
-        <v>25.31</v>
+        <v>20.5</v>
       </c>
       <c r="G6">
-        <v>21.19</v>
+        <v>18.3</v>
       </c>
       <c r="H6">
-        <v>12.18</v>
+        <v>13.3</v>
       </c>
       <c r="I6">
-        <v>4.98</v>
+        <v>10.2</v>
       </c>
       <c r="J6">
-        <v>1.41</v>
+        <v>6.2</v>
       </c>
       <c r="K6">
-        <v>0.26</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>81.16</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>0.76</v>
+        <v>3.2</v>
       </c>
       <c r="D7">
-        <v>4.33</v>
+        <v>6.9</v>
       </c>
       <c r="E7">
-        <v>11.85</v>
+        <v>13.3</v>
       </c>
       <c r="F7">
-        <v>20.53</v>
+        <v>10.5</v>
       </c>
       <c r="G7">
-        <v>23.84</v>
+        <v>13.2</v>
       </c>
       <c r="H7">
-        <v>20.41</v>
+        <v>13.7</v>
       </c>
       <c r="I7">
-        <v>11.9</v>
+        <v>11.1</v>
       </c>
       <c r="J7">
-        <v>5.06</v>
+        <v>10.8</v>
       </c>
       <c r="K7">
-        <v>1.15</v>
+        <v>8.1</v>
       </c>
       <c r="L7">
-        <v>0.16</v>
+        <v>5.6</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N7">
-        <v>61.32000000000001</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>0.18</v>
+        <v>2.6</v>
       </c>
       <c r="D8">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="E8">
-        <v>5.12</v>
+        <v>8.1</v>
       </c>
       <c r="F8">
-        <v>11.75</v>
+        <v>11.8</v>
       </c>
       <c r="G8">
-        <v>19.97</v>
+        <v>12.8</v>
       </c>
       <c r="H8">
-        <v>24.98</v>
+        <v>14</v>
       </c>
       <c r="I8">
-        <v>19.96</v>
+        <v>15.2</v>
       </c>
       <c r="J8">
-        <v>11.86</v>
+        <v>12.8</v>
       </c>
       <c r="K8">
-        <v>4.29</v>
+        <v>10.1</v>
       </c>
       <c r="L8">
-        <v>0.84</v>
+        <v>6.8</v>
       </c>
       <c r="M8">
-        <v>0.01</v>
+        <v>1.4</v>
       </c>
       <c r="N8">
-        <v>38.06</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.02</v>
+        <v>1.4</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
       <c r="E9">
-        <v>1.34</v>
+        <v>8.1</v>
       </c>
       <c r="F9">
-        <v>4.78</v>
+        <v>9.9</v>
       </c>
       <c r="G9">
-        <v>13.04</v>
+        <v>11.5</v>
       </c>
       <c r="H9">
-        <v>20.33</v>
+        <v>12.6</v>
       </c>
       <c r="I9">
-        <v>25.75</v>
+        <v>14.5</v>
       </c>
       <c r="J9">
-        <v>20.17</v>
+        <v>11.1</v>
       </c>
       <c r="K9">
-        <v>10.9</v>
+        <v>12.8</v>
       </c>
       <c r="L9">
-        <v>3.31</v>
+        <v>9.1</v>
       </c>
       <c r="M9">
-        <v>0.16</v>
+        <v>5.1</v>
       </c>
       <c r="N9">
-        <v>19.38</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1879,136 +2003,136 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.05</v>
+        <v>2.1</v>
       </c>
       <c r="E10">
-        <v>0.25</v>
+        <v>5.5</v>
       </c>
       <c r="F10">
-        <v>1.17</v>
+        <v>8.5</v>
       </c>
       <c r="G10">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="H10">
-        <v>12.01</v>
+        <v>13.8</v>
       </c>
       <c r="I10">
-        <v>21.25</v>
+        <v>15.5</v>
       </c>
       <c r="J10">
-        <v>27.92</v>
+        <v>14.9</v>
       </c>
       <c r="K10">
-        <v>21.99</v>
+        <v>14.8</v>
       </c>
       <c r="L10">
-        <v>9.359999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="M10">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>6.27</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>0.16</v>
+        <v>3.1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="H11">
-        <v>3.95</v>
+        <v>11.5</v>
       </c>
       <c r="I11">
-        <v>12.05</v>
+        <v>12.1</v>
       </c>
       <c r="J11">
-        <v>23.49</v>
+        <v>19.9</v>
       </c>
       <c r="K11">
-        <v>31.73</v>
+        <v>20.6</v>
       </c>
       <c r="L11">
-        <v>21.52</v>
+        <v>17.1</v>
       </c>
       <c r="M11">
-        <v>6.08</v>
+        <v>7.3</v>
       </c>
       <c r="N11">
-        <v>1.18</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>1.7</v>
       </c>
       <c r="G12">
-        <v>0.03</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>0.5499999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="I12">
-        <v>2.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J12">
-        <v>9.91</v>
+        <v>15.2</v>
       </c>
       <c r="K12">
-        <v>28.3</v>
+        <v>20.7</v>
       </c>
       <c r="L12">
-        <v>33.47</v>
+        <v>28.8</v>
       </c>
       <c r="M12">
-        <v>25.23</v>
+        <v>13.3</v>
       </c>
       <c r="N12">
-        <v>0.04</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2023,31 +2147,31 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K13">
-        <v>1.35</v>
+        <v>7.2</v>
       </c>
       <c r="L13">
-        <v>31.33</v>
+        <v>19.4</v>
       </c>
       <c r="M13">
-        <v>67.32000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2056,6 +2180,357 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>150.84</v>
+      </c>
+      <c r="E2">
+        <v>301.68</v>
+      </c>
+      <c r="F2">
+        <v>99.8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>141.29</v>
+      </c>
+      <c r="E3">
+        <v>282.58</v>
+      </c>
+      <c r="F3">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>129.78</v>
+      </c>
+      <c r="E4">
+        <v>259.56</v>
+      </c>
+      <c r="F4">
+        <v>91.8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>131.6</v>
+      </c>
+      <c r="E5">
+        <v>263.2</v>
+      </c>
+      <c r="F5">
+        <v>77.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>122.63</v>
+      </c>
+      <c r="E6">
+        <v>245.26</v>
+      </c>
+      <c r="F6">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>121.18</v>
+      </c>
+      <c r="E7">
+        <v>242.36</v>
+      </c>
+      <c r="F7">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>119.15</v>
+      </c>
+      <c r="E8">
+        <v>238.3</v>
+      </c>
+      <c r="F8">
+        <v>39.7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>121.54</v>
+      </c>
+      <c r="E9">
+        <v>243.08</v>
+      </c>
+      <c r="F9">
+        <v>34.8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>115.86</v>
+      </c>
+      <c r="E10">
+        <v>231.72</v>
+      </c>
+      <c r="F10">
+        <v>26.8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>115.21</v>
+      </c>
+      <c r="E11">
+        <v>230.42</v>
+      </c>
+      <c r="F11">
+        <v>11.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>112.76</v>
+      </c>
+      <c r="E12">
+        <v>225.52</v>
+      </c>
+      <c r="F12">
+        <v>6.1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>96.61</v>
+      </c>
+      <c r="E13">
+        <v>193.22</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2065,16 +2540,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2082,16 +2557,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2099,16 +2574,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2116,16 +2591,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2133,16 +2608,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2150,16 +2625,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2167,7 +2642,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2175,8 +2650,8 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2187,13 +2662,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2201,16 +2676,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2218,16 +2693,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2235,16 +2710,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2255,13 +2730,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2269,169 +2744,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>-4</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>-6</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2441,33 +2763,277 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>-4</v>
+      </c>
+      <c r="C12">
+        <v>-7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-7</v>
+      </c>
+      <c r="F2">
+        <v>-2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="99">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -155,7 +155,7 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>12.2-2.8</t>
+    <t>12.3-2.7</t>
   </si>
   <si>
     <t>10.6-4.4</t>
@@ -164,10 +164,10 @@
     <t>9.7-5.3</t>
   </si>
   <si>
-    <t>8.4-6.6</t>
-  </si>
-  <si>
-    <t>8.0-7.0</t>
+    <t>8.3-6.7</t>
+  </si>
+  <si>
+    <t>8.1-6.9</t>
   </si>
   <si>
     <t>7.2-7.8</t>
@@ -176,6 +176,9 @@
     <t>7.1-7.9</t>
   </si>
   <si>
+    <t>6.6-8.4</t>
+  </si>
+  <si>
     <t>6.5-8.5</t>
   </si>
   <si>
@@ -185,10 +188,10 @@
     <t>4.9-10.1</t>
   </si>
   <si>
-    <t>3.3-11.7</t>
-  </si>
-  <si>
-    <t>13-2</t>
+    <t>3.2-11.8</t>
+  </si>
+  <si>
+    <t>12-3</t>
   </si>
   <si>
     <t>11-4</t>
@@ -197,6 +200,9 @@
     <t>10-5</t>
   </si>
   <si>
+    <t>9-6</t>
+  </si>
+  <si>
     <t>8-7</t>
   </si>
   <si>
@@ -212,10 +218,49 @@
     <t>3-12</t>
   </si>
   <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Jessica Stratton</t>
+  </si>
+  <si>
+    <t>Robert Schottler</t>
+  </si>
+  <si>
+    <t>Chungfu Yang</t>
+  </si>
+  <si>
+    <t>Dave Linton</t>
+  </si>
+  <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
+    <t>Daniel Tracey</t>
+  </si>
+  <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
+    <t>Jeffrey Laidacker</t>
+  </si>
+  <si>
+    <t>Garrett Sullivan</t>
+  </si>
+  <si>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
+    <t>Justin Fox</t>
+  </si>
+  <si>
+    <t>Roy Armbruster</t>
   </si>
   <si>
     <t>↑9</t>
@@ -1651,28 +1696,28 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C2">
-        <v>18.9</v>
+        <v>17.3</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E2">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1687,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1695,43 +1740,43 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>18.8</v>
+        <v>16.6</v>
       </c>
       <c r="C3">
-        <v>41.2</v>
+        <v>42.6</v>
       </c>
       <c r="D3">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="E3">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="F3">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="I3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1739,43 +1784,43 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="C4">
-        <v>19.3</v>
+        <v>17.6</v>
       </c>
       <c r="D4">
-        <v>30.6</v>
+        <v>30.1</v>
       </c>
       <c r="E4">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="F4">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="G4">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="H4">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>91.8</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1783,43 +1828,43 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="C5">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="D5">
-        <v>17.4</v>
+        <v>15.9</v>
       </c>
       <c r="E5">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
       <c r="F5">
-        <v>14.9</v>
+        <v>16.8</v>
       </c>
       <c r="G5">
-        <v>14.8</v>
+        <v>13.1</v>
       </c>
       <c r="H5">
-        <v>8.6</v>
+        <v>10.9</v>
       </c>
       <c r="I5">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>77.2</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1827,43 +1872,43 @@
         <v>2</v>
       </c>
       <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>4.3</v>
+      </c>
+      <c r="D6">
+        <v>9.1</v>
+      </c>
+      <c r="E6">
+        <v>16.4</v>
+      </c>
+      <c r="F6">
+        <v>18.5</v>
+      </c>
+      <c r="G6">
+        <v>16.6</v>
+      </c>
+      <c r="H6">
+        <v>12.6</v>
+      </c>
+      <c r="I6">
+        <v>11.7</v>
+      </c>
+      <c r="J6">
+        <v>6.7</v>
+      </c>
+      <c r="K6">
+        <v>2.6</v>
+      </c>
+      <c r="L6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>3.8</v>
-      </c>
-      <c r="D6">
-        <v>8.6</v>
-      </c>
-      <c r="E6">
-        <v>14.1</v>
-      </c>
-      <c r="F6">
-        <v>20.5</v>
-      </c>
-      <c r="G6">
-        <v>18.3</v>
-      </c>
-      <c r="H6">
-        <v>13.3</v>
-      </c>
-      <c r="I6">
-        <v>10.2</v>
-      </c>
-      <c r="J6">
-        <v>6.2</v>
-      </c>
-      <c r="K6">
-        <v>2.8</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>66.09999999999999</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1871,43 +1916,43 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D7">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="E7">
-        <v>13.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F7">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="G7">
-        <v>13.2</v>
+        <v>11.4</v>
       </c>
       <c r="H7">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="I7">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="J7">
-        <v>10.8</v>
+        <v>9.9</v>
       </c>
       <c r="K7">
-        <v>8.1</v>
+        <v>9.4</v>
       </c>
       <c r="L7">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="M7">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1915,43 +1960,43 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
         <v>2.6</v>
       </c>
       <c r="D8">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="E8">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="F8">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="G8">
-        <v>12.8</v>
+        <v>14.4</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>11.4</v>
       </c>
       <c r="I8">
-        <v>15.2</v>
+        <v>12.6</v>
       </c>
       <c r="J8">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="K8">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="L8">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="N8">
-        <v>39.7</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1962,40 +2007,40 @@
         <v>0.1</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D9">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="E9">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="F9">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="G9">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
       <c r="H9">
-        <v>12.6</v>
+        <v>14.1</v>
       </c>
       <c r="I9">
         <v>14.5</v>
       </c>
       <c r="J9">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>12.8</v>
+        <v>10.1</v>
       </c>
       <c r="L9">
-        <v>9.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M9">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="N9">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2003,43 +2048,43 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="E10">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="F10">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G10">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="I10">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="J10">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="K10">
-        <v>14.8</v>
+        <v>13.2</v>
       </c>
       <c r="L10">
-        <v>11.1</v>
+        <v>8.9</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="N10">
-        <v>26.8</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2053,37 +2098,37 @@
         <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="G11">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="H11">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="J11">
-        <v>19.9</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="L11">
-        <v>17.1</v>
+        <v>19.5</v>
       </c>
       <c r="M11">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="N11">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2094,40 +2139,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F12">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="I12">
-        <v>9.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J12">
-        <v>15.2</v>
+        <v>15.8</v>
       </c>
       <c r="K12">
-        <v>20.7</v>
+        <v>21.5</v>
       </c>
       <c r="L12">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="M12">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="N12">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2147,31 +2192,31 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>3.9</v>
       </c>
       <c r="K13">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="L13">
-        <v>19.4</v>
+        <v>18.1</v>
       </c>
       <c r="M13">
-        <v>66.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="N13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2230,13 +2275,13 @@
         <v>301.68</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2256,13 +2301,13 @@
         <v>282.58</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2282,13 +2327,13 @@
         <v>259.56</v>
       </c>
       <c r="F4">
-        <v>91.8</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2308,13 +2353,13 @@
         <v>263.2</v>
       </c>
       <c r="F5">
-        <v>77.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G5" t="s">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2334,13 +2379,13 @@
         <v>245.26</v>
       </c>
       <c r="F6">
-        <v>66.10000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2360,13 +2405,13 @@
         <v>242.36</v>
       </c>
       <c r="F7">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2386,13 +2431,13 @@
         <v>238.3</v>
       </c>
       <c r="F8">
-        <v>39.7</v>
+        <v>43.6</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2412,13 +2457,13 @@
         <v>243.08</v>
       </c>
       <c r="F9">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2438,13 +2483,13 @@
         <v>231.72</v>
       </c>
       <c r="F10">
-        <v>26.8</v>
+        <v>30.1</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2464,13 +2509,13 @@
         <v>230.42</v>
       </c>
       <c r="F11">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2490,13 +2535,13 @@
         <v>225.52</v>
       </c>
       <c r="F12">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2516,13 +2561,13 @@
         <v>193.22</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2532,228 +2577,267 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
       <c r="E9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
         <v>-4</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
       <c r="E10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
         <v>-5</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12">
         <v>-7</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
         <v>-8</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2771,13 +2855,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2791,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2805,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2819,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2833,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2847,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2861,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2875,7 +2959,7 @@
         <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2889,7 +2973,7 @@
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2903,7 +2987,7 @@
         <v>-4</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2917,7 +3001,7 @@
         <v>-5</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2931,7 +3015,7 @@
         <v>-7</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2945,7 +3029,7 @@
         <v>-8</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2963,25 +3047,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="96">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -59,13 +59,16 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -146,52 +149,43 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>12.3-2.7</t>
-  </si>
-  <si>
-    <t>10.6-4.4</t>
-  </si>
-  <si>
-    <t>9.7-5.3</t>
-  </si>
-  <si>
-    <t>8.3-6.7</t>
-  </si>
-  <si>
-    <t>8.1-6.9</t>
-  </si>
-  <si>
-    <t>7.2-7.8</t>
-  </si>
-  <si>
-    <t>7.1-7.9</t>
-  </si>
-  <si>
-    <t>6.6-8.4</t>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>10.4-4.6</t>
+  </si>
+  <si>
+    <t>10.0-5.0</t>
+  </si>
+  <si>
+    <t>8.8-6.2</t>
+  </si>
+  <si>
+    <t>8.2-6.8</t>
+  </si>
+  <si>
+    <t>8.0-7.0</t>
   </si>
   <si>
     <t>6.5-8.5</t>
   </si>
   <si>
-    <t>5.5-9.5</t>
-  </si>
-  <si>
-    <t>4.9-10.1</t>
-  </si>
-  <si>
-    <t>3.2-11.8</t>
-  </si>
-  <si>
-    <t>12-3</t>
+    <t>5.9-9.1</t>
+  </si>
+  <si>
+    <t>5.6-9.4</t>
+  </si>
+  <si>
+    <t>4.3-10.7</t>
   </si>
   <si>
     <t>11-4</t>
@@ -212,10 +206,7 @@
     <t>6-9</t>
   </si>
   <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>3-12</t>
+    <t>4-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -227,76 +218,76 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Dave Linton</t>
+  </si>
+  <si>
+    <t>Chungfu Yang</t>
+  </si>
+  <si>
+    <t>Robert Schottler</t>
+  </si>
+  <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
+    <t>Garrett Sullivan</t>
+  </si>
+  <si>
+    <t>Roy Armbruster</t>
+  </si>
+  <si>
     <t>Jessica Stratton</t>
   </si>
   <si>
-    <t>Robert Schottler</t>
-  </si>
-  <si>
-    <t>Chungfu Yang</t>
-  </si>
-  <si>
-    <t>Dave Linton</t>
-  </si>
-  <si>
-    <t>Hannah Davis</t>
+    <t>Matthew Graesser</t>
   </si>
   <si>
     <t>Daniel Tracey</t>
   </si>
   <si>
-    <t>Matthew Graesser</t>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
+    <t>Justin Fox</t>
   </si>
   <si>
     <t>Jeffrey Laidacker</t>
   </si>
   <si>
-    <t>Garrett Sullivan</t>
-  </si>
-  <si>
-    <t>Dale Goodwin</t>
-  </si>
-  <si>
-    <t>Justin Fox</t>
-  </si>
-  <si>
-    <t>Roy Armbruster</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑7</t>
   </si>
   <si>
     <t>↑9</t>
   </si>
   <si>
-    <t>↑4</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -742,22 +733,22 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -768,16 +759,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -786,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -812,13 +803,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -827,19 +818,19 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -850,37 +841,37 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -891,28 +882,28 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -921,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -935,34 +926,34 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -970,34 +961,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -1011,40 +1002,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1055,19 +1046,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1085,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1096,37 +1087,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1137,28 +1128,28 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -1167,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1175,40 +1166,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1226,13 +1217,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1240,13 +1231,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1254,13 +1245,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1271,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.5833333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1282,10 +1273,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1296,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1310,13 +1301,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1324,13 +1315,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.083333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1338,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1352,13 +1343,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1.416666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1366,13 +1357,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1.416666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1380,13 +1371,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1397,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>1.833333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1418,16 +1409,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1435,16 +1426,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1.833333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="D2">
-        <v>-0.1666666666666667</v>
+        <v>-0.75</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1452,16 +1443,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1.416666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D3">
-        <v>-0.5833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1469,16 +1460,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="D4">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1486,16 +1477,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1506,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1520,16 +1511,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1537,13 +1528,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1554,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.9166666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D9">
-        <v>0.9166666666666666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1571,16 +1562,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0.8333333333333334</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.1666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1588,13 +1579,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1608,10 +1599,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D12">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1625,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.4166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D13">
-        <v>0.4166666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1649,46 +1640,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1696,34 +1687,34 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>75.40000000000001</v>
+        <v>37.4</v>
       </c>
       <c r="C2">
-        <v>17.3</v>
+        <v>23.9</v>
       </c>
       <c r="D2">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="E2">
-        <v>1.9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="G2">
+        <v>4.1</v>
+      </c>
+      <c r="H2">
+        <v>1.8</v>
+      </c>
+      <c r="I2">
+        <v>0.8</v>
+      </c>
+      <c r="J2">
         <v>0.1</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1732,95 +1723,95 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.90000000000001</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>16.6</v>
+        <v>18.4</v>
       </c>
       <c r="C3">
-        <v>42.6</v>
+        <v>21.6</v>
       </c>
       <c r="D3">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="E3">
-        <v>10.1</v>
+        <v>14.3</v>
       </c>
       <c r="F3">
-        <v>4.9</v>
+        <v>12.2</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="H3">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="J3">
         <v>0.3</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>97.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>5.1</v>
+        <v>20.9</v>
       </c>
       <c r="C4">
-        <v>17.6</v>
+        <v>21.2</v>
       </c>
       <c r="D4">
-        <v>30.1</v>
+        <v>18.4</v>
       </c>
       <c r="E4">
-        <v>18.8</v>
+        <v>14.5</v>
       </c>
       <c r="F4">
-        <v>12.7</v>
+        <v>10.3</v>
       </c>
       <c r="G4">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="H4">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I4">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K4">
         <v>0.3</v>
       </c>
       <c r="L4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>91.59999999999999</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1828,87 +1819,87 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.1</v>
+        <v>7.9</v>
       </c>
       <c r="C5">
-        <v>7.9</v>
+        <v>13.2</v>
       </c>
       <c r="D5">
+        <v>13.9</v>
+      </c>
+      <c r="E5">
         <v>15.9</v>
       </c>
-      <c r="E5">
-        <v>19.1</v>
-      </c>
       <c r="F5">
-        <v>16.8</v>
+        <v>15.6</v>
       </c>
       <c r="G5">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="H5">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="I5">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="J5">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M5">
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>73.90000000000001</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
+        <v>4.9</v>
+      </c>
+      <c r="C6">
+        <v>7.8</v>
+      </c>
+      <c r="D6">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E6">
+        <v>12.8</v>
+      </c>
+      <c r="F6">
+        <v>14.2</v>
+      </c>
+      <c r="G6">
+        <v>14.7</v>
+      </c>
+      <c r="H6">
+        <v>13.3</v>
+      </c>
+      <c r="I6">
+        <v>9.6</v>
+      </c>
+      <c r="J6">
+        <v>6.1</v>
+      </c>
+      <c r="K6">
+        <v>5.3</v>
+      </c>
+      <c r="L6">
+        <v>1.6</v>
+      </c>
+      <c r="M6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>4.3</v>
-      </c>
-      <c r="D6">
-        <v>9.1</v>
-      </c>
-      <c r="E6">
-        <v>16.4</v>
-      </c>
-      <c r="F6">
-        <v>18.5</v>
-      </c>
-      <c r="G6">
-        <v>16.6</v>
-      </c>
-      <c r="H6">
-        <v>12.6</v>
-      </c>
-      <c r="I6">
-        <v>11.7</v>
-      </c>
-      <c r="J6">
-        <v>6.7</v>
-      </c>
-      <c r="K6">
-        <v>2.6</v>
-      </c>
-      <c r="L6">
-        <v>0.8</v>
-      </c>
-      <c r="M6">
-        <v>0.2</v>
-      </c>
       <c r="N6">
-        <v>65.40000000000001</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1916,219 +1907,219 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="D7">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>9.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="F7">
-        <v>10.8</v>
+        <v>13.2</v>
       </c>
       <c r="G7">
-        <v>11.4</v>
+        <v>14.8</v>
       </c>
       <c r="H7">
-        <v>13.8</v>
+        <v>12.6</v>
       </c>
       <c r="I7">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="J7">
-        <v>9.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K7">
-        <v>9.4</v>
+        <v>6.1</v>
       </c>
       <c r="L7">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="N7">
-        <v>45</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="D8">
-        <v>5.8</v>
+        <v>8.9</v>
       </c>
       <c r="E8">
-        <v>8.9</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>11.5</v>
+        <v>13.3</v>
       </c>
       <c r="G8">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="H8">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="I8">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="J8">
-        <v>13.1</v>
+        <v>7.9</v>
       </c>
       <c r="K8">
-        <v>11.5</v>
+        <v>5.3</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="N8">
-        <v>43.6</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="E9">
-        <v>6.9</v>
+        <v>5.3</v>
       </c>
       <c r="F9">
-        <v>10.2</v>
+        <v>6.1</v>
       </c>
       <c r="G9">
-        <v>12.8</v>
+        <v>8.6</v>
       </c>
       <c r="H9">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="I9">
-        <v>14.5</v>
+        <v>15.7</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>17.9</v>
       </c>
       <c r="K9">
-        <v>10.1</v>
+        <v>14.4</v>
       </c>
       <c r="L9">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="M9">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="N9">
-        <v>35.8</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="E10">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
       <c r="F10">
-        <v>8.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="H10">
-        <v>13.7</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>16.2</v>
+        <v>18.6</v>
       </c>
       <c r="J10">
-        <v>14.2</v>
+        <v>19.6</v>
       </c>
       <c r="K10">
-        <v>13.2</v>
+        <v>16.9</v>
       </c>
       <c r="L10">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="M10">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="N10">
-        <v>30.1</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="F11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I11">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>16.6</v>
       </c>
       <c r="K11">
-        <v>20.4</v>
+        <v>17.7</v>
       </c>
       <c r="L11">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>10.8</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2136,43 +2127,43 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
         <v>0.2</v>
       </c>
-      <c r="E12">
-        <v>0.9</v>
-      </c>
       <c r="F12">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H12">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="I12">
-        <v>8.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="J12">
-        <v>15.8</v>
+        <v>12.4</v>
       </c>
       <c r="K12">
-        <v>21.5</v>
+        <v>18.5</v>
       </c>
       <c r="L12">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="M12">
-        <v>12.4</v>
+        <v>31.6</v>
       </c>
       <c r="N12">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2189,34 +2180,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="J13">
-        <v>3.9</v>
+        <v>7.8</v>
       </c>
       <c r="K13">
-        <v>8.5</v>
+        <v>13.7</v>
       </c>
       <c r="L13">
-        <v>18.1</v>
+        <v>26.4</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>43.9</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -2234,28 +2225,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2263,77 +2254,77 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>150.84</v>
+        <v>145.6</v>
       </c>
       <c r="E2">
-        <v>301.68</v>
+        <v>436.8</v>
       </c>
       <c r="F2">
-        <v>99.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>141.29</v>
+        <v>132.9933333333333</v>
       </c>
       <c r="E3">
-        <v>282.58</v>
+        <v>398.98</v>
       </c>
       <c r="F3">
-        <v>97.5</v>
+        <v>92.5</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>129.78</v>
+        <v>135.9933333333333</v>
       </c>
       <c r="E4">
-        <v>259.56</v>
+        <v>407.98</v>
       </c>
       <c r="F4">
-        <v>91.60000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2344,48 +2335,48 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>131.6</v>
+        <v>135.12</v>
       </c>
       <c r="E5">
-        <v>263.2</v>
+        <v>405.36</v>
       </c>
       <c r="F5">
-        <v>73.90000000000001</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>122.63</v>
+        <v>129.7666666666667</v>
       </c>
       <c r="E6">
-        <v>245.26</v>
+        <v>389.3</v>
       </c>
       <c r="F6">
-        <v>65.40000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2396,126 +2387,126 @@
         <v>42</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7">
-        <v>121.18</v>
+        <v>127.6933333333333</v>
       </c>
       <c r="E7">
-        <v>242.36</v>
+        <v>383.08</v>
       </c>
       <c r="F7">
-        <v>45</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D8">
-        <v>119.15</v>
+        <v>126.6666666666667</v>
       </c>
       <c r="E8">
-        <v>238.3</v>
+        <v>380.0000000000001</v>
       </c>
       <c r="F8">
-        <v>43.6</v>
+        <v>58.4</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>121.54</v>
+        <v>120.88</v>
       </c>
       <c r="E9">
-        <v>243.08</v>
+        <v>362.64</v>
       </c>
       <c r="F9">
-        <v>35.8</v>
+        <v>23.1</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>115.86</v>
+        <v>124.2933333333333</v>
       </c>
       <c r="E10">
-        <v>231.72</v>
+        <v>372.88</v>
       </c>
       <c r="F10">
-        <v>30.1</v>
+        <v>16.3</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>115.21</v>
+        <v>119.2</v>
       </c>
       <c r="E11">
-        <v>230.42</v>
+        <v>357.6</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>13.7</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2523,25 +2514,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>112.76</v>
+        <v>113.5866666666667</v>
       </c>
       <c r="E12">
-        <v>225.52</v>
+        <v>340.76</v>
       </c>
       <c r="F12">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="s">
         <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2549,25 +2540,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>96.61</v>
+        <v>103.2066666666667</v>
       </c>
       <c r="E13">
-        <v>193.22</v>
+        <v>309.62</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2585,19 +2576,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2605,19 +2596,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2625,19 +2616,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2645,19 +2636,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2665,19 +2656,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2685,19 +2676,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2705,19 +2696,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2725,19 +2716,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2745,19 +2736,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2765,19 +2756,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2788,16 +2779,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>-5</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2808,16 +2799,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2825,19 +2816,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>-8</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2847,150 +2838,180 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>-2</v>
       </c>
-      <c r="C2">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>-6</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>-2</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
+      <c r="D10">
         <v>-2</v>
       </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3000,11 +3021,14 @@
       <c r="C11">
         <v>-5</v>
       </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11">
+        <v>-5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -3014,22 +3038,28 @@
       <c r="C12">
         <v>-7</v>
       </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12">
+        <v>-6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13">
         <v>-8</v>
       </c>
-      <c r="D13" t="s">
-        <v>89</v>
+      <c r="E13" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3069,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3047,25 +3077,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3073,25 +3103,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F2">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3099,24 +3129,128 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>-6</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>-8</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-7</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H7" t="s">
         <v>0</v>
       </c>
     </row>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="102">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -59,16 +59,19 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -149,51 +152,54 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>10.4-4.6</t>
-  </si>
-  <si>
-    <t>10.0-5.0</t>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>10.9-4.1</t>
+  </si>
+  <si>
+    <t>9.0-6.0</t>
   </si>
   <si>
     <t>8.8-6.2</t>
   </si>
   <si>
-    <t>8.2-6.8</t>
-  </si>
-  <si>
-    <t>8.0-7.0</t>
-  </si>
-  <si>
-    <t>6.5-8.5</t>
-  </si>
-  <si>
-    <t>5.9-9.1</t>
-  </si>
-  <si>
-    <t>5.6-9.4</t>
-  </si>
-  <si>
-    <t>4.3-10.7</t>
+    <t>8.6-6.4</t>
+  </si>
+  <si>
+    <t>7.3-7.7</t>
+  </si>
+  <si>
+    <t>6.9-8.1</t>
+  </si>
+  <si>
+    <t>5.4-9.6</t>
+  </si>
+  <si>
+    <t>5.0-9.9</t>
+  </si>
+  <si>
+    <t>5.2-9.8</t>
+  </si>
+  <si>
+    <t>4.7-10.3</t>
   </si>
   <si>
     <t>11-4</t>
   </si>
   <si>
-    <t>10-5</t>
-  </si>
-  <si>
     <t>9-6</t>
   </si>
   <si>
@@ -203,7 +209,7 @@
     <t>7-8</t>
   </si>
   <si>
-    <t>6-9</t>
+    <t>5-10</t>
   </si>
   <si>
     <t>4-11</t>
@@ -218,67 +224,76 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Chungfu Yang</t>
+  </si>
+  <si>
+    <t>Jessica Stratton</t>
+  </si>
+  <si>
+    <t>Robert Schottler</t>
+  </si>
+  <si>
+    <t>Justin Fox</t>
+  </si>
+  <si>
+    <t>Garrett Sullivan</t>
+  </si>
+  <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
+    <t>Roy Armbruster</t>
+  </si>
+  <si>
+    <t>Jeffrey Laidacker</t>
+  </si>
+  <si>
     <t>Dave Linton</t>
   </si>
   <si>
-    <t>Chungfu Yang</t>
-  </si>
-  <si>
-    <t>Robert Schottler</t>
-  </si>
-  <si>
-    <t>Hannah Davis</t>
-  </si>
-  <si>
-    <t>Garrett Sullivan</t>
-  </si>
-  <si>
-    <t>Roy Armbruster</t>
-  </si>
-  <si>
-    <t>Jessica Stratton</t>
-  </si>
-  <si>
     <t>Matthew Graesser</t>
   </si>
   <si>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
     <t>Daniel Tracey</t>
   </si>
   <si>
-    <t>Dale Goodwin</t>
-  </si>
-  <si>
-    <t>Justin Fox</t>
-  </si>
-  <si>
-    <t>Jeffrey Laidacker</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -288,6 +303,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -733,22 +751,22 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -759,34 +777,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -797,25 +815,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -824,10 +842,10 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -841,37 +859,37 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -879,25 +897,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -912,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -926,34 +944,34 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -961,40 +979,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1002,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1017,25 +1035,25 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1043,22 +1061,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1067,16 +1085,16 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1087,37 +1105,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1125,13 +1143,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1140,25 +1158,25 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1166,16 +1184,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1193,10 +1211,10 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -1217,13 +1235,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1231,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1245,13 +1263,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1259,13 +1277,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.083333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1273,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1287,13 +1305,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>1.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1301,13 +1319,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1.166666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1315,13 +1333,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.416666666666667</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1329,13 +1347,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1343,13 +1361,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1.833333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1357,13 +1375,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1.833333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1371,13 +1389,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1388,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2.75</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1409,16 +1427,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1429,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="D2">
         <v>-0.75</v>
@@ -1446,13 +1464,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2.25</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1463,13 +1481,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1.75</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1480,13 +1498,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1494,13 +1512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1.666666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.3333333333333333</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1514,13 +1532,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1.583333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D7">
-        <v>-1.416666666666667</v>
+        <v>-1.25</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1531,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1.416666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D8">
-        <v>-0.5833333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1545,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1.416666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D9">
-        <v>1.416666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1562,16 +1580,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D10">
-        <v>0.3333333333333333</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1579,16 +1597,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1596,13 +1614,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.8333333333333334</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D12">
-        <v>0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1613,16 +1631,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="C13">
-        <v>0.75</v>
-      </c>
       <c r="D13">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1640,46 +1658,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1687,34 +1705,34 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>37.4</v>
+        <v>45.8</v>
       </c>
       <c r="C2">
-        <v>23.9</v>
+        <v>30.1</v>
       </c>
       <c r="D2">
-        <v>16.5</v>
+        <v>12.6</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>5.4</v>
       </c>
       <c r="F2">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="G2">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H2">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1723,42 +1741,42 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.2</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>18.4</v>
+        <v>38.8</v>
       </c>
       <c r="C3">
-        <v>21.6</v>
+        <v>32.8</v>
       </c>
       <c r="D3">
-        <v>19.9</v>
+        <v>14.3</v>
       </c>
       <c r="E3">
-        <v>14.3</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>12.2</v>
+        <v>3.5</v>
       </c>
       <c r="G3">
-        <v>6.1</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1767,95 +1785,95 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>92.5</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>20.9</v>
+        <v>6.2</v>
       </c>
       <c r="C4">
-        <v>21.2</v>
+        <v>12.4</v>
       </c>
       <c r="D4">
-        <v>18.4</v>
+        <v>22.4</v>
       </c>
       <c r="E4">
-        <v>14.5</v>
+        <v>20.2</v>
       </c>
       <c r="F4">
-        <v>10.3</v>
+        <v>13.6</v>
       </c>
       <c r="G4">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="H4">
-        <v>4.5</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="J4">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0.1</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>91.8</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>7.9</v>
+        <v>2.9</v>
       </c>
       <c r="C5">
-        <v>13.2</v>
+        <v>8.5</v>
       </c>
       <c r="D5">
-        <v>13.9</v>
+        <v>16.2</v>
       </c>
       <c r="E5">
-        <v>15.9</v>
+        <v>21.2</v>
       </c>
       <c r="F5">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="G5">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="H5">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="I5">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="K5">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>80.3</v>
+        <v>79.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1863,87 +1881,87 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="C6">
-        <v>7.8</v>
+        <v>10.2</v>
       </c>
       <c r="D6">
-        <v>9.199999999999999</v>
+        <v>15.6</v>
       </c>
       <c r="E6">
-        <v>12.8</v>
+        <v>16.1</v>
       </c>
       <c r="F6">
-        <v>14.2</v>
+        <v>17.3</v>
       </c>
       <c r="G6">
-        <v>14.7</v>
+        <v>13.1</v>
       </c>
       <c r="H6">
-        <v>13.3</v>
+        <v>9.6</v>
       </c>
       <c r="I6">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="J6">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="K6">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="M6">
         <v>0.5</v>
       </c>
       <c r="N6">
-        <v>63.6</v>
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>4.7</v>
       </c>
       <c r="E7">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="F7">
-        <v>13.2</v>
+        <v>14.6</v>
       </c>
       <c r="G7">
-        <v>14.8</v>
+        <v>15.6</v>
       </c>
       <c r="H7">
-        <v>12.6</v>
+        <v>15.8</v>
       </c>
       <c r="I7">
-        <v>10.5</v>
+        <v>11.8</v>
       </c>
       <c r="J7">
-        <v>8.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="K7">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="L7">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="M7">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="N7">
-        <v>59.1</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1951,224 +1969,224 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="D8">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="F8">
-        <v>13.3</v>
+        <v>12.8</v>
       </c>
       <c r="G8">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="H8">
-        <v>12.1</v>
+        <v>14.3</v>
       </c>
       <c r="I8">
-        <v>12.2</v>
+        <v>14.1</v>
       </c>
       <c r="J8">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>58.4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="D9">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="E9">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="F9">
-        <v>6.1</v>
+        <v>9.6</v>
       </c>
       <c r="G9">
+        <v>11.2</v>
+      </c>
+      <c r="H9">
+        <v>14.1</v>
+      </c>
+      <c r="I9">
+        <v>14.9</v>
+      </c>
+      <c r="J9">
+        <v>12.5</v>
+      </c>
+      <c r="K9">
+        <v>11.4</v>
+      </c>
+      <c r="L9">
         <v>8.6</v>
       </c>
-      <c r="H9">
-        <v>14.6</v>
-      </c>
-      <c r="I9">
-        <v>15.7</v>
-      </c>
-      <c r="J9">
-        <v>17.9</v>
-      </c>
-      <c r="K9">
-        <v>14.4</v>
-      </c>
-      <c r="L9">
-        <v>9.9</v>
-      </c>
       <c r="M9">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="N9">
-        <v>23.1</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>18.6</v>
+        <v>13.2</v>
       </c>
       <c r="J10">
-        <v>19.6</v>
+        <v>15.7</v>
       </c>
       <c r="K10">
         <v>16.9</v>
       </c>
       <c r="L10">
-        <v>11.2</v>
+        <v>15.4</v>
       </c>
       <c r="M10">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="N10">
-        <v>16.3</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
         <v>0.4</v>
       </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.8</v>
-      </c>
-      <c r="E11">
-        <v>1.9</v>
-      </c>
       <c r="F11">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="G11">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="H11">
-        <v>10.5</v>
+        <v>6.7</v>
       </c>
       <c r="I11">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="J11">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="K11">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>10.8</v>
+        <v>18.2</v>
       </c>
       <c r="N11">
-        <v>13.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="G12">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H12">
-        <v>2.1</v>
+        <v>5.9</v>
       </c>
       <c r="I12">
-        <v>5.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J12">
-        <v>12.4</v>
+        <v>14.1</v>
       </c>
       <c r="K12">
-        <v>18.5</v>
+        <v>17.1</v>
       </c>
       <c r="L12">
-        <v>27.7</v>
+        <v>21.9</v>
       </c>
       <c r="M12">
-        <v>31.6</v>
+        <v>25.7</v>
       </c>
       <c r="N12">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2177,37 +2195,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
         <v>0.3</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H13">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="I13">
-        <v>4.3</v>
+        <v>7.1</v>
       </c>
       <c r="J13">
-        <v>7.8</v>
+        <v>12.8</v>
       </c>
       <c r="K13">
-        <v>13.7</v>
+        <v>16.5</v>
       </c>
       <c r="L13">
-        <v>26.4</v>
+        <v>24.9</v>
       </c>
       <c r="M13">
-        <v>43.9</v>
+        <v>32.6</v>
       </c>
       <c r="N13">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -2225,28 +2243,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2254,103 +2272,103 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>145.6</v>
+        <v>150.265</v>
       </c>
       <c r="E2">
-        <v>436.8</v>
+        <v>601.0599999999999</v>
       </c>
       <c r="F2">
-        <v>97.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>132.9933333333333</v>
+        <v>145.775</v>
       </c>
       <c r="E3">
-        <v>398.98</v>
+        <v>583.1</v>
       </c>
       <c r="F3">
-        <v>92.5</v>
+        <v>98.7</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>135.9933333333333</v>
+        <v>134.62</v>
       </c>
       <c r="E4">
-        <v>407.98</v>
+        <v>538.48</v>
       </c>
       <c r="F4">
-        <v>91.8</v>
+        <v>85.3</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>135.12</v>
+        <v>128.04</v>
       </c>
       <c r="E5">
-        <v>405.36</v>
+        <v>512.1600000000001</v>
       </c>
       <c r="F5">
-        <v>80.30000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2358,51 +2376,51 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D6">
-        <v>129.7666666666667</v>
+        <v>130.63</v>
       </c>
       <c r="E6">
-        <v>389.3</v>
+        <v>522.52</v>
       </c>
       <c r="F6">
-        <v>63.6</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>127.6933333333333</v>
+        <v>125.78</v>
       </c>
       <c r="E7">
-        <v>383.08</v>
+        <v>503.12</v>
       </c>
       <c r="F7">
-        <v>59.09999999999999</v>
+        <v>48.9</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2410,155 +2428,155 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>126.6666666666667</v>
+        <v>124.84</v>
       </c>
       <c r="E8">
-        <v>380.0000000000001</v>
+        <v>499.3600000000001</v>
       </c>
       <c r="F8">
-        <v>58.4</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>120.88</v>
+        <v>120.665</v>
       </c>
       <c r="E9">
-        <v>362.64</v>
+        <v>482.66</v>
       </c>
       <c r="F9">
-        <v>23.1</v>
+        <v>34.3</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>124.2933333333333</v>
+        <v>125.56</v>
       </c>
       <c r="E10">
-        <v>372.88</v>
+        <v>502.24</v>
       </c>
       <c r="F10">
-        <v>16.3</v>
+        <v>13.8</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>119.2</v>
+        <v>122.745</v>
       </c>
       <c r="E11">
-        <v>357.6</v>
+        <v>490.98</v>
       </c>
       <c r="F11">
-        <v>13.7</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>113.5866666666667</v>
+        <v>111.825</v>
       </c>
       <c r="E12">
-        <v>340.76</v>
+        <v>447.3</v>
       </c>
       <c r="F12">
-        <v>2.3</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>103.2066666666667</v>
+        <v>112.99</v>
       </c>
       <c r="E13">
-        <v>309.62</v>
+        <v>451.96</v>
       </c>
       <c r="F13">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2576,19 +2594,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2596,19 +2614,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2616,19 +2634,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2639,16 +2657,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2656,19 +2674,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2679,16 +2697,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2696,10 +2714,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2708,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2716,19 +2734,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2736,19 +2754,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2756,19 +2774,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2776,19 +2794,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2796,19 +2814,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2816,19 +2834,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2838,61 +2856,70 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2905,28 +2932,34 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="C5">
+        <v>-7</v>
+      </c>
+      <c r="D5">
+        <v>-6</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2939,127 +2972,151 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>-8</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="C9">
         <v>-2</v>
       </c>
-      <c r="C8">
+      <c r="D9">
+        <v>-8</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>-1</v>
       </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="D11">
         <v>-1</v>
       </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="E11">
+        <v>-4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12">
+        <v>-5</v>
+      </c>
+      <c r="E12">
+        <v>-10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>-2</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>-2</v>
       </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>-5</v>
-      </c>
-      <c r="D11">
-        <v>-5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>-4</v>
-      </c>
-      <c r="C12">
-        <v>-7</v>
-      </c>
-      <c r="D12">
-        <v>-6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>-2</v>
-      </c>
-      <c r="D13">
-        <v>-8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>85</v>
+      <c r="E13">
+        <v>-11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3069,7 +3126,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3077,25 +3134,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3106,22 +3163,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3132,22 +3189,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3181,25 +3238,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="F5">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3207,25 +3264,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3233,24 +3290,76 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>7</v>
       </c>
       <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="103">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -152,12 +152,12 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
+    <t>4-0</t>
+  </si>
+  <si>
     <t>3-1</t>
   </si>
   <si>
-    <t>4-0</t>
-  </si>
-  <si>
     <t>2-2</t>
   </si>
   <si>
@@ -167,34 +167,40 @@
     <t>1-3</t>
   </si>
   <si>
-    <t>10.9-4.1</t>
-  </si>
-  <si>
-    <t>9.0-6.0</t>
-  </si>
-  <si>
-    <t>8.8-6.2</t>
-  </si>
-  <si>
-    <t>8.6-6.4</t>
-  </si>
-  <si>
-    <t>7.3-7.7</t>
-  </si>
-  <si>
-    <t>6.9-8.1</t>
-  </si>
-  <si>
-    <t>5.4-9.6</t>
-  </si>
-  <si>
-    <t>5.0-9.9</t>
-  </si>
-  <si>
-    <t>5.2-9.8</t>
-  </si>
-  <si>
-    <t>4.7-10.3</t>
+    <t>11.0-3.9-0.1</t>
+  </si>
+  <si>
+    <t>10.8-4.1-0.1</t>
+  </si>
+  <si>
+    <t>9.0-5.9-0.1</t>
+  </si>
+  <si>
+    <t>8.7-6.2-0.1</t>
+  </si>
+  <si>
+    <t>8.5-6.4-0.1</t>
+  </si>
+  <si>
+    <t>7.3-7.6-0.1</t>
+  </si>
+  <si>
+    <t>7.2-7.7-0.1</t>
+  </si>
+  <si>
+    <t>6.9-8.0-0.1</t>
+  </si>
+  <si>
+    <t>5.3-9.6-0.1</t>
+  </si>
+  <si>
+    <t>5.2-9.7-0.1</t>
+  </si>
+  <si>
+    <t>5.0-9.9-0.1</t>
+  </si>
+  <si>
+    <t>4.5-10.4-0.1</t>
   </si>
   <si>
     <t>11-4</t>
@@ -210,9 +216,6 @@
   </si>
   <si>
     <t>5-10</t>
-  </si>
-  <si>
-    <t>4-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -1702,34 +1705,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>45.8</v>
+        <v>42.7</v>
       </c>
       <c r="C2">
-        <v>30.1</v>
+        <v>31.4</v>
       </c>
       <c r="D2">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="E2">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="F2">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="G2">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1741,39 +1744,39 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>38.8</v>
+        <v>42.2</v>
       </c>
       <c r="C3">
-        <v>32.8</v>
+        <v>30.2</v>
       </c>
       <c r="D3">
-        <v>14.3</v>
+        <v>15.6</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I3">
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1793,43 +1796,43 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="C4">
-        <v>12.4</v>
+        <v>13.6</v>
       </c>
       <c r="D4">
-        <v>22.4</v>
+        <v>22.9</v>
       </c>
       <c r="E4">
-        <v>20.2</v>
+        <v>19.6</v>
       </c>
       <c r="F4">
-        <v>13.6</v>
+        <v>15.1</v>
       </c>
       <c r="G4">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="I4">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="J4">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K4">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0.1</v>
-      </c>
       <c r="N4">
-        <v>85.3</v>
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1837,43 +1840,43 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D5">
-        <v>16.2</v>
+        <v>17.9</v>
       </c>
       <c r="E5">
-        <v>21.2</v>
+        <v>17.7</v>
       </c>
       <c r="F5">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="G5">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="H5">
-        <v>10.8</v>
+        <v>9.1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="J5">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>79.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1881,40 +1884,40 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="C6">
-        <v>10.2</v>
+        <v>9.6</v>
       </c>
       <c r="D6">
-        <v>15.6</v>
+        <v>13.8</v>
       </c>
       <c r="E6">
-        <v>16.1</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="G6">
-        <v>13.1</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="I6">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="J6">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
         <v>76.40000000000001</v>
@@ -1922,90 +1925,90 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D7">
         <v>4.7</v>
       </c>
       <c r="E7">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F7">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="G7">
-        <v>15.6</v>
+        <v>12.9</v>
       </c>
       <c r="H7">
-        <v>15.8</v>
+        <v>17.2</v>
       </c>
       <c r="I7">
-        <v>11.8</v>
+        <v>13.7</v>
       </c>
       <c r="J7">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="K7">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="L7">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="M7">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>48.9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="D8">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="E8">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="F8">
-        <v>12.8</v>
+        <v>11.2</v>
       </c>
       <c r="G8">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="H8">
-        <v>14.3</v>
+        <v>16.7</v>
       </c>
       <c r="I8">
-        <v>14.1</v>
+        <v>16.1</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>10.2</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N8">
-        <v>47</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2013,43 +2016,43 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="E9">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="F9">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G9">
-        <v>11.2</v>
+        <v>14.4</v>
       </c>
       <c r="H9">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="I9">
-        <v>14.9</v>
+        <v>13.4</v>
       </c>
       <c r="J9">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K9">
-        <v>11.4</v>
+        <v>8.4</v>
       </c>
       <c r="L9">
         <v>8.6</v>
       </c>
       <c r="M9">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="N9">
-        <v>34.3</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2060,45 +2063,45 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F10">
         <v>4.1</v>
       </c>
       <c r="G10">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="I10">
-        <v>13.2</v>
+        <v>11.3</v>
       </c>
       <c r="J10">
-        <v>15.7</v>
+        <v>16.4</v>
       </c>
       <c r="K10">
-        <v>16.9</v>
+        <v>18.8</v>
       </c>
       <c r="L10">
-        <v>15.4</v>
+        <v>17.4</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="N10">
-        <v>13.8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2110,78 +2113,78 @@
         <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="F11">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G11">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H11">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>13.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="K11">
-        <v>17.5</v>
+        <v>19.1</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="M11">
-        <v>18.2</v>
+        <v>22.6</v>
       </c>
       <c r="N11">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
         <v>0.3</v>
       </c>
       <c r="E12">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="F12">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>5.9</v>
+        <v>8.4</v>
       </c>
       <c r="I12">
-        <v>8.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="J12">
-        <v>14.1</v>
+        <v>15.7</v>
       </c>
       <c r="K12">
-        <v>17.1</v>
+        <v>19.8</v>
       </c>
       <c r="L12">
-        <v>21.9</v>
+        <v>18.8</v>
       </c>
       <c r="M12">
-        <v>25.7</v>
+        <v>18</v>
       </c>
       <c r="N12">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2192,40 +2195,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="G13">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H13">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>12.8</v>
+        <v>11.9</v>
       </c>
       <c r="K13">
-        <v>16.5</v>
+        <v>15.4</v>
       </c>
       <c r="L13">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="M13">
-        <v>32.6</v>
+        <v>36.3</v>
       </c>
       <c r="N13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -2269,54 +2272,54 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>150.265</v>
+        <v>145.775</v>
       </c>
       <c r="E2">
-        <v>601.0599999999999</v>
+        <v>583.1</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>145.775</v>
+        <v>150.265</v>
       </c>
       <c r="E3">
-        <v>583.1</v>
+        <v>601.0599999999999</v>
       </c>
       <c r="F3">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2324,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>0.75</v>
@@ -2336,13 +2339,13 @@
         <v>538.48</v>
       </c>
       <c r="F4">
-        <v>85.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2350,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>0.75</v>
@@ -2362,13 +2365,13 @@
         <v>512.1600000000001</v>
       </c>
       <c r="F5">
-        <v>79.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2376,7 +2379,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0.75</v>
@@ -2391,15 +2394,15 @@
         <v>76.40000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -2408,24 +2411,24 @@
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>125.78</v>
+        <v>124.84</v>
       </c>
       <c r="E7">
-        <v>503.12</v>
+        <v>499.3600000000001</v>
       </c>
       <c r="F7">
-        <v>48.9</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -2434,19 +2437,19 @@
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>124.84</v>
+        <v>125.78</v>
       </c>
       <c r="E8">
-        <v>499.3600000000001</v>
+        <v>503.12</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>44.7</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2466,13 +2469,13 @@
         <v>482.66</v>
       </c>
       <c r="F9">
-        <v>34.3</v>
+        <v>38.4</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2492,65 +2495,65 @@
         <v>502.24</v>
       </c>
       <c r="F10">
-        <v>13.8</v>
+        <v>13.1</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>122.745</v>
+        <v>111.825</v>
       </c>
       <c r="E11">
-        <v>490.98</v>
+        <v>447.3</v>
       </c>
       <c r="F11">
-        <v>7.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>111.825</v>
+        <v>122.745</v>
       </c>
       <c r="E12">
-        <v>447.3</v>
+        <v>490.98</v>
       </c>
       <c r="F12">
-        <v>6.600000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2570,13 +2573,13 @@
         <v>451.96</v>
       </c>
       <c r="F13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2597,16 +2600,16 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2617,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -2626,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2637,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -2646,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2657,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -2666,7 +2669,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2677,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2686,7 +2689,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2697,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2706,7 +2709,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2717,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2726,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2737,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2746,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2757,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>-3</v>
@@ -2766,7 +2769,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2777,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>-4</v>
@@ -2786,7 +2789,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2797,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>-4</v>
@@ -2806,7 +2809,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2817,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>-10</v>
@@ -2826,7 +2829,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2837,7 +2840,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>-11</v>
@@ -2846,7 +2849,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2864,19 +2867,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2896,7 +2899,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2916,7 +2919,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2936,7 +2939,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2956,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2976,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2996,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3016,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3036,7 +3039,7 @@
         <v>-3</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3056,7 +3059,7 @@
         <v>-4</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3076,7 +3079,7 @@
         <v>-4</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3096,7 +3099,7 @@
         <v>-10</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3116,7 +3119,7 @@
         <v>-11</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3134,25 +3137,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="107">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -59,19 +59,22 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -152,58 +155,64 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>11.0-3.9-0.1</t>
-  </si>
-  <si>
-    <t>10.8-4.1-0.1</t>
-  </si>
-  <si>
-    <t>9.0-5.9-0.1</t>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>11.3-3.6-0.1</t>
+  </si>
+  <si>
+    <t>9.7-5.2-0.1</t>
+  </si>
+  <si>
+    <t>9.6-5.3-0.1</t>
+  </si>
+  <si>
+    <t>9.1-5.8-0.1</t>
   </si>
   <si>
     <t>8.7-6.2-0.1</t>
   </si>
   <si>
-    <t>8.5-6.4-0.1</t>
-  </si>
-  <si>
-    <t>7.3-7.6-0.1</t>
-  </si>
-  <si>
-    <t>7.2-7.7-0.1</t>
-  </si>
-  <si>
-    <t>6.9-8.0-0.1</t>
-  </si>
-  <si>
-    <t>5.3-9.6-0.1</t>
-  </si>
-  <si>
-    <t>5.2-9.7-0.1</t>
-  </si>
-  <si>
-    <t>5.0-9.9-0.1</t>
-  </si>
-  <si>
-    <t>4.5-10.4-0.1</t>
-  </si>
-  <si>
-    <t>11-4</t>
+    <t>8.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.8-8.2-0.1</t>
+  </si>
+  <si>
+    <t>6.4-8.5-0.1</t>
+  </si>
+  <si>
+    <t>6.0-8.9-0.1</t>
+  </si>
+  <si>
+    <t>4.9-10.1-0.1</t>
+  </si>
+  <si>
+    <t>4.7-10.3-0.1</t>
+  </si>
+  <si>
+    <t>4.4-10.5-0.1</t>
+  </si>
+  <si>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>10-5</t>
   </si>
   <si>
     <t>9-6</t>
@@ -215,9 +224,15 @@
     <t>7-8</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>5-10</t>
   </si>
   <si>
+    <t>4-11</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -230,16 +245,22 @@
     <t>Chungfu Yang</t>
   </si>
   <si>
+    <t>Dave Linton</t>
+  </si>
+  <si>
     <t>Jessica Stratton</t>
   </si>
   <si>
+    <t>Garrett Sullivan</t>
+  </si>
+  <si>
     <t>Robert Schottler</t>
   </si>
   <si>
     <t>Justin Fox</t>
   </si>
   <si>
-    <t>Garrett Sullivan</t>
+    <t>Dale Goodwin</t>
   </si>
   <si>
     <t>Hannah Davis</t>
@@ -248,57 +269,45 @@
     <t>Roy Armbruster</t>
   </si>
   <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
     <t>Jeffrey Laidacker</t>
   </si>
   <si>
-    <t>Dave Linton</t>
-  </si>
-  <si>
-    <t>Matthew Graesser</t>
-  </si>
-  <si>
-    <t>Dale Goodwin</t>
-  </si>
-  <si>
     <t>Daniel Tracey</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↑8</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -309,6 +318,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -742,34 +754,34 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -783,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -795,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -824,34 +836,34 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -865,10 +877,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -883,10 +895,10 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -900,40 +912,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -947,7 +959,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -968,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
@@ -988,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1000,22 +1012,22 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1070,16 +1082,16 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1088,16 +1100,16 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1108,37 +1120,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1152,34 +1164,34 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1193,10 +1205,10 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1211,16 +1223,16 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1238,13 +1250,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1252,13 +1264,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1266,13 +1278,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1280,13 +1292,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1.583333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1294,10 +1306,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.666666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1308,10 +1320,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1322,13 +1334,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1.916666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1336,13 +1348,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1350,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1364,13 +1376,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1378,13 +1390,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2.583333333333333</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1395,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.583333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1409,10 +1421,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2.916666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1430,16 +1442,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1450,13 +1462,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.25</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.75</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1481,16 +1493,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>-0.6666666666666665</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1498,16 +1510,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2.25</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.75</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1515,16 +1527,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.083333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D6">
-        <v>0.08333333333333348</v>
+        <v>-1.25</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1532,16 +1544,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.75</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D7">
-        <v>-1.25</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1552,13 +1564,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1566,16 +1578,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D9">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1583,16 +1595,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>-0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1603,13 +1615,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1617,16 +1629,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>1.333333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D12">
-        <v>0.3333333333333333</v>
+        <v>-0.08333333333333326</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1634,13 +1646,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1661,46 +1673,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1708,31 +1720,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>42.7</v>
+        <v>58.7</v>
       </c>
       <c r="C2">
-        <v>31.4</v>
+        <v>19.2</v>
       </c>
       <c r="D2">
-        <v>12.1</v>
+        <v>9.9</v>
       </c>
       <c r="E2">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="G2">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
         <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1744,39 +1756,39 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>98.59999999999999</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>42.2</v>
+        <v>11.8</v>
       </c>
       <c r="C3">
-        <v>30.2</v>
+        <v>22.6</v>
       </c>
       <c r="D3">
-        <v>15.6</v>
+        <v>23.1</v>
       </c>
       <c r="E3">
-        <v>6.5</v>
+        <v>18.2</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>10.9</v>
       </c>
       <c r="G3">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="H3">
+        <v>3.2</v>
+      </c>
+      <c r="I3">
+        <v>1.9</v>
+      </c>
+      <c r="J3">
         <v>0.7</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>0.2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1788,39 +1800,39 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.59999999999999</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4.8</v>
+        <v>12.1</v>
       </c>
       <c r="C4">
-        <v>13.6</v>
+        <v>20.4</v>
       </c>
       <c r="D4">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="E4">
-        <v>19.6</v>
+        <v>16.5</v>
       </c>
       <c r="F4">
-        <v>15.1</v>
+        <v>11.5</v>
       </c>
       <c r="G4">
-        <v>10.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H4">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="I4">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0.6</v>
@@ -1832,95 +1844,95 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>86.90000000000001</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C5">
-        <v>8.800000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="D5">
-        <v>17.9</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>17.7</v>
+        <v>20.6</v>
       </c>
       <c r="F5">
-        <v>16.6</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="H5">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I5">
-        <v>6.1</v>
+        <v>4.2</v>
       </c>
       <c r="J5">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>79.40000000000001</v>
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="C6">
-        <v>9.6</v>
+        <v>17.2</v>
       </c>
       <c r="D6">
-        <v>13.8</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>15.7</v>
       </c>
       <c r="F6">
-        <v>17.1</v>
+        <v>15.8</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="H6">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
-        <v>6.7</v>
+        <v>4.6</v>
       </c>
       <c r="J6">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
-        <v>76.40000000000001</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1928,219 +1940,219 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="C7">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="D7">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="E7">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F7">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="G7">
-        <v>12.9</v>
+        <v>19.5</v>
       </c>
       <c r="H7">
-        <v>17.2</v>
+        <v>14.9</v>
       </c>
       <c r="I7">
-        <v>13.7</v>
+        <v>10.5</v>
       </c>
       <c r="J7">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
-        <v>46</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="D8">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="E8">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="F8">
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>15.4</v>
+        <v>11.1</v>
       </c>
       <c r="H8">
-        <v>16.7</v>
+        <v>17.9</v>
       </c>
       <c r="I8">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="J8">
-        <v>10.2</v>
+        <v>12.6</v>
       </c>
       <c r="K8">
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="L8">
+        <v>7.1</v>
+      </c>
+      <c r="M8">
         <v>3.8</v>
       </c>
-      <c r="M8">
-        <v>1.8</v>
-      </c>
       <c r="N8">
-        <v>44.7</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>7.4</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>9.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="G9">
-        <v>14.4</v>
+        <v>10.7</v>
       </c>
       <c r="H9">
-        <v>13.5</v>
+        <v>15.4</v>
       </c>
       <c r="I9">
-        <v>13.4</v>
+        <v>18.5</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>15.7</v>
       </c>
       <c r="K9">
-        <v>8.4</v>
+        <v>13.8</v>
       </c>
       <c r="L9">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="N9">
-        <v>38.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E10">
         <v>1.7</v>
       </c>
       <c r="F10">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10">
+        <v>12.2</v>
+      </c>
+      <c r="I10">
+        <v>16.7</v>
+      </c>
+      <c r="J10">
+        <v>19.1</v>
+      </c>
+      <c r="K10">
+        <v>15.6</v>
+      </c>
+      <c r="L10">
+        <v>13.4</v>
+      </c>
+      <c r="M10">
         <v>8.5</v>
       </c>
-      <c r="I10">
-        <v>11.3</v>
-      </c>
-      <c r="J10">
-        <v>16.4</v>
-      </c>
-      <c r="K10">
-        <v>18.8</v>
-      </c>
-      <c r="L10">
-        <v>17.4</v>
-      </c>
-      <c r="M10">
+      <c r="N10">
         <v>14.5</v>
-      </c>
-      <c r="N10">
-        <v>13.1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="I11">
-        <v>9.800000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="K11">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="L11">
-        <v>19.8</v>
+        <v>17</v>
       </c>
       <c r="M11">
         <v>22.6</v>
       </c>
       <c r="N11">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2151,84 +2163,84 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="I12">
-        <v>11.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J12">
         <v>15.7</v>
       </c>
       <c r="K12">
-        <v>19.8</v>
+        <v>18.3</v>
       </c>
       <c r="L12">
-        <v>18.8</v>
+        <v>25.7</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>21.8</v>
       </c>
       <c r="N12">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.1</v>
-      </c>
-      <c r="D13">
-        <v>0.2</v>
-      </c>
-      <c r="E13">
-        <v>0.2</v>
       </c>
       <c r="F13">
         <v>0.8</v>
       </c>
       <c r="G13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H13">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J13">
-        <v>11.9</v>
+        <v>9.6</v>
       </c>
       <c r="K13">
-        <v>15.4</v>
+        <v>16.8</v>
       </c>
       <c r="L13">
-        <v>24.6</v>
+        <v>25.8</v>
       </c>
       <c r="M13">
-        <v>36.3</v>
+        <v>38.2</v>
       </c>
       <c r="N13">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -2246,28 +2258,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2275,129 +2287,129 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>145.775</v>
+        <v>145.524</v>
       </c>
       <c r="E2">
-        <v>583.1</v>
+        <v>727.62</v>
       </c>
       <c r="F2">
-        <v>98.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>150.265</v>
+        <v>136.744</v>
       </c>
       <c r="E3">
-        <v>601.0599999999999</v>
+        <v>683.72</v>
       </c>
       <c r="F3">
-        <v>98.59999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>134.62</v>
+        <v>134.664</v>
       </c>
       <c r="E4">
-        <v>538.48</v>
+        <v>673.3200000000001</v>
       </c>
       <c r="F4">
-        <v>86.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>128.04</v>
+        <v>132.712</v>
       </c>
       <c r="E5">
-        <v>512.1600000000001</v>
+        <v>663.5599999999999</v>
       </c>
       <c r="F5">
-        <v>79.40000000000001</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>130.63</v>
+        <v>140.096</v>
       </c>
       <c r="E6">
-        <v>522.52</v>
+        <v>700.4799999999999</v>
       </c>
       <c r="F6">
-        <v>76.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2405,129 +2417,129 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>124.84</v>
+        <v>127.524</v>
       </c>
       <c r="E7">
-        <v>499.3600000000001</v>
+        <v>637.6200000000001</v>
       </c>
       <c r="F7">
-        <v>46</v>
+        <v>61.8</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>125.78</v>
+        <v>126.088</v>
       </c>
       <c r="E8">
-        <v>503.12</v>
+        <v>630.4400000000001</v>
       </c>
       <c r="F8">
-        <v>44.7</v>
+        <v>32.2</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>120.665</v>
+        <v>122.52</v>
       </c>
       <c r="E9">
-        <v>482.66</v>
+        <v>612.6</v>
       </c>
       <c r="F9">
-        <v>38.4</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>125.56</v>
+        <v>120.112</v>
       </c>
       <c r="E10">
-        <v>502.24</v>
+        <v>600.5599999999999</v>
       </c>
       <c r="F10">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>111.825</v>
+        <v>125.204</v>
       </c>
       <c r="E11">
-        <v>447.3</v>
+        <v>626.02</v>
       </c>
       <c r="F11">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2535,51 +2547,51 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>122.745</v>
+        <v>123.92</v>
       </c>
       <c r="E12">
-        <v>490.98</v>
+        <v>619.6</v>
       </c>
       <c r="F12">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>112.99</v>
+        <v>111.248</v>
       </c>
       <c r="E13">
-        <v>451.96</v>
+        <v>556.24</v>
       </c>
       <c r="F13">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2597,19 +2609,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2620,16 +2632,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2637,19 +2649,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2657,19 +2669,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2677,19 +2689,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2697,19 +2709,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2717,19 +2729,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2737,19 +2749,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2757,19 +2769,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2777,19 +2789,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2800,16 +2812,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2817,19 +2829,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2840,16 +2852,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D13">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2859,30 +2871,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2898,171 +2913,198 @@
       <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>-1</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>-4</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>-7</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>-6</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8">
+        <v>-5</v>
+      </c>
+      <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>-1</v>
       </c>
-      <c r="C6">
-        <v>-4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-8</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-8</v>
-      </c>
-      <c r="D8">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <v>-8</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3078,31 +3120,37 @@
       <c r="E11">
         <v>-4</v>
       </c>
-      <c r="F11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D12">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E12">
-        <v>-10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-3</v>
+      </c>
+      <c r="F12">
+        <v>-4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3118,8 +3166,11 @@
       <c r="E13">
         <v>-11</v>
       </c>
-      <c r="F13" t="s">
-        <v>91</v>
+      <c r="F13">
+        <v>-10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3129,7 +3180,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3137,25 +3188,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3166,22 +3217,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3192,22 +3243,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3267,25 +3318,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F6">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3293,22 +3344,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
       <c r="G7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -3319,25 +3370,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
         <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3345,25 +3396,181 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H14" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="112">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -134,6 +135,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -173,22 +192,19 @@
     <t>1-4</t>
   </si>
   <si>
-    <t>11.3-3.6-0.1</t>
+    <t>11.4-3.6-0.1</t>
   </si>
   <si>
     <t>9.7-5.2-0.1</t>
   </si>
   <si>
-    <t>9.6-5.3-0.1</t>
-  </si>
-  <si>
     <t>9.1-5.8-0.1</t>
   </si>
   <si>
-    <t>8.7-6.2-0.1</t>
-  </si>
-  <si>
-    <t>8.0-6.9-0.1</t>
+    <t>8.8-6.1-0.1</t>
+  </si>
+  <si>
+    <t>7.9-7.1-0.1</t>
   </si>
   <si>
     <t>6.8-8.2-0.1</t>
@@ -200,13 +216,13 @@
     <t>6.0-8.9-0.1</t>
   </si>
   <si>
-    <t>4.9-10.1-0.1</t>
-  </si>
-  <si>
-    <t>4.7-10.3-0.1</t>
-  </si>
-  <si>
-    <t>4.4-10.5-0.1</t>
+    <t>4.8-10.2-0.1</t>
+  </si>
+  <si>
+    <t>4.6-10.3-0.1</t>
+  </si>
+  <si>
+    <t>4.5-10.5-0.1</t>
   </si>
   <si>
     <t>12-3</t>
@@ -1720,31 +1736,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>58.7</v>
+        <v>59.2</v>
       </c>
       <c r="C2">
-        <v>19.2</v>
+        <v>20.9</v>
       </c>
       <c r="D2">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="E2">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="F2">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="G2">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
+        <v>0.2</v>
+      </c>
+      <c r="J2">
         <v>0.1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1756,86 +1772,86 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="C3">
-        <v>22.6</v>
+        <v>18.3</v>
       </c>
       <c r="D3">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="E3">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="F3">
-        <v>10.9</v>
+        <v>12.4</v>
       </c>
       <c r="G3">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="H3">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I3">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="J3">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>94.2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>20.4</v>
+        <v>22.7</v>
       </c>
       <c r="D4">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="E4">
         <v>16.5</v>
       </c>
       <c r="F4">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="G4">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H4">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
         <v>0.2</v>
@@ -1844,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>91.7</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1852,34 +1868,34 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C5">
-        <v>12.4</v>
+        <v>15.1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>15.4</v>
       </c>
       <c r="E5">
-        <v>20.6</v>
+        <v>18.2</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="G5">
-        <v>11.1</v>
+        <v>12.3</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="I5">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
         <v>0.2</v>
@@ -1888,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>84.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1896,34 +1912,34 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="C6">
-        <v>17.2</v>
+        <v>16.4</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E6">
-        <v>15.7</v>
+        <v>17.7</v>
       </c>
       <c r="F6">
-        <v>15.8</v>
+        <v>17.3</v>
       </c>
       <c r="G6">
-        <v>13.4</v>
+        <v>11.9</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="I6">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J6">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
         <v>0.3</v>
@@ -1932,7 +1948,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>82.8</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1940,43 +1956,43 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="D7">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>11.5</v>
+        <v>10.8</v>
       </c>
       <c r="F7">
-        <v>15.6</v>
+        <v>17.1</v>
       </c>
       <c r="G7">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="H7">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="I7">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="K7">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L7">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>61.8</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1987,40 +2003,40 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="E8">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G8">
-        <v>11.1</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>17.9</v>
+        <v>16.6</v>
       </c>
       <c r="I8">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="J8">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L8">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="M8">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N8">
-        <v>32.2</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2028,43 +2044,43 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F9">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="G9">
-        <v>10.7</v>
+        <v>11.7</v>
       </c>
       <c r="H9">
-        <v>15.4</v>
+        <v>16.3</v>
       </c>
       <c r="I9">
-        <v>18.5</v>
+        <v>17.6</v>
       </c>
       <c r="J9">
-        <v>15.7</v>
+        <v>16.4</v>
       </c>
       <c r="K9">
-        <v>13.8</v>
+        <v>12.7</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="M9">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="N9">
-        <v>24</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2075,40 +2091,40 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="F10">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="H10">
-        <v>12.2</v>
+        <v>11.3</v>
       </c>
       <c r="I10">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
       <c r="J10">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="K10">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="L10">
-        <v>13.4</v>
+        <v>14.6</v>
       </c>
       <c r="M10">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
       <c r="N10">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2119,40 +2135,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G11">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H11">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="I11">
-        <v>11.2</v>
+        <v>9.5</v>
       </c>
       <c r="J11">
-        <v>14.7</v>
+        <v>15.8</v>
       </c>
       <c r="K11">
-        <v>18.9</v>
+        <v>18.3</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>23.6</v>
       </c>
       <c r="M11">
-        <v>22.6</v>
+        <v>20.4</v>
       </c>
       <c r="N11">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2163,40 +2179,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H12">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="I12">
-        <v>9.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="J12">
-        <v>15.7</v>
+        <v>13.7</v>
       </c>
       <c r="K12">
-        <v>18.3</v>
+        <v>20.5</v>
       </c>
       <c r="L12">
-        <v>25.7</v>
+        <v>20.4</v>
       </c>
       <c r="M12">
-        <v>21.8</v>
+        <v>25.5</v>
       </c>
       <c r="N12">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2204,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2216,31 +2232,31 @@
         <v>0.1</v>
       </c>
       <c r="F13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H13">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>9.6</v>
+        <v>10.6</v>
       </c>
       <c r="K13">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
       <c r="L13">
-        <v>25.8</v>
+        <v>22.1</v>
       </c>
       <c r="M13">
-        <v>38.2</v>
+        <v>38.7</v>
       </c>
       <c r="N13">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
@@ -2249,6 +2265,315 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="C2">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D2">
+        <v>90.5</v>
+      </c>
+      <c r="E2">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="F2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G2">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C3">
+        <v>70.3</v>
+      </c>
+      <c r="D3">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="E3">
+        <v>87.8</v>
+      </c>
+      <c r="F3">
+        <v>95.7</v>
+      </c>
+      <c r="G3">
+        <v>92.40000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>98.3</v>
+      </c>
+      <c r="C4">
+        <v>91.7</v>
+      </c>
+      <c r="D4">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="E4">
+        <v>77.3</v>
+      </c>
+      <c r="F4">
+        <v>90.8</v>
+      </c>
+      <c r="G4">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C5">
+        <v>37.6</v>
+      </c>
+      <c r="D5">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E5">
+        <v>77.10000000000001</v>
+      </c>
+      <c r="F5">
+        <v>86.5</v>
+      </c>
+      <c r="G5">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E6">
+        <v>99.3</v>
+      </c>
+      <c r="F6">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="G6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C7">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="D7">
+        <v>57.8</v>
+      </c>
+      <c r="E7">
+        <v>43.3</v>
+      </c>
+      <c r="F7">
+        <v>60.4</v>
+      </c>
+      <c r="G7">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>45.3</v>
+      </c>
+      <c r="D8">
+        <v>57.8</v>
+      </c>
+      <c r="E8">
+        <v>35.6</v>
+      </c>
+      <c r="F8">
+        <v>33.6</v>
+      </c>
+      <c r="G8">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4.2</v>
+      </c>
+      <c r="C9">
+        <v>30.1</v>
+      </c>
+      <c r="D9">
+        <v>22.5</v>
+      </c>
+      <c r="E9">
+        <v>48.1</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.4</v>
+      </c>
+      <c r="C10">
+        <v>8.9</v>
+      </c>
+      <c r="D10">
+        <v>1.6</v>
+      </c>
+      <c r="E10">
+        <v>3.4</v>
+      </c>
+      <c r="F10">
+        <v>15.6</v>
+      </c>
+      <c r="G10">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1.4</v>
+      </c>
+      <c r="C11">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="D11">
+        <v>13.2</v>
+      </c>
+      <c r="E11">
+        <v>15.4</v>
+      </c>
+      <c r="F11">
+        <v>7.6</v>
+      </c>
+      <c r="G11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C12">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D12">
+        <v>16.1</v>
+      </c>
+      <c r="E12">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>22.2</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>2.4</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+      <c r="G13">
+        <v>2.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -2261,25 +2586,25 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2287,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2299,65 +2624,65 @@
         <v>727.62</v>
       </c>
       <c r="F2">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0.8</v>
       </c>
       <c r="D3">
-        <v>136.744</v>
+        <v>134.664</v>
       </c>
       <c r="E3">
-        <v>683.72</v>
+        <v>673.3200000000001</v>
       </c>
       <c r="F3">
-        <v>94.19999999999999</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0.8</v>
       </c>
       <c r="D4">
-        <v>134.664</v>
+        <v>136.744</v>
       </c>
       <c r="E4">
-        <v>673.3200000000001</v>
+        <v>683.72</v>
       </c>
       <c r="F4">
-        <v>91.7</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2365,7 +2690,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0.8</v>
@@ -2377,13 +2702,13 @@
         <v>663.5599999999999</v>
       </c>
       <c r="F5">
-        <v>84.89999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2391,7 +2716,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -2403,13 +2728,13 @@
         <v>700.4799999999999</v>
       </c>
       <c r="F6">
-        <v>82.8</v>
+        <v>84.7</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2417,7 +2742,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0.6</v>
@@ -2429,13 +2754,13 @@
         <v>637.6200000000001</v>
       </c>
       <c r="F7">
-        <v>61.8</v>
+        <v>61.1</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2443,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -2455,13 +2780,13 @@
         <v>630.4400000000001</v>
       </c>
       <c r="F8">
-        <v>32.2</v>
+        <v>34.4</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2469,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>0.4</v>
@@ -2481,13 +2806,13 @@
         <v>612.6</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2495,7 +2820,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>0.4</v>
@@ -2507,13 +2832,13 @@
         <v>600.5599999999999</v>
       </c>
       <c r="F10">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2521,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2533,13 +2858,13 @@
         <v>626.02</v>
       </c>
       <c r="F11">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2547,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2559,13 +2884,13 @@
         <v>619.6</v>
       </c>
       <c r="F12">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2573,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>0.2</v>
@@ -2585,13 +2910,13 @@
         <v>556.24</v>
       </c>
       <c r="F13">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2612,16 +2937,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2632,7 +2957,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -2641,7 +2966,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2652,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2661,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2672,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2681,7 +3006,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2692,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -2701,7 +3026,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2712,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2721,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2732,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2741,7 +3066,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2752,7 +3077,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2761,7 +3086,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2772,7 +3097,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -2781,7 +3106,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2792,7 +3117,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -2801,7 +3126,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2812,7 +3137,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>-2</v>
@@ -2821,7 +3146,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2832,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>-4</v>
@@ -2841,7 +3166,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2852,7 +3177,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>-10</v>
@@ -2861,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -2879,22 +3204,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2917,7 +3242,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2940,7 +3265,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2963,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2986,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3009,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3032,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3055,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3078,7 +3403,7 @@
         <v>-1</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3101,7 +3426,7 @@
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3124,7 +3449,7 @@
         <v>-2</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3147,7 +3472,7 @@
         <v>-4</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3170,7 +3495,7 @@
         <v>-10</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -3188,25 +3513,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="110">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -60,22 +60,22 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -153,6 +153,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -174,66 +177,57 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-0</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>11.4-3.6-0.1</t>
-  </si>
-  <si>
-    <t>9.7-5.2-0.1</t>
-  </si>
-  <si>
-    <t>9.1-5.8-0.1</t>
-  </si>
-  <si>
-    <t>8.8-6.1-0.1</t>
-  </si>
-  <si>
-    <t>7.9-7.1-0.1</t>
-  </si>
-  <si>
-    <t>6.8-8.2-0.1</t>
-  </si>
-  <si>
-    <t>6.4-8.5-0.1</t>
-  </si>
-  <si>
-    <t>6.0-8.9-0.1</t>
-  </si>
-  <si>
-    <t>4.8-10.2-0.1</t>
-  </si>
-  <si>
-    <t>4.6-10.3-0.1</t>
-  </si>
-  <si>
-    <t>4.5-10.5-0.1</t>
-  </si>
-  <si>
-    <t>12-3</t>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>10.7-4.3-0.1</t>
+  </si>
+  <si>
+    <t>9.8-5.2-0.1</t>
+  </si>
+  <si>
+    <t>8.7-6.2-0.1</t>
+  </si>
+  <si>
+    <t>8.2-6.7-0.1</t>
+  </si>
+  <si>
+    <t>7.3-7.6-0.1</t>
+  </si>
+  <si>
+    <t>7.1-7.8-0.1</t>
+  </si>
+  <si>
+    <t>6.1-8.8-0.1</t>
+  </si>
+  <si>
+    <t>5.7-9.3-0.1</t>
+  </si>
+  <si>
+    <t>5.2-9.7-0.1</t>
+  </si>
+  <si>
+    <t>5.3-9.6-0.1</t>
+  </si>
+  <si>
+    <t>11-4</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
-    <t>9-6</t>
-  </si>
-  <si>
     <t>8-7</t>
   </si>
   <si>
@@ -246,9 +240,6 @@
     <t>5-10</t>
   </si>
   <si>
-    <t>4-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -261,67 +252,67 @@
     <t>Chungfu Yang</t>
   </si>
   <si>
+    <t>Justin Fox</t>
+  </si>
+  <si>
+    <t>Jessica Stratton</t>
+  </si>
+  <si>
+    <t>Robert Schottler</t>
+  </si>
+  <si>
+    <t>Roy Armbruster</t>
+  </si>
+  <si>
     <t>Dave Linton</t>
   </si>
   <si>
-    <t>Jessica Stratton</t>
-  </si>
-  <si>
     <t>Garrett Sullivan</t>
   </si>
   <si>
-    <t>Robert Schottler</t>
-  </si>
-  <si>
-    <t>Justin Fox</t>
+    <t>Daniel Tracey</t>
+  </si>
+  <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
+    <t>Hannah Davis</t>
   </si>
   <si>
     <t>Dale Goodwin</t>
   </si>
   <si>
-    <t>Hannah Davis</t>
-  </si>
-  <si>
-    <t>Roy Armbruster</t>
-  </si>
-  <si>
-    <t>Matthew Graesser</t>
-  </si>
-  <si>
     <t>Jeffrey Laidacker</t>
   </si>
   <si>
-    <t>Daniel Tracey</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑10</t>
+    <t>↑9</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -337,6 +328,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -767,25 +761,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -794,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -808,34 +802,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -858,10 +852,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -870,16 +864,16 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -887,28 +881,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -920,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -928,19 +922,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -949,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -969,25 +963,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -996,13 +990,13 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1010,37 +1004,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -1054,16 +1048,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1072,19 +1066,19 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1095,13 +1089,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1110,19 +1104,19 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -1133,40 +1127,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1174,37 +1168,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
       <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -1218,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1233,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1242,13 +1236,13 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1280,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1294,13 +1288,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.75</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1308,13 +1302,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.833333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1322,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1336,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1350,13 +1344,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1364,13 +1358,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>2.583333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1378,10 +1372,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1392,13 +1386,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2.75</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1406,13 +1400,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1420,13 +1414,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>3.166666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1437,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>3.833333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1478,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.916666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D2">
-        <v>-1.083333333333333</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1492,16 +1486,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.166666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D3">
-        <v>0.1666666666666665</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1509,13 +1503,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1526,16 +1520,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>2.916666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D5">
-        <v>-1.083333333333333</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1543,13 +1537,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D6">
-        <v>-1.25</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1560,16 +1554,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2.416666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D7">
-        <v>0.4166666666666665</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1577,16 +1571,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2.25</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.75</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1594,16 +1588,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1611,16 +1605,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1628,16 +1622,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1645,13 +1639,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.916666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="D12">
-        <v>-0.08333333333333326</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1665,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1.416666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D13">
-        <v>0.4166666666666667</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1736,34 +1730,34 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>59.2</v>
+        <v>58.3</v>
       </c>
       <c r="C2">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="D2">
-        <v>9.6</v>
+        <v>11.6</v>
       </c>
       <c r="E2">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="G2">
+        <v>1.4</v>
+      </c>
+      <c r="H2">
         <v>0.8</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.4</v>
-      </c>
-      <c r="I2">
-        <v>0.2</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1772,51 +1766,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.3</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>12.4</v>
+        <v>22.7</v>
       </c>
       <c r="C3">
-        <v>18.3</v>
+        <v>27.7</v>
       </c>
       <c r="D3">
-        <v>24.5</v>
+        <v>19.7</v>
       </c>
       <c r="E3">
-        <v>18.3</v>
+        <v>11.4</v>
       </c>
       <c r="F3">
-        <v>12.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G3">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="H3">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="I3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
-        <v>93</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1824,219 +1818,219 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="C4">
-        <v>22.7</v>
+        <v>18.1</v>
       </c>
       <c r="D4">
-        <v>22.3</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>11.2</v>
+        <v>13.3</v>
       </c>
       <c r="G4">
-        <v>7.6</v>
+        <v>10.8</v>
       </c>
       <c r="H4">
-        <v>5.5</v>
+        <v>8.1</v>
       </c>
       <c r="I4">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="L4">
+        <v>0.4</v>
+      </c>
+      <c r="M4">
         <v>0.2</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
-        <v>92.3</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="C5">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="D5">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>18.2</v>
+        <v>16.1</v>
       </c>
       <c r="F5">
-        <v>16.8</v>
+        <v>13.5</v>
       </c>
       <c r="G5">
-        <v>12.3</v>
+        <v>11.4</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
       <c r="I5">
+        <v>5.6</v>
+      </c>
+      <c r="J5">
         <v>4.3</v>
       </c>
-      <c r="J5">
-        <v>1.3</v>
-      </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
-        <v>85.59999999999999</v>
+        <v>76.7</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="C6">
-        <v>16.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D6">
-        <v>15.6</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>17.7</v>
+        <v>15.5</v>
       </c>
       <c r="F6">
-        <v>17.3</v>
+        <v>12.5</v>
       </c>
       <c r="G6">
-        <v>11.9</v>
+        <v>13.4</v>
       </c>
       <c r="H6">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6">
-        <v>4.8</v>
+        <v>8.9</v>
       </c>
       <c r="J6">
-        <v>2.1</v>
+        <v>7.4</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="L6">
+        <v>2.2</v>
+      </c>
+      <c r="M6">
         <v>0.3</v>
       </c>
-      <c r="M6">
-        <v>0.1</v>
-      </c>
       <c r="N6">
-        <v>84.7</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="E7">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>17.1</v>
+        <v>11.7</v>
       </c>
       <c r="G7">
-        <v>19.9</v>
+        <v>11.1</v>
       </c>
       <c r="H7">
-        <v>14.6</v>
+        <v>12.8</v>
       </c>
       <c r="I7">
-        <v>11.2</v>
+        <v>12.9</v>
       </c>
       <c r="J7">
-        <v>7.1</v>
+        <v>11.3</v>
       </c>
       <c r="K7">
-        <v>3.3</v>
+        <v>8.4</v>
       </c>
       <c r="L7">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="N7">
-        <v>61.1</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="D8">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="E8">
-        <v>6.2</v>
+        <v>11.2</v>
       </c>
       <c r="F8">
-        <v>8.199999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="H8">
-        <v>16.6</v>
+        <v>12.3</v>
       </c>
       <c r="I8">
-        <v>16.7</v>
+        <v>13</v>
       </c>
       <c r="J8">
-        <v>12.5</v>
+        <v>10.9</v>
       </c>
       <c r="K8">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="L8">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="M8">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>34.4</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2044,87 +2038,87 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="D9">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="E9">
-        <v>3.2</v>
+        <v>7.8</v>
       </c>
       <c r="F9">
-        <v>6.5</v>
+        <v>10.3</v>
       </c>
       <c r="G9">
+        <v>13.2</v>
+      </c>
+      <c r="H9">
+        <v>13.8</v>
+      </c>
+      <c r="I9">
+        <v>13.9</v>
+      </c>
+      <c r="J9">
+        <v>12.2</v>
+      </c>
+      <c r="K9">
         <v>11.7</v>
       </c>
-      <c r="H9">
-        <v>16.3</v>
-      </c>
-      <c r="I9">
-        <v>17.6</v>
-      </c>
-      <c r="J9">
-        <v>16.4</v>
-      </c>
-      <c r="K9">
-        <v>12.7</v>
-      </c>
       <c r="L9">
-        <v>10.3</v>
+        <v>7.2</v>
       </c>
       <c r="M9">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N9">
-        <v>22.5</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="E10">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="F10">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="G10">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H10">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="I10">
-        <v>17.5</v>
+        <v>10.4</v>
       </c>
       <c r="J10">
-        <v>18.8</v>
+        <v>12.7</v>
       </c>
       <c r="K10">
-        <v>16.4</v>
+        <v>14.8</v>
       </c>
       <c r="L10">
-        <v>14.6</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>6.2</v>
+        <v>14</v>
       </c>
       <c r="N10">
-        <v>15.2</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2135,40 +2129,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="E11">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="F11">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="G11">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="H11">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="I11">
-        <v>9.5</v>
+        <v>12.1</v>
       </c>
       <c r="J11">
-        <v>15.8</v>
+        <v>11.4</v>
       </c>
       <c r="K11">
-        <v>18.3</v>
+        <v>16.4</v>
       </c>
       <c r="L11">
-        <v>23.6</v>
+        <v>18.8</v>
       </c>
       <c r="M11">
-        <v>20.4</v>
+        <v>15.7</v>
       </c>
       <c r="N11">
-        <v>6.2</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2182,37 +2176,37 @@
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="F12">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="G12">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I12">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J12">
-        <v>13.7</v>
+        <v>15.4</v>
       </c>
       <c r="K12">
-        <v>20.5</v>
+        <v>15.7</v>
       </c>
       <c r="L12">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="M12">
         <v>25.5</v>
       </c>
       <c r="N12">
-        <v>3.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2220,43 +2214,43 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="F13">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="K13">
-        <v>17.3</v>
+        <v>14.9</v>
       </c>
       <c r="L13">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="M13">
-        <v>38.7</v>
+        <v>34.9</v>
       </c>
       <c r="N13">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
@@ -2266,13 +2260,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2291,281 +2285,320 @@
       <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>64.90000000000001</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="C2">
-        <v>75.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D2">
-        <v>90.5</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>97.39999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="F2">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="G2">
+        <v>98.5</v>
+      </c>
+      <c r="H2">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>98.5</v>
+      </c>
+      <c r="C3">
+        <v>40.3</v>
+      </c>
+      <c r="D3">
+        <v>67.60000000000001</v>
+      </c>
+      <c r="E3">
+        <v>76.5</v>
+      </c>
+      <c r="F3">
+        <v>86.2</v>
+      </c>
+      <c r="G3">
+        <v>94</v>
+      </c>
+      <c r="H3">
+        <v>94.69999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>99.2</v>
+      </c>
+      <c r="C4">
+        <v>70.3</v>
+      </c>
+      <c r="D4">
+        <v>81.3</v>
+      </c>
+      <c r="E4">
+        <v>87.5</v>
+      </c>
+      <c r="F4">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="G4">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="H4">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="E5">
         <v>99.59999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C3">
-        <v>70.3</v>
-      </c>
-      <c r="D3">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="E3">
-        <v>87.8</v>
-      </c>
-      <c r="F3">
-        <v>95.7</v>
-      </c>
-      <c r="G3">
-        <v>92.40000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="F5">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="G5">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="H5">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>98.3</v>
-      </c>
-      <c r="C4">
-        <v>91.7</v>
-      </c>
-      <c r="D4">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="E4">
-        <v>77.3</v>
-      </c>
-      <c r="F4">
-        <v>90.8</v>
-      </c>
-      <c r="G4">
-        <v>92.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C5">
-        <v>37.6</v>
-      </c>
-      <c r="D5">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E5">
-        <v>77.10000000000001</v>
-      </c>
-      <c r="F5">
-        <v>86.5</v>
-      </c>
-      <c r="G5">
-        <v>86.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B6">
+        <v>98.2</v>
+      </c>
+      <c r="C6">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>92</v>
+      </c>
+      <c r="G6">
+        <v>71.3</v>
+      </c>
+      <c r="H6">
+        <v>68.30000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2.2</v>
+      </c>
+      <c r="C7">
+        <v>8.5</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>14.7</v>
+      </c>
+      <c r="G7">
+        <v>42.2</v>
+      </c>
+      <c r="H7">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>100</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E6">
-        <v>99.3</v>
-      </c>
-      <c r="F6">
-        <v>81.39999999999999</v>
-      </c>
-      <c r="G6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C7">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="D7">
-        <v>57.8</v>
-      </c>
-      <c r="E7">
-        <v>43.3</v>
-      </c>
-      <c r="F7">
-        <v>60.4</v>
-      </c>
-      <c r="G7">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="D8">
+        <v>55.60000000000001</v>
+      </c>
+      <c r="E8">
+        <v>44.4</v>
+      </c>
+      <c r="F8">
+        <v>61.3</v>
+      </c>
+      <c r="G8">
         <v>45.3</v>
       </c>
-      <c r="D8">
-        <v>57.8</v>
-      </c>
-      <c r="E8">
-        <v>35.6</v>
-      </c>
-      <c r="F8">
-        <v>33.6</v>
-      </c>
-      <c r="G8">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="C9">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="D9">
-        <v>22.5</v>
+        <v>20.5</v>
       </c>
       <c r="E9">
-        <v>48.1</v>
+        <v>45.9</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="H9">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>8.9</v>
+        <v>47.7</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>57.2</v>
       </c>
       <c r="E10">
-        <v>3.4</v>
+        <v>35.7</v>
       </c>
       <c r="F10">
-        <v>15.6</v>
+        <v>31.5</v>
       </c>
       <c r="G10">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="C11">
-        <v>34.59999999999999</v>
+        <v>33.1</v>
       </c>
       <c r="D11">
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
       <c r="E11">
-        <v>15.4</v>
+        <v>14.2</v>
       </c>
       <c r="F11">
-        <v>7.6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G11">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14.3</v>
+      </c>
+      <c r="H11">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12">
+        <v>8.6</v>
+      </c>
+      <c r="C12">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D12">
+        <v>17.5</v>
+      </c>
+      <c r="E12">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F12">
+        <v>4.7</v>
+      </c>
+      <c r="G12">
         <v>8.699999999999999</v>
       </c>
-      <c r="C12">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D12">
-        <v>16.1</v>
-      </c>
-      <c r="E12">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>22.2</v>
+        <v>21.6</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="F13">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="G13">
-        <v>2.1</v>
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4.6</v>
       </c>
     </row>
   </sheetData>
@@ -2586,25 +2619,25 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2612,51 +2645,51 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D2">
-        <v>145.524</v>
+        <v>143.5633333333333</v>
       </c>
       <c r="E2">
-        <v>727.62</v>
+        <v>861.38</v>
       </c>
       <c r="F2">
-        <v>99.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3">
-        <v>134.664</v>
+        <v>134.2866666666667</v>
       </c>
       <c r="E3">
-        <v>673.3200000000001</v>
+        <v>805.72</v>
       </c>
       <c r="F3">
-        <v>93</v>
+        <v>94.8</v>
       </c>
       <c r="G3" t="s">
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2664,22 +2697,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>136.744</v>
+        <v>131.95</v>
       </c>
       <c r="E4">
-        <v>683.72</v>
+        <v>791.7</v>
       </c>
       <c r="F4">
-        <v>92.30000000000001</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
         <v>68</v>
@@ -2687,106 +2720,106 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>132.712</v>
+        <v>137.4633333333333</v>
       </c>
       <c r="E5">
-        <v>663.5599999999999</v>
+        <v>824.78</v>
       </c>
       <c r="F5">
-        <v>85.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>140.096</v>
+        <v>126.51</v>
       </c>
       <c r="E6">
-        <v>700.4799999999999</v>
+        <v>759.0599999999999</v>
       </c>
       <c r="F6">
-        <v>84.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G6" t="s">
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>127.524</v>
+        <v>125.53</v>
       </c>
       <c r="E7">
-        <v>637.6200000000001</v>
+        <v>753.1800000000001</v>
       </c>
       <c r="F7">
-        <v>61.1</v>
+        <v>46.1</v>
       </c>
       <c r="G7" t="s">
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>126.088</v>
+        <v>124.9766666666667</v>
       </c>
       <c r="E8">
-        <v>630.4400000000001</v>
+        <v>749.86</v>
       </c>
       <c r="F8">
-        <v>34.4</v>
+        <v>45.5</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2797,48 +2830,48 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>122.52</v>
+        <v>123.5266666666667</v>
       </c>
       <c r="E9">
-        <v>612.6</v>
+        <v>741.16</v>
       </c>
       <c r="F9">
-        <v>22.5</v>
+        <v>38.4</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>120.112</v>
+        <v>122.52</v>
       </c>
       <c r="E10">
-        <v>600.5599999999999</v>
+        <v>735.12</v>
       </c>
       <c r="F10">
-        <v>15.2</v>
+        <v>21.7</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2846,25 +2879,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D11">
-        <v>125.204</v>
+        <v>126.98</v>
       </c>
       <c r="E11">
-        <v>626.02</v>
+        <v>761.88</v>
       </c>
       <c r="F11">
-        <v>6.2</v>
+        <v>16.1</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2872,25 +2905,25 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D12">
-        <v>123.92</v>
+        <v>124.0566666666667</v>
       </c>
       <c r="E12">
-        <v>619.6</v>
+        <v>744.34</v>
       </c>
       <c r="F12">
-        <v>3.4</v>
+        <v>7.9</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2898,25 +2931,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>111.248</v>
+        <v>113.28</v>
       </c>
       <c r="E13">
-        <v>556.24</v>
+        <v>679.6800000000001</v>
       </c>
       <c r="F13">
-        <v>2.3</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2937,16 +2970,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2957,16 +2990,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2974,19 +3007,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2997,16 +3030,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3014,19 +3047,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3034,19 +3067,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3054,19 +3087,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3074,19 +3107,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3094,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3114,19 +3147,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3134,19 +3167,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3154,19 +3187,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3174,10 +3207,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>-10</v>
@@ -3186,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3196,33 +3229,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3241,34 +3277,40 @@
       <c r="F2">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3">
+        <v>-7</v>
+      </c>
+      <c r="D3">
         <v>-6</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3287,215 +3329,245 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-11</v>
+      </c>
+      <c r="F9">
+        <v>-10</v>
+      </c>
+      <c r="G9">
         <v>-1</v>
       </c>
-      <c r="C5">
-        <v>-4</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
-        <v>-7</v>
-      </c>
-      <c r="D7">
-        <v>-6</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>-5</v>
-      </c>
-      <c r="D8">
-        <v>-5</v>
-      </c>
-      <c r="E8">
-        <v>-10</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12">
+        <v>-5</v>
+      </c>
+      <c r="E12">
+        <v>-10</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>-8</v>
       </c>
-      <c r="D10">
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <v>-8</v>
+      </c>
+      <c r="E13">
+        <v>-3</v>
+      </c>
+      <c r="F13">
+        <v>-4</v>
+      </c>
+      <c r="G13">
+        <v>-10</v>
+      </c>
+      <c r="H13" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>-4</v>
-      </c>
-      <c r="F11">
-        <v>-2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <v>-8</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-      <c r="F12">
-        <v>-4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>-2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>-2</v>
-      </c>
-      <c r="E13">
-        <v>-11</v>
-      </c>
-      <c r="F13">
-        <v>-10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3513,25 +3585,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3542,22 +3614,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3568,22 +3640,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3591,25 +3663,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3617,25 +3689,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F5">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3643,22 +3715,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6">
+        <v>-11</v>
+      </c>
+      <c r="F6">
         <v>-4</v>
       </c>
-      <c r="F6">
-        <v>-10</v>
-      </c>
       <c r="G6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -3695,25 +3767,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F8">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3721,25 +3793,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="F9">
         <v>-2</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3776,22 +3848,22 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3799,25 +3871,25 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3825,25 +3897,25 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="H13" t="s">
         <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3877,16 +3949,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
       <c r="E15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="110">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -60,22 +60,25 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -156,6 +159,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -177,57 +183,54 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>10.7-4.3-0.1</t>
-  </si>
-  <si>
-    <t>9.8-5.2-0.1</t>
-  </si>
-  <si>
-    <t>8.7-6.2-0.1</t>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>10.2-4.7-0.1</t>
+  </si>
+  <si>
+    <t>9.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>9.3-5.6</t>
   </si>
   <si>
     <t>8.2-6.7-0.1</t>
   </si>
   <si>
-    <t>7.3-7.6-0.1</t>
-  </si>
-  <si>
-    <t>7.1-7.8-0.1</t>
-  </si>
-  <si>
-    <t>6.1-8.8-0.1</t>
-  </si>
-  <si>
-    <t>5.7-9.3-0.1</t>
-  </si>
-  <si>
-    <t>5.2-9.7-0.1</t>
-  </si>
-  <si>
-    <t>5.3-9.6-0.1</t>
-  </si>
-  <si>
-    <t>11-4</t>
+    <t>6.9-8.1</t>
+  </si>
+  <si>
+    <t>6.7-8.2-0.1</t>
+  </si>
+  <si>
+    <t>6.6-8.4-0.1</t>
+  </si>
+  <si>
+    <t>6.0-8.9-0.1</t>
+  </si>
+  <si>
+    <t>5.8-9.1-0.1</t>
+  </si>
+  <si>
+    <t>4.7-10.2-0.1</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
+    <t>9-6</t>
+  </si>
+  <si>
     <t>8-7</t>
   </si>
   <si>
@@ -237,7 +240,7 @@
     <t>6-9</t>
   </si>
   <si>
-    <t>5-10</t>
+    <t>4-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -249,70 +252,64 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Justin Fox</t>
+  </si>
+  <si>
+    <t>Jessica Stratton</t>
+  </si>
+  <si>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
+    <t>Roy Armbruster</t>
+  </si>
+  <si>
+    <t>Dave Linton</t>
+  </si>
+  <si>
     <t>Chungfu Yang</t>
   </si>
   <si>
-    <t>Justin Fox</t>
-  </si>
-  <si>
-    <t>Jessica Stratton</t>
-  </si>
-  <si>
     <t>Robert Schottler</t>
   </si>
   <si>
-    <t>Roy Armbruster</t>
-  </si>
-  <si>
-    <t>Dave Linton</t>
-  </si>
-  <si>
     <t>Garrett Sullivan</t>
   </si>
   <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
     <t>Daniel Tracey</t>
   </si>
   <si>
-    <t>Matthew Graesser</t>
+    <t>Jeffrey Laidacker</t>
   </si>
   <si>
     <t>Hannah Davis</t>
   </si>
   <si>
-    <t>Dale Goodwin</t>
-  </si>
-  <si>
-    <t>Jeffrey Laidacker</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↑9</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑9</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -761,25 +761,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -788,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -802,34 +802,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -846,34 +846,34 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -884,28 +884,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -914,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -963,40 +963,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1004,40 +1004,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
         <v>15</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1045,40 +1045,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1086,37 +1086,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -1127,40 +1127,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1168,31 +1168,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
@@ -1209,40 +1209,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1260,13 +1260,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1277,10 +1277,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.25</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.583333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1302,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.666666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1316,13 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1344,10 +1344,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2.833333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1358,13 +1358,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2.833333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3.333333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1400,10 +1400,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>4</v>
-      </c>
-      <c r="C11">
-        <v>3.416666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1414,13 +1414,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>3.916666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1452,16 +1452,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1472,13 +1472,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4.583333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.416666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1489,13 +1489,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3.833333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D3">
-        <v>-1.166666666666667</v>
+        <v>-0.75</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D4">
-        <v>0.5833333333333335</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3.166666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.8333333333333335</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.916666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D6">
-        <v>-0.08333333333333348</v>
+        <v>-1.25</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1554,13 +1554,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2.916666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.08333333333333348</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1571,16 +1571,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.833333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D8">
-        <v>1.833333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D9">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2.583333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="D10">
-        <v>1.583333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1639,13 +1639,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>2.5</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1659,13 +1659,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1.833333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.1666666666666667</v>
+        <v>-0.08333333333333326</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1683,46 +1683,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1730,43 +1730,43 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>58.3</v>
+        <v>50.2</v>
       </c>
       <c r="C2">
-        <v>19.8</v>
+        <v>20.6</v>
       </c>
       <c r="D2">
-        <v>11.6</v>
+        <v>13.5</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G2">
         <v>1.4</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="I2">
         <v>0.4</v>
       </c>
       <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0.1</v>
-      </c>
-      <c r="K2">
-        <v>0.1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>98.59999999999999</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1774,43 +1774,43 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>22.7</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>27.7</v>
+        <v>17.5</v>
       </c>
       <c r="D3">
-        <v>19.7</v>
+        <v>18.2</v>
       </c>
       <c r="E3">
-        <v>11.4</v>
+        <v>19.2</v>
       </c>
       <c r="F3">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="I3">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="J3">
         <v>0.9</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>94.8</v>
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1818,219 +1818,219 @@
         <v>10</v>
       </c>
       <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>19.1</v>
+      </c>
+      <c r="D4">
+        <v>19.2</v>
+      </c>
+      <c r="E4">
+        <v>16.3</v>
+      </c>
+      <c r="F4">
+        <v>15.5</v>
+      </c>
+      <c r="G4">
+        <v>7.9</v>
+      </c>
+      <c r="H4">
         <v>5.2</v>
       </c>
-      <c r="C4">
-        <v>18.1</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>13.3</v>
-      </c>
-      <c r="G4">
-        <v>10.8</v>
-      </c>
-      <c r="H4">
-        <v>8.1</v>
-      </c>
       <c r="I4">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="J4">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>82.40000000000001</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>6.6</v>
+        <v>14.8</v>
       </c>
       <c r="C5">
-        <v>14.1</v>
+        <v>23.2</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>21.5</v>
       </c>
       <c r="E5">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F5">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G5">
-        <v>11.4</v>
+        <v>5.6</v>
       </c>
       <c r="H5">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="J5">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>76.7</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="C6">
-        <v>9.199999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14.4</v>
       </c>
       <c r="E6">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="H6">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I6">
-        <v>8.9</v>
+        <v>5.7</v>
       </c>
       <c r="J6">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="K6">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>67.40000000000001</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="D7">
-        <v>7.9</v>
+        <v>3.7</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>12.5</v>
+      </c>
+      <c r="H7">
+        <v>11.9</v>
+      </c>
+      <c r="I7">
+        <v>14.9</v>
+      </c>
+      <c r="J7">
+        <v>11.2</v>
+      </c>
+      <c r="K7">
         <v>11.7</v>
       </c>
-      <c r="G7">
-        <v>11.1</v>
-      </c>
-      <c r="H7">
-        <v>12.8</v>
-      </c>
-      <c r="I7">
-        <v>12.9</v>
-      </c>
-      <c r="J7">
-        <v>11.3</v>
-      </c>
-      <c r="K7">
-        <v>8.4</v>
-      </c>
       <c r="L7">
-        <v>5.7</v>
+        <v>9.5</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="N7">
-        <v>46.1</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="E8">
-        <v>11.2</v>
+        <v>6.2</v>
       </c>
       <c r="F8">
-        <v>11.7</v>
+        <v>8.5</v>
       </c>
       <c r="G8">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="H8">
-        <v>12.3</v>
+        <v>13.7</v>
       </c>
       <c r="I8">
-        <v>13</v>
+        <v>15.3</v>
       </c>
       <c r="J8">
-        <v>10.9</v>
+        <v>13.6</v>
       </c>
       <c r="K8">
-        <v>9.1</v>
+        <v>11.8</v>
       </c>
       <c r="L8">
-        <v>5.9</v>
+        <v>9.4</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="N8">
-        <v>45.5</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2038,87 +2038,87 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
+        <v>1.3</v>
+      </c>
+      <c r="D9">
         <v>2.2</v>
       </c>
-      <c r="D9">
-        <v>4.4</v>
-      </c>
       <c r="E9">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="F9">
-        <v>10.3</v>
+        <v>8.1</v>
       </c>
       <c r="G9">
         <v>13.2</v>
       </c>
       <c r="H9">
-        <v>13.8</v>
+        <v>11.9</v>
       </c>
       <c r="I9">
-        <v>13.9</v>
+        <v>17.1</v>
       </c>
       <c r="J9">
-        <v>12.2</v>
+        <v>15.9</v>
       </c>
       <c r="K9">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="L9">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="N9">
-        <v>38.4</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D10">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="F10">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="G10">
-        <v>8.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="H10">
-        <v>10.4</v>
+        <v>12.5</v>
       </c>
       <c r="I10">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
       <c r="J10">
-        <v>12.7</v>
+        <v>13.8</v>
       </c>
       <c r="K10">
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>14.9</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>8.1</v>
       </c>
       <c r="N10">
-        <v>21.7</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2129,40 +2129,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="E11">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="F11">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="G11">
-        <v>6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H11">
-        <v>9.5</v>
+        <v>11.9</v>
       </c>
       <c r="I11">
-        <v>12.1</v>
+        <v>10.9</v>
       </c>
       <c r="J11">
-        <v>11.4</v>
+        <v>15.1</v>
       </c>
       <c r="K11">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="L11">
-        <v>18.8</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>15.7</v>
+        <v>9.6</v>
       </c>
       <c r="N11">
-        <v>16.1</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2173,40 +2173,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E12">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="F12">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="H12">
-        <v>5.7</v>
+        <v>9.9</v>
       </c>
       <c r="I12">
-        <v>9.699999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="J12">
-        <v>15.4</v>
+        <v>16.2</v>
       </c>
       <c r="K12">
-        <v>15.7</v>
+        <v>18.4</v>
       </c>
       <c r="L12">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>25.5</v>
+        <v>10.5</v>
       </c>
       <c r="N12">
-        <v>7.9</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2214,43 +2214,43 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F13">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H13">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="J13">
+        <v>6.2</v>
+      </c>
+      <c r="K13">
         <v>10.7</v>
       </c>
-      <c r="K13">
-        <v>14.9</v>
-      </c>
       <c r="L13">
-        <v>22.4</v>
+        <v>18.3</v>
       </c>
       <c r="M13">
-        <v>34.9</v>
+        <v>57.1</v>
       </c>
       <c r="N13">
-        <v>4.4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2260,345 +2260,384 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>66.60000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="C2">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E2">
+        <v>98.5</v>
+      </c>
+      <c r="F2">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H2">
         <v>97.7</v>
       </c>
-      <c r="F2">
-        <v>99.3</v>
-      </c>
-      <c r="G2">
-        <v>98.5</v>
-      </c>
-      <c r="H2">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>99.7</v>
+      </c>
+      <c r="C3">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="D3">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="E3">
+        <v>86.7</v>
+      </c>
+      <c r="F3">
+        <v>94</v>
+      </c>
+      <c r="G3">
+        <v>81.3</v>
+      </c>
+      <c r="H3">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="I3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>98.7</v>
+      </c>
+      <c r="C4">
+        <v>92.7</v>
+      </c>
+      <c r="D4">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="E4">
+        <v>78.3</v>
+      </c>
+      <c r="F4">
+        <v>91.5</v>
+      </c>
+      <c r="G4">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="H4">
+        <v>86.7</v>
+      </c>
+      <c r="I4">
+        <v>91.10000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>98.5</v>
-      </c>
-      <c r="C3">
-        <v>40.3</v>
-      </c>
-      <c r="D3">
-        <v>67.60000000000001</v>
-      </c>
-      <c r="E3">
-        <v>76.5</v>
-      </c>
-      <c r="F3">
-        <v>86.2</v>
-      </c>
-      <c r="G3">
-        <v>94</v>
-      </c>
-      <c r="H3">
-        <v>94.69999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>99.2</v>
-      </c>
-      <c r="C4">
-        <v>70.3</v>
-      </c>
-      <c r="D4">
-        <v>81.3</v>
-      </c>
-      <c r="E4">
-        <v>87.5</v>
-      </c>
-      <c r="F4">
-        <v>94.89999999999999</v>
-      </c>
-      <c r="G4">
-        <v>82.89999999999999</v>
-      </c>
-      <c r="H4">
-        <v>83.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>40.5</v>
+      </c>
+      <c r="D5">
+        <v>66.3</v>
+      </c>
+      <c r="E5">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F5">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="G5">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="H5">
+        <v>88.3</v>
+      </c>
+      <c r="I5">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="E5">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F5">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="G5">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="H5">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>98.2</v>
-      </c>
-      <c r="C6">
-        <v>91</v>
-      </c>
       <c r="D6">
-        <v>94</v>
+        <v>96.7</v>
       </c>
       <c r="E6">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F6">
-        <v>92</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G6">
-        <v>71.3</v>
+        <v>77</v>
       </c>
       <c r="H6">
-        <v>68.30000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>77.8</v>
+      </c>
+      <c r="I6">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>43.8</v>
+      </c>
+      <c r="D7">
+        <v>57.3</v>
+      </c>
+      <c r="E7">
+        <v>36.2</v>
+      </c>
+      <c r="F7">
+        <v>32.2</v>
+      </c>
+      <c r="G7">
+        <v>21.6</v>
+      </c>
+      <c r="H7">
+        <v>35.6</v>
+      </c>
+      <c r="I7">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>2.2</v>
-      </c>
-      <c r="C7">
-        <v>8.5</v>
-      </c>
-      <c r="D7">
-        <v>1.5</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>14.7</v>
-      </c>
-      <c r="G7">
-        <v>42.2</v>
-      </c>
-      <c r="H7">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B8">
-        <v>100</v>
+        <v>2.5</v>
       </c>
       <c r="C8">
-        <v>96.89999999999999</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="D8">
-        <v>55.60000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="E8">
-        <v>44.4</v>
+        <v>3.7</v>
       </c>
       <c r="F8">
-        <v>61.3</v>
+        <v>17.4</v>
       </c>
       <c r="G8">
-        <v>45.3</v>
+        <v>43.3</v>
       </c>
       <c r="H8">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>36.7</v>
+      </c>
+      <c r="I8">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="C9">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="D9">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="E9">
-        <v>45.9</v>
+        <v>46.8</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>21.1</v>
       </c>
       <c r="G9">
-        <v>40.40000000000001</v>
+        <v>39.2</v>
       </c>
       <c r="H9">
-        <v>38.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>27.8</v>
+      </c>
+      <c r="I9">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>47.7</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="D10">
-        <v>57.2</v>
+        <v>13.5</v>
       </c>
       <c r="E10">
-        <v>35.7</v>
+        <v>15.1</v>
       </c>
       <c r="F10">
-        <v>31.5</v>
+        <v>7.1</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21.4</v>
+      </c>
+      <c r="I10">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1.7</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>33.1</v>
+        <v>97.3</v>
       </c>
       <c r="D11">
-        <v>14.1</v>
+        <v>56.3</v>
       </c>
       <c r="E11">
-        <v>14.2</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="F11">
-        <v>7.199999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="G11">
-        <v>14.3</v>
+        <v>45.5</v>
       </c>
       <c r="H11">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>20.3</v>
+      </c>
+      <c r="I11">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>8.6</v>
+        <v>12.1</v>
       </c>
       <c r="C12">
-        <v>9.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="D12">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="E12">
         <v>8.300000000000001</v>
       </c>
       <c r="F12">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="G12">
-        <v>8.699999999999999</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="H12">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>15.4</v>
+      </c>
+      <c r="I12">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="E13">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="F13">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>4.6</v>
+        <v>1.7</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2616,28 +2655,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2645,25 +2684,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
-        <v>143.5633333333333</v>
+        <v>145.1657142857143</v>
       </c>
       <c r="E2">
-        <v>861.38</v>
+        <v>1016.16</v>
       </c>
       <c r="F2">
-        <v>98.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2671,25 +2710,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>134.2866666666667</v>
+        <v>133.8828571428571</v>
       </c>
       <c r="E3">
-        <v>805.72</v>
+        <v>937.1799999999999</v>
       </c>
       <c r="F3">
-        <v>94.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2697,19 +2736,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>131.95</v>
+        <v>132.1342857142857</v>
       </c>
       <c r="E4">
-        <v>791.7</v>
+        <v>924.9400000000001</v>
       </c>
       <c r="F4">
-        <v>82.39999999999999</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
         <v>58</v>
@@ -2720,22 +2759,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>137.4633333333333</v>
+        <v>134.82</v>
       </c>
       <c r="E5">
-        <v>824.78</v>
+        <v>943.74</v>
       </c>
       <c r="F5">
-        <v>76.7</v>
+        <v>89.8</v>
       </c>
       <c r="G5" t="s">
         <v>59</v>
@@ -2746,80 +2785,80 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>126.51</v>
+        <v>134.3171428571428</v>
       </c>
       <c r="E6">
-        <v>759.0599999999999</v>
+        <v>940.2199999999998</v>
       </c>
       <c r="F6">
-        <v>67.40000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D7">
-        <v>125.53</v>
+        <v>124.5428571428572</v>
       </c>
       <c r="E7">
-        <v>753.1800000000001</v>
+        <v>871.8000000000002</v>
       </c>
       <c r="F7">
-        <v>46.1</v>
+        <v>35.5</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>124.9766666666667</v>
+        <v>126.2171428571429</v>
       </c>
       <c r="E8">
-        <v>749.86</v>
+        <v>883.52</v>
       </c>
       <c r="F8">
-        <v>45.5</v>
+        <v>32.1</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2827,51 +2866,51 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>123.5266666666667</v>
+        <v>124.4542857142857</v>
       </c>
       <c r="E9">
-        <v>741.16</v>
+        <v>871.1800000000001</v>
       </c>
       <c r="F9">
-        <v>38.4</v>
+        <v>29.2</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>122.52</v>
+        <v>119.5257142857143</v>
       </c>
       <c r="E10">
-        <v>735.12</v>
+        <v>836.6800000000001</v>
       </c>
       <c r="F10">
-        <v>21.7</v>
+        <v>23.8</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2879,25 +2918,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>126.98</v>
+        <v>127.7342857142857</v>
       </c>
       <c r="E11">
-        <v>761.88</v>
+        <v>894.14</v>
       </c>
       <c r="F11">
-        <v>16.1</v>
+        <v>20.2</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2905,22 +2944,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D12">
-        <v>124.0566666666667</v>
+        <v>125.9571428571429</v>
       </c>
       <c r="E12">
-        <v>744.34</v>
+        <v>881.7</v>
       </c>
       <c r="F12">
-        <v>7.9</v>
+        <v>11.8</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
         <v>71</v>
@@ -2931,25 +2970,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D13">
-        <v>113.28</v>
+        <v>110.7457142857143</v>
       </c>
       <c r="E13">
-        <v>679.6800000000001</v>
+        <v>775.22</v>
       </c>
       <c r="F13">
-        <v>4.399999999999999</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2967,19 +3006,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2987,19 +3026,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3007,19 +3046,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3027,19 +3066,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3047,19 +3086,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3067,19 +3106,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3087,19 +3126,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3107,19 +3146,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3127,10 +3166,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3139,7 +3178,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3150,7 +3189,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>-2</v>
@@ -3159,7 +3198,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3167,16 +3206,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <v>-3</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
@@ -3187,19 +3226,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3207,19 +3246,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3229,244 +3268,271 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-4</v>
+      </c>
+      <c r="C2">
+        <v>-7</v>
+      </c>
+      <c r="D2">
+        <v>-6</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-4</v>
-      </c>
-      <c r="C3">
-        <v>-7</v>
-      </c>
-      <c r="D3">
-        <v>-6</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="C4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <v>-5</v>
+      </c>
+      <c r="E4">
+        <v>-10</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-8</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-2</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C6">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
-      <c r="D8">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>2</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>-11</v>
-      </c>
-      <c r="F9">
-        <v>-10</v>
       </c>
       <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3488,86 +3554,98 @@
       <c r="G10">
         <v>-2</v>
       </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>-11</v>
+      </c>
+      <c r="F11">
+        <v>-10</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <v>-8</v>
+      </c>
+      <c r="E12">
+        <v>-3</v>
+      </c>
+      <c r="F12">
+        <v>-4</v>
+      </c>
+      <c r="G12">
+        <v>-10</v>
+      </c>
+      <c r="H12">
+        <v>-12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>-1</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>-3</v>
       </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>-5</v>
-      </c>
-      <c r="D12">
-        <v>-5</v>
-      </c>
-      <c r="E12">
-        <v>-10</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>-8</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H13">
+        <v>-13</v>
+      </c>
+      <c r="I13" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>-2</v>
-      </c>
-      <c r="D13">
-        <v>-8</v>
-      </c>
-      <c r="E13">
-        <v>-3</v>
-      </c>
-      <c r="F13">
-        <v>-4</v>
-      </c>
-      <c r="G13">
-        <v>-10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3577,7 +3655,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3611,25 +3689,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3640,22 +3718,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3663,25 +3741,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3689,25 +3767,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3715,25 +3793,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F6">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G6">
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3741,25 +3819,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>-11</v>
+      </c>
+      <c r="F7">
+        <v>-4</v>
+      </c>
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3770,22 +3848,22 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
       <c r="F8">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3793,25 +3871,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3819,25 +3897,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3848,22 +3926,22 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3874,22 +3952,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3897,25 +3975,25 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3923,51 +4001,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>7</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
         <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="112">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -177,6 +177,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -195,25 +198,31 @@
     <t>2-5</t>
   </si>
   <si>
-    <t>10.2-4.7-0.1</t>
+    <t>10.3-4.7-0.1</t>
   </si>
   <si>
     <t>9.2-5.7-0.1</t>
   </si>
   <si>
-    <t>9.3-5.6</t>
-  </si>
-  <si>
-    <t>8.2-6.7-0.1</t>
-  </si>
-  <si>
-    <t>6.9-8.1</t>
-  </si>
-  <si>
-    <t>6.7-8.2-0.1</t>
-  </si>
-  <si>
-    <t>6.6-8.4-0.1</t>
+    <t>9.3-5.6-0.1</t>
+  </si>
+  <si>
+    <t>9.3-5.7</t>
+  </si>
+  <si>
+    <t>8.3-6.6-0.1</t>
+  </si>
+  <si>
+    <t>6.9-8.1-0.1</t>
+  </si>
+  <si>
+    <t>6.8-8.2-0.1</t>
+  </si>
+  <si>
+    <t>6.6-8.3-0.1</t>
+  </si>
+  <si>
+    <t>6.5-8.4-0.1</t>
   </si>
   <si>
     <t>6.0-8.9-0.1</t>
@@ -222,16 +231,13 @@
     <t>5.8-9.1-0.1</t>
   </si>
   <si>
-    <t>4.7-10.2-0.1</t>
+    <t>4.7-10.3-0.1</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
     <t>9-6</t>
-  </si>
-  <si>
-    <t>8-7</t>
   </si>
   <si>
     <t>7-8</t>
@@ -1730,31 +1736,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>50.2</v>
+        <v>51.8</v>
       </c>
       <c r="C2">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="D2">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="E2">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="F2">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H2">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
         <v>0.4</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1766,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.5</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1774,43 +1780,43 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C3">
-        <v>17.5</v>
+        <v>18.9</v>
       </c>
       <c r="D3">
-        <v>18.2</v>
+        <v>19.3</v>
       </c>
       <c r="E3">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>12.9</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H3">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I3">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J3">
         <v>0.9</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>91.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1818,43 +1824,43 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>11.8</v>
       </c>
       <c r="C4">
-        <v>19.1</v>
+        <v>20.3</v>
       </c>
       <c r="D4">
-        <v>19.2</v>
+        <v>22.4</v>
       </c>
       <c r="E4">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="F4">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="H4">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>91</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1862,43 +1868,43 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>14.8</v>
+        <v>15.9</v>
       </c>
       <c r="C5">
-        <v>23.2</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>21.5</v>
+        <v>17.5</v>
       </c>
       <c r="E5">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F5">
-        <v>9.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="G5">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N5">
-        <v>89.8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1906,43 +1912,43 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="C6">
+        <v>11.9</v>
+      </c>
+      <c r="D6">
+        <v>14.2</v>
+      </c>
+      <c r="E6">
+        <v>16.9</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
         <v>11.8</v>
       </c>
-      <c r="D6">
-        <v>14.4</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>12.2</v>
-      </c>
       <c r="H6">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="I6">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="J6">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="L6">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>75.2</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1950,43 +1956,43 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D7">
         <v>3.7</v>
       </c>
       <c r="E7">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>12.5</v>
+        <v>11.6</v>
       </c>
       <c r="H7">
-        <v>11.9</v>
+        <v>13.4</v>
       </c>
       <c r="I7">
-        <v>14.9</v>
+        <v>13.8</v>
       </c>
       <c r="J7">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="K7">
-        <v>11.7</v>
+        <v>10.7</v>
       </c>
       <c r="L7">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M7">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="N7">
-        <v>35.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1994,43 +2000,43 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>8.5</v>
+        <v>11.2</v>
       </c>
       <c r="G8">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="H8">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="I8">
-        <v>15.3</v>
+        <v>13.8</v>
       </c>
       <c r="J8">
-        <v>13.6</v>
+        <v>14.5</v>
       </c>
       <c r="K8">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="L8">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M8">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="N8">
-        <v>32.1</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2038,43 +2044,43 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="E9">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="F9">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="G9">
+        <v>12.5</v>
+      </c>
+      <c r="H9">
+        <v>11.4</v>
+      </c>
+      <c r="I9">
+        <v>14.9</v>
+      </c>
+      <c r="J9">
+        <v>17.5</v>
+      </c>
+      <c r="K9">
         <v>13.2</v>
       </c>
-      <c r="H9">
-        <v>11.9</v>
-      </c>
-      <c r="I9">
-        <v>17.1</v>
-      </c>
-      <c r="J9">
-        <v>15.9</v>
-      </c>
-      <c r="K9">
-        <v>12.1</v>
-      </c>
       <c r="L9">
-        <v>9.1</v>
+        <v>10.9</v>
       </c>
       <c r="M9">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="N9">
-        <v>29.2</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2082,43 +2088,43 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="E10">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="F10">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="G10">
-        <v>10.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10">
-        <v>12.5</v>
+        <v>11.3</v>
       </c>
       <c r="I10">
-        <v>11.1</v>
+        <v>14.3</v>
       </c>
       <c r="J10">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="K10">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="L10">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="M10">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>23.8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2129,40 +2135,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E11">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F11">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="G11">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="I11">
+        <v>12.3</v>
+      </c>
+      <c r="J11">
+        <v>14.9</v>
+      </c>
+      <c r="K11">
+        <v>14.8</v>
+      </c>
+      <c r="L11">
+        <v>14.3</v>
+      </c>
+      <c r="M11">
         <v>10.9</v>
       </c>
-      <c r="J11">
-        <v>15.1</v>
-      </c>
-      <c r="K11">
-        <v>15.3</v>
-      </c>
-      <c r="L11">
-        <v>17</v>
-      </c>
-      <c r="M11">
-        <v>9.6</v>
-      </c>
       <c r="N11">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2173,40 +2179,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="F12">
         <v>3.3</v>
       </c>
       <c r="G12">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>9.9</v>
+        <v>10.8</v>
       </c>
       <c r="I12">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="J12">
-        <v>16.2</v>
+        <v>13.9</v>
       </c>
       <c r="K12">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>17.7</v>
       </c>
       <c r="M12">
-        <v>10.5</v>
+        <v>11.9</v>
       </c>
       <c r="N12">
-        <v>11.8</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2223,34 +2229,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H13">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="K13">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
       <c r="L13">
-        <v>18.3</v>
+        <v>21.9</v>
       </c>
       <c r="M13">
-        <v>57.1</v>
+        <v>54.6</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -2297,28 +2303,28 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>63.2</v>
+        <v>62.1</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>68.89999999999999</v>
       </c>
       <c r="D2">
         <v>90.40000000000001</v>
       </c>
       <c r="E2">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="F2">
-        <v>98.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="H2">
-        <v>97.7</v>
+        <v>99.5</v>
       </c>
       <c r="I2">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2326,86 +2332,86 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C3">
-        <v>70.09999999999999</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="D3">
-        <v>81.39999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="E3">
-        <v>86.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F3">
-        <v>94</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G3">
-        <v>81.3</v>
+        <v>83.2</v>
       </c>
       <c r="H3">
-        <v>90.60000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="I3">
-        <v>92</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C4">
-        <v>92.7</v>
+        <v>39.2</v>
       </c>
       <c r="D4">
-        <v>93.40000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="E4">
-        <v>78.3</v>
+        <v>76.3</v>
       </c>
       <c r="F4">
-        <v>91.5</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G4">
-        <v>69.09999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="H4">
-        <v>86.7</v>
+        <v>90.8</v>
       </c>
       <c r="I4">
-        <v>91.10000000000001</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C5">
-        <v>40.5</v>
+        <v>89.5</v>
       </c>
       <c r="D5">
-        <v>66.3</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="E5">
-        <v>74.90000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F5">
-        <v>84.09999999999999</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="G5">
-        <v>93.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H5">
-        <v>88.3</v>
+        <v>89.3</v>
       </c>
       <c r="I5">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2419,22 +2425,22 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="E6">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F6">
-        <v>83.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="G6">
+        <v>74.8</v>
+      </c>
+      <c r="H6">
+        <v>77.2</v>
+      </c>
+      <c r="I6">
         <v>77</v>
-      </c>
-      <c r="H6">
-        <v>77.8</v>
-      </c>
-      <c r="I6">
-        <v>79.2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2442,28 +2448,28 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>43.8</v>
+        <v>46.1</v>
       </c>
       <c r="D7">
-        <v>57.3</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="E7">
-        <v>36.2</v>
+        <v>35.3</v>
       </c>
       <c r="F7">
-        <v>32.2</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="H7">
-        <v>35.6</v>
+        <v>32.7</v>
       </c>
       <c r="I7">
-        <v>33.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2471,28 +2477,28 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="C8">
-        <v>8.200000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D8">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="E8">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="F8">
-        <v>17.4</v>
+        <v>15.9</v>
       </c>
       <c r="G8">
-        <v>43.3</v>
+        <v>43.8</v>
       </c>
       <c r="H8">
-        <v>36.7</v>
+        <v>31.4</v>
       </c>
       <c r="I8">
-        <v>31.8</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2500,86 +2506,86 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="C9">
-        <v>29.2</v>
+        <v>33.3</v>
       </c>
       <c r="D9">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>46.8</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="F9">
-        <v>21.1</v>
+        <v>22.5</v>
       </c>
       <c r="G9">
-        <v>39.2</v>
+        <v>41.5</v>
       </c>
       <c r="H9">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="I9">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>35.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>13.5</v>
+        <v>58.4</v>
       </c>
       <c r="E10">
-        <v>15.1</v>
+        <v>45.7</v>
       </c>
       <c r="F10">
-        <v>7.1</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>45.2</v>
       </c>
       <c r="H10">
-        <v>21.4</v>
+        <v>19.9</v>
       </c>
       <c r="I10">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>1.3</v>
       </c>
       <c r="C11">
-        <v>97.3</v>
+        <v>35.4</v>
       </c>
       <c r="D11">
-        <v>56.3</v>
+        <v>12.3</v>
       </c>
       <c r="E11">
-        <v>46.40000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="F11">
-        <v>62.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G11">
-        <v>45.5</v>
+        <v>15.1</v>
       </c>
       <c r="H11">
-        <v>20.3</v>
+        <v>23.5</v>
       </c>
       <c r="I11">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2587,28 +2593,28 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>12.1</v>
+        <v>10.7</v>
       </c>
       <c r="C12">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="D12">
-        <v>19.5</v>
+        <v>17.4</v>
       </c>
       <c r="E12">
-        <v>8.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="G12">
-        <v>9.700000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H12">
-        <v>15.4</v>
+        <v>14</v>
       </c>
       <c r="I12">
-        <v>12.1</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2616,28 +2622,28 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>20.2</v>
+        <v>23.1</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D13">
         <v>1.9</v>
       </c>
       <c r="E13">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="F13">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H13">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -2647,13 +2653,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2678,13 +2684,16 @@
       <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>0.7142857142857143</v>
@@ -2696,21 +2705,24 @@
         <v>1016.16</v>
       </c>
       <c r="F2">
-        <v>97.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
+        <v>98.3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -2722,21 +2734,24 @@
         <v>937.1799999999999</v>
       </c>
       <c r="F3">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
+        <v>92.90000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -2748,21 +2763,24 @@
         <v>924.9400000000001</v>
       </c>
       <c r="F4">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
+        <v>90.2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -2774,21 +2792,24 @@
         <v>943.74</v>
       </c>
       <c r="F5">
-        <v>89.8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -2800,21 +2821,24 @@
         <v>940.2199999999998</v>
       </c>
       <c r="F6">
-        <v>75.2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
+        <v>76.59999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -2826,21 +2850,24 @@
         <v>871.8000000000002</v>
       </c>
       <c r="F7">
-        <v>35.5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>6.5</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -2852,21 +2879,24 @@
         <v>883.52</v>
       </c>
       <c r="F8">
-        <v>32.1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
+        <v>33.4</v>
+      </c>
+      <c r="G8">
+        <v>2.9</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -2878,21 +2908,24 @@
         <v>871.1800000000001</v>
       </c>
       <c r="F9">
-        <v>29.2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
+        <v>27.2</v>
+      </c>
+      <c r="G9">
+        <v>4.9</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -2904,21 +2937,24 @@
         <v>836.6800000000001</v>
       </c>
       <c r="F10">
-        <v>23.8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -2930,21 +2966,24 @@
         <v>894.14</v>
       </c>
       <c r="F11">
-        <v>20.2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
+        <v>21.1</v>
+      </c>
+      <c r="G11">
+        <v>10.9</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>0.2857142857142857</v>
@@ -2956,21 +2995,24 @@
         <v>881.7</v>
       </c>
       <c r="F12">
-        <v>11.8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
+        <v>14.1</v>
+      </c>
+      <c r="G12">
+        <v>11.9</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>0.2857142857142857</v>
@@ -2982,13 +3024,16 @@
         <v>775.22</v>
       </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
+        <v>1.2</v>
+      </c>
+      <c r="G13">
+        <v>54.6</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3009,16 +3054,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3029,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -3038,7 +3083,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3049,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -3058,7 +3103,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3069,7 +3114,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3078,7 +3123,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3089,7 +3134,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -3098,7 +3143,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3109,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3118,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3129,7 +3174,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3138,7 +3183,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3149,7 +3194,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -3158,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3169,7 +3214,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3178,7 +3223,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3189,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>-2</v>
@@ -3198,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3209,7 +3254,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>-3</v>
@@ -3218,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3229,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>-12</v>
@@ -3238,7 +3283,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3249,7 +3294,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>-13</v>
@@ -3258,7 +3303,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3276,28 +3321,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3326,7 +3371,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3355,7 +3400,7 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3384,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3413,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3442,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3471,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3500,7 +3545,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3529,7 +3574,7 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3558,7 +3603,7 @@
         <v>-2</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3587,7 +3632,7 @@
         <v>-3</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3616,7 +3661,7 @@
         <v>-12</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3645,7 +3690,7 @@
         <v>-13</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3663,25 +3708,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="117">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -60,25 +60,28 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -162,6 +165,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -186,52 +192,55 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>10.3-4.7-0.1</t>
-  </si>
-  <si>
-    <t>9.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>9.3-5.6-0.1</t>
-  </si>
-  <si>
-    <t>9.3-5.7</t>
-  </si>
-  <si>
-    <t>8.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>6.9-8.1-0.1</t>
-  </si>
-  <si>
-    <t>6.8-8.2-0.1</t>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>10.1-4.9</t>
+  </si>
+  <si>
+    <t>9.9-5.1-0.1</t>
+  </si>
+  <si>
+    <t>9.5-5.5-0.1</t>
+  </si>
+  <si>
+    <t>9.5-5.4-0.1</t>
+  </si>
+  <si>
+    <t>7.4-7.5</t>
+  </si>
+  <si>
+    <t>7.3-7.7</t>
+  </si>
+  <si>
+    <t>7.0-7.9-0.1</t>
   </si>
   <si>
     <t>6.6-8.3-0.1</t>
   </si>
   <si>
-    <t>6.5-8.4-0.1</t>
+    <t>6.3-8.7</t>
+  </si>
+  <si>
+    <t>5.7-9.2-0.1</t>
   </si>
   <si>
     <t>6.0-8.9-0.1</t>
   </si>
   <si>
-    <t>5.8-9.1-0.1</t>
-  </si>
-  <si>
-    <t>4.7-10.3-0.1</t>
+    <t>4.3-10.7-0.1</t>
   </si>
   <si>
     <t>10-5</t>
@@ -267,6 +276,12 @@
     <t>Dale Goodwin</t>
   </si>
   <si>
+    <t>Garrett Sullivan</t>
+  </si>
+  <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
     <t>Roy Armbruster</t>
   </si>
   <si>
@@ -279,45 +294,42 @@
     <t>Robert Schottler</t>
   </si>
   <si>
-    <t>Garrett Sullivan</t>
-  </si>
-  <si>
-    <t>Matthew Graesser</t>
-  </si>
-  <si>
     <t>Daniel Tracey</t>
   </si>
   <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
     <t>Jeffrey Laidacker</t>
   </si>
   <si>
-    <t>Hannah Davis</t>
-  </si>
-  <si>
-    <t>↑9</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓10</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -337,6 +349,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -767,13 +782,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -782,7 +797,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -794,10 +809,10 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -811,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -829,13 +844,13 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -849,34 +864,34 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
@@ -893,13 +908,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -917,10 +932,10 @@
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -972,37 +987,37 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1013,13 +1028,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1028,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -1043,7 +1058,7 @@
         <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1051,40 +1066,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1095,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1122,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -1133,25 +1148,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -1163,10 +1178,10 @@
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1180,10 +1195,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1215,28 +1230,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1245,10 +1260,10 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1266,13 +1281,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1283,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.833333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1297,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.916666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1311,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.083333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1322,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3.25</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1336,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1350,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1364,13 +1379,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1378,13 +1393,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.583333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1392,13 +1407,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1406,10 +1421,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1420,13 +1435,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1437,7 +1452,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>4.083333333333333</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1458,16 +1473,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1478,13 +1493,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.416666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D2">
-        <v>0.416666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1495,10 +1510,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>4.25</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.75</v>
+        <v>-0.833333333333333</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1509,13 +1524,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.833333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D4">
-        <v>-1.166666666666667</v>
+        <v>-1.25</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1526,16 +1541,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.1666666666666665</v>
+        <v>-1.416666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1543,16 +1558,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D6">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1560,16 +1575,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3.416666666666667</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1577,13 +1592,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D8">
-        <v>1.416666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1597,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.25</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1614,10 +1629,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1631,13 +1646,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>3.166666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666665</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1648,13 +1663,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.5</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1689,169 +1704,169 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>51.8</v>
+        <v>35.4</v>
       </c>
       <c r="C2">
-        <v>21.5</v>
+        <v>25.2</v>
       </c>
       <c r="D2">
-        <v>13.1</v>
+        <v>17.2</v>
       </c>
       <c r="E2">
-        <v>6.7</v>
+        <v>10.8</v>
       </c>
       <c r="F2">
+        <v>6.6</v>
+      </c>
+      <c r="G2">
         <v>2.7</v>
       </c>
-      <c r="G2">
-        <v>2.5</v>
-      </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="I2">
         <v>0.4</v>
       </c>
       <c r="J2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
         <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.1</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>14.8</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>18.9</v>
+        <v>25.1</v>
       </c>
       <c r="D3">
-        <v>19.3</v>
+        <v>24.3</v>
       </c>
       <c r="E3">
-        <v>18.5</v>
+        <v>15.4</v>
       </c>
       <c r="F3">
-        <v>12.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G3">
-        <v>8.5</v>
+        <v>4.8</v>
       </c>
       <c r="H3">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="I3">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>92.90000000000001</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>11.8</v>
+        <v>24.2</v>
       </c>
       <c r="C4">
-        <v>20.3</v>
+        <v>25.1</v>
       </c>
       <c r="D4">
-        <v>22.4</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>16.8</v>
+        <v>15.2</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="G4">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1860,51 +1875,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>90.2</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>15.9</v>
+        <v>18.4</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>18.6</v>
       </c>
       <c r="D5">
-        <v>17.5</v>
+        <v>23.2</v>
       </c>
       <c r="E5">
-        <v>15.7</v>
+        <v>20.4</v>
       </c>
       <c r="F5">
-        <v>10.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G5">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="H5">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="I5">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="J5">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>88</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1912,43 +1927,43 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>11.9</v>
+        <v>2.9</v>
       </c>
       <c r="D6">
-        <v>14.2</v>
+        <v>6.5</v>
       </c>
       <c r="E6">
-        <v>16.9</v>
+        <v>12.3</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="G6">
-        <v>11.8</v>
+        <v>14.6</v>
       </c>
       <c r="H6">
-        <v>10.4</v>
+        <v>12.5</v>
       </c>
       <c r="I6">
-        <v>6.4</v>
+        <v>13.4</v>
       </c>
       <c r="J6">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K6">
-        <v>1.9</v>
+        <v>6.2</v>
       </c>
       <c r="L6">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="M6">
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>76.59999999999999</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1956,43 +1971,43 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="E7">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>12.3</v>
       </c>
       <c r="G7">
-        <v>11.6</v>
+        <v>16.1</v>
       </c>
       <c r="H7">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="I7">
-        <v>13.8</v>
+        <v>12.8</v>
       </c>
       <c r="J7">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>10.7</v>
+        <v>11.5</v>
       </c>
       <c r="L7">
-        <v>9.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2003,84 +2018,84 @@
         <v>0.2</v>
       </c>
       <c r="C8">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F8">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="G8">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
       <c r="H8">
-        <v>13.6</v>
+        <v>16.7</v>
       </c>
       <c r="I8">
-        <v>13.8</v>
+        <v>17.5</v>
       </c>
       <c r="J8">
-        <v>14.5</v>
+        <v>13.2</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="L8">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="N8">
-        <v>33.4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="E9">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="F9">
-        <v>9.1</v>
+        <v>10.8</v>
       </c>
       <c r="G9">
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="H9">
-        <v>11.4</v>
+        <v>17</v>
       </c>
       <c r="I9">
+        <v>13.9</v>
+      </c>
+      <c r="J9">
         <v>14.9</v>
       </c>
-      <c r="J9">
-        <v>17.5</v>
-      </c>
       <c r="K9">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="L9">
-        <v>10.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M9">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>27.2</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2088,43 +2103,43 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="F10">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="G10">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H10">
-        <v>11.3</v>
+        <v>12.8</v>
       </c>
       <c r="I10">
-        <v>14.3</v>
+        <v>11.6</v>
       </c>
       <c r="J10">
-        <v>13.7</v>
+        <v>15.7</v>
       </c>
       <c r="K10">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="L10">
-        <v>15.2</v>
+        <v>18.1</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="N10">
-        <v>22</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2135,45 +2150,45 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="H11">
-        <v>11.7</v>
+        <v>10.9</v>
       </c>
       <c r="I11">
-        <v>12.3</v>
+        <v>11.1</v>
       </c>
       <c r="J11">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="K11">
-        <v>14.8</v>
+        <v>14.1</v>
       </c>
       <c r="L11">
-        <v>14.3</v>
+        <v>19.9</v>
       </c>
       <c r="M11">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="N11">
-        <v>21.1</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2182,37 +2197,37 @@
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E12">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="H12">
-        <v>10.8</v>
+        <v>9.6</v>
       </c>
       <c r="I12">
         <v>13.7</v>
       </c>
       <c r="J12">
-        <v>13.9</v>
+        <v>15.9</v>
       </c>
       <c r="K12">
-        <v>17.9</v>
+        <v>19.6</v>
       </c>
       <c r="L12">
-        <v>17.7</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>11.9</v>
+        <v>7.5</v>
       </c>
       <c r="N12">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2229,34 +2244,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="J13">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="K13">
-        <v>11.4</v>
+        <v>7.8</v>
       </c>
       <c r="L13">
-        <v>21.9</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>54.6</v>
+        <v>67.8</v>
       </c>
       <c r="N13">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2266,155 +2281,170 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>62.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C2">
-        <v>68.89999999999999</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="D2">
-        <v>90.40000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="E2">
-        <v>98</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="H2">
-        <v>99.5</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="I2">
+        <v>97.8</v>
+      </c>
+      <c r="J2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>98.09999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>99.40000000000001</v>
-      </c>
       <c r="C3">
-        <v>69.69999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="D3">
-        <v>83.59999999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="E3">
-        <v>87.09999999999999</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="F3">
-        <v>94.19999999999999</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>83.2</v>
+        <v>68.2</v>
       </c>
       <c r="H3">
-        <v>90.5</v>
+        <v>88.3</v>
       </c>
       <c r="I3">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>96.2</v>
+      </c>
+      <c r="J3">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C4">
-        <v>39.2</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="D4">
-        <v>64.5</v>
+        <v>65.2</v>
       </c>
       <c r="E4">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="F4">
-        <v>85.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="G4">
-        <v>94.39999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H4">
-        <v>90.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="I4">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="J4">
+        <v>95.59999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>98.09999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C5">
-        <v>89.5</v>
+        <v>72.8</v>
       </c>
       <c r="D5">
-        <v>93.89999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E5">
-        <v>79.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F5">
-        <v>92.80000000000001</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G5">
-        <v>67.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="H5">
-        <v>89.3</v>
+        <v>98.5</v>
       </c>
       <c r="I5">
-        <v>89.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>95.19999999999999</v>
+      </c>
+      <c r="J5">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2422,28 +2452,31 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D6">
-        <v>96.8</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="E6">
-        <v>99.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F6">
-        <v>80.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G6">
-        <v>74.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H6">
-        <v>77.2</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="I6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>57.2</v>
+      </c>
+      <c r="J6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2451,199 +2484,220 @@
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>46.1</v>
+        <v>45.1</v>
       </c>
       <c r="D7">
-        <v>57.49999999999999</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>35.3</v>
+        <v>40.2</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="G7">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="H7">
-        <v>32.7</v>
+        <v>35.9</v>
       </c>
       <c r="I7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>47.59999999999999</v>
+      </c>
+      <c r="J7">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="C8">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D8">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F8">
-        <v>15.9</v>
+        <v>14.9</v>
       </c>
       <c r="G8">
-        <v>43.8</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>31.4</v>
+        <v>30.6</v>
       </c>
       <c r="I8">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>35.3</v>
+      </c>
+      <c r="J8">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>3.7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>33.3</v>
+        <v>9.5</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>47.09999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="F9">
-        <v>22.5</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
-        <v>41.5</v>
+        <v>10.1</v>
       </c>
       <c r="H9">
-        <v>29.8</v>
+        <v>15.5</v>
       </c>
       <c r="I9">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>28.4</v>
+      </c>
+      <c r="J9">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>98.3</v>
       </c>
       <c r="D10">
-        <v>58.4</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>45.7</v>
+        <v>46.1</v>
       </c>
       <c r="F10">
-        <v>57.99999999999999</v>
+        <v>60</v>
       </c>
       <c r="G10">
-        <v>45.2</v>
+        <v>46.8</v>
       </c>
       <c r="H10">
-        <v>19.9</v>
+        <v>21.8</v>
       </c>
       <c r="I10">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16.6</v>
+      </c>
+      <c r="J10">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>3.2</v>
+      </c>
+      <c r="C11">
+        <v>29.7</v>
+      </c>
+      <c r="D11">
+        <v>20.9</v>
+      </c>
+      <c r="E11">
+        <v>45.5</v>
+      </c>
+      <c r="F11">
+        <v>21.6</v>
+      </c>
+      <c r="G11">
+        <v>37.8</v>
+      </c>
+      <c r="H11">
+        <v>26.9</v>
+      </c>
+      <c r="I11">
+        <v>14.6</v>
+      </c>
+      <c r="J11">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>1.3</v>
-      </c>
-      <c r="C11">
-        <v>35.4</v>
-      </c>
-      <c r="D11">
-        <v>12.3</v>
-      </c>
-      <c r="E11">
+      <c r="B12">
+        <v>1.9</v>
+      </c>
+      <c r="C12">
+        <v>34.3</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
         <v>13.7</v>
       </c>
-      <c r="F11">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="G11">
-        <v>15.1</v>
-      </c>
-      <c r="H11">
-        <v>23.5</v>
-      </c>
-      <c r="I11">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>10.7</v>
-      </c>
-      <c r="C12">
-        <v>10.6</v>
-      </c>
-      <c r="D12">
-        <v>17.4</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
       <c r="F12">
-        <v>5.4</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="G12">
-        <v>9.1</v>
+        <v>15.5</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>22.9</v>
       </c>
       <c r="I12">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13.3</v>
+      </c>
+      <c r="J12">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>23.1</v>
+        <v>21.1</v>
       </c>
       <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="F13">
+        <v>2.4</v>
+      </c>
+      <c r="G13">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="H13">
+        <v>2.2</v>
+      </c>
+      <c r="I13">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="J13">
         <v>0.6</v>
-      </c>
-      <c r="D13">
-        <v>1.9</v>
-      </c>
-      <c r="E13">
-        <v>4.5</v>
-      </c>
-      <c r="F13">
-        <v>1.9</v>
-      </c>
-      <c r="G13">
-        <v>5.2</v>
-      </c>
-      <c r="H13">
-        <v>1.4</v>
-      </c>
-      <c r="I13">
-        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -2661,147 +2715,147 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>145.1657142857143</v>
+        <v>139.6525</v>
       </c>
       <c r="E2">
-        <v>1016.16</v>
+        <v>1117.22</v>
       </c>
       <c r="F2">
-        <v>98.3</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>133.8828571428571</v>
+        <v>132.65</v>
       </c>
       <c r="E3">
-        <v>937.1799999999999</v>
+        <v>1061.2</v>
       </c>
       <c r="F3">
-        <v>92.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="D4">
-        <v>132.1342857142857</v>
+        <v>141.7425</v>
       </c>
       <c r="E4">
-        <v>924.9400000000001</v>
+        <v>1133.94</v>
       </c>
       <c r="F4">
-        <v>90.2</v>
+        <v>96.8</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>134.82</v>
+        <v>134.625</v>
       </c>
       <c r="E5">
-        <v>943.74</v>
+        <v>1077</v>
       </c>
       <c r="F5">
-        <v>88</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2809,28 +2863,28 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>134.3171428571428</v>
+        <v>129.8925</v>
       </c>
       <c r="E6">
-        <v>940.2199999999998</v>
+        <v>1039.14</v>
       </c>
       <c r="F6">
-        <v>76.59999999999999</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="G6">
         <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2838,28 +2892,28 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>124.5428571428572</v>
+        <v>123.1</v>
       </c>
       <c r="E7">
-        <v>871.8000000000002</v>
+        <v>984.8000000000002</v>
       </c>
       <c r="F7">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G7">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2867,57 +2921,57 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>126.2171428571429</v>
+        <v>123.035</v>
       </c>
       <c r="E8">
-        <v>883.52</v>
+        <v>984.28</v>
       </c>
       <c r="F8">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>2.9</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>124.4542857142857</v>
+        <v>127.59</v>
       </c>
       <c r="E9">
-        <v>871.1800000000001</v>
+        <v>1020.72</v>
       </c>
       <c r="F9">
-        <v>27.2</v>
+        <v>31.4</v>
       </c>
       <c r="G9">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2925,28 +2979,28 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>119.5257142857143</v>
+        <v>120.6825</v>
       </c>
       <c r="E10">
-        <v>836.6800000000001</v>
+        <v>965.46</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>18.4</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2954,57 +3008,57 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>127.7342857142857</v>
+        <v>127.04</v>
       </c>
       <c r="E11">
-        <v>894.14</v>
+        <v>1016.32</v>
       </c>
       <c r="F11">
-        <v>21.1</v>
+        <v>16.9</v>
       </c>
       <c r="G11">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D12">
-        <v>125.9571428571429</v>
+        <v>120.845</v>
       </c>
       <c r="E12">
-        <v>881.7</v>
+        <v>966.7600000000001</v>
       </c>
       <c r="F12">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="G12">
-        <v>11.9</v>
+        <v>7.5</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3012,28 +3066,28 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>110.7457142857143</v>
+        <v>108.5975</v>
       </c>
       <c r="E13">
-        <v>775.22</v>
+        <v>868.78</v>
       </c>
       <c r="F13">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
-        <v>54.6</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3051,19 +3105,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3074,16 +3128,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3094,16 +3148,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3114,16 +3168,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3131,19 +3185,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3151,16 +3205,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>94</v>
@@ -3171,19 +3225,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3191,19 +3245,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3211,19 +3265,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3231,19 +3285,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3254,16 +3308,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3271,19 +3325,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3291,19 +3345,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3313,39 +3367,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3370,11 +3427,14 @@
       <c r="H2">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3399,11 +3459,14 @@
       <c r="H3">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3428,185 +3491,206 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>-8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>-6</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
       <c r="D6">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E6">
         <v>-4</v>
       </c>
       <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <v>-2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="I9">
+        <v>-6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="I8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10">
-        <v>-2</v>
-      </c>
-      <c r="G10">
-        <v>-2</v>
-      </c>
-      <c r="H10">
-        <v>-2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3631,66 +3715,75 @@
       <c r="H11">
         <v>-3</v>
       </c>
-      <c r="I11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11">
+        <v>-8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>-3</v>
+      </c>
+      <c r="H12">
+        <v>-13</v>
+      </c>
+      <c r="I12">
+        <v>-10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-2</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-8</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-3</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>-4</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>-10</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>-12</v>
       </c>
-      <c r="I12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13">
-        <v>-3</v>
-      </c>
-      <c r="H13">
-        <v>-13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>97</v>
+      <c r="I13">
+        <v>-14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3793,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3708,25 +3801,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3734,25 +3827,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3760,25 +3853,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3789,22 +3882,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3812,25 +3905,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3838,25 +3931,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3864,25 +3957,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F7">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3890,25 +3983,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-11</v>
+      </c>
+      <c r="F8">
+        <v>-4</v>
+      </c>
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3919,22 +4012,22 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
       <c r="F9">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3942,25 +4035,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F10">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3968,25 +4061,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-7</v>
+      </c>
+      <c r="F11">
+        <v>-2</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3997,22 +4090,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4023,22 +4116,22 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4046,24 +4139,50 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="H14" t="s">
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
         <v>2</v>
       </c>
     </row>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="125">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -60,28 +60,31 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -168,6 +171,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -192,55 +198,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>10.1-4.9</t>
-  </si>
-  <si>
-    <t>9.9-5.1-0.1</t>
-  </si>
-  <si>
-    <t>9.5-5.5-0.1</t>
-  </si>
-  <si>
-    <t>9.5-5.4-0.1</t>
-  </si>
-  <si>
-    <t>7.4-7.5</t>
-  </si>
-  <si>
-    <t>7.3-7.7</t>
-  </si>
-  <si>
-    <t>7.0-7.9-0.1</t>
-  </si>
-  <si>
-    <t>6.6-8.3-0.1</t>
-  </si>
-  <si>
-    <t>6.3-8.7</t>
-  </si>
-  <si>
-    <t>5.7-9.2-0.1</t>
-  </si>
-  <si>
-    <t>6.0-8.9-0.1</t>
-  </si>
-  <si>
-    <t>4.3-10.7-0.1</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>10.5-4.5-0.1</t>
+  </si>
+  <si>
+    <t>10.0-5.0</t>
+  </si>
+  <si>
+    <t>9.3-5.7-0.1</t>
+  </si>
+  <si>
+    <t>9.3-5.6</t>
+  </si>
+  <si>
+    <t>8.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>7.5-7.4-0.1</t>
+  </si>
+  <si>
+    <t>7.2-7.8</t>
+  </si>
+  <si>
+    <t>6.9-8.1</t>
+  </si>
+  <si>
+    <t>6.4-8.5</t>
+  </si>
+  <si>
+    <t>5.8-9.2</t>
+  </si>
+  <si>
+    <t>5.0-10.0</t>
+  </si>
+  <si>
+    <t>3.8-11.2</t>
   </si>
   <si>
     <t>10-5</t>
@@ -249,12 +258,18 @@
     <t>9-6</t>
   </si>
   <si>
+    <t>8-7</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
     <t>6-9</t>
   </si>
   <si>
+    <t>5-10</t>
+  </si>
+  <si>
     <t>4-11</t>
   </si>
   <si>
@@ -270,64 +285,70 @@
     <t>Justin Fox</t>
   </si>
   <si>
+    <t>Roy Armbruster</t>
+  </si>
+  <si>
     <t>Jessica Stratton</t>
   </si>
   <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
     <t>Dale Goodwin</t>
   </si>
   <si>
     <t>Garrett Sullivan</t>
   </si>
   <si>
-    <t>Matthew Graesser</t>
-  </si>
-  <si>
-    <t>Roy Armbruster</t>
-  </si>
-  <si>
     <t>Dave Linton</t>
   </si>
   <si>
+    <t>Daniel Tracey</t>
+  </si>
+  <si>
     <t>Chungfu Yang</t>
   </si>
   <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
     <t>Robert Schottler</t>
   </si>
   <si>
-    <t>Daniel Tracey</t>
-  </si>
-  <si>
-    <t>Hannah Davis</t>
-  </si>
-  <si>
     <t>Jeffrey Laidacker</t>
   </si>
   <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -352,6 +373,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -782,25 +806,25 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -812,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -823,34 +847,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -864,37 +888,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -905,34 +929,34 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
@@ -943,37 +967,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
         <v>12</v>
@@ -984,37 +1008,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -1025,40 +1049,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1066,37 +1090,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
         <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1107,37 +1131,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -1148,40 +1172,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1189,28 +1213,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1222,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1230,40 +1254,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
       <c r="K13" t="s">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1281,13 +1305,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1298,10 +1322,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.916666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1312,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1326,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.916666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1337,13 +1361,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>3.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1351,13 +1375,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1365,13 +1389,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1382,10 +1406,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1393,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1407,10 +1431,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>4.25</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1424,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4.333333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1435,13 +1459,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>4.5</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1449,13 +1473,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1473,16 +1497,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1493,13 +1517,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.833333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D2">
         <v>0.833333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1510,13 +1534,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5.166666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.833333333333333</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1524,13 +1548,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="D4">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1541,16 +1565,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4.583333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D5">
-        <v>-1.416666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1558,16 +1582,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.25</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D6">
-        <v>1.25</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1578,13 +1602,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1592,16 +1616,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D8">
-        <v>1.916666666666667</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1609,16 +1633,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3.666666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.3333333333333335</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1626,13 +1650,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.583333333333333</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>-0.4166666666666665</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1646,13 +1670,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>3.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1663,13 +1687,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.083333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333348</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1686,7 +1710,7 @@
         <v>-0.08333333333333326</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1704,81 +1728,81 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>35.4</v>
+        <v>33.5</v>
       </c>
       <c r="C2">
-        <v>25.2</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="E2">
-        <v>10.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F2">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="G2">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H2">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1787,42 +1811,42 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>97.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>37.2</v>
       </c>
       <c r="C3">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24.3</v>
+        <v>18.8</v>
       </c>
       <c r="E3">
-        <v>15.4</v>
+        <v>11.2</v>
       </c>
       <c r="F3">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1831,42 +1855,42 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>97.8</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>24.2</v>
+        <v>11.3</v>
       </c>
       <c r="C4">
-        <v>25.1</v>
+        <v>17.9</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>23.6</v>
       </c>
       <c r="E4">
-        <v>15.2</v>
+        <v>22.9</v>
       </c>
       <c r="F4">
-        <v>9.6</v>
+        <v>13.8</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="H4">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1875,42 +1899,42 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>96.8</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>18.4</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="D5">
-        <v>23.2</v>
+        <v>20.3</v>
       </c>
       <c r="E5">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="G5">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="H5">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
         <v>0.1</v>
@@ -1919,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>95.2</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1927,307 +1951,307 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C6">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D6">
-        <v>6.5</v>
+        <v>9.1</v>
       </c>
       <c r="E6">
-        <v>12.3</v>
+        <v>15.7</v>
       </c>
       <c r="F6">
-        <v>17.2</v>
+        <v>22.3</v>
       </c>
       <c r="G6">
-        <v>14.6</v>
+        <v>17.5</v>
       </c>
       <c r="H6">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="I6">
-        <v>13.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="M6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>54.5</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="F7">
-        <v>12.3</v>
+        <v>13.5</v>
       </c>
       <c r="G7">
-        <v>16.1</v>
+        <v>18.2</v>
       </c>
       <c r="H7">
-        <v>13.2</v>
+        <v>17.1</v>
       </c>
       <c r="I7">
-        <v>12.8</v>
+        <v>16.5</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="K7">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M7">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>44</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="E8">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>11.9</v>
+        <v>15.8</v>
       </c>
       <c r="G8">
-        <v>12.4</v>
+        <v>20.3</v>
       </c>
       <c r="H8">
-        <v>16.7</v>
+        <v>20.7</v>
       </c>
       <c r="I8">
-        <v>17.5</v>
+        <v>13.7</v>
       </c>
       <c r="J8">
-        <v>13.2</v>
+        <v>11.5</v>
       </c>
       <c r="K8">
-        <v>11.4</v>
+        <v>5.3</v>
       </c>
       <c r="L8">
-        <v>7.3</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="N8">
-        <v>33</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="E9">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="F9">
-        <v>10.8</v>
+        <v>8.9</v>
       </c>
       <c r="G9">
-        <v>13.6</v>
+        <v>11.2</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>15.4</v>
       </c>
       <c r="I9">
-        <v>13.9</v>
+        <v>16.5</v>
       </c>
       <c r="J9">
-        <v>14.9</v>
+        <v>16.8</v>
       </c>
       <c r="K9">
-        <v>11.7</v>
+        <v>15</v>
       </c>
       <c r="L9">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="N9">
-        <v>31.4</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="F10">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="G10">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="H10">
-        <v>12.8</v>
+        <v>12.1</v>
       </c>
       <c r="I10">
-        <v>11.6</v>
+        <v>16.3</v>
       </c>
       <c r="J10">
-        <v>15.7</v>
+        <v>20.9</v>
       </c>
       <c r="K10">
-        <v>17</v>
+        <v>19.6</v>
       </c>
       <c r="L10">
-        <v>18.1</v>
+        <v>15.1</v>
       </c>
       <c r="M10">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="N10">
-        <v>18.4</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.3</v>
       </c>
-      <c r="D11">
-        <v>0.7</v>
-      </c>
       <c r="E11">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="G11">
-        <v>9.9</v>
+        <v>5.7</v>
       </c>
       <c r="H11">
-        <v>10.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
       <c r="J11">
-        <v>15.3</v>
+        <v>18.5</v>
       </c>
       <c r="K11">
-        <v>14.1</v>
+        <v>25.5</v>
       </c>
       <c r="L11">
-        <v>19.9</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>11.8</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>16.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="G12">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="H12">
-        <v>9.6</v>
+        <v>5.5</v>
       </c>
       <c r="I12">
+        <v>11.1</v>
+      </c>
+      <c r="J12">
+        <v>12.1</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>33.9</v>
+      </c>
+      <c r="M12">
         <v>13.7</v>
       </c>
-      <c r="J12">
-        <v>15.9</v>
-      </c>
-      <c r="K12">
-        <v>19.6</v>
-      </c>
-      <c r="L12">
-        <v>20</v>
-      </c>
-      <c r="M12">
-        <v>7.5</v>
-      </c>
       <c r="N12">
-        <v>13.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2244,34 +2268,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0.2</v>
       </c>
       <c r="H13">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="J13">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="K13">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>15.7</v>
       </c>
       <c r="M13">
-        <v>67.8</v>
+        <v>76.5</v>
       </c>
       <c r="N13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2281,42 +2305,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2324,63 +2351,69 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C2">
-        <v>69.89999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="D2">
-        <v>83.7</v>
+        <v>82.8</v>
       </c>
       <c r="E2">
-        <v>87.90000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="F2">
-        <v>94.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G2">
-        <v>83.39999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="H2">
-        <v>89.90000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I2">
+        <v>96.7</v>
+      </c>
+      <c r="J2">
+        <v>99.2</v>
+      </c>
+      <c r="K2">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>67.5</v>
+      </c>
+      <c r="C3">
+        <v>70.8</v>
+      </c>
+      <c r="D3">
+        <v>91.7</v>
+      </c>
+      <c r="E3">
+        <v>98.5</v>
+      </c>
+      <c r="F3">
+        <v>99</v>
+      </c>
+      <c r="G3">
+        <v>98.5</v>
+      </c>
+      <c r="H3">
         <v>97.8</v>
       </c>
-      <c r="J2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="C3">
-        <v>91.8</v>
-      </c>
-      <c r="D3">
-        <v>95.39999999999999</v>
-      </c>
-      <c r="E3">
-        <v>77.60000000000001</v>
-      </c>
-      <c r="F3">
-        <v>91</v>
-      </c>
-      <c r="G3">
-        <v>68.2</v>
-      </c>
-      <c r="H3">
-        <v>88.3</v>
-      </c>
       <c r="I3">
-        <v>96.2</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="J3">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2388,63 +2421,69 @@
         <v>99</v>
       </c>
       <c r="C4">
-        <v>39.90000000000001</v>
+        <v>42.1</v>
       </c>
       <c r="D4">
-        <v>65.2</v>
+        <v>64.3</v>
       </c>
       <c r="E4">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F4">
-        <v>88</v>
+        <v>86.3</v>
       </c>
       <c r="G4">
-        <v>95.09999999999999</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="H4">
-        <v>87.90000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="I4">
-        <v>97.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="J4">
-        <v>95.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>93</v>
+      </c>
+      <c r="K4">
+        <v>96.39999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>66.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C5">
-        <v>72.8</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>91.40000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="E5">
-        <v>98.3</v>
+        <v>79.7</v>
       </c>
       <c r="F5">
-        <v>97.89999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G5">
-        <v>98.3</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="H5">
-        <v>98.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="I5">
-        <v>95.19999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="J5">
-        <v>95.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="K5">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2452,252 +2491,276 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>96.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E6">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="F6">
-        <v>82.09999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="G6">
-        <v>75.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="H6">
-        <v>79.60000000000001</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="I6">
-        <v>57.2</v>
+        <v>57.8</v>
       </c>
       <c r="J6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="K6">
+        <v>68.89999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="C7">
-        <v>45.1</v>
+        <v>8</v>
       </c>
       <c r="D7">
+        <v>1.8</v>
+      </c>
+      <c r="E7">
+        <v>3.7</v>
+      </c>
+      <c r="F7">
+        <v>14.4</v>
+      </c>
+      <c r="G7">
+        <v>42.8</v>
+      </c>
+      <c r="H7">
+        <v>32.4</v>
+      </c>
+      <c r="I7">
+        <v>38.3</v>
+      </c>
+      <c r="J7">
+        <v>49.2</v>
+      </c>
+      <c r="K7">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C8">
+        <v>10.1</v>
+      </c>
+      <c r="D8">
+        <v>18.2</v>
+      </c>
+      <c r="E8">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F8">
+        <v>2.9</v>
+      </c>
+      <c r="G8">
+        <v>7.8</v>
+      </c>
+      <c r="H8">
+        <v>17.4</v>
+      </c>
+      <c r="I8">
+        <v>28.8</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
+        <v>45.9</v>
+      </c>
+      <c r="D9">
         <v>59</v>
       </c>
-      <c r="E7">
-        <v>40.2</v>
-      </c>
-      <c r="F7">
+      <c r="E9">
+        <v>37.2</v>
+      </c>
+      <c r="F9">
         <v>35.7</v>
       </c>
-      <c r="G7">
-        <v>20.3</v>
-      </c>
-      <c r="H7">
-        <v>35.9</v>
-      </c>
-      <c r="I7">
+      <c r="G9">
+        <v>22.7</v>
+      </c>
+      <c r="H9">
+        <v>33.3</v>
+      </c>
+      <c r="I9">
+        <v>48.9</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3.8</v>
+      </c>
+      <c r="C10">
+        <v>29.2</v>
+      </c>
+      <c r="D10">
+        <v>22.2</v>
+      </c>
+      <c r="E10">
+        <v>45.8</v>
+      </c>
+      <c r="F10">
+        <v>21.7</v>
+      </c>
+      <c r="G10">
+        <v>40.9</v>
+      </c>
+      <c r="H10">
+        <v>28.5</v>
+      </c>
+      <c r="I10">
+        <v>14.3</v>
+      </c>
+      <c r="J10">
+        <v>20.6</v>
+      </c>
+      <c r="K10">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <v>54.90000000000001</v>
+      </c>
+      <c r="E11">
+        <v>43.7</v>
+      </c>
+      <c r="F11">
+        <v>60.8</v>
+      </c>
+      <c r="G11">
         <v>47.59999999999999</v>
       </c>
-      <c r="J7">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>1.6</v>
-      </c>
-      <c r="C8">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3.2</v>
-      </c>
-      <c r="F8">
-        <v>14.9</v>
-      </c>
-      <c r="G8">
-        <v>43</v>
-      </c>
-      <c r="H8">
-        <v>30.6</v>
-      </c>
-      <c r="I8">
-        <v>35.3</v>
-      </c>
-      <c r="J8">
-        <v>39.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>9.5</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>6.4</v>
-      </c>
-      <c r="F9">
-        <v>3.9</v>
-      </c>
-      <c r="G9">
-        <v>10.1</v>
-      </c>
-      <c r="H9">
-        <v>15.5</v>
-      </c>
-      <c r="I9">
-        <v>28.4</v>
-      </c>
-      <c r="J9">
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C10">
-        <v>98.3</v>
-      </c>
-      <c r="D10">
-        <v>53</v>
-      </c>
-      <c r="E10">
-        <v>46.1</v>
-      </c>
-      <c r="F10">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>46.8</v>
-      </c>
-      <c r="H10">
-        <v>21.8</v>
-      </c>
-      <c r="I10">
-        <v>16.6</v>
-      </c>
-      <c r="J10">
-        <v>16.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>3.2</v>
-      </c>
-      <c r="C11">
-        <v>29.7</v>
-      </c>
-      <c r="D11">
-        <v>20.9</v>
-      </c>
-      <c r="E11">
-        <v>45.5</v>
-      </c>
-      <c r="F11">
-        <v>21.6</v>
-      </c>
-      <c r="G11">
-        <v>37.8</v>
-      </c>
       <c r="H11">
-        <v>26.9</v>
+        <v>19.7</v>
       </c>
       <c r="I11">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="J11">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>6.5</v>
+      </c>
+      <c r="K11">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="C12">
-        <v>34.3</v>
+        <v>33.6</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E12">
-        <v>13.7</v>
+        <v>14.5</v>
       </c>
       <c r="F12">
-        <v>8.200000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="G12">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="H12">
-        <v>22.9</v>
+        <v>24.6</v>
       </c>
       <c r="I12">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="J12">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>4.3</v>
+      </c>
+      <c r="K12">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>21.1</v>
+        <v>19.5</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>5.800000000000001</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="F13">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G13">
-        <v>5.899999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H13">
-        <v>2.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I13">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="J13">
-        <v>0.6</v>
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2715,147 +2778,147 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>139.6525</v>
+        <v>134.5111111111111</v>
       </c>
       <c r="E2">
-        <v>1117.22</v>
+        <v>1210.6</v>
       </c>
       <c r="F2">
-        <v>97.89999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>132.65</v>
+        <v>143.9111111111111</v>
       </c>
       <c r="E3">
-        <v>1061.2</v>
+        <v>1295.2</v>
       </c>
       <c r="F3">
-        <v>97.8</v>
+        <v>99.2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>141.7425</v>
+        <v>136.0222222222222</v>
       </c>
       <c r="E4">
-        <v>1133.94</v>
+        <v>1224.2</v>
       </c>
       <c r="F4">
-        <v>96.8</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>134.625</v>
+        <v>135.6866666666666</v>
       </c>
       <c r="E5">
-        <v>1077</v>
+        <v>1221.18</v>
       </c>
       <c r="F5">
-        <v>95.19999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2863,202 +2926,202 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>129.8925</v>
+        <v>129.3177777777778</v>
       </c>
       <c r="E6">
-        <v>1039.14</v>
+        <v>1163.86</v>
       </c>
       <c r="F6">
-        <v>54.50000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D7">
-        <v>123.1</v>
+        <v>123.7577777777778</v>
       </c>
       <c r="E7">
-        <v>984.8000000000002</v>
+        <v>1113.82</v>
       </c>
       <c r="F7">
-        <v>44</v>
+        <v>46.8</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D8">
-        <v>123.035</v>
+        <v>127.7888888888889</v>
       </c>
       <c r="E8">
-        <v>984.28</v>
+        <v>1150.1</v>
       </c>
       <c r="F8">
-        <v>33</v>
+        <v>45.1</v>
       </c>
       <c r="G8">
-        <v>0.8999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
-        <v>127.59</v>
+        <v>121.9822222222222</v>
       </c>
       <c r="E9">
-        <v>1020.72</v>
+        <v>1097.84</v>
       </c>
       <c r="F9">
-        <v>31.4</v>
+        <v>26.7</v>
       </c>
       <c r="G9">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D10">
-        <v>120.6825</v>
+        <v>119.4488888888889</v>
       </c>
       <c r="E10">
-        <v>965.46</v>
+        <v>1075.04</v>
       </c>
       <c r="F10">
-        <v>18.4</v>
+        <v>14.3</v>
       </c>
       <c r="G10">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>127.04</v>
+        <v>120.3333333333333</v>
       </c>
       <c r="E11">
-        <v>1016.32</v>
+        <v>1083</v>
       </c>
       <c r="F11">
-        <v>16.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G11">
-        <v>11.8</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>0.375</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D12">
-        <v>120.845</v>
+        <v>124.8155555555555</v>
       </c>
       <c r="E12">
-        <v>966.7600000000001</v>
+        <v>1123.34</v>
       </c>
       <c r="F12">
+        <v>3.7</v>
+      </c>
+      <c r="G12">
         <v>13.7</v>
       </c>
-      <c r="G12">
-        <v>7.5</v>
-      </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3066,28 +3129,28 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D13">
-        <v>108.5975</v>
+        <v>107.2777777777778</v>
       </c>
       <c r="E13">
-        <v>868.78</v>
+        <v>965.5</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G13">
-        <v>67.80000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3105,19 +3168,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3128,16 +3191,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3145,19 +3208,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3165,19 +3228,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3185,19 +3248,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3205,19 +3268,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3225,19 +3288,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3248,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3265,19 +3328,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3285,19 +3348,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3305,19 +3368,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3325,19 +3388,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3348,16 +3411,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D13">
-        <v>-14</v>
+        <v>-23</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3367,42 +3430,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3430,171 +3496,189 @@
       <c r="I2">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>-1</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>-5</v>
-      </c>
-      <c r="D4">
-        <v>-5</v>
-      </c>
-      <c r="E4">
-        <v>-10</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>-8</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
       <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>-1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
         <v>-4</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-5</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>-10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-8</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>-1</v>
       </c>
-      <c r="D6">
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>-1</v>
       </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>-2</v>
-      </c>
-      <c r="H6">
-        <v>-2</v>
-      </c>
-      <c r="I6">
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3622,139 +3706,154 @@
       <c r="I8">
         <v>-3</v>
       </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-11</v>
+      </c>
+      <c r="F9">
+        <v>-10</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-3</v>
+      </c>
+      <c r="I9">
+        <v>-8</v>
+      </c>
+      <c r="J9">
+        <v>-5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-6</v>
       </c>
-      <c r="J9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
+      <c r="J10">
+        <v>-9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-3</v>
+      </c>
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11">
+        <v>-10</v>
+      </c>
+      <c r="J11">
+        <v>-9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>-1</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>-8</v>
       </c>
-      <c r="J10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>-2</v>
-      </c>
-      <c r="E11">
-        <v>-11</v>
-      </c>
-      <c r="F11">
-        <v>-10</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-      <c r="H11">
-        <v>-3</v>
-      </c>
-      <c r="I11">
-        <v>-8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-      <c r="G12">
-        <v>-3</v>
-      </c>
-      <c r="H12">
-        <v>-13</v>
-      </c>
-      <c r="I12">
-        <v>-10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12">
+        <v>-15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3782,8 +3881,11 @@
       <c r="I13">
         <v>-14</v>
       </c>
-      <c r="J13" t="s">
-        <v>101</v>
+      <c r="J13">
+        <v>-23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3793,7 +3895,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3801,25 +3903,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3879,25 +3981,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3908,22 +4010,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3931,25 +4033,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3957,25 +4059,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3983,25 +4085,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F8">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4009,25 +4111,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-11</v>
+      </c>
+      <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4035,25 +4137,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
       <c r="F10">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
         <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4061,22 +4163,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>-7</v>
-      </c>
       <c r="F11">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
         <v>2</v>
@@ -4090,22 +4192,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4113,25 +4215,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="F13">
         <v>-2</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4142,22 +4244,22 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4165,25 +4267,51 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>-2</v>
+      </c>
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15">
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="127">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -60,31 +60,34 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>9-0-0</t>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>10-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -174,6 +177,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -198,66 +204,69 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>10.5-4.5-0.1</t>
-  </si>
-  <si>
-    <t>10.0-5.0</t>
-  </si>
-  <si>
-    <t>9.3-5.7-0.1</t>
-  </si>
-  <si>
-    <t>9.3-5.6</t>
-  </si>
-  <si>
-    <t>8.0-6.9-0.1</t>
-  </si>
-  <si>
-    <t>7.5-7.4-0.1</t>
-  </si>
-  <si>
-    <t>7.2-7.8</t>
-  </si>
-  <si>
-    <t>6.9-8.1</t>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>10.7-4.2-0.1</t>
+  </si>
+  <si>
+    <t>10.2-4.8</t>
+  </si>
+  <si>
+    <t>9.7-5.2</t>
+  </si>
+  <si>
+    <t>9.9-5.0</t>
+  </si>
+  <si>
+    <t>8.5-6.4</t>
+  </si>
+  <si>
+    <t>7.6-7.4</t>
+  </si>
+  <si>
+    <t>7.2-7.7</t>
   </si>
   <si>
     <t>6.4-8.5</t>
   </si>
   <si>
-    <t>5.8-9.2</t>
-  </si>
-  <si>
-    <t>5.0-10.0</t>
-  </si>
-  <si>
-    <t>3.8-11.2</t>
+    <t>6.0-8.9</t>
+  </si>
+  <si>
+    <t>5.3-9.7</t>
+  </si>
+  <si>
+    <t>4.7-10.3</t>
+  </si>
+  <si>
+    <t>3.5-11.5</t>
+  </si>
+  <si>
+    <t>11-4</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
-    <t>9-6</t>
-  </si>
-  <si>
     <t>8-7</t>
   </si>
   <si>
@@ -270,7 +279,7 @@
     <t>5-10</t>
   </si>
   <si>
-    <t>4-11</t>
+    <t>3-12</t>
   </si>
   <si>
     <t>Owners</t>
@@ -288,67 +297,61 @@
     <t>Roy Armbruster</t>
   </si>
   <si>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
     <t>Jessica Stratton</t>
   </si>
   <si>
     <t>Matthew Graesser</t>
   </si>
   <si>
-    <t>Dale Goodwin</t>
+    <t>Dave Linton</t>
   </si>
   <si>
     <t>Garrett Sullivan</t>
   </si>
   <si>
-    <t>Dave Linton</t>
-  </si>
-  <si>
     <t>Daniel Tracey</t>
   </si>
   <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
     <t>Chungfu Yang</t>
   </si>
   <si>
-    <t>Hannah Davis</t>
-  </si>
-  <si>
     <t>Robert Schottler</t>
   </si>
   <si>
     <t>Jeffrey Laidacker</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
     <t>↓3</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -376,6 +379,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -809,13 +815,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -836,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -850,13 +856,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -865,16 +871,16 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -888,37 +894,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -938,28 +944,28 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -982,25 +988,25 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
         <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1011,37 +1017,37 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1049,40 +1055,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1090,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1099,31 +1105,31 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
         <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1131,16 +1137,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1149,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -1158,13 +1164,13 @@
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1172,25 +1178,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -1199,13 +1205,13 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1216,13 +1222,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1231,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1240,13 +1246,13 @@
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1254,40 +1260,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" t="s">
         <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1305,13 +1311,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1322,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1336,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.833333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1347,13 +1353,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>4.083333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1361,13 +1367,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1375,10 +1381,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1389,13 +1395,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.416666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1403,10 +1409,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1417,13 +1423,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1434,10 +1440,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4.833333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1445,13 +1451,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>4.916666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1459,13 +1465,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>5.083333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1476,10 +1482,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>5.333333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1497,16 +1503,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1517,10 +1523,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.833333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D2">
-        <v>0.833333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1534,10 +1540,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5.916666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333304</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1551,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D4">
-        <v>-1.5</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1565,16 +1571,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.916666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D5">
-        <v>0.916666666666667</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1582,16 +1588,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D6">
-        <v>-1.166666666666667</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1599,16 +1605,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.583333333333333</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>-0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1616,13 +1622,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4.333333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.666666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1633,16 +1639,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4.083333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D9">
-        <v>2.083333333333333</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1650,16 +1656,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1670,13 +1676,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>3.583333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D11">
-        <v>-0.4166666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1687,13 +1693,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1704,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1.916666666666667</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>-0.08333333333333326</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1728,46 +1734,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1775,31 +1781,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>24.5</v>
       </c>
       <c r="D2">
-        <v>18.3</v>
+        <v>21.8</v>
       </c>
       <c r="E2">
-        <v>9.300000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="F2">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="G2">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H2">
         <v>0.2</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1811,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1819,28 +1825,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>37.2</v>
+        <v>30.6</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26.4</v>
       </c>
       <c r="D3">
-        <v>18.8</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>11.2</v>
+        <v>14.9</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1855,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1863,34 +1869,34 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>11.3</v>
+        <v>13.3</v>
       </c>
       <c r="C4">
-        <v>17.9</v>
+        <v>18.8</v>
       </c>
       <c r="D4">
-        <v>23.6</v>
+        <v>26.1</v>
       </c>
       <c r="E4">
-        <v>22.9</v>
+        <v>22.3</v>
       </c>
       <c r="F4">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="G4">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="I4">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1899,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>95.2</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1907,43 +1913,43 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>19.4</v>
       </c>
       <c r="C5">
-        <v>18.5</v>
+        <v>22.7</v>
       </c>
       <c r="D5">
-        <v>20.3</v>
+        <v>19.4</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="F5">
-        <v>9.4</v>
+        <v>11.1</v>
       </c>
       <c r="G5">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="I5">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>90.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1951,175 +1957,175 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="D6">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="E6">
-        <v>15.7</v>
+        <v>17.5</v>
       </c>
       <c r="F6">
-        <v>22.3</v>
+        <v>30.9</v>
       </c>
       <c r="G6">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="H6">
-        <v>12.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
-        <v>8.300000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>70.09999999999999</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="E7">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="F7">
-        <v>13.5</v>
+        <v>18.1</v>
       </c>
       <c r="G7">
-        <v>18.2</v>
+        <v>26.4</v>
       </c>
       <c r="H7">
-        <v>17.1</v>
+        <v>22.5</v>
       </c>
       <c r="I7">
-        <v>16.5</v>
+        <v>11.6</v>
       </c>
       <c r="J7">
-        <v>10.7</v>
+        <v>7.7</v>
       </c>
       <c r="K7">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="L7">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N7">
-        <v>46.8</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="F8">
-        <v>15.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G8">
-        <v>20.3</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>20.7</v>
+        <v>24</v>
       </c>
       <c r="I8">
-        <v>13.7</v>
+        <v>18.5</v>
       </c>
       <c r="J8">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="K8">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>45.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0.2</v>
       </c>
-      <c r="D9">
-        <v>1.1</v>
-      </c>
       <c r="E9">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="F9">
-        <v>8.9</v>
+        <v>2.9</v>
       </c>
       <c r="G9">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="H9">
-        <v>15.4</v>
+        <v>20.9</v>
       </c>
       <c r="I9">
-        <v>16.5</v>
+        <v>24.6</v>
       </c>
       <c r="J9">
-        <v>16.8</v>
+        <v>17.7</v>
       </c>
       <c r="K9">
-        <v>15</v>
+        <v>13.1</v>
       </c>
       <c r="L9">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="M9">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="N9">
-        <v>26.7</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2133,37 +2139,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="G10">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="H10">
-        <v>12.1</v>
+        <v>11</v>
       </c>
       <c r="I10">
+        <v>18.6</v>
+      </c>
+      <c r="J10">
+        <v>23.5</v>
+      </c>
+      <c r="K10">
+        <v>22.4</v>
+      </c>
+      <c r="L10">
         <v>16.3</v>
       </c>
-      <c r="J10">
-        <v>20.9</v>
-      </c>
-      <c r="K10">
-        <v>19.6</v>
-      </c>
-      <c r="L10">
-        <v>15.1</v>
-      </c>
       <c r="M10">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N10">
-        <v>14.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2177,37 +2183,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>8.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="I11">
-        <v>12.5</v>
+        <v>10.7</v>
       </c>
       <c r="J11">
-        <v>18.5</v>
+        <v>20.6</v>
       </c>
       <c r="K11">
-        <v>25.5</v>
+        <v>26.6</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>27.3</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N11">
-        <v>8.300000000000001</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2224,34 +2230,34 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H12">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
       <c r="J12">
-        <v>12.1</v>
+        <v>15.9</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>23.9</v>
       </c>
       <c r="L12">
-        <v>33.9</v>
+        <v>32.9</v>
       </c>
       <c r="M12">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="N12">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2274,28 +2280,28 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0.3</v>
       </c>
-      <c r="I13">
-        <v>0.9</v>
-      </c>
       <c r="J13">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="K13">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="L13">
-        <v>15.7</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>76.5</v>
+        <v>78.8</v>
       </c>
       <c r="N13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2305,115 +2311,124 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>67.10000000000001</v>
+      </c>
+      <c r="C2">
+        <v>71.7</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F2">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G2">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="H2">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I2">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="J2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="K2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="L2">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C2">
-        <v>71.2</v>
-      </c>
-      <c r="D2">
+      <c r="B3">
+        <v>99.3</v>
+      </c>
+      <c r="C3">
+        <v>68.5</v>
+      </c>
+      <c r="D3">
         <v>82.8</v>
       </c>
-      <c r="E2">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="F2">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="G2">
-        <v>81.8</v>
-      </c>
-      <c r="H2">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="I2">
-        <v>96.7</v>
-      </c>
-      <c r="J2">
-        <v>99.2</v>
-      </c>
-      <c r="K2">
-        <v>99.40000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>67.5</v>
-      </c>
-      <c r="C3">
-        <v>70.8</v>
-      </c>
-      <c r="D3">
-        <v>91.7</v>
-      </c>
       <c r="E3">
-        <v>98.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G3">
-        <v>98.5</v>
+        <v>83.3</v>
       </c>
       <c r="H3">
-        <v>97.8</v>
+        <v>90.3</v>
       </c>
       <c r="I3">
-        <v>94.69999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="J3">
         <v>98.59999999999999</v>
       </c>
       <c r="K3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>99.8</v>
+      </c>
+      <c r="L3">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2421,69 +2436,75 @@
         <v>99</v>
       </c>
       <c r="C4">
-        <v>42.1</v>
+        <v>40.9</v>
       </c>
       <c r="D4">
-        <v>64.3</v>
+        <v>64.8</v>
       </c>
       <c r="E4">
-        <v>76.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F4">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G4">
-        <v>92.60000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H4">
-        <v>91.10000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I4">
-        <v>95.5</v>
+        <v>96.7</v>
       </c>
       <c r="J4">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="K4">
-        <v>96.39999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>98.7</v>
+      </c>
+      <c r="L4">
+        <v>97.89999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="D5">
-        <v>93.10000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="E5">
-        <v>79.7</v>
+        <v>76.3</v>
       </c>
       <c r="F5">
-        <v>92.90000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="G5">
-        <v>69.69999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="H5">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="I5">
-        <v>96.39999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="J5">
-        <v>92.30000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="K5">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="L5">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2491,209 +2512,227 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D6">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E6">
-        <v>98.8</v>
+        <v>99.2</v>
       </c>
       <c r="F6">
-        <v>81.5</v>
+        <v>78.8</v>
       </c>
       <c r="G6">
-        <v>76.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H6">
-        <v>77.10000000000001</v>
+        <v>78</v>
       </c>
       <c r="I6">
-        <v>57.8</v>
+        <v>55.8</v>
       </c>
       <c r="J6">
         <v>64.09999999999999</v>
       </c>
       <c r="K6">
-        <v>68.89999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>83.89999999999999</v>
+      </c>
+      <c r="L6">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="D7">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="E7">
+        <v>41.5</v>
+      </c>
+      <c r="F7">
+        <v>33.7</v>
+      </c>
+      <c r="G7">
+        <v>19.6</v>
+      </c>
+      <c r="H7">
+        <v>35.4</v>
+      </c>
+      <c r="I7">
+        <v>47</v>
+      </c>
+      <c r="J7">
+        <v>26.2</v>
+      </c>
+      <c r="K7">
+        <v>54.8</v>
+      </c>
+      <c r="L7">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B8">
+        <v>2.8</v>
+      </c>
+      <c r="C8">
+        <v>7.5</v>
+      </c>
+      <c r="D8">
         <v>1.5</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1.8</v>
-      </c>
-      <c r="E7">
-        <v>3.7</v>
-      </c>
-      <c r="F7">
-        <v>14.4</v>
-      </c>
-      <c r="G7">
-        <v>42.8</v>
-      </c>
-      <c r="H7">
-        <v>32.4</v>
-      </c>
-      <c r="I7">
-        <v>38.3</v>
-      </c>
-      <c r="J7">
-        <v>49.2</v>
-      </c>
-      <c r="K7">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="E8">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="F8">
+        <v>18.3</v>
+      </c>
+      <c r="G8">
+        <v>45.1</v>
+      </c>
+      <c r="H8">
+        <v>34.7</v>
+      </c>
+      <c r="I8">
+        <v>37.2</v>
+      </c>
+      <c r="J8">
+        <v>49.7</v>
+      </c>
+      <c r="K8">
+        <v>36.5</v>
+      </c>
+      <c r="L8">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>7.8</v>
+      </c>
+      <c r="C9">
         <v>10.1</v>
       </c>
-      <c r="D8">
-        <v>18.2</v>
-      </c>
-      <c r="E8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F8">
-        <v>2.9</v>
-      </c>
-      <c r="G8">
-        <v>7.8</v>
-      </c>
-      <c r="H8">
-        <v>17.4</v>
-      </c>
-      <c r="I8">
-        <v>28.8</v>
-      </c>
-      <c r="J8">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
-        <v>45.9</v>
-      </c>
       <c r="D9">
-        <v>59</v>
+        <v>18.9</v>
       </c>
       <c r="E9">
-        <v>37.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F9">
-        <v>35.7</v>
+        <v>4.7</v>
       </c>
       <c r="G9">
-        <v>22.7</v>
+        <v>9.6</v>
       </c>
       <c r="H9">
-        <v>33.3</v>
+        <v>12.9</v>
       </c>
       <c r="I9">
-        <v>48.9</v>
+        <v>29.2</v>
       </c>
       <c r="J9">
-        <v>30</v>
+        <v>44.1</v>
       </c>
       <c r="K9">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>16.6</v>
+      </c>
+      <c r="L9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="C10">
-        <v>29.2</v>
+        <v>30.7</v>
       </c>
       <c r="D10">
-        <v>22.2</v>
+        <v>21.1</v>
       </c>
       <c r="E10">
-        <v>45.8</v>
+        <v>42.7</v>
       </c>
       <c r="F10">
-        <v>21.7</v>
+        <v>24.1</v>
       </c>
       <c r="G10">
-        <v>40.9</v>
+        <v>39.1</v>
       </c>
       <c r="H10">
-        <v>28.5</v>
+        <v>26.1</v>
       </c>
       <c r="I10">
-        <v>14.3</v>
+        <v>15.9</v>
       </c>
       <c r="J10">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>7.3</v>
+      </c>
+      <c r="L10">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="D11">
-        <v>54.90000000000001</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="E11">
-        <v>43.7</v>
+        <v>44.8</v>
       </c>
       <c r="F11">
-        <v>60.8</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="G11">
-        <v>47.59999999999999</v>
+        <v>44.9</v>
       </c>
       <c r="H11">
-        <v>19.7</v>
+        <v>22.8</v>
       </c>
       <c r="I11">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="J11">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="K11">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>4.8</v>
+      </c>
+      <c r="L11">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2701,48 +2740,51 @@
         <v>1.6</v>
       </c>
       <c r="C12">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="D12">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="E12">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F12">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G12">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="H12">
-        <v>24.6</v>
+        <v>22.8</v>
       </c>
       <c r="I12">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="J12">
-        <v>4.3</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="K12">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>1.1</v>
+      </c>
+      <c r="L12">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>19.5</v>
+        <v>20.3</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="E13">
-        <v>5.899999999999999</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="F13">
         <v>2.1</v>
@@ -2751,16 +2793,19 @@
         <v>5.1</v>
       </c>
       <c r="H13">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="I13">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2778,31 +2823,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2810,28 +2855,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>134.5111111111111</v>
+        <v>135.49</v>
       </c>
       <c r="E2">
-        <v>1210.6</v>
+        <v>1354.9</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2839,28 +2884,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>143.9111111111111</v>
+        <v>141.51</v>
       </c>
       <c r="E3">
-        <v>1295.2</v>
+        <v>1415.1</v>
       </c>
       <c r="F3">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2868,28 +2913,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>136.0222222222222</v>
+        <v>137.19</v>
       </c>
       <c r="E4">
-        <v>1224.2</v>
+        <v>1371.9</v>
       </c>
       <c r="F4">
-        <v>95.19999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2897,28 +2942,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
-        <v>135.6866666666666</v>
+        <v>137.222</v>
       </c>
       <c r="E5">
-        <v>1221.18</v>
+        <v>1372.22</v>
       </c>
       <c r="F5">
-        <v>90.8</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2926,115 +2971,115 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>129.3177777777778</v>
+        <v>131.85</v>
       </c>
       <c r="E6">
-        <v>1163.86</v>
+        <v>1318.5</v>
       </c>
       <c r="F6">
-        <v>70.09999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>123.7577777777778</v>
+        <v>126.012</v>
       </c>
       <c r="E7">
-        <v>1113.82</v>
+        <v>1260.12</v>
       </c>
       <c r="F7">
-        <v>46.8</v>
+        <v>53.5</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>127.7888888888889</v>
+        <v>124.134</v>
       </c>
       <c r="E8">
-        <v>1150.1</v>
+        <v>1241.34</v>
       </c>
       <c r="F8">
-        <v>45.1</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>121.9822222222222</v>
+        <v>122.994</v>
       </c>
       <c r="E9">
-        <v>1097.84</v>
+        <v>1229.94</v>
       </c>
       <c r="F9">
-        <v>26.7</v>
+        <v>15.9</v>
       </c>
       <c r="G9">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3042,28 +3087,28 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>119.4488888888889</v>
+        <v>117.524</v>
       </c>
       <c r="E10">
-        <v>1075.04</v>
+        <v>1175.24</v>
       </c>
       <c r="F10">
-        <v>14.3</v>
+        <v>6.4</v>
       </c>
       <c r="G10">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3071,28 +3116,28 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>120.3333333333333</v>
+        <v>119.312</v>
       </c>
       <c r="E11">
-        <v>1083</v>
+        <v>1193.12</v>
       </c>
       <c r="F11">
-        <v>8.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3100,28 +3145,28 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>124.8155555555555</v>
+        <v>124.154</v>
       </c>
       <c r="E12">
-        <v>1123.34</v>
+        <v>1241.54</v>
       </c>
       <c r="F12">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="G12">
-        <v>13.7</v>
+        <v>12.3</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3129,28 +3174,28 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>107.2777777777778</v>
+        <v>104.912</v>
       </c>
       <c r="E13">
-        <v>965.5</v>
+        <v>1049.12</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>76.5</v>
+        <v>78.8</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3168,19 +3213,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3191,16 +3236,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3211,16 +3256,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3228,19 +3273,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3248,19 +3293,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3268,19 +3313,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3288,19 +3333,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3308,19 +3353,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3331,16 +3376,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3348,19 +3393,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3368,10 +3413,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D11">
         <v>-9</v>
@@ -3380,7 +3425,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3391,16 +3436,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D12">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3411,16 +3456,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3430,45 +3475,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3499,11 +3547,14 @@
       <c r="J2">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3534,186 +3585,204 @@
       <c r="J3">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <v>-5</v>
+      </c>
+      <c r="E4">
+        <v>-10</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-8</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>-2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>7</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
       </c>
       <c r="D5">
         <v>-1</v>
       </c>
       <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
         <v>-4</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-2</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>-2</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>-2</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>7</v>
       </c>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
         <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>-5</v>
-      </c>
-      <c r="D6">
-        <v>-5</v>
-      </c>
-      <c r="E6">
-        <v>-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>-8</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
       </c>
       <c r="G7">
         <v>-1</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>-3</v>
+      </c>
+      <c r="J7">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="L7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="K7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>-1</v>
       </c>
       <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>-3</v>
-      </c>
-      <c r="J8">
-        <v>-1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3744,81 +3813,90 @@
       <c r="J9">
         <v>-5</v>
       </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>-2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
       <c r="D10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="I10">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="J10">
         <v>-9</v>
       </c>
-      <c r="K10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
       <c r="D11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11">
-        <v>-3</v>
-      </c>
-      <c r="H11">
-        <v>-13</v>
-      </c>
       <c r="I11">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="J11">
         <v>-9</v>
       </c>
-      <c r="K11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11">
+        <v>-9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3849,11 +3927,14 @@
       <c r="J12">
         <v>-15</v>
       </c>
-      <c r="K12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>-20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3884,8 +3965,11 @@
       <c r="J13">
         <v>-23</v>
       </c>
-      <c r="K13" t="s">
-        <v>108</v>
+      <c r="K13">
+        <v>-27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +3979,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3903,25 +3987,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4085,25 +4169,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4111,25 +4195,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F9">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4137,25 +4221,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>-11</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="G10">
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4163,25 +4247,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
+      <c r="H11" t="s">
         <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4192,22 +4276,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>-4</v>
-      </c>
       <c r="F12">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4215,25 +4299,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F13">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4241,77 +4325,25 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-7</v>
+      </c>
+      <c r="F14">
+        <v>-2</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
       <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
         <v>2</v>
-      </c>
-      <c r="F15">
-        <v>-2</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="130">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Team Schottler</t>
   </si>
   <si>
-    <t>Garrett's Derp Perp</t>
+    <t>Garrett's Derk Prerscert</t>
   </si>
   <si>
     <t>Yangblood Bravesheart</t>
@@ -60,34 +60,34 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>10-0-0</t>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -180,6 +180,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -204,61 +207,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>10.7-4.2-0.1</t>
-  </si>
-  <si>
-    <t>10.2-4.8</t>
-  </si>
-  <si>
-    <t>9.7-5.2</t>
-  </si>
-  <si>
-    <t>9.9-5.0</t>
-  </si>
-  <si>
-    <t>8.5-6.4</t>
-  </si>
-  <si>
-    <t>7.6-7.4</t>
-  </si>
-  <si>
-    <t>7.2-7.7</t>
-  </si>
-  <si>
-    <t>6.4-8.5</t>
-  </si>
-  <si>
-    <t>6.0-8.9</t>
-  </si>
-  <si>
-    <t>5.3-9.7</t>
-  </si>
-  <si>
-    <t>4.7-10.3</t>
-  </si>
-  <si>
-    <t>3.5-11.5</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>10.6-4.3</t>
+  </si>
+  <si>
+    <t>10.3-4.7</t>
+  </si>
+  <si>
+    <t>9.3-5.7</t>
+  </si>
+  <si>
+    <t>9.1-5.8</t>
+  </si>
+  <si>
+    <t>9.2-5.7</t>
+  </si>
+  <si>
+    <t>7.9-7.0</t>
+  </si>
+  <si>
+    <t>7.0-8.0</t>
+  </si>
+  <si>
+    <t>6.6-8.3</t>
+  </si>
+  <si>
+    <t>6.7-8.2</t>
+  </si>
+  <si>
+    <t>5.8-9.2</t>
+  </si>
+  <si>
+    <t>3.2-11.8</t>
+  </si>
+  <si>
+    <t>4.0-11.0</t>
   </si>
   <si>
     <t>11-4</t>
@@ -267,6 +267,9 @@
     <t>10-5</t>
   </si>
   <si>
+    <t>9-6</t>
+  </si>
+  <si>
     <t>8-7</t>
   </si>
   <si>
@@ -276,12 +279,12 @@
     <t>6-9</t>
   </si>
   <si>
-    <t>5-10</t>
-  </si>
-  <si>
     <t>3-12</t>
   </si>
   <si>
+    <t>4-11</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -297,13 +300,16 @@
     <t>Roy Armbruster</t>
   </si>
   <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
+    <t>Jessica Stratton</t>
+  </si>
+  <si>
     <t>Dale Goodwin</t>
   </si>
   <si>
-    <t>Jessica Stratton</t>
-  </si>
-  <si>
-    <t>Matthew Graesser</t>
+    <t>Chungfu Yang</t>
   </si>
   <si>
     <t>Dave Linton</t>
@@ -318,40 +324,40 @@
     <t>Hannah Davis</t>
   </si>
   <si>
-    <t>Chungfu Yang</t>
-  </si>
-  <si>
     <t>Robert Schottler</t>
   </si>
   <si>
     <t>Jeffrey Laidacker</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↓7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -382,6 +388,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -815,10 +824,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -830,16 +839,16 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -853,34 +862,34 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
         <v>13</v>
@@ -906,13 +915,13 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -935,34 +944,34 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -976,37 +985,37 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1020,7 +1029,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1035,16 +1044,16 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -1058,13 +1067,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1076,16 +1085,16 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
@@ -1143,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1158,16 +1167,16 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -1181,13 +1190,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1196,19 +1205,19 @@
         <v>17</v>
       </c>
       <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
       </c>
       <c r="M11" t="s">
         <v>12</v>
@@ -1225,7 +1234,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1243,13 +1252,13 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
@@ -1263,34 +1272,34 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
@@ -1328,10 +1337,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3.666666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1342,10 +1351,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1356,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>4.333333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1367,13 +1376,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4.75</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1381,13 +1390,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1395,10 +1404,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>4.916666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1409,10 +1418,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1423,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1437,13 +1446,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>5.416666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1451,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>5.666666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1465,13 +1474,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>5.75</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1482,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1523,10 +1532,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.333333333333333</v>
+        <v>8.25</v>
       </c>
       <c r="D2">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1540,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.333333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1557,13 +1566,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>6.166666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D4">
-        <v>-1.833333333333333</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1571,16 +1580,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>5.666666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
-        <v>-1.333333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1588,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1608,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1625,10 +1634,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.916666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D8">
-        <v>0.916666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1642,13 +1651,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>4.833333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.166666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1659,13 +1668,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>4.416666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D10">
-        <v>2.416666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1676,10 +1685,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>3.75</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.25</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1693,10 +1702,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -1716,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1778,28 +1787,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>33.7</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>24.5</v>
+        <v>23.2</v>
       </c>
       <c r="D2">
-        <v>21.8</v>
+        <v>10.3</v>
       </c>
       <c r="E2">
-        <v>12.4</v>
+        <v>5.4</v>
       </c>
       <c r="F2">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1817,36 +1826,36 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>30.6</v>
+        <v>24.8</v>
       </c>
       <c r="C3">
-        <v>26.4</v>
+        <v>32.4</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="F3">
         <v>6.1</v>
       </c>
       <c r="G3">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1861,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1869,28 +1878,28 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>13.3</v>
+        <v>6.8</v>
       </c>
       <c r="C4">
-        <v>18.8</v>
+        <v>15.1</v>
       </c>
       <c r="D4">
-        <v>26.1</v>
+        <v>29.2</v>
       </c>
       <c r="E4">
-        <v>22.3</v>
+        <v>23.3</v>
       </c>
       <c r="F4">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="H4">
+        <v>1.5</v>
+      </c>
+      <c r="I4">
         <v>1.1</v>
-      </c>
-      <c r="I4">
-        <v>0.2</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -1905,40 +1914,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>98.59999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>19.4</v>
+        <v>4.8</v>
       </c>
       <c r="C5">
-        <v>22.7</v>
+        <v>14.3</v>
       </c>
       <c r="D5">
-        <v>19.4</v>
+        <v>17.8</v>
       </c>
       <c r="E5">
-        <v>21.2</v>
+        <v>24.1</v>
       </c>
       <c r="F5">
-        <v>11.1</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>4.2</v>
+        <v>11.6</v>
       </c>
       <c r="H5">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
         <v>0.3</v>
       </c>
-      <c r="J5">
-        <v>0.1</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
@@ -1949,39 +1958,39 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>98</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>13.7</v>
       </c>
       <c r="D6">
-        <v>9.4</v>
+        <v>18.8</v>
       </c>
       <c r="E6">
-        <v>17.5</v>
+        <v>21.1</v>
       </c>
       <c r="F6">
-        <v>30.9</v>
+        <v>22.8</v>
       </c>
       <c r="G6">
-        <v>17.1</v>
+        <v>11.1</v>
       </c>
       <c r="H6">
-        <v>9.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="I6">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="K6">
         <v>0.1</v>
@@ -1993,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>84.5</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2001,92 +2010,92 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D7">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="F7">
-        <v>18.1</v>
+        <v>17.5</v>
       </c>
       <c r="G7">
-        <v>26.4</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>22.5</v>
+        <v>19</v>
       </c>
       <c r="I7">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="K7">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>53.5</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
         <v>1.2</v>
       </c>
-      <c r="E8">
-        <v>3.7</v>
-      </c>
       <c r="F8">
-        <v>9.800000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>24.8</v>
       </c>
       <c r="I8">
-        <v>18.5</v>
+        <v>26.2</v>
       </c>
       <c r="J8">
-        <v>11.6</v>
+        <v>16.4</v>
       </c>
       <c r="K8">
-        <v>4.6</v>
+        <v>10.6</v>
       </c>
       <c r="L8">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>40</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2095,37 +2104,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="F9">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="H9">
-        <v>20.9</v>
+        <v>22.6</v>
       </c>
       <c r="I9">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="J9">
-        <v>17.7</v>
+        <v>21.5</v>
       </c>
       <c r="K9">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="L9">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="M9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2139,37 +2148,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F10">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="G10">
-        <v>4.9</v>
+        <v>9.6</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>17.8</v>
       </c>
       <c r="I10">
-        <v>18.6</v>
+        <v>21</v>
       </c>
       <c r="J10">
-        <v>23.5</v>
+        <v>28.1</v>
       </c>
       <c r="K10">
-        <v>22.4</v>
+        <v>15.7</v>
       </c>
       <c r="L10">
-        <v>16.3</v>
+        <v>4.2</v>
       </c>
       <c r="M10">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="N10">
-        <v>6.4</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2189,36 +2198,36 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H11">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>10.7</v>
+        <v>12.9</v>
       </c>
       <c r="J11">
-        <v>20.6</v>
+        <v>22.1</v>
       </c>
       <c r="K11">
-        <v>26.6</v>
+        <v>38.9</v>
       </c>
       <c r="L11">
-        <v>27.3</v>
+        <v>15.1</v>
       </c>
       <c r="M11">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2236,33 +2245,33 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>15.9</v>
+        <v>0.4</v>
       </c>
       <c r="K12">
-        <v>23.9</v>
+        <v>2.7</v>
       </c>
       <c r="L12">
-        <v>32.9</v>
+        <v>19.5</v>
       </c>
       <c r="M12">
-        <v>12.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="N12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2283,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="J13">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="K13">
-        <v>5.6</v>
+        <v>14.7</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="M13">
-        <v>78.8</v>
+        <v>21.2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2311,13 +2320,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2351,350 +2360,380 @@
       <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>67.10000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C2">
-        <v>71.7</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>91.7</v>
       </c>
       <c r="E2">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G2">
         <v>99.09999999999999</v>
       </c>
       <c r="H2">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="I2">
-        <v>95.89999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="J2">
-        <v>99.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="K2">
-        <v>99.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L2">
-        <v>99.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C3">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="D3">
-        <v>82.8</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="E3">
-        <v>85.59999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F3">
-        <v>92.40000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="G3">
-        <v>83.3</v>
+        <v>80.2</v>
       </c>
       <c r="H3">
-        <v>90.3</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I3">
-        <v>96.2</v>
+        <v>97</v>
       </c>
       <c r="J3">
-        <v>98.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="K3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="C4">
-        <v>40.9</v>
+        <v>40.1</v>
       </c>
       <c r="D4">
-        <v>64.8</v>
+        <v>65.8</v>
       </c>
       <c r="E4">
-        <v>77.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F4">
-        <v>86.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="G4">
-        <v>95.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="H4">
-        <v>89.40000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="I4">
+        <v>97</v>
+      </c>
+      <c r="J4">
+        <v>92.60000000000001</v>
+      </c>
+      <c r="K4">
+        <v>98.8</v>
+      </c>
+      <c r="L4">
+        <v>95.5</v>
+      </c>
+      <c r="M4">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D5">
         <v>96.7</v>
       </c>
-      <c r="J4">
-        <v>93.5</v>
-      </c>
-      <c r="K4">
-        <v>98.7</v>
-      </c>
-      <c r="L4">
-        <v>97.89999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="E5">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F5">
+        <v>83.5</v>
+      </c>
+      <c r="G5">
+        <v>74.5</v>
+      </c>
+      <c r="H5">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="J5">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="K5">
+        <v>85.2</v>
+      </c>
+      <c r="L5">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="M5">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>98.5</v>
-      </c>
-      <c r="C5">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="D5">
-        <v>95.5</v>
-      </c>
-      <c r="E5">
-        <v>76.3</v>
-      </c>
-      <c r="F5">
-        <v>92.5</v>
-      </c>
-      <c r="G5">
-        <v>68.8</v>
-      </c>
-      <c r="H5">
-        <v>87.5</v>
-      </c>
-      <c r="I5">
-        <v>95.89999999999999</v>
-      </c>
-      <c r="J5">
-        <v>91.2</v>
-      </c>
-      <c r="K5">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="L5">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B6">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="C6">
-        <v>99.90000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="D6">
-        <v>97.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>99.2</v>
+        <v>75.7</v>
       </c>
       <c r="F6">
-        <v>78.8</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="G6">
-        <v>75.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="H6">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I6">
-        <v>55.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="J6">
-        <v>64.09999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="K6">
-        <v>83.89999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="L6">
-        <v>86.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>91.8</v>
+      </c>
+      <c r="M6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>46.40000000000001</v>
+        <v>46.5</v>
       </c>
       <c r="D7">
-        <v>57.49999999999999</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>41.5</v>
+        <v>37.9</v>
       </c>
       <c r="F7">
-        <v>33.7</v>
+        <v>34.8</v>
       </c>
       <c r="G7">
-        <v>19.6</v>
+        <v>21.2</v>
       </c>
       <c r="H7">
         <v>35.4</v>
       </c>
       <c r="I7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="K7">
-        <v>54.8</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="L7">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>62.5</v>
+      </c>
+      <c r="M7">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="C8">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="D8">
+        <v>16.4</v>
+      </c>
+      <c r="E8">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="F8">
+        <v>4.3</v>
+      </c>
+      <c r="G8">
+        <v>7.9</v>
+      </c>
+      <c r="H8">
+        <v>17.8</v>
+      </c>
+      <c r="I8">
+        <v>28.7</v>
+      </c>
+      <c r="J8">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="K8">
+        <v>16.9</v>
+      </c>
+      <c r="L8">
+        <v>23.4</v>
+      </c>
+      <c r="M8">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>2.8</v>
-      </c>
-      <c r="C8">
-        <v>7.5</v>
-      </c>
-      <c r="D8">
-        <v>1.5</v>
-      </c>
-      <c r="E8">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="F8">
-        <v>18.3</v>
-      </c>
-      <c r="G8">
-        <v>45.1</v>
-      </c>
-      <c r="H8">
-        <v>34.7</v>
-      </c>
-      <c r="I8">
-        <v>37.2</v>
-      </c>
-      <c r="J8">
-        <v>49.7</v>
-      </c>
-      <c r="K8">
-        <v>36.5</v>
-      </c>
-      <c r="L8">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B9">
-        <v>7.8</v>
+        <v>1.8</v>
       </c>
       <c r="C9">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>18.9</v>
+        <v>2.2</v>
       </c>
       <c r="E9">
-        <v>8.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="F9">
-        <v>4.7</v>
+        <v>17.2</v>
       </c>
       <c r="G9">
-        <v>9.6</v>
+        <v>44.1</v>
       </c>
       <c r="H9">
-        <v>12.9</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="I9">
-        <v>29.2</v>
+        <v>37</v>
       </c>
       <c r="J9">
-        <v>44.1</v>
+        <v>51.4</v>
       </c>
       <c r="K9">
-        <v>16.6</v>
+        <v>37.5</v>
       </c>
       <c r="L9">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>16.7</v>
+      </c>
+      <c r="M9">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>3.6</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C10">
-        <v>30.7</v>
+        <v>28.8</v>
       </c>
       <c r="D10">
-        <v>21.1</v>
+        <v>20.2</v>
       </c>
       <c r="E10">
-        <v>42.7</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="F10">
-        <v>24.1</v>
+        <v>19.9</v>
       </c>
       <c r="G10">
-        <v>39.1</v>
+        <v>41.9</v>
       </c>
       <c r="H10">
-        <v>26.1</v>
+        <v>27.4</v>
       </c>
       <c r="I10">
-        <v>15.9</v>
+        <v>17.2</v>
       </c>
       <c r="J10">
-        <v>21</v>
+        <v>17.9</v>
       </c>
       <c r="K10">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="L10">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>13.9</v>
+      </c>
+      <c r="M10">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2702,109 +2741,118 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>97.89999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="D11">
-        <v>55.50000000000001</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="E11">
-        <v>44.8</v>
+        <v>48.3</v>
       </c>
       <c r="F11">
-        <v>59.59999999999999</v>
+        <v>61.1</v>
       </c>
       <c r="G11">
-        <v>44.9</v>
+        <v>47.7</v>
       </c>
       <c r="H11">
-        <v>22.8</v>
+        <v>19.2</v>
       </c>
       <c r="I11">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="J11">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="K11">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L11">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>2.9</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>19.9</v>
+      </c>
+      <c r="C12">
+        <v>0.4</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2.3</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1.6</v>
       </c>
-      <c r="C12">
-        <v>33.8</v>
-      </c>
-      <c r="D12">
-        <v>12.2</v>
-      </c>
-      <c r="E12">
-        <v>14.8</v>
-      </c>
-      <c r="F12">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="G12">
-        <v>14.4</v>
-      </c>
-      <c r="H12">
-        <v>22.8</v>
-      </c>
-      <c r="I12">
-        <v>13.6</v>
-      </c>
-      <c r="J12">
-        <v>4.399999999999999</v>
-      </c>
-      <c r="K12">
-        <v>1.1</v>
-      </c>
-      <c r="L12">
-        <v>0.8999999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>20.3</v>
-      </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>35.8</v>
       </c>
       <c r="D13">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>6.600000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="F13">
-        <v>2.1</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G13">
-        <v>5.1</v>
+        <v>15.9</v>
       </c>
       <c r="H13">
-        <v>1.5</v>
+        <v>23.6</v>
       </c>
       <c r="I13">
-        <v>1.1</v>
+        <v>12.8</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
@@ -2826,48 +2874,48 @@
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>135.49</v>
+        <v>142.4218181818182</v>
       </c>
       <c r="E2">
-        <v>1354.9</v>
+        <v>1566.64</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2881,22 +2929,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D3">
-        <v>141.51</v>
+        <v>136.4490909090909</v>
       </c>
       <c r="E3">
-        <v>1415.1</v>
+        <v>1500.94</v>
       </c>
       <c r="F3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2913,19 +2961,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>137.19</v>
+        <v>137.2309090909091</v>
       </c>
       <c r="E4">
-        <v>1371.9</v>
+        <v>1509.54</v>
       </c>
       <c r="F4">
-        <v>98.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2934,27 +2982,27 @@
         <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>137.222</v>
+        <v>134.8527272727273</v>
       </c>
       <c r="E5">
-        <v>1372.22</v>
+        <v>1483.38</v>
       </c>
       <c r="F5">
-        <v>98</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2963,27 +3011,27 @@
         <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D6">
-        <v>131.85</v>
+        <v>132.6490909090909</v>
       </c>
       <c r="E6">
-        <v>1318.5</v>
+        <v>1459.14</v>
       </c>
       <c r="F6">
-        <v>84.5</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3003,45 +3051,45 @@
         <v>63</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D7">
-        <v>126.012</v>
+        <v>125.0490909090909</v>
       </c>
       <c r="E7">
-        <v>1260.12</v>
+        <v>1375.54</v>
       </c>
       <c r="F7">
-        <v>53.5</v>
+        <v>62.2</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D8">
-        <v>124.134</v>
+        <v>121.2890909090909</v>
       </c>
       <c r="E8">
-        <v>1241.34</v>
+        <v>1334.18</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>20.2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3050,36 +3098,36 @@
         <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D9">
-        <v>122.994</v>
+        <v>121.9127272727273</v>
       </c>
       <c r="E9">
-        <v>1229.94</v>
+        <v>1341.04</v>
       </c>
       <c r="F9">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3090,19 +3138,19 @@
         <v>64</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D10">
-        <v>117.524</v>
+        <v>118.9090909090909</v>
       </c>
       <c r="E10">
-        <v>1175.24</v>
+        <v>1308</v>
       </c>
       <c r="F10">
-        <v>6.4</v>
+        <v>13.1</v>
       </c>
       <c r="G10">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="s">
         <v>75</v>
@@ -3119,19 +3167,19 @@
         <v>65</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D11">
-        <v>119.312</v>
+        <v>116.8854545454545</v>
       </c>
       <c r="E11">
-        <v>1193.12</v>
+        <v>1285.74</v>
       </c>
       <c r="F11">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="G11">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -3142,60 +3190,60 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D12">
-        <v>124.154</v>
+        <v>101.7436363636364</v>
       </c>
       <c r="E12">
-        <v>1241.54</v>
+        <v>1119.18</v>
       </c>
       <c r="F12">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>12.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H12" t="s">
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D13">
-        <v>104.912</v>
+        <v>121.2945454545455</v>
       </c>
       <c r="E13">
-        <v>1049.12</v>
+        <v>1334.24</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>78.8</v>
+        <v>21.2</v>
       </c>
       <c r="H13" t="s">
         <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3216,16 +3264,16 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3236,16 +3284,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3256,16 +3304,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3273,13 +3321,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -3296,13 +3344,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>104</v>
@@ -3313,16 +3361,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>105</v>
@@ -3333,19 +3381,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3353,19 +3401,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3373,16 +3421,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>107</v>
@@ -3393,19 +3441,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3413,19 +3461,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3436,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>-20</v>
@@ -3445,7 +3493,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3456,16 +3504,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>-27</v>
+        <v>-33</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3475,48 +3523,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3550,11 +3601,14 @@
       <c r="K2">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3588,49 +3642,55 @@
       <c r="K3">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E4">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G4">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="H4">
+        <v>-2</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
       <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3664,239 +3724,260 @@
       <c r="K5">
         <v>9</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-5</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>-10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-8</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>-2</v>
-      </c>
-      <c r="H6">
-        <v>-2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
       <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B7">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <v>-9</v>
+      </c>
+      <c r="K7">
+        <v>-9</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>-4</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>4</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>-3</v>
-      </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
       </c>
       <c r="G8">
         <v>-1</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>-11</v>
-      </c>
       <c r="F9">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>-1</v>
       </c>
       <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <v>-11</v>
+      </c>
+      <c r="F10">
+        <v>-10</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
         <v>-3</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-8</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>-5</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-2</v>
       </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
+      <c r="L10">
+        <v>-5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-1</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-3</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-13</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>-10</v>
-      </c>
-      <c r="J10">
-        <v>-9</v>
-      </c>
-      <c r="K10">
-        <v>-7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>-6</v>
       </c>
       <c r="J11">
         <v>-9</v>
       </c>
       <c r="K11">
-        <v>-9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>-7</v>
+      </c>
+      <c r="L11">
+        <v>-14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3930,11 +4011,14 @@
       <c r="K12">
         <v>-20</v>
       </c>
-      <c r="L12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>-20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -3968,8 +4052,11 @@
       <c r="K13">
         <v>-27</v>
       </c>
-      <c r="L13" t="s">
-        <v>109</v>
+      <c r="L13">
+        <v>-33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3987,25 +4074,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4013,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4039,25 +4126,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4065,25 +4152,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4091,25 +4178,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4117,22 +4204,22 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>-5</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
       <c r="G6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -4143,25 +4230,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4169,25 +4256,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="F8">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4198,22 +4285,22 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4221,22 +4308,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="F10">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -4247,25 +4334,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
+      <c r="H11" t="s">
         <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4273,25 +4360,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>-8</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="H12" t="s">
         <v>1</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4299,22 +4386,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E13">
+        <v>-11</v>
+      </c>
+      <c r="F13">
         <v>-4</v>
       </c>
-      <c r="F13">
-        <v>-10</v>
-      </c>
       <c r="G13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -4325,25 +4412,25 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>-7</v>
-      </c>
-      <c r="F14">
-        <v>-2</v>
-      </c>
       <c r="G14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="135">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -42,7 +43,7 @@
     <t>Team Schottler</t>
   </si>
   <si>
-    <t>Garrett's Derk Prerscert</t>
+    <t>Derk Prerscert</t>
   </si>
   <si>
     <t>Yangblood Bravesheart</t>
@@ -183,6 +184,63 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Roy Armbruster</t>
+  </si>
+  <si>
+    <t>Dave Linton</t>
+  </si>
+  <si>
+    <t>Jeffrey Laidacker</t>
+  </si>
+  <si>
+    <t>Daniel Tracey</t>
+  </si>
+  <si>
+    <t>Robert Schottler</t>
+  </si>
+  <si>
+    <t>Chungfu Yang</t>
+  </si>
+  <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
+    <t>Garrett Sullivan</t>
+  </si>
+  <si>
+    <t>Justin Fox</t>
+  </si>
+  <si>
+    <t>Jessica Stratton</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -225,37 +283,31 @@
     <t>2-9</t>
   </si>
   <si>
-    <t>10.6-4.3</t>
-  </si>
-  <si>
-    <t>10.3-4.7</t>
+    <t>10.6-4.4</t>
+  </si>
+  <si>
+    <t>10.3-4.6</t>
   </si>
   <si>
     <t>9.3-5.7</t>
   </si>
   <si>
-    <t>9.1-5.8</t>
-  </si>
-  <si>
-    <t>9.2-5.7</t>
-  </si>
-  <si>
-    <t>7.9-7.0</t>
-  </si>
-  <si>
-    <t>7.0-8.0</t>
-  </si>
-  <si>
-    <t>6.6-8.3</t>
-  </si>
-  <si>
-    <t>6.7-8.2</t>
-  </si>
-  <si>
-    <t>5.8-9.2</t>
-  </si>
-  <si>
-    <t>3.2-11.8</t>
+    <t>9.2-5.8</t>
+  </si>
+  <si>
+    <t>7.9-7.1</t>
+  </si>
+  <si>
+    <t>6.9-8.0</t>
+  </si>
+  <si>
+    <t>6.7-8.3</t>
+  </si>
+  <si>
+    <t>5.8-9.1</t>
+  </si>
+  <si>
+    <t>3.2-11.7</t>
   </si>
   <si>
     <t>4.0-11.0</t>
@@ -292,42 +344,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Justin Fox</t>
-  </si>
-  <si>
-    <t>Roy Armbruster</t>
-  </si>
-  <si>
-    <t>Matthew Graesser</t>
-  </si>
-  <si>
-    <t>Jessica Stratton</t>
-  </si>
-  <si>
-    <t>Dale Goodwin</t>
-  </si>
-  <si>
-    <t>Chungfu Yang</t>
-  </si>
-  <si>
-    <t>Dave Linton</t>
-  </si>
-  <si>
-    <t>Garrett Sullivan</t>
-  </si>
-  <si>
-    <t>Daniel Tracey</t>
-  </si>
-  <si>
-    <t>Hannah Davis</t>
-  </si>
-  <si>
-    <t>Robert Schottler</t>
-  </si>
-  <si>
-    <t>Jeffrey Laidacker</t>
   </si>
   <si>
     <t>↑9</t>
@@ -1310,6 +1326,380 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>-20</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-14</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>-9</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>-8</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>-11</v>
+      </c>
+      <c r="F13">
+        <v>-4</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
@@ -1790,22 +2180,22 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>56.1</v>
       </c>
       <c r="C2">
-        <v>23.2</v>
+        <v>24.5</v>
       </c>
       <c r="D2">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1834,25 +2224,25 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>24.8</v>
+        <v>23.7</v>
       </c>
       <c r="C3">
-        <v>32.4</v>
+        <v>32.9</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="E3">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="F3">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="G3">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1870,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1878,31 +2268,31 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="C4">
-        <v>15.1</v>
+        <v>16.6</v>
       </c>
       <c r="D4">
-        <v>29.2</v>
+        <v>26.8</v>
       </c>
       <c r="E4">
-        <v>23.3</v>
+        <v>21.8</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>19.8</v>
       </c>
       <c r="G4">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>1.5</v>
       </c>
       <c r="I4">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1914,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>97.3</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1922,31 +2312,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>4.8</v>
+        <v>7.5</v>
       </c>
       <c r="C5">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="D5">
-        <v>17.8</v>
+        <v>17.2</v>
       </c>
       <c r="E5">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="G5">
-        <v>11.6</v>
+        <v>10.5</v>
       </c>
       <c r="H5">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="I5">
         <v>0.7</v>
       </c>
       <c r="J5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1958,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>94.59999999999999</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1966,34 +2356,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="C6">
-        <v>13.7</v>
+        <v>11.4</v>
       </c>
       <c r="D6">
-        <v>18.8</v>
+        <v>21.1</v>
       </c>
       <c r="E6">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>22.8</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="H6">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="J6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2002,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>93.09999999999999</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2013,40 +2403,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>17.5</v>
+        <v>15.9</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>35.1</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>16.4</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>11.3</v>
       </c>
       <c r="J7">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="L7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>62.2</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2057,40 +2447,40 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.1</v>
       </c>
-      <c r="D8">
-        <v>0.7</v>
-      </c>
       <c r="E8">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F8">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="H8">
-        <v>24.8</v>
+        <v>23.7</v>
       </c>
       <c r="I8">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="J8">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="K8">
-        <v>10.6</v>
+        <v>12.2</v>
       </c>
       <c r="L8">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2104,37 +2494,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="F9">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="G9">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="H9">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="I9">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="J9">
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
       <c r="K9">
-        <v>13.8</v>
+        <v>12.5</v>
       </c>
       <c r="L9">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2151,34 +2541,34 @@
         <v>0.1</v>
       </c>
       <c r="E10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G10">
-        <v>9.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H10">
-        <v>17.8</v>
+        <v>18.4</v>
       </c>
       <c r="I10">
-        <v>21</v>
+        <v>22.9</v>
       </c>
       <c r="J10">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="K10">
-        <v>15.7</v>
+        <v>14.5</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.1</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2198,31 +2588,31 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="I11">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="J11">
-        <v>22.1</v>
+        <v>20.2</v>
       </c>
       <c r="K11">
-        <v>38.9</v>
+        <v>41.5</v>
       </c>
       <c r="L11">
-        <v>15.1</v>
+        <v>13.1</v>
       </c>
       <c r="M11">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="N11">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2254,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L12">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="M12">
-        <v>77.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2292,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J13">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="K13">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="L13">
-        <v>57</v>
+        <v>59.5</v>
       </c>
       <c r="M13">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2369,40 +2759,40 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>67.5</v>
+        <v>63.2</v>
       </c>
       <c r="C2">
-        <v>71</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D2">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="E2">
+        <v>98</v>
+      </c>
+      <c r="F2">
+        <v>99.3</v>
+      </c>
+      <c r="G2">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="H2">
         <v>98.7</v>
       </c>
-      <c r="F2">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G2">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="H2">
-        <v>98.8</v>
-      </c>
       <c r="I2">
-        <v>94.19999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="J2">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="K2">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2410,40 +2800,40 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C3">
-        <v>68.8</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="D3">
-        <v>82.89999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="E3">
-        <v>87.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="F3">
-        <v>92.7</v>
+        <v>94.8</v>
       </c>
       <c r="G3">
-        <v>80.2</v>
+        <v>83.8</v>
       </c>
       <c r="H3">
         <v>90.10000000000001</v>
       </c>
       <c r="I3">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="J3">
+        <v>99.2</v>
+      </c>
+      <c r="K3">
         <v>99.7</v>
       </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
       <c r="L3">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2451,40 +2841,40 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C4">
-        <v>40.1</v>
+        <v>41.5</v>
       </c>
       <c r="D4">
-        <v>65.8</v>
+        <v>63.3</v>
       </c>
       <c r="E4">
-        <v>75.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="F4">
-        <v>86.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="G4">
-        <v>94.5</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="H4">
-        <v>88.8</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="I4">
-        <v>97</v>
+        <v>96.2</v>
       </c>
       <c r="J4">
-        <v>92.60000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="K4">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L4">
-        <v>95.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="M4">
-        <v>97.7</v>
+        <v>96.89999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2495,37 +2885,37 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D5">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>99.09999999999999</v>
       </c>
       <c r="F5">
-        <v>83.5</v>
+        <v>81.5</v>
       </c>
       <c r="G5">
-        <v>74.5</v>
+        <v>75.2</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I5">
-        <v>56.00000000000001</v>
+        <v>57.9</v>
       </c>
       <c r="J5">
-        <v>65.60000000000001</v>
+        <v>63.9</v>
       </c>
       <c r="K5">
-        <v>85.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="L5">
-        <v>93.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="M5">
-        <v>95.5</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2533,37 +2923,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
       <c r="C6">
-        <v>92.60000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>93.2</v>
       </c>
       <c r="E6">
-        <v>75.7</v>
+        <v>78.8</v>
       </c>
       <c r="F6">
-        <v>92.80000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="H6">
-        <v>87</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="I6">
-        <v>96.59999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="J6">
-        <v>89.3</v>
+        <v>91.5</v>
       </c>
       <c r="K6">
         <v>96.39999999999999</v>
       </c>
       <c r="L6">
-        <v>91.8</v>
+        <v>91.2</v>
       </c>
       <c r="M6">
         <v>93</v>
@@ -2574,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>46.5</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>57.3</v>
       </c>
       <c r="E7">
-        <v>37.9</v>
+        <v>35.2</v>
       </c>
       <c r="F7">
-        <v>34.8</v>
+        <v>35.2</v>
       </c>
       <c r="G7">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="H7">
-        <v>35.4</v>
+        <v>33.1</v>
       </c>
       <c r="I7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>25.5</v>
+        <v>27.6</v>
       </c>
       <c r="K7">
-        <v>54.50000000000001</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="L7">
-        <v>62.5</v>
+        <v>65.3</v>
       </c>
       <c r="M7">
-        <v>62.6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2615,40 +3005,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.800000000000001</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C8">
-        <v>9.700000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D8">
-        <v>16.4</v>
+        <v>17.5</v>
       </c>
       <c r="E8">
-        <v>8.799999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="F8">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="G8">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="H8">
-        <v>17.8</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="J8">
-        <v>46.40000000000001</v>
+        <v>46.1</v>
       </c>
       <c r="K8">
-        <v>16.9</v>
+        <v>18.3</v>
       </c>
       <c r="L8">
-        <v>23.4</v>
+        <v>21.8</v>
       </c>
       <c r="M8">
-        <v>21.8</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2656,40 +3046,40 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="E9">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="F9">
-        <v>17.2</v>
+        <v>13.7</v>
       </c>
       <c r="G9">
-        <v>44.1</v>
+        <v>41.9</v>
       </c>
       <c r="H9">
-        <v>34.59999999999999</v>
+        <v>31.8</v>
       </c>
       <c r="I9">
         <v>37</v>
       </c>
       <c r="J9">
-        <v>51.4</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="K9">
-        <v>37.5</v>
+        <v>34.7</v>
       </c>
       <c r="L9">
-        <v>16.7</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>13.7</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2697,28 +3087,28 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>4.399999999999999</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="D10">
-        <v>20.2</v>
+        <v>22.7</v>
       </c>
       <c r="E10">
-        <v>46.40000000000001</v>
+        <v>46.1</v>
       </c>
       <c r="F10">
-        <v>19.9</v>
+        <v>20.5</v>
       </c>
       <c r="G10">
-        <v>41.9</v>
+        <v>36.6</v>
       </c>
       <c r="H10">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="I10">
-        <v>17.2</v>
+        <v>15.9</v>
       </c>
       <c r="J10">
         <v>17.9</v>
@@ -2727,10 +3117,10 @@
         <v>6.2</v>
       </c>
       <c r="L10">
-        <v>13.9</v>
+        <v>12.8</v>
       </c>
       <c r="M10">
-        <v>11.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2741,37 +3131,37 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>97.39999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D11">
-        <v>55.60000000000001</v>
+        <v>59.7</v>
       </c>
       <c r="E11">
-        <v>48.3</v>
+        <v>46.7</v>
       </c>
       <c r="F11">
-        <v>61.1</v>
+        <v>60.2</v>
       </c>
       <c r="G11">
-        <v>47.7</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>19.2</v>
+        <v>21.5</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="J11">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
       <c r="K11">
+        <v>3.6</v>
+      </c>
+      <c r="L11">
         <v>3.7</v>
       </c>
-      <c r="L11">
-        <v>2.9</v>
-      </c>
       <c r="M11">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2779,34 +3169,34 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>19.9</v>
+        <v>22.7</v>
       </c>
       <c r="C12">
         <v>0.4</v>
       </c>
       <c r="D12">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E12">
-        <v>5.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="F12">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H12">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J12">
         <v>0.1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2820,37 +3210,37 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="C13">
-        <v>35.8</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="E13">
-        <v>12.9</v>
+        <v>15.8</v>
       </c>
       <c r="F13">
-        <v>7.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="G13">
-        <v>15.9</v>
+        <v>16.3</v>
       </c>
       <c r="H13">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="I13">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="J13">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K13">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2870,380 +3260,377 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>137.23</v>
+      </c>
+      <c r="E2">
+        <v>0.636</v>
+      </c>
+      <c r="F2">
+        <v>129.57</v>
+      </c>
+      <c r="G2">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="H2">
+        <v>7.5</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>125.05</v>
+      </c>
+      <c r="E3">
+        <v>0.545</v>
+      </c>
+      <c r="F3">
+        <v>128.86</v>
+      </c>
+      <c r="G3">
+        <v>0.477</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>142.4218181818182</v>
-      </c>
-      <c r="E2">
-        <v>1566.64</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>101.74</v>
+      </c>
+      <c r="E4">
+        <v>0.182</v>
+      </c>
+      <c r="F4">
+        <v>125.47</v>
+      </c>
+      <c r="G4">
+        <v>0.432</v>
+      </c>
+      <c r="H4">
+        <v>6.8</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>121.91</v>
+      </c>
+      <c r="E5">
+        <v>0.455</v>
+      </c>
+      <c r="F5">
+        <v>131.31</v>
+      </c>
+      <c r="G5">
+        <v>0.614</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>118.91</v>
+      </c>
+      <c r="E6">
+        <v>0.455</v>
+      </c>
+      <c r="F6">
+        <v>127.68</v>
+      </c>
+      <c r="G6">
+        <v>0.477</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>134.85</v>
+      </c>
+      <c r="E7">
+        <v>0.636</v>
+      </c>
+      <c r="F7">
+        <v>129.21</v>
+      </c>
+      <c r="G7">
+        <v>0.614</v>
+      </c>
+      <c r="H7">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>136.45</v>
+      </c>
+      <c r="E8">
+        <v>0.727</v>
+      </c>
+      <c r="F8">
+        <v>128.23</v>
+      </c>
+      <c r="G8">
+        <v>0.477</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D9">
+        <v>116.89</v>
+      </c>
+      <c r="E9">
+        <v>0.364</v>
+      </c>
+      <c r="F9">
+        <v>122.63</v>
+      </c>
+      <c r="G9">
+        <v>0.477</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>132.65</v>
+      </c>
+      <c r="E10">
+        <v>0.636</v>
+      </c>
+      <c r="F10">
+        <v>124.84</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>-1.8</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>121.29</v>
+      </c>
+      <c r="E11">
+        <v>0.455</v>
+      </c>
+      <c r="F11">
+        <v>122.13</v>
+      </c>
+      <c r="G11">
+        <v>0.455</v>
+      </c>
+      <c r="H11">
+        <v>-6.8</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D3">
-        <v>136.4490909090909</v>
-      </c>
-      <c r="E3">
-        <v>1500.94</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D4">
-        <v>137.2309090909091</v>
-      </c>
-      <c r="E4">
-        <v>1509.54</v>
-      </c>
-      <c r="F4">
-        <v>97.3</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D5">
-        <v>134.8527272727273</v>
-      </c>
-      <c r="E5">
-        <v>1483.38</v>
-      </c>
-      <c r="F5">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="D12">
+        <v>142.42</v>
+      </c>
+      <c r="E12">
+        <v>0.727</v>
+      </c>
+      <c r="F12">
+        <v>120.23</v>
+      </c>
+      <c r="G12">
+        <v>0.432</v>
+      </c>
+      <c r="H12">
+        <v>-7.2</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D6">
-        <v>132.6490909090909</v>
-      </c>
-      <c r="E6">
-        <v>1459.14</v>
-      </c>
-      <c r="F6">
-        <v>93.10000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D7">
-        <v>125.0490909090909</v>
-      </c>
-      <c r="E7">
-        <v>1375.54</v>
-      </c>
-      <c r="F7">
-        <v>62.2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D8">
-        <v>121.2890909090909</v>
-      </c>
-      <c r="E8">
-        <v>1334.18</v>
-      </c>
-      <c r="F8">
-        <v>20.2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D9">
-        <v>121.9127272727273</v>
-      </c>
-      <c r="E9">
-        <v>1341.04</v>
-      </c>
-      <c r="F9">
-        <v>15.8</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D10">
-        <v>118.9090909090909</v>
-      </c>
-      <c r="E10">
-        <v>1308</v>
-      </c>
-      <c r="F10">
-        <v>13.1</v>
-      </c>
-      <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D11">
-        <v>116.8854545454545</v>
-      </c>
-      <c r="E11">
-        <v>1285.74</v>
-      </c>
-      <c r="F11">
-        <v>3.7</v>
-      </c>
-      <c r="G11">
-        <v>1.3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D12">
-        <v>101.7436363636364</v>
-      </c>
-      <c r="E12">
-        <v>1119.18</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13">
-        <v>0.1818181818181818</v>
-      </c>
       <c r="D13">
-        <v>121.2945454545455</v>
+        <v>121.29</v>
       </c>
       <c r="E13">
-        <v>1334.24</v>
+        <v>0.182</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>120.54</v>
       </c>
       <c r="G13">
-        <v>21.2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
+        <v>0.477</v>
+      </c>
+      <c r="H13">
+        <v>-10.5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3252,6 +3639,396 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>142.4218181818182</v>
+      </c>
+      <c r="E2">
+        <v>1566.64</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D3">
+        <v>136.4490909090909</v>
+      </c>
+      <c r="E3">
+        <v>1500.94</v>
+      </c>
+      <c r="F3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D4">
+        <v>137.2309090909091</v>
+      </c>
+      <c r="E4">
+        <v>1509.54</v>
+      </c>
+      <c r="F4">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D5">
+        <v>134.8527272727273</v>
+      </c>
+      <c r="E5">
+        <v>1483.38</v>
+      </c>
+      <c r="F5">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D6">
+        <v>132.6490909090909</v>
+      </c>
+      <c r="E6">
+        <v>1459.14</v>
+      </c>
+      <c r="F6">
+        <v>92.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D7">
+        <v>125.0490909090909</v>
+      </c>
+      <c r="E7">
+        <v>1375.54</v>
+      </c>
+      <c r="F7">
+        <v>63.7</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D8">
+        <v>121.2890909090909</v>
+      </c>
+      <c r="E8">
+        <v>1334.18</v>
+      </c>
+      <c r="F8">
+        <v>20.3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D9">
+        <v>121.9127272727273</v>
+      </c>
+      <c r="E9">
+        <v>1341.04</v>
+      </c>
+      <c r="F9">
+        <v>14.6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D10">
+        <v>118.9090909090909</v>
+      </c>
+      <c r="E10">
+        <v>1308</v>
+      </c>
+      <c r="F10">
+        <v>11.8</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D11">
+        <v>116.8854545454545</v>
+      </c>
+      <c r="E11">
+        <v>1285.74</v>
+      </c>
+      <c r="F11">
+        <v>3.5</v>
+      </c>
+      <c r="G11">
+        <v>1.6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D12">
+        <v>101.7436363636364</v>
+      </c>
+      <c r="E12">
+        <v>1119.18</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>78.3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D13">
+        <v>121.2945454545455</v>
+      </c>
+      <c r="E13">
+        <v>1334.24</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>20.1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -3264,16 +4041,16 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3284,7 +4061,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -3293,7 +4070,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3304,7 +4081,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>19</v>
@@ -3313,7 +4090,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3324,7 +4101,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -3333,7 +4110,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3344,7 +4121,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -3353,7 +4130,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3364,7 +4141,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3373,7 +4150,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3384,7 +4161,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3393,7 +4170,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3404,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -3413,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3424,7 +4201,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3433,7 +4210,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3444,7 +4221,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>-5</v>
@@ -3453,7 +4230,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3464,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>-14</v>
@@ -3473,7 +4250,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3484,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>-20</v>
@@ -3493,7 +4270,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3504,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>-33</v>
@@ -3513,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3521,7 +4298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -3531,40 +4308,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3605,7 +4382,7 @@
         <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3646,7 +4423,7 @@
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3687,7 +4464,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3728,7 +4505,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3769,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3810,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3851,7 +4628,7 @@
         <v>-1</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3892,7 +4669,7 @@
         <v>-1</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3933,7 +4710,7 @@
         <v>-5</v>
       </c>
       <c r="M10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3974,7 +4751,7 @@
         <v>-14</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4015,7 +4792,7 @@
         <v>-20</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4056,381 +4833,7 @@
         <v>-33</v>
       </c>
       <c r="M13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>-20</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>-14</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>-9</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>-6</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>-9</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>-8</v>
-      </c>
-      <c r="F12">
-        <v>-1</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>-11</v>
-      </c>
-      <c r="F13">
-        <v>-4</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="136">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -190,7 +190,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -283,13 +283,16 @@
     <t>2-9</t>
   </si>
   <si>
-    <t>10.6-4.4</t>
+    <t>10.7-4.3</t>
   </si>
   <si>
     <t>10.3-4.6</t>
   </si>
   <si>
-    <t>9.3-5.7</t>
+    <t>9.2-5.7</t>
+  </si>
+  <si>
+    <t>9.1-5.8</t>
   </si>
   <si>
     <t>9.2-5.8</t>
@@ -301,22 +304,22 @@
     <t>6.9-8.0</t>
   </si>
   <si>
+    <t>6.6-8.3</t>
+  </si>
+  <si>
     <t>6.7-8.3</t>
   </si>
   <si>
-    <t>5.8-9.1</t>
-  </si>
-  <si>
-    <t>3.2-11.7</t>
+    <t>5.9-9.1</t>
+  </si>
+  <si>
+    <t>3.2-11.8</t>
   </si>
   <si>
     <t>4.0-11.0</t>
   </si>
   <si>
     <t>11-4</t>
-  </si>
-  <si>
-    <t>10-5</t>
   </si>
   <si>
     <t>9-6</t>
@@ -1336,25 +1339,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2180,26 +2183,26 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>56.1</v>
+        <v>58.5</v>
       </c>
       <c r="C2">
-        <v>24.5</v>
+        <v>22.4</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="E2">
         <v>5.8</v>
       </c>
       <c r="F2">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
         <v>0.2</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2224,25 +2227,25 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="C3">
-        <v>32.9</v>
+        <v>33.9</v>
       </c>
       <c r="D3">
-        <v>20.7</v>
+        <v>19.6</v>
       </c>
       <c r="E3">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="F3">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="G3">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2260,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2268,31 +2271,31 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="C4">
-        <v>16.6</v>
+        <v>15.1</v>
       </c>
       <c r="D4">
-        <v>26.8</v>
+        <v>27.4</v>
       </c>
       <c r="E4">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="H4">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="I4">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2304,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>97.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2312,28 +2315,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="C5">
-        <v>13.9</v>
+        <v>14.8</v>
       </c>
       <c r="D5">
-        <v>17.2</v>
+        <v>17.9</v>
       </c>
       <c r="E5">
-        <v>23.9</v>
+        <v>25.3</v>
       </c>
       <c r="F5">
-        <v>23.1</v>
+        <v>21.1</v>
       </c>
       <c r="G5">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="H5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2348,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>96.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2356,31 +2359,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="C6">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
       <c r="D6">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>18.9</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>27.2</v>
       </c>
       <c r="G6">
-        <v>11.9</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="I6">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="J6">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
         <v>0.2</v>
@@ -2392,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>92.5</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2403,40 +2406,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F7">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>35.1</v>
+        <v>33.7</v>
       </c>
       <c r="H7">
-        <v>16.4</v>
+        <v>19.1</v>
       </c>
       <c r="I7">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="J7">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="K7">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>63.7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2450,37 +2453,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="F8">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="G8">
         <v>14.5</v>
       </c>
       <c r="H8">
-        <v>23.7</v>
+        <v>22.6</v>
       </c>
       <c r="I8">
-        <v>26.1</v>
+        <v>26.8</v>
       </c>
       <c r="J8">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="K8">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2494,37 +2497,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="G9">
-        <v>10.3</v>
+        <v>11.7</v>
       </c>
       <c r="H9">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="I9">
-        <v>23.2</v>
+        <v>24.2</v>
       </c>
       <c r="J9">
-        <v>23.5</v>
+        <v>19.5</v>
       </c>
       <c r="K9">
-        <v>12.5</v>
+        <v>13.9</v>
       </c>
       <c r="L9">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2544,31 +2547,31 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="G10">
-        <v>8.300000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="H10">
-        <v>18.4</v>
+        <v>17.3</v>
       </c>
       <c r="I10">
-        <v>22.9</v>
+        <v>20.2</v>
       </c>
       <c r="J10">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="K10">
-        <v>14.5</v>
+        <v>15.7</v>
       </c>
       <c r="L10">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.8</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2585,34 +2588,34 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="I11">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
       <c r="J11">
-        <v>20.2</v>
+        <v>23.1</v>
       </c>
       <c r="K11">
-        <v>41.5</v>
+        <v>38.9</v>
       </c>
       <c r="L11">
         <v>13.1</v>
       </c>
       <c r="M11">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2644,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K12">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L12">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="M12">
-        <v>78.3</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2682,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I13">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="J13">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K13">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="L13">
-        <v>59.5</v>
+        <v>59.7</v>
       </c>
       <c r="M13">
-        <v>20.1</v>
+        <v>19.4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2756,84 +2759,84 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>63.2</v>
+        <v>99.5</v>
       </c>
       <c r="C2">
-        <v>70.59999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="D2">
-        <v>90.2</v>
+        <v>82.3</v>
       </c>
       <c r="E2">
-        <v>98</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F2">
-        <v>99.3</v>
+        <v>93.8</v>
       </c>
       <c r="G2">
-        <v>98.40000000000001</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="H2">
-        <v>98.7</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="I2">
-        <v>96.2</v>
+        <v>96.5</v>
       </c>
       <c r="J2">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L2">
         <v>99.5</v>
       </c>
-      <c r="L2">
-        <v>99.8</v>
-      </c>
       <c r="M2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>99.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C3">
-        <v>69.89999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D3">
-        <v>83.7</v>
+        <v>91.7</v>
       </c>
       <c r="E3">
-        <v>86.8</v>
+        <v>98.2</v>
       </c>
       <c r="F3">
-        <v>94.8</v>
+        <v>99.2</v>
       </c>
       <c r="G3">
-        <v>83.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H3">
-        <v>90.10000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="I3">
-        <v>96.5</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="J3">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="K3">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="L3">
         <v>99.90000000000001</v>
       </c>
       <c r="M3">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2841,40 +2844,40 @@
         <v>8</v>
       </c>
       <c r="B4">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>42.2</v>
+      </c>
+      <c r="D4">
+        <v>65.8</v>
+      </c>
+      <c r="E4">
+        <v>76.5</v>
+      </c>
+      <c r="F4">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="G4">
+        <v>93.2</v>
+      </c>
+      <c r="H4">
+        <v>91.3</v>
+      </c>
+      <c r="I4">
+        <v>95.39999999999999</v>
+      </c>
+      <c r="J4">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="K4">
         <v>98.90000000000001</v>
       </c>
-      <c r="C4">
-        <v>41.5</v>
-      </c>
-      <c r="D4">
-        <v>63.3</v>
-      </c>
-      <c r="E4">
-        <v>74.7</v>
-      </c>
-      <c r="F4">
-        <v>88.3</v>
-      </c>
-      <c r="G4">
+      <c r="L4">
         <v>94.89999999999999</v>
       </c>
-      <c r="H4">
-        <v>90.60000000000001</v>
-      </c>
-      <c r="I4">
-        <v>96.2</v>
-      </c>
-      <c r="J4">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="K4">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="L4">
-        <v>96.09999999999999</v>
-      </c>
       <c r="M4">
-        <v>96.89999999999999</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2885,37 +2888,37 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="E5">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F5">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="G5">
-        <v>75.2</v>
+        <v>74.3</v>
       </c>
       <c r="H5">
-        <v>76.90000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I5">
-        <v>57.9</v>
+        <v>56.8</v>
       </c>
       <c r="J5">
-        <v>63.9</v>
+        <v>65.3</v>
       </c>
       <c r="K5">
-        <v>85.59999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="L5">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="M5">
-        <v>94.8</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2923,40 +2926,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="C6">
-        <v>91.10000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="D6">
-        <v>93.2</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="E6">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="F6">
-        <v>92.7</v>
+        <v>93.5</v>
       </c>
       <c r="G6">
-        <v>71.89999999999999</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="H6">
-        <v>88.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="I6">
-        <v>95.89999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="J6">
-        <v>91.5</v>
+        <v>91.3</v>
       </c>
       <c r="K6">
-        <v>96.39999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="L6">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="M6">
-        <v>93</v>
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2964,40 +2967,40 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>47.09999999999999</v>
+        <v>42.9</v>
       </c>
       <c r="D7">
-        <v>57.3</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="E7">
-        <v>35.2</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>35.2</v>
+        <v>34.8</v>
       </c>
       <c r="G7">
-        <v>22.8</v>
+        <v>23.7</v>
       </c>
       <c r="H7">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="I7">
-        <v>44</v>
+        <v>45.6</v>
       </c>
       <c r="J7">
-        <v>27.6</v>
+        <v>26.6</v>
       </c>
       <c r="K7">
-        <v>56.49999999999999</v>
+        <v>53.7</v>
       </c>
       <c r="L7">
-        <v>65.3</v>
+        <v>64</v>
       </c>
       <c r="M7">
-        <v>63</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3005,40 +3008,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.200000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C8">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="D8">
-        <v>17.5</v>
+        <v>18.2</v>
       </c>
       <c r="E8">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="F8">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="G8">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I8">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="J8">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="K8">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="L8">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="M8">
-        <v>20.6</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3046,40 +3049,40 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7.8</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="D9">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="F9">
-        <v>13.7</v>
+        <v>16.6</v>
       </c>
       <c r="G9">
-        <v>41.9</v>
+        <v>43.5</v>
       </c>
       <c r="H9">
-        <v>31.8</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="I9">
-        <v>37</v>
+        <v>35.7</v>
       </c>
       <c r="J9">
-        <v>47.59999999999999</v>
+        <v>46.9</v>
       </c>
       <c r="K9">
-        <v>34.7</v>
+        <v>38.7</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>18.3</v>
       </c>
       <c r="M9">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3087,40 +3090,40 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C10">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="D10">
-        <v>22.7</v>
+        <v>20.7</v>
       </c>
       <c r="E10">
-        <v>46.1</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="F10">
-        <v>20.5</v>
+        <v>21.8</v>
       </c>
       <c r="G10">
-        <v>36.6</v>
+        <v>40.7</v>
       </c>
       <c r="H10">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="I10">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="J10">
-        <v>17.9</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L10">
+        <v>12.9</v>
+      </c>
+      <c r="M10">
         <v>12.8</v>
-      </c>
-      <c r="M10">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3128,40 +3131,40 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="D11">
-        <v>59.7</v>
+        <v>57.9</v>
       </c>
       <c r="E11">
-        <v>46.7</v>
+        <v>44.2</v>
       </c>
       <c r="F11">
-        <v>60.2</v>
+        <v>60.9</v>
       </c>
       <c r="G11">
-        <v>44</v>
+        <v>44.7</v>
       </c>
       <c r="H11">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="I11">
-        <v>17.9</v>
+        <v>16.4</v>
       </c>
       <c r="J11">
-        <v>10.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3169,34 +3172,34 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>22.7</v>
+        <v>20.7</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="E12">
-        <v>6.7</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="F12">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
         <v>4.8</v>
       </c>
       <c r="H12">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="I12">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3210,37 +3213,37 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>36.4</v>
       </c>
       <c r="D13">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E13">
-        <v>15.8</v>
+        <v>13.3</v>
       </c>
       <c r="F13">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="G13">
-        <v>16.3</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>23.7</v>
+        <v>22.7</v>
       </c>
       <c r="I13">
-        <v>13.6</v>
+        <v>16.4</v>
       </c>
       <c r="J13">
-        <v>4.9</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3298,8 +3301,8 @@
       <c r="D2">
         <v>137.23</v>
       </c>
-      <c r="E2">
-        <v>0.636</v>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2">
         <v>129.57</v>
@@ -3327,8 +3330,8 @@
       <c r="D3">
         <v>125.05</v>
       </c>
-      <c r="E3">
-        <v>0.545</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
       <c r="F3">
         <v>128.86</v>
@@ -3356,8 +3359,8 @@
       <c r="D4">
         <v>101.74</v>
       </c>
-      <c r="E4">
-        <v>0.182</v>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
       <c r="F4">
         <v>125.47</v>
@@ -3385,8 +3388,8 @@
       <c r="D5">
         <v>121.91</v>
       </c>
-      <c r="E5">
-        <v>0.455</v>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5">
         <v>131.31</v>
@@ -3414,8 +3417,8 @@
       <c r="D6">
         <v>118.91</v>
       </c>
-      <c r="E6">
-        <v>0.455</v>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
       <c r="F6">
         <v>127.68</v>
@@ -3443,8 +3446,8 @@
       <c r="D7">
         <v>134.85</v>
       </c>
-      <c r="E7">
-        <v>0.636</v>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
       <c r="F7">
         <v>129.21</v>
@@ -3472,8 +3475,8 @@
       <c r="D8">
         <v>136.45</v>
       </c>
-      <c r="E8">
-        <v>0.727</v>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
       <c r="F8">
         <v>128.23</v>
@@ -3501,8 +3504,8 @@
       <c r="D9">
         <v>116.89</v>
       </c>
-      <c r="E9">
-        <v>0.364</v>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
       <c r="F9">
         <v>122.63</v>
@@ -3530,8 +3533,8 @@
       <c r="D10">
         <v>132.65</v>
       </c>
-      <c r="E10">
-        <v>0.636</v>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
       <c r="F10">
         <v>124.84</v>
@@ -3559,8 +3562,8 @@
       <c r="D11">
         <v>121.29</v>
       </c>
-      <c r="E11">
-        <v>0.455</v>
+      <c r="E11" t="s">
+        <v>17</v>
       </c>
       <c r="F11">
         <v>122.13</v>
@@ -3588,8 +3591,8 @@
       <c r="D12">
         <v>142.42</v>
       </c>
-      <c r="E12">
-        <v>0.727</v>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
       <c r="F12">
         <v>120.23</v>
@@ -3617,8 +3620,8 @@
       <c r="D13">
         <v>121.29</v>
       </c>
-      <c r="E13">
-        <v>0.182</v>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
       <c r="F13">
         <v>120.54</v>
@@ -3692,7 +3695,7 @@
         <v>1566.64</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3701,7 +3704,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3721,7 +3724,7 @@
         <v>1500.94</v>
       </c>
       <c r="F3">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3730,7 +3733,7 @@
         <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3750,7 +3753,7 @@
         <v>1509.54</v>
       </c>
       <c r="F4">
-        <v>97.59999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3759,7 +3762,7 @@
         <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3779,7 +3782,7 @@
         <v>1483.38</v>
       </c>
       <c r="F5">
-        <v>96.09999999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3788,7 +3791,7 @@
         <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3808,16 +3811,16 @@
         <v>1459.14</v>
       </c>
       <c r="F6">
-        <v>92.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3837,16 +3840,16 @@
         <v>1375.54</v>
       </c>
       <c r="F7">
-        <v>63.7</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3866,16 +3869,16 @@
         <v>1334.18</v>
       </c>
       <c r="F8">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3895,16 +3898,16 @@
         <v>1341.04</v>
       </c>
       <c r="F9">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3924,16 +3927,16 @@
         <v>1308</v>
       </c>
       <c r="F10">
-        <v>11.8</v>
+        <v>14.6</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3953,16 +3956,16 @@
         <v>1285.74</v>
       </c>
       <c r="F11">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G11">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3985,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>78.3</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4014,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>20.1</v>
+        <v>19.4</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4041,16 +4044,16 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4070,7 +4073,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4090,7 +4093,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4110,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4130,7 +4133,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4150,7 +4153,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4170,7 +4173,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4190,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4210,7 +4213,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4230,7 +4233,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4250,7 +4253,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4270,7 +4273,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4290,7 +4293,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4308,40 +4311,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4382,7 +4385,7 @@
         <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4423,7 +4426,7 @@
         <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4464,7 +4467,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4505,7 +4508,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4546,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4587,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4628,7 +4631,7 @@
         <v>-1</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4669,7 +4672,7 @@
         <v>-1</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4710,7 +4713,7 @@
         <v>-5</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4751,7 +4754,7 @@
         <v>-14</v>
       </c>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4792,7 +4795,7 @@
         <v>-20</v>
       </c>
       <c r="M12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4833,7 +4836,7 @@
         <v>-33</v>
       </c>
       <c r="M13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="140">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -61,34 +61,37 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -184,6 +187,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -205,39 +211,39 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Jeffrey Laidacker</t>
+  </si>
+  <si>
     <t>Roy Armbruster</t>
   </si>
   <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
+    <t>Chungfu Yang</t>
+  </si>
+  <si>
+    <t>Robert Schottler</t>
+  </si>
+  <si>
+    <t>Daniel Tracey</t>
+  </si>
+  <si>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
     <t>Dave Linton</t>
   </si>
   <si>
-    <t>Jeffrey Laidacker</t>
-  </si>
-  <si>
-    <t>Daniel Tracey</t>
-  </si>
-  <si>
-    <t>Robert Schottler</t>
-  </si>
-  <si>
-    <t>Chungfu Yang</t>
-  </si>
-  <si>
-    <t>Matthew Graesser</t>
-  </si>
-  <si>
-    <t>Hannah Davis</t>
-  </si>
-  <si>
-    <t>Dale Goodwin</t>
+    <t>Justin Fox</t>
   </si>
   <si>
     <t>Garrett Sullivan</t>
   </si>
   <si>
-    <t>Justin Fox</t>
-  </si>
-  <si>
     <t>Jessica Stratton</t>
   </si>
   <si>
@@ -265,64 +271,70 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>10.7-4.3</t>
-  </si>
-  <si>
-    <t>10.3-4.6</t>
-  </si>
-  <si>
-    <t>9.2-5.7</t>
-  </si>
-  <si>
-    <t>9.1-5.8</t>
-  </si>
-  <si>
-    <t>9.2-5.8</t>
-  </si>
-  <si>
-    <t>7.9-7.1</t>
-  </si>
-  <si>
-    <t>6.9-8.0</t>
-  </si>
-  <si>
-    <t>6.6-8.3</t>
-  </si>
-  <si>
-    <t>6.7-8.3</t>
-  </si>
-  <si>
-    <t>5.9-9.1</t>
-  </si>
-  <si>
-    <t>3.2-11.8</t>
-  </si>
-  <si>
-    <t>4.0-11.0</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>11.1-3.9</t>
+  </si>
+  <si>
+    <t>10.8-4.2</t>
+  </si>
+  <si>
+    <t>9.6-5.4</t>
+  </si>
+  <si>
+    <t>9.7-5.3</t>
+  </si>
+  <si>
+    <t>8.4-6.6</t>
+  </si>
+  <si>
+    <t>7.6-7.4</t>
+  </si>
+  <si>
+    <t>7.4-7.6</t>
+  </si>
+  <si>
+    <t>6.6-8.4</t>
+  </si>
+  <si>
+    <t>6.2-8.7</t>
+  </si>
+  <si>
+    <t>5.1-9.9</t>
+  </si>
+  <si>
+    <t>3.8-11.2</t>
+  </si>
+  <si>
+    <t>3.6-11.4</t>
   </si>
   <si>
     <t>11-4</t>
   </si>
   <si>
-    <t>9-6</t>
+    <t>10-5</t>
   </si>
   <si>
     <t>8-7</t>
@@ -334,7 +346,7 @@
     <t>6-9</t>
   </si>
   <si>
-    <t>3-12</t>
+    <t>5-10</t>
   </si>
   <si>
     <t>4-11</t>
@@ -349,36 +361,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
     <t>↑7</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
+    <t>↓11</t>
+  </si>
+  <si>
     <t>↓9</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -410,6 +419,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -840,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -849,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -858,19 +870,19 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -881,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -893,7 +905,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -911,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -922,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -931,22 +943,22 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -963,13 +975,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -993,7 +1005,7 @@
         <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1004,37 +1016,37 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1045,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1054,28 +1066,28 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1086,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1098,7 +1110,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -1107,16 +1119,16 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1136,13 +1148,13 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -1154,10 +1166,10 @@
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1168,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1189,7 +1201,7 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -1209,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1221,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -1236,10 +1248,10 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1250,13 +1262,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1271,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
@@ -1280,7 +1292,7 @@
         <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1297,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -1331,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1339,25 +1351,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1417,25 +1429,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>-2</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1443,25 +1455,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E5">
+        <v>-25</v>
+      </c>
+      <c r="F5">
+        <v>-42</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>1</v>
-      </c>
-      <c r="F5">
-        <v>-14</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1469,25 +1481,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
       <c r="E6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1495,25 +1507,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>-14</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1521,25 +1533,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1547,25 +1559,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9">
+        <v>-9</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
       <c r="G9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1573,25 +1585,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1599,25 +1611,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F11">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1625,25 +1637,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1651,51 +1663,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-9</v>
+      </c>
+      <c r="G13">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>-11</v>
-      </c>
-      <c r="F13">
-        <v>-4</v>
-      </c>
-      <c r="G13">
+      <c r="H13" t="s">
         <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1713,13 +1699,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1730,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4.083333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1741,13 +1727,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.75</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1755,13 +1741,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5.166666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1769,13 +1755,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1783,13 +1769,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1800,7 +1786,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1811,13 +1797,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>5.666666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1828,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5.666666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1842,10 +1828,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.75</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1856,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>5.916666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1870,10 +1856,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.083333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1884,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>6.5</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1905,16 +1891,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1925,10 +1911,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8.25</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>0.08333333333333393</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1942,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>7.333333333333333</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D3">
-        <v>0.333333333333333</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1959,10 +1945,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>6.916666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D4">
-        <v>-1.083333333333333</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1973,16 +1959,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1990,13 +1976,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.75</v>
+        <v>6.75</v>
       </c>
       <c r="D6">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -2010,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.583333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D7">
-        <v>-0.416666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2027,10 +2013,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.416666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D8">
-        <v>0.416666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -2044,10 +2030,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
-        <v>0.166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -2058,16 +2044,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>4.666666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D10">
-        <v>2.666666666666667</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2075,16 +2061,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4.416666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D11">
-        <v>-0.583333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2112,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2136,46 +2122,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2183,25 +2169,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>58.5</v>
+        <v>65.3</v>
       </c>
       <c r="C2">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="D2">
-        <v>10.8</v>
+        <v>9.6</v>
       </c>
       <c r="E2">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2219,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2227,25 +2213,25 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>24.1</v>
+        <v>24.9</v>
       </c>
       <c r="C3">
-        <v>33.9</v>
+        <v>46.3</v>
       </c>
       <c r="D3">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="E3">
-        <v>15.3</v>
+        <v>6.8</v>
       </c>
       <c r="F3">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="G3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2263,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2271,31 +2257,31 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="C4">
-        <v>15.1</v>
+        <v>13.3</v>
       </c>
       <c r="D4">
-        <v>27.4</v>
+        <v>36.5</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>33.8</v>
       </c>
       <c r="F4">
-        <v>19.2</v>
+        <v>10.5</v>
       </c>
       <c r="G4">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H4">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2307,36 +2293,36 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>96.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="C5">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="D5">
-        <v>17.9</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>25.3</v>
+        <v>31.6</v>
       </c>
       <c r="F5">
-        <v>21.1</v>
+        <v>15.1</v>
       </c>
       <c r="G5">
-        <v>10.2</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2351,42 +2337,42 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>95.40000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>12.6</v>
+        <v>1.8</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>5.1</v>
       </c>
       <c r="E6">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="F6">
-        <v>27.2</v>
+        <v>42.2</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>19.7</v>
       </c>
       <c r="H6">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
         <v>2.2</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2395,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>92.90000000000001</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2406,45 +2392,45 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>20.6</v>
       </c>
       <c r="G7">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="H7">
-        <v>19.1</v>
+        <v>23.4</v>
       </c>
       <c r="I7">
-        <v>10.9</v>
+        <v>10.5</v>
       </c>
       <c r="J7">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="K7">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>61</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2453,42 +2439,42 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F8">
-        <v>4.7</v>
+        <v>7.3</v>
       </c>
       <c r="G8">
-        <v>14.5</v>
+        <v>26.1</v>
       </c>
       <c r="H8">
-        <v>22.6</v>
+        <v>27.1</v>
       </c>
       <c r="I8">
-        <v>26.8</v>
+        <v>19.5</v>
       </c>
       <c r="J8">
         <v>16.7</v>
       </c>
       <c r="K8">
-        <v>12.1</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.8</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2497,42 +2483,42 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="G9">
-        <v>11.7</v>
+        <v>8.5</v>
       </c>
       <c r="H9">
-        <v>23.2</v>
+        <v>21.4</v>
       </c>
       <c r="I9">
-        <v>24.2</v>
+        <v>39.4</v>
       </c>
       <c r="J9">
-        <v>19.5</v>
+        <v>22.2</v>
       </c>
       <c r="K9">
-        <v>13.9</v>
+        <v>5.9</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2541,37 +2527,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>6.9</v>
+      </c>
+      <c r="H10">
+        <v>17.1</v>
+      </c>
+      <c r="I10">
+        <v>24.1</v>
+      </c>
+      <c r="J10">
+        <v>41.9</v>
+      </c>
+      <c r="K10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>2.3</v>
-      </c>
-      <c r="G10">
-        <v>11.2</v>
-      </c>
-      <c r="H10">
-        <v>17.3</v>
-      </c>
-      <c r="I10">
-        <v>20.2</v>
-      </c>
-      <c r="J10">
-        <v>28.4</v>
-      </c>
-      <c r="K10">
-        <v>15.7</v>
-      </c>
-      <c r="L10">
-        <v>3.8</v>
-      </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2588,34 +2574,34 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.1</v>
       </c>
-      <c r="F11">
-        <v>0.2</v>
-      </c>
-      <c r="G11">
-        <v>3.4</v>
-      </c>
       <c r="H11">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="I11">
-        <v>12.9</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>23.1</v>
+        <v>11.5</v>
       </c>
       <c r="K11">
-        <v>38.9</v>
+        <v>59.1</v>
       </c>
       <c r="L11">
-        <v>13.1</v>
+        <v>22.2</v>
       </c>
       <c r="M11">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>3.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2647,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K12">
-        <v>1.6</v>
+        <v>6.3</v>
       </c>
       <c r="L12">
-        <v>18.3</v>
+        <v>33.9</v>
       </c>
       <c r="M12">
-        <v>80</v>
+        <v>59.4</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2685,22 +2671,22 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="J13">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="K13">
-        <v>14.8</v>
+        <v>17.9</v>
       </c>
       <c r="L13">
-        <v>59.7</v>
+        <v>41.7</v>
       </c>
       <c r="M13">
-        <v>19.4</v>
+        <v>38.6</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2713,420 +2699,450 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>99.5</v>
+        <v>66</v>
       </c>
       <c r="C2">
-        <v>70.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D2">
-        <v>82.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E2">
-        <v>87.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F2">
-        <v>93.8</v>
+        <v>99.2</v>
       </c>
       <c r="G2">
-        <v>80.60000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H2">
-        <v>90.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="I2">
-        <v>96.5</v>
+        <v>95.7</v>
       </c>
       <c r="J2">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="K2">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L2">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>66.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C3">
-        <v>68.7</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="D3">
-        <v>91.7</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="E3">
-        <v>98.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F3">
-        <v>99.2</v>
+        <v>86.7</v>
       </c>
       <c r="G3">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="H3">
+        <v>90.5</v>
+      </c>
+      <c r="I3">
+        <v>96.2</v>
+      </c>
+      <c r="J3">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="K3">
         <v>98.09999999999999</v>
       </c>
-      <c r="H3">
-        <v>99.2</v>
-      </c>
-      <c r="I3">
-        <v>95.89999999999999</v>
-      </c>
-      <c r="J3">
-        <v>98.8</v>
-      </c>
-      <c r="K3">
-        <v>99.8</v>
-      </c>
       <c r="L3">
-        <v>99.90000000000001</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="M3">
         <v>99.90000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C4">
+        <v>70.3</v>
+      </c>
+      <c r="D4">
+        <v>84.5</v>
+      </c>
+      <c r="E4">
+        <v>85.7</v>
+      </c>
+      <c r="F4">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G4">
+        <v>82</v>
+      </c>
+      <c r="H4">
+        <v>90.10000000000001</v>
+      </c>
+      <c r="I4">
+        <v>96</v>
+      </c>
+      <c r="J4">
+        <v>98.7</v>
+      </c>
+      <c r="K4">
+        <v>99.7</v>
+      </c>
+      <c r="L4">
+        <v>99.3</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C5">
+        <v>92.7</v>
+      </c>
+      <c r="D5">
+        <v>92.2</v>
+      </c>
+      <c r="E5">
+        <v>78.5</v>
+      </c>
+      <c r="F5">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="G5">
+        <v>69.19999999999999</v>
+      </c>
+      <c r="H5">
+        <v>87.5</v>
+      </c>
+      <c r="I5">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="J5">
+        <v>91.3</v>
+      </c>
+      <c r="K5">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="L5">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="M5">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="N5">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>99.8</v>
+      </c>
+      <c r="D6">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E6">
+        <v>99</v>
+      </c>
+      <c r="F6">
+        <v>83.5</v>
+      </c>
+      <c r="G6">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="H6">
+        <v>77.10000000000001</v>
+      </c>
+      <c r="I6">
+        <v>54.40000000000001</v>
+      </c>
+      <c r="J6">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="K6">
+        <v>84.39999999999999</v>
+      </c>
+      <c r="L6">
+        <v>94</v>
+      </c>
+      <c r="M6">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="N6">
+        <v>88.59999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>45.6</v>
+      </c>
+      <c r="D7">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="E7">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>34.5</v>
+      </c>
+      <c r="G7">
+        <v>21.3</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <v>26.7</v>
+      </c>
+      <c r="K7">
+        <v>55.2</v>
+      </c>
+      <c r="L7">
+        <v>61.9</v>
+      </c>
+      <c r="M7">
+        <v>55.90000000000001</v>
+      </c>
+      <c r="N7">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3.8</v>
+      </c>
+      <c r="C8">
+        <v>28.6</v>
+      </c>
+      <c r="D8">
+        <v>22.3</v>
+      </c>
+      <c r="E8">
+        <v>45.2</v>
+      </c>
+      <c r="F8">
+        <v>19.1</v>
+      </c>
+      <c r="G8">
+        <v>37.5</v>
+      </c>
+      <c r="H8">
+        <v>26.9</v>
+      </c>
+      <c r="I8">
+        <v>16.3</v>
+      </c>
+      <c r="J8">
+        <v>18.5</v>
+      </c>
+      <c r="K8">
+        <v>6.1</v>
+      </c>
+      <c r="L8">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>35.7</v>
+      </c>
+      <c r="N8">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>11.5</v>
+      </c>
+      <c r="C9">
+        <v>8.9</v>
+      </c>
+      <c r="D9">
+        <v>17.7</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>99</v>
-      </c>
-      <c r="C4">
-        <v>42.2</v>
-      </c>
-      <c r="D4">
-        <v>65.8</v>
-      </c>
-      <c r="E4">
-        <v>76.5</v>
-      </c>
-      <c r="F4">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="G4">
-        <v>93.2</v>
-      </c>
-      <c r="H4">
-        <v>91.3</v>
-      </c>
-      <c r="I4">
-        <v>95.39999999999999</v>
-      </c>
-      <c r="J4">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="K4">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="L4">
-        <v>94.89999999999999</v>
-      </c>
-      <c r="M4">
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D5">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="E5">
-        <v>99.2</v>
-      </c>
-      <c r="F5">
-        <v>82</v>
-      </c>
-      <c r="G5">
-        <v>74.3</v>
-      </c>
-      <c r="H5">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="I5">
-        <v>56.8</v>
-      </c>
-      <c r="J5">
-        <v>65.3</v>
-      </c>
-      <c r="K5">
-        <v>83.2</v>
-      </c>
-      <c r="L5">
-        <v>93.5</v>
-      </c>
-      <c r="M5">
-        <v>95.59999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>98.2</v>
-      </c>
-      <c r="C6">
-        <v>90.3</v>
-      </c>
-      <c r="D6">
-        <v>93.89999999999999</v>
-      </c>
-      <c r="E6">
-        <v>78.7</v>
-      </c>
-      <c r="F6">
-        <v>93.5</v>
-      </c>
-      <c r="G6">
-        <v>72.89999999999999</v>
-      </c>
-      <c r="H6">
-        <v>88</v>
-      </c>
-      <c r="I6">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="J6">
-        <v>91.3</v>
-      </c>
-      <c r="K6">
-        <v>97.2</v>
-      </c>
-      <c r="L6">
-        <v>91.3</v>
-      </c>
-      <c r="M6">
-        <v>91.90000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0.4</v>
-      </c>
-      <c r="C7">
-        <v>42.9</v>
-      </c>
-      <c r="D7">
-        <v>57.09999999999999</v>
-      </c>
-      <c r="E7">
-        <v>39</v>
-      </c>
-      <c r="F7">
-        <v>34.8</v>
-      </c>
-      <c r="G7">
-        <v>23.7</v>
-      </c>
-      <c r="H7">
-        <v>32.8</v>
-      </c>
-      <c r="I7">
-        <v>45.6</v>
-      </c>
-      <c r="J7">
-        <v>26.6</v>
-      </c>
-      <c r="K7">
-        <v>53.7</v>
-      </c>
-      <c r="L7">
-        <v>64</v>
-      </c>
-      <c r="M7">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="C8">
-        <v>10.5</v>
-      </c>
-      <c r="D8">
-        <v>18.2</v>
-      </c>
-      <c r="E8">
-        <v>8.6</v>
-      </c>
-      <c r="F8">
-        <v>3.3</v>
-      </c>
-      <c r="G8">
-        <v>8.5</v>
-      </c>
-      <c r="H8">
-        <v>16.5</v>
-      </c>
-      <c r="I8">
+      <c r="G9">
+        <v>9.4</v>
+      </c>
+      <c r="H9">
+        <v>15.5</v>
+      </c>
+      <c r="I9">
         <v>28.7</v>
       </c>
-      <c r="J8">
-        <v>45.7</v>
-      </c>
-      <c r="K8">
-        <v>18.2</v>
-      </c>
-      <c r="L8">
-        <v>22.2</v>
-      </c>
-      <c r="M8">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
+      <c r="J9">
+        <v>46.2</v>
+      </c>
+      <c r="K9">
+        <v>18.8</v>
+      </c>
+      <c r="L9">
+        <v>23.2</v>
+      </c>
+      <c r="M9">
+        <v>13.2</v>
+      </c>
+      <c r="N9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>9.700000000000001</v>
-      </c>
-      <c r="D9">
+      <c r="B10">
+        <v>2.5</v>
+      </c>
+      <c r="C10">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="D10">
         <v>1.4</v>
       </c>
-      <c r="E9">
-        <v>2.4</v>
-      </c>
-      <c r="F9">
-        <v>16.6</v>
-      </c>
-      <c r="G9">
-        <v>43.5</v>
-      </c>
-      <c r="H9">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="I9">
-        <v>35.7</v>
-      </c>
-      <c r="J9">
-        <v>46.9</v>
-      </c>
-      <c r="K9">
-        <v>38.7</v>
-      </c>
-      <c r="L9">
-        <v>18.3</v>
-      </c>
-      <c r="M9">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>3.9</v>
-      </c>
-      <c r="C10">
-        <v>29.8</v>
-      </c>
-      <c r="D10">
-        <v>20.7</v>
-      </c>
       <c r="E10">
-        <v>46.40000000000001</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="F10">
-        <v>21.8</v>
+        <v>17.4</v>
       </c>
       <c r="G10">
-        <v>40.7</v>
+        <v>45.4</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>33.5</v>
       </c>
       <c r="I10">
-        <v>15.6</v>
+        <v>35.4</v>
       </c>
       <c r="J10">
+        <v>48.4</v>
+      </c>
+      <c r="K10">
+        <v>35.6</v>
+      </c>
+      <c r="L10">
         <v>19</v>
       </c>
-      <c r="K10">
-        <v>5.5</v>
-      </c>
-      <c r="L10">
-        <v>12.9</v>
-      </c>
       <c r="M10">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10.4</v>
+      </c>
+      <c r="N10">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3134,69 +3150,72 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>98.7</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="D11">
-        <v>57.9</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="E11">
-        <v>44.2</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="F11">
-        <v>60.9</v>
+        <v>57.7</v>
       </c>
       <c r="G11">
-        <v>44.7</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="H11">
-        <v>19.5</v>
+        <v>21.1</v>
       </c>
       <c r="I11">
-        <v>16.4</v>
+        <v>17.8</v>
       </c>
       <c r="J11">
-        <v>9.199999999999999</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>20.7</v>
+        <v>18.2</v>
       </c>
       <c r="C12">
         <v>0.2</v>
       </c>
       <c r="D12">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>5.899999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="F12">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="G12">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H12">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0.6</v>
       </c>
       <c r="J12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3207,45 +3226,51 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="C13">
-        <v>36.4</v>
+        <v>33.8</v>
       </c>
       <c r="D13">
-        <v>12.5</v>
+        <v>14.1</v>
       </c>
       <c r="E13">
-        <v>13.3</v>
+        <v>14.9</v>
       </c>
       <c r="F13">
-        <v>6.5</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="H13">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="I13">
-        <v>16.4</v>
+        <v>14</v>
       </c>
       <c r="J13">
-        <v>4.399999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="K13">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
     </row>
@@ -3264,28 +3289,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3293,28 +3318,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>137.23</v>
+        <v>100.38</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>129.57</v>
+        <v>127.95</v>
       </c>
       <c r="G2">
-        <v>0.5679999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>17.3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3322,28 +3347,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>125.05</v>
+        <v>136.65</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>128.86</v>
+        <v>132.99</v>
       </c>
       <c r="G3">
-        <v>0.477</v>
+        <v>0.611</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>17.3</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3351,28 +3376,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>101.74</v>
+        <v>113.74</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>125.47</v>
+        <v>130.49</v>
       </c>
       <c r="G4">
-        <v>0.432</v>
+        <v>0.556</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>16.3</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3380,28 +3405,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>121.91</v>
+        <v>131.56</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>131.31</v>
+        <v>134.01</v>
       </c>
       <c r="G5">
-        <v>0.614</v>
+        <v>0.667</v>
       </c>
       <c r="H5">
+        <v>10.7</v>
+      </c>
+      <c r="I5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3412,25 +3437,25 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>118.91</v>
+        <v>120.99</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>127.68</v>
+        <v>125.06</v>
       </c>
       <c r="G6">
-        <v>0.477</v>
+        <v>0.417</v>
       </c>
       <c r="H6">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3438,28 +3463,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>134.85</v>
+        <v>121.82</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>129.21</v>
+        <v>130.95</v>
       </c>
       <c r="G7">
-        <v>0.614</v>
+        <v>0.639</v>
       </c>
       <c r="H7">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3467,28 +3492,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>136.45</v>
+        <v>134.24</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>128.23</v>
+        <v>126.49</v>
       </c>
       <c r="G8">
-        <v>0.477</v>
+        <v>0.528</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>-2.7</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3496,28 +3521,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>116.89</v>
+        <v>137.63</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>122.63</v>
+        <v>128.31</v>
       </c>
       <c r="G9">
-        <v>0.477</v>
+        <v>0.528</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3525,28 +3550,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>132.65</v>
+        <v>126.77</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>124.84</v>
+        <v>121.47</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.361</v>
       </c>
       <c r="H10">
-        <v>-1.8</v>
+        <v>-6.7</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3554,28 +3579,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>121.29</v>
+        <v>142.95</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>122.13</v>
+        <v>116.92</v>
       </c>
       <c r="G11">
-        <v>0.455</v>
+        <v>0.417</v>
       </c>
       <c r="H11">
-        <v>-6.8</v>
+        <v>-16</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3583,28 +3608,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>142.42</v>
+        <v>121.77</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>120.23</v>
+        <v>116.92</v>
       </c>
       <c r="G12">
-        <v>0.432</v>
+        <v>0.417</v>
       </c>
       <c r="H12">
-        <v>-7.2</v>
+        <v>-16</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3615,25 +3640,25 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>121.29</v>
+        <v>119.12</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>120.54</v>
+        <v>116.04</v>
       </c>
       <c r="G13">
-        <v>0.477</v>
+        <v>0.417</v>
       </c>
       <c r="H13">
-        <v>-10.5</v>
+        <v>-19.3</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3651,31 +3676,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3683,28 +3708,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>142.4218181818182</v>
+        <v>142.95</v>
       </c>
       <c r="E2">
-        <v>1566.64</v>
+        <v>1715.4</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3712,28 +3737,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>136.4490909090909</v>
+        <v>137.6266666666667</v>
       </c>
       <c r="E3">
-        <v>1500.94</v>
+        <v>1651.52</v>
       </c>
       <c r="F3">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3741,86 +3766,86 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>137.2309090909091</v>
+        <v>136.6466666666667</v>
       </c>
       <c r="E4">
-        <v>1509.54</v>
+        <v>1639.76</v>
       </c>
       <c r="F4">
-        <v>96.89999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>134.8527272727273</v>
+        <v>134.2383333333333</v>
       </c>
       <c r="E5">
-        <v>1483.38</v>
+        <v>1610.86</v>
       </c>
       <c r="F5">
-        <v>95.39999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D6">
-        <v>132.6490909090909</v>
+        <v>131.5583333333333</v>
       </c>
       <c r="E6">
-        <v>1459.14</v>
+        <v>1578.7</v>
       </c>
       <c r="F6">
-        <v>92.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3828,115 +3853,115 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>125.0490909090909</v>
+        <v>126.7666666666667</v>
       </c>
       <c r="E7">
-        <v>1375.54</v>
+        <v>1521.2</v>
       </c>
       <c r="F7">
-        <v>61</v>
+        <v>60.3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>121.2890909090909</v>
+        <v>120.9866666666667</v>
       </c>
       <c r="E8">
-        <v>1334.18</v>
+        <v>1451.84</v>
       </c>
       <c r="F8">
-        <v>20.8</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D9">
-        <v>121.9127272727273</v>
+        <v>121.7666666666667</v>
       </c>
       <c r="E9">
-        <v>1341.04</v>
+        <v>1461.2</v>
       </c>
       <c r="F9">
-        <v>15.2</v>
+        <v>9.9</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D10">
-        <v>118.9090909090909</v>
+        <v>121.825</v>
       </c>
       <c r="E10">
-        <v>1308</v>
+        <v>1461.9</v>
       </c>
       <c r="F10">
-        <v>14.6</v>
+        <v>7.7</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3944,28 +3969,28 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>116.8854545454545</v>
+        <v>113.74</v>
       </c>
       <c r="E11">
-        <v>1285.74</v>
+        <v>1364.88</v>
       </c>
       <c r="F11">
-        <v>3.7</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3973,28 +3998,28 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C12">
-        <v>0.1818181818181818</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>101.7436363636364</v>
+        <v>100.3783333333333</v>
       </c>
       <c r="E12">
-        <v>1119.18</v>
+        <v>1204.54</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80</v>
+        <v>59.4</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4002,28 +4027,28 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C13">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D13">
-        <v>121.2945454545455</v>
+        <v>119.1216666666667</v>
       </c>
       <c r="E13">
-        <v>1334.24</v>
+        <v>1429.46</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>19.4</v>
+        <v>38.6</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4041,19 +4066,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4064,16 +4089,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4084,16 +4109,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4104,16 +4129,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4124,16 +4149,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4147,13 +4172,13 @@
         <v>68</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4161,19 +4186,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4181,19 +4206,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4201,19 +4226,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4224,16 +4249,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4241,19 +4266,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>-14</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4261,19 +4286,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
       </c>
       <c r="D12">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4287,13 +4312,13 @@
         <v>62</v>
       </c>
       <c r="D13">
-        <v>-33</v>
+        <v>-42</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4303,51 +4328,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>132</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4384,11 +4412,14 @@
       <c r="L2">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4425,11 +4456,14 @@
       <c r="L3">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4466,11 +4500,14 @@
       <c r="L4">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4507,11 +4544,14 @@
       <c r="L5">
         <v>7</v>
       </c>
-      <c r="M5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4548,134 +4588,146 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="J7">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="K7">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>-1</v>
       </c>
       <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>-3</v>
-      </c>
-      <c r="J8">
-        <v>-1</v>
-      </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>-1</v>
       </c>
-      <c r="M8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="L9">
-        <v>-1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4712,93 +4764,102 @@
       <c r="L10">
         <v>-5</v>
       </c>
-      <c r="M10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-8</v>
+      </c>
+      <c r="J11">
+        <v>-15</v>
+      </c>
+      <c r="K11">
+        <v>-20</v>
+      </c>
+      <c r="L11">
+        <v>-20</v>
+      </c>
+      <c r="M11">
+        <v>-20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-1</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-3</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-13</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-10</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-9</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-7</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-14</v>
       </c>
-      <c r="M11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>-1</v>
-      </c>
-      <c r="I12">
-        <v>-8</v>
-      </c>
-      <c r="J12">
-        <v>-15</v>
-      </c>
-      <c r="K12">
-        <v>-20</v>
-      </c>
-      <c r="L12">
-        <v>-20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -4835,8 +4896,11 @@
       <c r="L13">
         <v>-33</v>
       </c>
-      <c r="M13" t="s">
-        <v>117</v>
+      <c r="M13">
+        <v>-42</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="147">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -61,37 +61,40 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -190,6 +193,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -211,36 +217,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
+    <t>Roy Armbruster</t>
+  </si>
+  <si>
+    <t>Chungfu Yang</t>
+  </si>
+  <si>
+    <t>Daniel Tracey</t>
+  </si>
+  <si>
     <t>Jeffrey Laidacker</t>
   </si>
   <si>
-    <t>Roy Armbruster</t>
-  </si>
-  <si>
-    <t>Hannah Davis</t>
-  </si>
-  <si>
-    <t>Chungfu Yang</t>
-  </si>
-  <si>
     <t>Robert Schottler</t>
   </si>
   <si>
-    <t>Daniel Tracey</t>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
+    <t>Justin Fox</t>
+  </si>
+  <si>
+    <t>Dave Linton</t>
   </si>
   <si>
     <t>Dale Goodwin</t>
   </si>
   <si>
-    <t>Matthew Graesser</t>
-  </si>
-  <si>
-    <t>Dave Linton</t>
-  </si>
-  <si>
-    <t>Justin Fox</t>
-  </si>
-  <si>
     <t>Garrett Sullivan</t>
   </si>
   <si>
@@ -271,72 +277,75 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>11.1-3.9</t>
-  </si>
-  <si>
-    <t>10.8-4.2</t>
-  </si>
-  <si>
-    <t>9.6-5.4</t>
-  </si>
-  <si>
-    <t>9.7-5.3</t>
-  </si>
-  <si>
-    <t>8.4-6.6</t>
-  </si>
-  <si>
-    <t>7.6-7.4</t>
-  </si>
-  <si>
-    <t>7.4-7.6</t>
-  </si>
-  <si>
-    <t>6.6-8.4</t>
-  </si>
-  <si>
-    <t>6.2-8.7</t>
-  </si>
-  <si>
-    <t>5.1-9.9</t>
-  </si>
-  <si>
-    <t>3.8-11.2</t>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>11.3-3.7</t>
+  </si>
+  <si>
+    <t>10.1-4.9</t>
+  </si>
+  <si>
+    <t>10.3-4.7</t>
+  </si>
+  <si>
+    <t>9.0-6.0</t>
+  </si>
+  <si>
+    <t>9.1-5.9</t>
+  </si>
+  <si>
+    <t>8.0-7.0</t>
+  </si>
+  <si>
+    <t>7.0-7.9</t>
+  </si>
+  <si>
+    <t>7.1-7.9</t>
+  </si>
+  <si>
+    <t>5.7-9.3</t>
   </si>
   <si>
     <t>3.6-11.4</t>
   </si>
   <si>
+    <t>4.2-10.8</t>
+  </si>
+  <si>
+    <t>4.7-10.3</t>
+  </si>
+  <si>
     <t>11-4</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
+    <t>9-6</t>
+  </si>
+  <si>
     <t>8-7</t>
   </si>
   <si>
@@ -346,12 +355,15 @@
     <t>6-9</t>
   </si>
   <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>4-11</t>
+  </si>
+  <si>
     <t>5-10</t>
   </si>
   <si>
-    <t>4-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -361,7 +373,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>0</t>
@@ -370,22 +400,10 @@
     <t>↑2</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -422,6 +440,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -852,37 +873,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -893,16 +914,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -911,16 +932,16 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -934,34 +955,34 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -972,40 +993,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1013,40 +1034,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
         <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1054,40 +1075,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1098,37 +1119,37 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1136,40 +1157,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
       <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1177,40 +1198,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1218,40 +1239,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1259,40 +1280,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1300,40 +1321,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
         <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1351,25 +1372,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1585,25 +1606,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1611,25 +1632,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>-18</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1637,25 +1658,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1663,25 +1684,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F13">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1699,13 +1720,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1716,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1727,13 +1748,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>5.583333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1741,13 +1762,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.583333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1755,13 +1776,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5.666666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1769,13 +1790,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.916666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1783,13 +1804,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>6.083333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1800,10 +1821,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>6.083333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1811,13 +1832,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>6.166666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1825,13 +1846,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>6.333333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1839,13 +1860,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6.666666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1853,13 +1874,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>6.75</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1867,13 +1888,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>6.916666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1891,16 +1912,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1911,13 +1932,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>9.083333333333334</v>
+        <v>9.5</v>
       </c>
       <c r="D2">
-        <v>0.08333333333333393</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1925,16 +1946,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>7.916666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333304</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1942,16 +1963,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>7.833333333333333</v>
+        <v>8.25</v>
       </c>
       <c r="D4">
-        <v>-1.166666666666667</v>
+        <v>-0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1959,16 +1980,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>6.75</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D5">
-        <v>-1.25</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1976,16 +1997,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6.75</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1996,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2013,13 +2034,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.833333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D8">
-        <v>0.833333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2027,16 +2048,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2044,16 +2065,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5.083333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.916666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2061,16 +2082,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>4.833333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D11">
-        <v>2.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2081,13 +2102,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2104,7 +2125,7 @@
         <v>-0.8333333333333335</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2122,46 +2143,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2169,19 +2190,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>65.3</v>
+        <v>81.3</v>
       </c>
       <c r="C2">
-        <v>23.4</v>
+        <v>10.2</v>
       </c>
       <c r="D2">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="E2">
         <v>1.5</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2210,22 +2231,22 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>24.9</v>
+        <v>7.7</v>
       </c>
       <c r="C3">
-        <v>46.3</v>
+        <v>21.2</v>
       </c>
       <c r="D3">
-        <v>20.1</v>
+        <v>41.1</v>
       </c>
       <c r="E3">
-        <v>6.8</v>
+        <v>23.7</v>
       </c>
       <c r="F3">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2254,28 +2275,28 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>4.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C4">
-        <v>13.3</v>
+        <v>56.2</v>
       </c>
       <c r="D4">
-        <v>36.5</v>
+        <v>23.2</v>
       </c>
       <c r="E4">
-        <v>33.8</v>
+        <v>8.5</v>
       </c>
       <c r="F4">
-        <v>10.5</v>
+        <v>2.3</v>
       </c>
       <c r="G4">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2293,36 +2314,36 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>15.2</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>13.4</v>
       </c>
       <c r="E5">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="F5">
-        <v>15.1</v>
+        <v>38.1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2337,39 +2358,39 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="D6">
-        <v>5.1</v>
+        <v>15.8</v>
       </c>
       <c r="E6">
-        <v>19.5</v>
+        <v>31.5</v>
       </c>
       <c r="F6">
-        <v>42.2</v>
+        <v>33.1</v>
       </c>
       <c r="G6">
-        <v>19.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2381,12 +2402,12 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>88.7</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2395,28 +2416,28 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>20.6</v>
+        <v>12.3</v>
       </c>
       <c r="G7">
-        <v>33.4</v>
+        <v>44.4</v>
       </c>
       <c r="H7">
-        <v>23.4</v>
+        <v>25.7</v>
       </c>
       <c r="I7">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="J7">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2425,12 +2446,12 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>60.3</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2442,25 +2463,25 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="G8">
-        <v>26.1</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>27.1</v>
+        <v>36.5</v>
       </c>
       <c r="I8">
-        <v>19.5</v>
+        <v>28.3</v>
       </c>
       <c r="J8">
-        <v>16.7</v>
+        <v>4.3</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2469,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>34.6</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2489,31 +2510,31 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>8.5</v>
+        <v>13.3</v>
       </c>
       <c r="H9">
-        <v>21.4</v>
+        <v>31</v>
       </c>
       <c r="I9">
-        <v>39.4</v>
+        <v>46.3</v>
       </c>
       <c r="J9">
-        <v>22.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K9">
-        <v>5.9</v>
+        <v>0.2</v>
       </c>
       <c r="L9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2533,36 +2554,36 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H10">
-        <v>17.1</v>
+        <v>2.2</v>
       </c>
       <c r="I10">
-        <v>24.1</v>
+        <v>10.8</v>
       </c>
       <c r="J10">
-        <v>41.9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="K10">
-        <v>8.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2580,33 +2601,33 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>59.1</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>22.2</v>
+        <v>15.9</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2633,16 +2654,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4</v>
+        <v>10.2</v>
       </c>
       <c r="K12">
-        <v>6.3</v>
+        <v>40.2</v>
       </c>
       <c r="L12">
-        <v>33.9</v>
+        <v>31.6</v>
       </c>
       <c r="M12">
-        <v>59.4</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2650,7 +2671,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2674,19 +2695,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="J13">
-        <v>1.7</v>
+        <v>7.2</v>
       </c>
       <c r="K13">
-        <v>17.9</v>
+        <v>40.1</v>
       </c>
       <c r="L13">
-        <v>41.7</v>
+        <v>50.5</v>
       </c>
       <c r="M13">
-        <v>38.6</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2699,89 +2720,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>64.5</v>
       </c>
       <c r="C2">
-        <v>74.59999999999999</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="D2">
-        <v>89.09999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="E2">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="F2">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="G2">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="H2">
         <v>98.5</v>
       </c>
       <c r="I2">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="J2">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="K2">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2789,43 +2813,46 @@
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="C3">
-        <v>39.90000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="D3">
-        <v>65.60000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E3">
-        <v>75.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="F3">
-        <v>86.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G3">
-        <v>94.19999999999999</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="H3">
-        <v>90.5</v>
+        <v>89.2</v>
       </c>
       <c r="I3">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="J3">
-        <v>93.10000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="K3">
         <v>98.09999999999999</v>
       </c>
       <c r="L3">
-        <v>95.19999999999999</v>
+        <v>95</v>
       </c>
       <c r="M3">
         <v>99.90000000000001</v>
@@ -2833,8 +2860,11 @@
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2842,34 +2872,34 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C4">
-        <v>70.3</v>
+        <v>71.5</v>
       </c>
       <c r="D4">
-        <v>84.5</v>
+        <v>83.7</v>
       </c>
       <c r="E4">
-        <v>85.7</v>
+        <v>85.3</v>
       </c>
       <c r="F4">
-        <v>94.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="G4">
-        <v>82</v>
+        <v>82.3</v>
       </c>
       <c r="H4">
-        <v>90.10000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="I4">
-        <v>96</v>
+        <v>97.3</v>
       </c>
       <c r="J4">
         <v>98.7</v>
       </c>
       <c r="K4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="L4">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2877,216 +2907,231 @@
       <c r="N4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C5">
+        <v>99.7</v>
+      </c>
+      <c r="D5">
+        <v>96.7</v>
+      </c>
+      <c r="E5">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F5">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="G5">
+        <v>76.7</v>
+      </c>
+      <c r="H5">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>57.7</v>
+      </c>
+      <c r="J5">
+        <v>64.7</v>
+      </c>
+      <c r="K5">
+        <v>85.8</v>
+      </c>
+      <c r="L5">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="M5">
+        <v>87.8</v>
+      </c>
+      <c r="N5">
+        <v>94</v>
+      </c>
+      <c r="O5">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="C5">
-        <v>92.7</v>
-      </c>
-      <c r="D5">
-        <v>92.2</v>
-      </c>
-      <c r="E5">
-        <v>78.5</v>
-      </c>
-      <c r="F5">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="G5">
-        <v>69.19999999999999</v>
-      </c>
-      <c r="H5">
-        <v>87.5</v>
-      </c>
-      <c r="I5">
+      <c r="B6">
+        <v>98.5</v>
+      </c>
+      <c r="C6">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="D6">
+        <v>94.8</v>
+      </c>
+      <c r="E6">
+        <v>77.7</v>
+      </c>
+      <c r="F6">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="G6">
+        <v>69.3</v>
+      </c>
+      <c r="H6">
+        <v>87</v>
+      </c>
+      <c r="I6">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="J6">
+        <v>90.3</v>
+      </c>
+      <c r="K6">
         <v>96.89999999999999</v>
       </c>
-      <c r="J5">
-        <v>91.3</v>
-      </c>
-      <c r="K5">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="L5">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="M5">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="N5">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>99.8</v>
-      </c>
-      <c r="D6">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E6">
-        <v>99</v>
-      </c>
-      <c r="F6">
-        <v>83.5</v>
-      </c>
-      <c r="G6">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="H6">
-        <v>77.10000000000001</v>
-      </c>
-      <c r="I6">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="J6">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="K6">
-        <v>84.39999999999999</v>
-      </c>
       <c r="L6">
-        <v>94</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="M6">
-        <v>86.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="N6">
-        <v>88.59999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>93.7</v>
+      </c>
+      <c r="O6">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="C7">
+        <v>26.9</v>
+      </c>
+      <c r="D7">
+        <v>21.7</v>
+      </c>
+      <c r="E7">
+        <v>47.8</v>
+      </c>
+      <c r="F7">
+        <v>19.7</v>
+      </c>
+      <c r="G7">
+        <v>38.3</v>
+      </c>
+      <c r="H7">
+        <v>27.9</v>
+      </c>
+      <c r="I7">
+        <v>16.9</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>6.9</v>
+      </c>
+      <c r="L7">
+        <v>12.9</v>
+      </c>
+      <c r="M7">
+        <v>34.7</v>
+      </c>
+      <c r="N7">
+        <v>54.8</v>
+      </c>
+      <c r="O7">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
         <v>45.6</v>
       </c>
-      <c r="D7">
+      <c r="D8">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="E8">
+        <v>36.9</v>
+      </c>
+      <c r="F8">
+        <v>38.3</v>
+      </c>
+      <c r="G8">
+        <v>22.5</v>
+      </c>
+      <c r="H8">
+        <v>38.3</v>
+      </c>
+      <c r="I8">
+        <v>45.5</v>
+      </c>
+      <c r="J8">
+        <v>26.3</v>
+      </c>
+      <c r="K8">
         <v>57.49999999999999</v>
       </c>
-      <c r="E7">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>34.5</v>
-      </c>
-      <c r="G7">
-        <v>21.3</v>
-      </c>
-      <c r="H7">
-        <v>35</v>
-      </c>
-      <c r="I7">
-        <v>48</v>
-      </c>
-      <c r="J7">
-        <v>26.7</v>
-      </c>
-      <c r="K7">
-        <v>55.2</v>
-      </c>
-      <c r="L7">
-        <v>61.9</v>
-      </c>
-      <c r="M7">
-        <v>55.90000000000001</v>
-      </c>
-      <c r="N7">
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>3.8</v>
-      </c>
-      <c r="C8">
-        <v>28.6</v>
-      </c>
-      <c r="D8">
-        <v>22.3</v>
-      </c>
-      <c r="E8">
-        <v>45.2</v>
-      </c>
-      <c r="F8">
-        <v>19.1</v>
-      </c>
-      <c r="G8">
-        <v>37.5</v>
-      </c>
-      <c r="H8">
-        <v>26.9</v>
-      </c>
-      <c r="I8">
-        <v>16.3</v>
-      </c>
-      <c r="J8">
-        <v>18.5</v>
-      </c>
-      <c r="K8">
-        <v>6.1</v>
-      </c>
       <c r="L8">
-        <v>13</v>
+        <v>62.3</v>
       </c>
       <c r="M8">
-        <v>35.7</v>
+        <v>57.4</v>
       </c>
       <c r="N8">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>35.9</v>
+      </c>
+      <c r="O8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="C9">
-        <v>8.9</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>17.7</v>
+        <v>15.8</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G9">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="H9">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>28.7</v>
+        <v>26.7</v>
       </c>
       <c r="J9">
-        <v>46.2</v>
+        <v>42.4</v>
       </c>
       <c r="K9">
-        <v>18.8</v>
+        <v>16.3</v>
       </c>
       <c r="L9">
         <v>23.2</v>
@@ -3095,182 +3140,197 @@
         <v>13.2</v>
       </c>
       <c r="N9">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>19</v>
+      </c>
+      <c r="O9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="C10">
-        <v>8.200000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="E10">
-        <v>4.100000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="F10">
+        <v>18.4</v>
+      </c>
+      <c r="G10">
+        <v>42.2</v>
+      </c>
+      <c r="H10">
+        <v>32.9</v>
+      </c>
+      <c r="I10">
+        <v>38.4</v>
+      </c>
+      <c r="J10">
+        <v>52.5</v>
+      </c>
+      <c r="K10">
+        <v>33.8</v>
+      </c>
+      <c r="L10">
         <v>17.4</v>
       </c>
-      <c r="G10">
-        <v>45.4</v>
-      </c>
-      <c r="H10">
-        <v>33.5</v>
-      </c>
-      <c r="I10">
-        <v>35.4</v>
-      </c>
-      <c r="J10">
-        <v>48.4</v>
-      </c>
-      <c r="K10">
-        <v>35.6</v>
-      </c>
-      <c r="L10">
-        <v>19</v>
-      </c>
       <c r="M10">
-        <v>10.4</v>
+        <v>8.4</v>
       </c>
       <c r="N10">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>2.6</v>
+      </c>
+      <c r="O10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>22.2</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11">
+        <v>2.2</v>
+      </c>
+      <c r="E11">
+        <v>5.3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.5</v>
+      </c>
+      <c r="I11">
+        <v>0.6</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1.3</v>
+      </c>
+      <c r="C12">
+        <v>34.5</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>15.3</v>
+      </c>
+      <c r="F12">
+        <v>6.4</v>
+      </c>
+      <c r="G12">
+        <v>14.4</v>
+      </c>
+      <c r="H12">
+        <v>22.4</v>
+      </c>
+      <c r="I12">
+        <v>12.8</v>
+      </c>
+      <c r="J12">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="K12">
+        <v>1.8</v>
+      </c>
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="D11">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="E11">
-        <v>47.09999999999999</v>
-      </c>
-      <c r="F11">
-        <v>57.7</v>
-      </c>
-      <c r="G11">
-        <v>46.40000000000001</v>
-      </c>
-      <c r="H11">
-        <v>21.1</v>
-      </c>
-      <c r="I11">
-        <v>17.8</v>
-      </c>
-      <c r="J11">
-        <v>8.799999999999999</v>
-      </c>
-      <c r="K11">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="L11">
-        <v>3.2</v>
-      </c>
-      <c r="M11">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="N11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>18.2</v>
-      </c>
-      <c r="C12">
-        <v>0.2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>5.7</v>
-      </c>
-      <c r="F12">
-        <v>2.3</v>
-      </c>
-      <c r="G12">
-        <v>4.9</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>0.6</v>
-      </c>
-      <c r="J12">
-        <v>0.2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B13">
-        <v>1.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C13">
-        <v>33.8</v>
+        <v>97.5</v>
       </c>
       <c r="D13">
-        <v>14.1</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="E13">
-        <v>14.9</v>
+        <v>46.8</v>
       </c>
       <c r="F13">
-        <v>7.399999999999999</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="G13">
-        <v>14.9</v>
+        <v>46.8</v>
       </c>
       <c r="H13">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="I13">
-        <v>14</v>
+        <v>16.6</v>
       </c>
       <c r="J13">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
     </row>
@@ -3289,28 +3349,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3318,28 +3378,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>100.38</v>
+        <v>113.66</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>127.95</v>
+        <v>133.53</v>
       </c>
       <c r="G2">
-        <v>0.444</v>
+        <v>0.615</v>
       </c>
       <c r="H2">
-        <v>17.3</v>
+        <v>22</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3350,25 +3410,25 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>136.65</v>
+        <v>134.22</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>131.16</v>
+      </c>
+      <c r="G3">
+        <v>0.615</v>
+      </c>
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="F3">
-        <v>132.99</v>
-      </c>
-      <c r="G3">
-        <v>0.611</v>
-      </c>
-      <c r="H3">
-        <v>17.3</v>
-      </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3376,28 +3436,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>113.74</v>
+        <v>132.23</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4">
-        <v>130.49</v>
+        <v>132.01</v>
       </c>
       <c r="G4">
-        <v>0.556</v>
+        <v>0.577</v>
       </c>
       <c r="H4">
-        <v>16.3</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3405,28 +3465,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>131.56</v>
+        <v>119.37</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5">
-        <v>134.01</v>
+        <v>134.45</v>
       </c>
       <c r="G5">
-        <v>0.667</v>
+        <v>0.654</v>
       </c>
       <c r="H5">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3434,28 +3494,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>120.99</v>
+        <v>98.34</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>125.06</v>
+        <v>121.28</v>
       </c>
       <c r="G6">
-        <v>0.417</v>
+        <v>0.346</v>
       </c>
       <c r="H6">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3463,28 +3523,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>121.82</v>
+        <v>122.64</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>130.95</v>
+        <v>126.1</v>
       </c>
       <c r="G7">
-        <v>0.639</v>
+        <v>0.423</v>
       </c>
       <c r="H7">
-        <v>0.3</v>
+        <v>6.5</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3492,28 +3552,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>134.24</v>
+        <v>137.2</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>126.49</v>
+        <v>125.8</v>
       </c>
       <c r="G8">
-        <v>0.528</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
-        <v>-2.7</v>
+        <v>-0.5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3521,28 +3581,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>137.63</v>
+        <v>140.25</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>128.31</v>
+        <v>123.94</v>
       </c>
       <c r="G9">
-        <v>0.528</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>-3.7</v>
+        <v>-6</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3553,25 +3613,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>126.77</v>
+        <v>126.81</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10">
-        <v>121.47</v>
+        <v>122.94</v>
       </c>
       <c r="G10">
-        <v>0.361</v>
+        <v>0.462</v>
       </c>
       <c r="H10">
-        <v>-6.7</v>
+        <v>-10</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3579,28 +3639,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>131.69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>121</v>
+      </c>
+      <c r="G11">
+        <v>0.462</v>
+      </c>
+      <c r="H11">
+        <v>-12.5</v>
+      </c>
+      <c r="I11">
         <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11">
-        <v>142.95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>116.92</v>
-      </c>
-      <c r="G11">
-        <v>0.417</v>
-      </c>
-      <c r="H11">
-        <v>-16</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3611,25 +3671,25 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>121.77</v>
+        <v>122.06</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>116.92</v>
+        <v>116.28</v>
       </c>
       <c r="G12">
-        <v>0.417</v>
+        <v>0.462</v>
       </c>
       <c r="H12">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3640,25 +3700,25 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>119.12</v>
+        <v>120.5</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>116.04</v>
+        <v>110.49</v>
       </c>
       <c r="G13">
-        <v>0.417</v>
+        <v>0.385</v>
       </c>
       <c r="H13">
-        <v>-19.3</v>
+        <v>-34</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3676,31 +3736,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3708,16 +3768,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D2">
-        <v>142.95</v>
+        <v>140.2523076923077</v>
       </c>
       <c r="E2">
-        <v>1715.4</v>
+        <v>1823.28</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3726,27 +3786,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D3">
-        <v>137.6266666666667</v>
+        <v>134.2230769230769</v>
       </c>
       <c r="E3">
-        <v>1651.52</v>
+        <v>1744.9</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3755,155 +3815,155 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D4">
-        <v>136.6466666666667</v>
+        <v>137.2046153846154</v>
       </c>
       <c r="E4">
-        <v>1639.76</v>
+        <v>1783.66</v>
       </c>
       <c r="F4">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D5">
-        <v>134.2383333333333</v>
+        <v>132.2323076923077</v>
       </c>
       <c r="E5">
-        <v>1610.86</v>
+        <v>1719.02</v>
       </c>
       <c r="F5">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D6">
-        <v>131.5583333333333</v>
+        <v>131.6923076923077</v>
       </c>
       <c r="E6">
-        <v>1578.7</v>
+        <v>1712</v>
       </c>
       <c r="F6">
-        <v>88.7</v>
+        <v>96.7</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D7">
-        <v>126.7666666666667</v>
+        <v>122.6369230769231</v>
       </c>
       <c r="E7">
-        <v>1521.2</v>
+        <v>1594.28</v>
       </c>
       <c r="F7">
-        <v>60.3</v>
+        <v>59.7</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>120.9866666666667</v>
+        <v>126.8123076923077</v>
       </c>
       <c r="E8">
-        <v>1451.84</v>
+        <v>1648.56</v>
       </c>
       <c r="F8">
-        <v>34.59999999999999</v>
+        <v>30.9</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3911,28 +3971,28 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D9">
-        <v>121.7666666666667</v>
+        <v>122.0615384615384</v>
       </c>
       <c r="E9">
-        <v>1461.2</v>
+        <v>1586.8</v>
       </c>
       <c r="F9">
-        <v>9.9</v>
+        <v>13.8</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3940,115 +4000,115 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D10">
-        <v>121.825</v>
+        <v>119.3692307692308</v>
       </c>
       <c r="E10">
-        <v>1461.9</v>
+        <v>1551.8</v>
       </c>
       <c r="F10">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D11">
-        <v>113.74</v>
+        <v>98.34307692307691</v>
       </c>
       <c r="E11">
-        <v>1364.88</v>
+        <v>1278.46</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D12">
-        <v>100.3783333333333</v>
+        <v>120.5</v>
       </c>
       <c r="E12">
-        <v>1204.54</v>
+        <v>1566.5</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.4</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13">
-        <v>0.1666666666666667</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D13">
-        <v>119.1216666666667</v>
+        <v>113.6569230769231</v>
       </c>
       <c r="E13">
-        <v>1429.46</v>
+        <v>1477.54</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38.6</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4066,19 +4126,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4092,13 +4152,13 @@
         <v>71</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4106,19 +4166,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4126,19 +4186,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4149,16 +4209,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4166,19 +4226,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4186,19 +4246,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4209,16 +4269,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4226,19 +4286,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4255,10 +4315,10 @@
         <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4269,16 +4329,16 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4292,13 +4352,13 @@
         <v>64</v>
       </c>
       <c r="D12">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4309,16 +4369,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>-42</v>
+        <v>-50</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4328,54 +4388,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>139</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4415,99 +4478,108 @@
       <c r="M2">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="G3">
+        <v>-2</v>
+      </c>
+      <c r="H3">
+        <v>-2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>-8</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>-1</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>12</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>19</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>-4</v>
-      </c>
-      <c r="F4">
-        <v>-2</v>
-      </c>
-      <c r="G4">
-        <v>-2</v>
-      </c>
-      <c r="H4">
-        <v>-2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
+      <c r="N4">
         <v>14</v>
       </c>
-      <c r="N4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4547,99 +4619,108 @@
       <c r="M5">
         <v>7</v>
       </c>
-      <c r="N5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>-5</v>
-      </c>
-      <c r="D6">
-        <v>-5</v>
-      </c>
-      <c r="E6">
-        <v>-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>-3</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
       <c r="L6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B7">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>-4</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
       <c r="G7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>-2</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4679,55 +4760,61 @@
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>-6</v>
-      </c>
-      <c r="J9">
-        <v>-9</v>
-      </c>
-      <c r="K9">
-        <v>-9</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>-2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4767,11 +4854,14 @@
       <c r="M10">
         <v>-7</v>
       </c>
-      <c r="N10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4811,11 +4901,14 @@
       <c r="M11">
         <v>-20</v>
       </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <v>-18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4855,11 +4948,14 @@
       <c r="M12">
         <v>-25</v>
       </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-26</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -4899,8 +4995,11 @@
       <c r="M13">
         <v>-42</v>
       </c>
-      <c r="N13" t="s">
-        <v>120</v>
+      <c r="N13">
+        <v>-50</v>
+      </c>
+      <c r="O13" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="144">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -61,40 +61,49 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>8-5-1</t>
+  </si>
+  <si>
+    <t>6-7-1</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>7-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -196,6 +205,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -217,42 +229,42 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Roy Armbruster</t>
+  </si>
+  <si>
+    <t>Chungfu Yang</t>
+  </si>
+  <si>
+    <t>Justin Fox</t>
+  </si>
+  <si>
+    <t>Robert Schottler</t>
+  </si>
+  <si>
+    <t>Daniel Tracey</t>
+  </si>
+  <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
     <t>Hannah Davis</t>
   </si>
   <si>
-    <t>Roy Armbruster</t>
-  </si>
-  <si>
-    <t>Chungfu Yang</t>
-  </si>
-  <si>
-    <t>Daniel Tracey</t>
-  </si>
-  <si>
     <t>Jeffrey Laidacker</t>
   </si>
   <si>
-    <t>Robert Schottler</t>
-  </si>
-  <si>
-    <t>Matthew Graesser</t>
-  </si>
-  <si>
-    <t>Justin Fox</t>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
+    <t>Jessica Stratton</t>
   </si>
   <si>
     <t>Dave Linton</t>
   </si>
   <si>
-    <t>Dale Goodwin</t>
-  </si>
-  <si>
     <t>Garrett Sullivan</t>
   </si>
   <si>
-    <t>Jessica Stratton</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -277,84 +289,72 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>11.3-3.7</t>
-  </si>
-  <si>
-    <t>10.1-4.9</t>
-  </si>
-  <si>
-    <t>10.3-4.7</t>
-  </si>
-  <si>
-    <t>9.0-6.0</t>
-  </si>
-  <si>
-    <t>9.1-5.9</t>
-  </si>
-  <si>
-    <t>8.0-7.0</t>
-  </si>
-  <si>
-    <t>7.0-7.9</t>
-  </si>
-  <si>
-    <t>7.1-7.9</t>
-  </si>
-  <si>
-    <t>5.7-9.3</t>
-  </si>
-  <si>
-    <t>3.6-11.4</t>
-  </si>
-  <si>
-    <t>4.2-10.8</t>
-  </si>
-  <si>
-    <t>4.7-10.3</t>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>10.5-4.5</t>
+  </si>
+  <si>
+    <t>8.6-5.4-1.0</t>
+  </si>
+  <si>
+    <t>7.5-6.5-1.0</t>
+  </si>
+  <si>
+    <t>9.4-5.6</t>
+  </si>
+  <si>
+    <t>10.6-4.4</t>
+  </si>
+  <si>
+    <t>6.6-8.4</t>
+  </si>
+  <si>
+    <t>3.2-11.7</t>
+  </si>
+  <si>
+    <t>4.5-10.5</t>
+  </si>
+  <si>
+    <t>6.7-8.2</t>
+  </si>
+  <si>
+    <t>5.4-9.6</t>
   </si>
   <si>
     <t>11-4</t>
   </si>
   <si>
+    <t>9-5-1</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
     <t>10-5</t>
   </si>
   <si>
-    <t>9-6</t>
-  </si>
-  <si>
-    <t>8-7</t>
-  </si>
-  <si>
     <t>7-8</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>3-12</t>
   </si>
   <si>
@@ -373,39 +373,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -443,6 +431,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -873,13 +864,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -891,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -900,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -914,37 +905,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -955,34 +946,34 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -996,37 +987,37 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1034,40 +1025,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1075,40 +1066,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1125,31 +1116,31 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
       </c>
       <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
         <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1157,40 +1148,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1207,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1216,22 +1207,22 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
         <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1239,34 +1230,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
@@ -1280,40 +1271,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1324,37 +1315,37 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1372,25 +1363,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1398,25 +1389,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>-20</v>
+        <v>-26</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1427,22 +1418,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>-20</v>
+      </c>
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>19</v>
-      </c>
       <c r="G3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1450,25 +1441,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4">
-        <v>-20</v>
-      </c>
-      <c r="F4">
-        <v>-2</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1479,22 +1470,22 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="F5">
-        <v>-42</v>
+        <v>-2</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1502,25 +1493,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>-25</v>
       </c>
       <c r="F6">
-        <v>19</v>
+        <v>-42</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1528,25 +1519,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1554,25 +1545,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1580,25 +1571,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1606,19 +1597,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>-9</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -1635,74 +1626,22 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>-7</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>-6</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>-5</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1720,13 +1659,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1737,10 +1676,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4.583333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1748,13 +1687,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>6.083333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1765,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.166666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1776,13 +1715,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6.166666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1793,10 +1732,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>6.333333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1807,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1818,13 +1757,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6.583333333333333</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1832,10 +1771,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>6.833333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1846,13 +1785,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>6.916666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1863,10 +1802,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>7.083333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1874,13 +1813,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>7.166666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1888,13 +1827,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>7.583333333333333</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1912,16 +1851,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1932,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1949,13 +1888,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="D3">
         <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1966,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="D4">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1983,13 +1922,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>7.666666666666667</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D5">
-        <v>-0.333333333333333</v>
+        <v>-0.5833333333333339</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2000,13 +1939,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.916666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D6">
-        <v>-1.083333333333333</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2017,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.833333333333333</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -2031,16 +1970,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6.416666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D8">
-        <v>0.416666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2048,16 +1987,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.083333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D9">
-        <v>-0.916666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2068,13 +2007,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>5.666666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D10">
-        <v>2.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2091,7 +2030,7 @@
         <v>0.583333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2102,13 +2041,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D12">
-        <v>0.416666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2119,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2.166666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D13">
-        <v>-0.8333333333333335</v>
+        <v>-0.75</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2143,46 +2082,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2190,19 +2129,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>81.3</v>
+        <v>38.7</v>
       </c>
       <c r="C2">
-        <v>10.2</v>
+        <v>19.2</v>
       </c>
       <c r="D2">
-        <v>6.5</v>
+        <v>38.2</v>
       </c>
       <c r="E2">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2231,25 +2170,25 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>41.1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>23.7</v>
+        <v>33.6</v>
       </c>
       <c r="F3">
-        <v>6.3</v>
+        <v>64.7</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2275,25 +2214,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>56.2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2322,28 +2261,28 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="D5">
-        <v>13.4</v>
+        <v>18.5</v>
       </c>
       <c r="E5">
-        <v>30.8</v>
+        <v>46.8</v>
       </c>
       <c r="F5">
-        <v>38.1</v>
+        <v>33.6</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2358,36 +2297,36 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>98.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>21.2</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>25.2</v>
       </c>
       <c r="D6">
-        <v>15.8</v>
+        <v>38.1</v>
       </c>
       <c r="E6">
-        <v>31.5</v>
+        <v>15.5</v>
       </c>
       <c r="F6">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2402,39 +2341,39 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>96.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>40.1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="F7">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2446,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>59.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2463,23 +2402,23 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>64.7</v>
+      </c>
+      <c r="I8">
+        <v>34.3</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>6.9</v>
-      </c>
-      <c r="G8">
-        <v>23</v>
-      </c>
-      <c r="H8">
-        <v>36.5</v>
-      </c>
-      <c r="I8">
-        <v>28.3</v>
-      </c>
-      <c r="J8">
-        <v>4.3</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
@@ -2490,12 +2429,12 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>30.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2510,36 +2449,36 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>46.3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9">
-        <v>13.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2557,33 +2496,33 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>68.40000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="K10">
-        <v>16</v>
+        <v>23.3</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2604,22 +2543,22 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>35.2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>62.9</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="L11">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>80.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2627,7 +2566,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2648,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>10.2</v>
+        <v>48.5</v>
       </c>
       <c r="K12">
-        <v>40.2</v>
+        <v>34.3</v>
       </c>
       <c r="L12">
-        <v>31.6</v>
+        <v>15.1</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2698,16 +2637,16 @@
         <v>0.8</v>
       </c>
       <c r="J13">
-        <v>7.2</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>40.1</v>
+        <v>42.3</v>
       </c>
       <c r="L13">
-        <v>50.5</v>
+        <v>23.9</v>
       </c>
       <c r="M13">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2720,89 +2659,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>64.5</v>
+        <v>65.5</v>
       </c>
       <c r="C2">
-        <v>72.39999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="D2">
-        <v>92.5</v>
+        <v>91.2</v>
       </c>
       <c r="E2">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F2">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G2">
         <v>98.5</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>98.8</v>
       </c>
-      <c r="G2">
-        <v>98.7</v>
-      </c>
-      <c r="H2">
+      <c r="I2">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="J2">
         <v>98.5</v>
       </c>
-      <c r="I2">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="J2">
-        <v>98.8</v>
-      </c>
       <c r="K2">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="L2">
         <v>99.8</v>
@@ -2816,243 +2758,261 @@
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="C3">
-        <v>40.1</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>64.09999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="E3">
-        <v>74.8</v>
+        <v>76.5</v>
       </c>
       <c r="F3">
-        <v>86.90000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="G3">
-        <v>93.89999999999999</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="H3">
-        <v>89.2</v>
+        <v>86.3</v>
       </c>
       <c r="I3">
-        <v>95.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="J3">
-        <v>92.90000000000001</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="K3">
+        <v>96.5</v>
+      </c>
+      <c r="L3">
+        <v>92</v>
+      </c>
+      <c r="M3">
         <v>98.09999999999999</v>
       </c>
-      <c r="L3">
-        <v>95</v>
-      </c>
-      <c r="M3">
-        <v>99.90000000000001</v>
-      </c>
       <c r="N3">
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>99.59999999999999</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>71.5</v>
+        <v>28.1</v>
       </c>
       <c r="D4">
-        <v>83.7</v>
+        <v>21.6</v>
       </c>
       <c r="E4">
-        <v>85.3</v>
+        <v>45.2</v>
       </c>
       <c r="F4">
-        <v>93.7</v>
+        <v>21.4</v>
       </c>
       <c r="G4">
-        <v>82.3</v>
+        <v>39.5</v>
       </c>
       <c r="H4">
-        <v>89.40000000000001</v>
+        <v>27.3</v>
       </c>
       <c r="I4">
-        <v>97.3</v>
+        <v>17.6</v>
       </c>
       <c r="J4">
-        <v>98.7</v>
+        <v>18.4</v>
       </c>
       <c r="K4">
+        <v>7.8</v>
+      </c>
+      <c r="L4">
+        <v>13.5</v>
+      </c>
+      <c r="M4">
+        <v>34.8</v>
+      </c>
+      <c r="N4">
+        <v>56.89999999999999</v>
+      </c>
+      <c r="O4">
+        <v>89.5</v>
+      </c>
+      <c r="P4">
         <v>100</v>
       </c>
-      <c r="L4">
-        <v>99.5</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>99.7</v>
       </c>
       <c r="D5">
-        <v>96.7</v>
+        <v>96</v>
       </c>
       <c r="E5">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F5">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="G5">
+        <v>75.8</v>
+      </c>
+      <c r="H5">
+        <v>78.3</v>
+      </c>
+      <c r="I5">
+        <v>58.8</v>
+      </c>
+      <c r="J5">
+        <v>67.80000000000001</v>
+      </c>
+      <c r="K5">
+        <v>85.5</v>
+      </c>
+      <c r="L5">
+        <v>94.5</v>
+      </c>
+      <c r="M5">
+        <v>87.2</v>
+      </c>
+      <c r="N5">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>99.2</v>
+      </c>
+      <c r="C6">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="D6">
+        <v>64.7</v>
+      </c>
+      <c r="E6">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="F6">
+        <v>87</v>
+      </c>
+      <c r="G6">
+        <v>93.8</v>
+      </c>
+      <c r="H6">
+        <v>89.3</v>
+      </c>
+      <c r="I6">
+        <v>96.3</v>
+      </c>
+      <c r="J6">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="K6">
+        <v>97.7</v>
+      </c>
+      <c r="L6">
+        <v>95</v>
+      </c>
+      <c r="M6">
         <v>99.40000000000001</v>
       </c>
-      <c r="F5">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="G5">
-        <v>76.7</v>
-      </c>
-      <c r="H5">
-        <v>75</v>
-      </c>
-      <c r="I5">
-        <v>57.7</v>
-      </c>
-      <c r="J5">
-        <v>64.7</v>
-      </c>
-      <c r="K5">
-        <v>85.8</v>
-      </c>
-      <c r="L5">
-        <v>94.19999999999999</v>
-      </c>
-      <c r="M5">
-        <v>87.8</v>
-      </c>
-      <c r="N5">
-        <v>94</v>
-      </c>
-      <c r="O5">
-        <v>98.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>98.5</v>
-      </c>
-      <c r="C6">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="D6">
-        <v>94.8</v>
-      </c>
-      <c r="E6">
-        <v>77.7</v>
-      </c>
-      <c r="F6">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="G6">
-        <v>69.3</v>
-      </c>
-      <c r="H6">
-        <v>87</v>
-      </c>
-      <c r="I6">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="J6">
-        <v>90.3</v>
-      </c>
-      <c r="K6">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="L6">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="M6">
-        <v>97.8</v>
-      </c>
       <c r="N6">
-        <v>93.7</v>
+        <v>100</v>
       </c>
       <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>99.2</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="E7">
+        <v>88.3</v>
+      </c>
+      <c r="F7">
+        <v>94.3</v>
+      </c>
+      <c r="G7">
+        <v>79.7</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
         <v>97.09999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="C7">
-        <v>26.9</v>
-      </c>
-      <c r="D7">
-        <v>21.7</v>
-      </c>
-      <c r="E7">
-        <v>47.8</v>
-      </c>
-      <c r="F7">
-        <v>19.7</v>
-      </c>
-      <c r="G7">
-        <v>38.3</v>
-      </c>
-      <c r="H7">
-        <v>27.9</v>
-      </c>
-      <c r="I7">
-        <v>16.9</v>
-      </c>
       <c r="J7">
-        <v>17</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="K7">
-        <v>6.9</v>
+        <v>100</v>
       </c>
       <c r="L7">
-        <v>12.9</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="M7">
-        <v>34.7</v>
+        <v>100</v>
       </c>
       <c r="N7">
-        <v>54.8</v>
+        <v>100</v>
       </c>
       <c r="O7">
-        <v>57.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3060,277 +3020,295 @@
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>45.6</v>
+        <v>44.1</v>
       </c>
       <c r="D8">
-        <v>56.99999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="E8">
+        <v>39.3</v>
+      </c>
+      <c r="F8">
+        <v>37.2</v>
+      </c>
+      <c r="G8">
+        <v>21.5</v>
+      </c>
+      <c r="H8">
         <v>36.9</v>
       </c>
-      <c r="F8">
-        <v>38.3</v>
-      </c>
-      <c r="G8">
+      <c r="I8">
+        <v>45.3</v>
+      </c>
+      <c r="J8">
+        <v>26.1</v>
+      </c>
+      <c r="K8">
+        <v>53.5</v>
+      </c>
+      <c r="L8">
+        <v>60.9</v>
+      </c>
+      <c r="M8">
+        <v>56.7</v>
+      </c>
+      <c r="N8">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="O8">
+        <v>6.3</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>20.3</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>1.4</v>
+      </c>
+      <c r="E9">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="F9">
+        <v>2.9</v>
+      </c>
+      <c r="G9">
+        <v>6.3</v>
+      </c>
+      <c r="H9">
+        <v>1.9</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1.8</v>
+      </c>
+      <c r="C10">
+        <v>35.7</v>
+      </c>
+      <c r="D10">
+        <v>11.2</v>
+      </c>
+      <c r="E10">
+        <v>13.7</v>
+      </c>
+      <c r="F10">
+        <v>6.1</v>
+      </c>
+      <c r="G10">
+        <v>15.6</v>
+      </c>
+      <c r="H10">
         <v>22.5</v>
       </c>
-      <c r="H8">
-        <v>38.3</v>
-      </c>
-      <c r="I8">
-        <v>45.5</v>
-      </c>
-      <c r="J8">
-        <v>26.3</v>
-      </c>
-      <c r="K8">
-        <v>57.49999999999999</v>
-      </c>
-      <c r="L8">
-        <v>62.3</v>
-      </c>
-      <c r="M8">
-        <v>57.4</v>
-      </c>
-      <c r="N8">
-        <v>35.9</v>
-      </c>
-      <c r="O8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+      <c r="I10">
+        <v>13.6</v>
+      </c>
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="K10">
+        <v>2.1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
         <v>8.6</v>
       </c>
-      <c r="C9">
-        <v>10.6</v>
-      </c>
-      <c r="D9">
-        <v>15.8</v>
-      </c>
-      <c r="E9">
-        <v>7.9</v>
-      </c>
-      <c r="F9">
+      <c r="C11">
+        <v>9.9</v>
+      </c>
+      <c r="D11">
+        <v>17.3</v>
+      </c>
+      <c r="E11">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="F11">
         <v>4.2</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>9.1</v>
       </c>
-      <c r="H9">
+      <c r="H11">
+        <v>16.6</v>
+      </c>
+      <c r="I11">
+        <v>28.6</v>
+      </c>
+      <c r="J11">
+        <v>43.2</v>
+      </c>
+      <c r="K11">
+        <v>17.3</v>
+      </c>
+      <c r="L11">
+        <v>23.5</v>
+      </c>
+      <c r="M11">
+        <v>13.1</v>
+      </c>
+      <c r="N11">
+        <v>18.2</v>
+      </c>
+      <c r="O11">
+        <v>4.2</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2.4</v>
+      </c>
+      <c r="C12">
+        <v>7.3</v>
+      </c>
+      <c r="D12">
+        <v>2.3</v>
+      </c>
+      <c r="E12">
+        <v>3.6</v>
+      </c>
+      <c r="F12">
         <v>16</v>
       </c>
-      <c r="I9">
-        <v>26.7</v>
-      </c>
-      <c r="J9">
+      <c r="G12">
         <v>42.4</v>
       </c>
-      <c r="K9">
-        <v>16.3</v>
-      </c>
-      <c r="L9">
-        <v>23.2</v>
-      </c>
-      <c r="M9">
-        <v>13.2</v>
-      </c>
-      <c r="N9">
-        <v>19</v>
-      </c>
-      <c r="O9">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2.3</v>
-      </c>
-      <c r="C10">
-        <v>7.5</v>
-      </c>
-      <c r="D10">
-        <v>1.1</v>
-      </c>
-      <c r="E10">
-        <v>4.3</v>
-      </c>
-      <c r="F10">
-        <v>18.4</v>
-      </c>
-      <c r="G10">
-        <v>42.2</v>
-      </c>
-      <c r="H10">
-        <v>32.9</v>
-      </c>
-      <c r="I10">
-        <v>38.4</v>
-      </c>
-      <c r="J10">
-        <v>52.5</v>
-      </c>
-      <c r="K10">
+      <c r="H12">
+        <v>32.6</v>
+      </c>
+      <c r="I12">
         <v>33.8</v>
       </c>
-      <c r="L10">
-        <v>17.4</v>
-      </c>
-      <c r="M10">
-        <v>8.4</v>
-      </c>
-      <c r="N10">
-        <v>2.6</v>
-      </c>
-      <c r="O10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>22.2</v>
-      </c>
-      <c r="C11">
-        <v>0.4</v>
-      </c>
-      <c r="D11">
-        <v>2.2</v>
-      </c>
-      <c r="E11">
-        <v>5.3</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="H11">
-        <v>1.5</v>
-      </c>
-      <c r="I11">
-        <v>0.6</v>
-      </c>
-      <c r="J11">
-        <v>0.2</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1.3</v>
-      </c>
-      <c r="C12">
-        <v>34.5</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>15.3</v>
-      </c>
-      <c r="F12">
-        <v>6.4</v>
-      </c>
-      <c r="G12">
-        <v>14.4</v>
-      </c>
-      <c r="H12">
-        <v>22.4</v>
-      </c>
-      <c r="I12">
-        <v>12.8</v>
-      </c>
       <c r="J12">
-        <v>6.800000000000001</v>
+        <v>48.8</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>36.7</v>
       </c>
       <c r="L12">
-        <v>0.3</v>
+        <v>17.6</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>97.5</v>
+        <v>98.3</v>
       </c>
       <c r="D13">
-        <v>56.39999999999999</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="E13">
-        <v>46.8</v>
+        <v>43.8</v>
       </c>
       <c r="F13">
-        <v>58.59999999999999</v>
+        <v>59.7</v>
       </c>
       <c r="G13">
-        <v>46.8</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="H13">
-        <v>21.9</v>
+        <v>19.5</v>
       </c>
       <c r="I13">
-        <v>16.6</v>
+        <v>17.4</v>
       </c>
       <c r="J13">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
     </row>
@@ -3349,28 +3327,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3378,28 +3356,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2">
-        <v>113.66</v>
+        <v>133.61</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>133.53</v>
+        <v>137.89</v>
       </c>
       <c r="G2">
-        <v>0.615</v>
+        <v>0.714</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3407,28 +3385,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>134.22</v>
+        <v>132.2</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>131.16</v>
+        <v>138.66</v>
       </c>
       <c r="G3">
-        <v>0.615</v>
+        <v>0.714</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3436,28 +3414,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>132.23</v>
+        <v>137.89</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>132.01</v>
+        <v>133.61</v>
       </c>
       <c r="G4">
-        <v>0.577</v>
+        <v>0.714</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3465,28 +3443,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>119.37</v>
+        <v>124.45</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>134.45</v>
+        <v>120.91</v>
       </c>
       <c r="G5">
-        <v>0.654</v>
+        <v>0.286</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3494,28 +3472,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>116.78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>132.86</v>
+      </c>
+      <c r="G6">
+        <v>0.607</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6">
-        <v>98.34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>121.28</v>
-      </c>
-      <c r="G6">
-        <v>0.346</v>
-      </c>
-      <c r="H6">
-        <v>8.5</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3523,28 +3501,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>122.64</v>
+        <v>138.66</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>126.1</v>
+        <v>132.2</v>
       </c>
       <c r="G7">
-        <v>0.423</v>
+        <v>0.643</v>
       </c>
       <c r="H7">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3552,28 +3530,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>137.2</v>
+        <v>114.71</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8">
-        <v>125.8</v>
+        <v>124.6</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H8">
-        <v>-0.5</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3581,28 +3559,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>140.25</v>
+        <v>97.59</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>123.94</v>
+        <v>121.3</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H9">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3610,28 +3588,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>126.81</v>
+        <v>132.86</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>122.94</v>
+        <v>116.78</v>
       </c>
       <c r="G10">
-        <v>0.462</v>
+        <v>0.357</v>
       </c>
       <c r="H10">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3639,28 +3617,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>131.69</v>
+        <v>120.91</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>121</v>
+        <v>124.45</v>
       </c>
       <c r="G11">
-        <v>0.462</v>
+        <v>0.536</v>
       </c>
       <c r="H11">
-        <v>-12.5</v>
+        <v>-10</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3668,28 +3646,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>122.06</v>
+        <v>124.6</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12">
-        <v>116.28</v>
+        <v>114.71</v>
       </c>
       <c r="G12">
-        <v>0.462</v>
+        <v>0.357</v>
       </c>
       <c r="H12">
-        <v>-18</v>
+        <v>-26</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3697,28 +3675,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13">
-        <v>120.5</v>
+        <v>121.3</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>110.49</v>
+        <v>97.59</v>
       </c>
       <c r="G13">
-        <v>0.385</v>
+        <v>0.214</v>
       </c>
       <c r="H13">
-        <v>-34</v>
+        <v>-55</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3736,31 +3714,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3768,16 +3746,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
-        <v>140.2523076923077</v>
+        <v>137.8885714285715</v>
       </c>
       <c r="E2">
-        <v>1823.28</v>
+        <v>1930.44</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3786,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
         <v>104</v>
@@ -3794,19 +3772,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>0.6923076923076923</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="D3">
-        <v>134.2230769230769</v>
+        <v>132.8614285714286</v>
       </c>
       <c r="E3">
-        <v>1744.9</v>
+        <v>1860.06</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3815,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
         <v>105</v>
@@ -3823,19 +3801,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>0.6923076923076923</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D4">
-        <v>137.2046153846154</v>
+        <v>124.4528571428571</v>
       </c>
       <c r="E4">
-        <v>1783.66</v>
+        <v>1742.34</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3844,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3855,86 +3833,86 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5">
-        <v>132.2323076923077</v>
+        <v>132.2042857142857</v>
       </c>
       <c r="E5">
-        <v>1719.02</v>
+        <v>1850.86</v>
       </c>
       <c r="F5">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6">
-        <v>0.6153846153846154</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D6">
-        <v>131.6923076923077</v>
+        <v>133.6085714285714</v>
       </c>
       <c r="E6">
-        <v>1712</v>
+        <v>1870.52</v>
       </c>
       <c r="F6">
-        <v>96.7</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7">
-        <v>0.5384615384615384</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D7">
-        <v>122.6369230769231</v>
+        <v>138.6585714285714</v>
       </c>
       <c r="E7">
-        <v>1594.28</v>
+        <v>1941.22</v>
       </c>
       <c r="F7">
-        <v>59.7</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3942,144 +3920,144 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>126.8123076923077</v>
+        <v>124.5985714285714</v>
       </c>
       <c r="E8">
-        <v>1648.56</v>
+        <v>1744.38</v>
       </c>
       <c r="F8">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9">
-        <v>0.4615384615384616</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D9">
-        <v>122.0615384615384</v>
+        <v>97.59428571428569</v>
       </c>
       <c r="E9">
-        <v>1586.8</v>
+        <v>1366.32</v>
       </c>
       <c r="F9">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C10">
-        <v>0.3846153846153846</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D10">
-        <v>119.3692307692308</v>
+        <v>120.9057142857143</v>
       </c>
       <c r="E10">
-        <v>1551.8</v>
+        <v>1692.68</v>
       </c>
       <c r="F10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
       </c>
       <c r="C11">
-        <v>0.2307692307692308</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D11">
-        <v>98.34307692307691</v>
+        <v>121.3028571428571</v>
       </c>
       <c r="E11">
-        <v>1278.46</v>
+        <v>1698.24</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>80.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>0.2307692307692308</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D12">
-        <v>120.5</v>
+        <v>116.7785714285714</v>
       </c>
       <c r="E12">
-        <v>1566.5</v>
+        <v>1634.9</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4087,22 +4065,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13">
-        <v>0.3076923076923077</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D13">
-        <v>113.6569230769231</v>
+        <v>114.7085714285714</v>
       </c>
       <c r="E13">
-        <v>1477.54</v>
+        <v>1605.92</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>103</v>
@@ -4126,7 +4104,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>113</v>
@@ -4135,7 +4113,7 @@
         <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>115</v>
@@ -4149,10 +4127,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -4169,13 +4147,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>117</v>
@@ -4189,13 +4167,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>118</v>
@@ -4209,16 +4187,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4226,19 +4204,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4246,19 +4224,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4266,16 +4244,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>121</v>
@@ -4286,19 +4264,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4309,16 +4287,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4329,16 +4307,16 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>-18</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4349,16 +4327,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <v>-26</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4369,16 +4347,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4388,57 +4366,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4481,11 +4462,14 @@
       <c r="N2">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4528,11 +4512,14 @@
       <c r="N3">
         <v>20</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4575,11 +4562,14 @@
       <c r="N4">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4622,199 +4612,214 @@
       <c r="N5">
         <v>13</v>
       </c>
-      <c r="O5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-5</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>-10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-8</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <v>-6</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>-3</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-      <c r="O6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>-3</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>-6</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>-9</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-9</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>-2</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="O7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="P8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>-1</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-4</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>-1</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>4</v>
       </c>
-      <c r="O8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>-5</v>
-      </c>
-      <c r="D9">
-        <v>-5</v>
-      </c>
-      <c r="E9">
-        <v>-10</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-8</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4857,11 +4862,14 @@
       <c r="N10">
         <v>-7</v>
       </c>
-      <c r="O10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-8</v>
+      </c>
+      <c r="P10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4904,11 +4912,14 @@
       <c r="N11">
         <v>-18</v>
       </c>
-      <c r="O11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>-10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4951,11 +4962,14 @@
       <c r="N12">
         <v>-26</v>
       </c>
-      <c r="O12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>-26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -4998,8 +5012,11 @@
       <c r="N13">
         <v>-50</v>
       </c>
-      <c r="O13" t="s">
-        <v>126</v>
+      <c r="O13">
+        <v>-55</v>
+      </c>
+      <c r="P13" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="139">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -61,49 +61,52 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>8-5-1</t>
-  </si>
-  <si>
-    <t>6-7-1</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>7-6-1</t>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>1-14-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
+    <t>6-8-1</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>7-7-1</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -208,6 +211,9 @@
     <t>Week_15</t>
   </si>
   <si>
+    <t>Week_16</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -229,18 +235,33 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Dave Linton</t>
+  </si>
+  <si>
+    <t>Jeffrey Laidacker</t>
+  </si>
+  <si>
+    <t>Justin Fox</t>
+  </si>
+  <si>
+    <t>Jessica Stratton</t>
+  </si>
+  <si>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
+    <t>Robert Schottler</t>
+  </si>
+  <si>
+    <t>Garrett Sullivan</t>
+  </si>
+  <si>
+    <t>Chungfu Yang</t>
+  </si>
+  <si>
     <t>Roy Armbruster</t>
   </si>
   <si>
-    <t>Chungfu Yang</t>
-  </si>
-  <si>
-    <t>Justin Fox</t>
-  </si>
-  <si>
-    <t>Robert Schottler</t>
-  </si>
-  <si>
     <t>Daniel Tracey</t>
   </si>
   <si>
@@ -250,21 +271,6 @@
     <t>Hannah Davis</t>
   </si>
   <si>
-    <t>Jeffrey Laidacker</t>
-  </si>
-  <si>
-    <t>Dale Goodwin</t>
-  </si>
-  <si>
-    <t>Jessica Stratton</t>
-  </si>
-  <si>
-    <t>Dave Linton</t>
-  </si>
-  <si>
-    <t>Garrett Sullivan</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -289,79 +295,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>9-5</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>3-11</t>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
-    <t>5-9</t>
-  </si>
-  <si>
-    <t>10.5-4.5</t>
-  </si>
-  <si>
-    <t>8.6-5.4-1.0</t>
-  </si>
-  <si>
-    <t>7.5-6.5-1.0</t>
-  </si>
-  <si>
-    <t>9.4-5.6</t>
-  </si>
-  <si>
-    <t>10.6-4.4</t>
-  </si>
-  <si>
-    <t>6.6-8.4</t>
-  </si>
-  <si>
-    <t>3.2-11.7</t>
-  </si>
-  <si>
-    <t>4.5-10.5</t>
-  </si>
-  <si>
-    <t>6.7-8.2</t>
-  </si>
-  <si>
-    <t>5.4-9.6</t>
-  </si>
-  <si>
     <t>11-4</t>
   </si>
   <si>
-    <t>9-5-1</t>
-  </si>
-  <si>
-    <t>8-6-1</t>
-  </si>
-  <si>
     <t>9-6</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
-    <t>3-12</t>
-  </si>
-  <si>
-    <t>4-11</t>
-  </si>
-  <si>
-    <t>5-10</t>
+    <t>11.0-4.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0-1.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0-1.0</t>
+  </si>
+  <si>
+    <t>9.0-6.0</t>
+  </si>
+  <si>
+    <t>10.0-5.0</t>
+  </si>
+  <si>
+    <t>6.0-9.0</t>
+  </si>
+  <si>
+    <t>3.0-12.0</t>
+  </si>
+  <si>
+    <t>5.0-10.0</t>
+  </si>
+  <si>
+    <t>7.0-8.0</t>
   </si>
   <si>
     <t>Owners</t>
@@ -373,27 +352,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -434,6 +416,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -867,31 +852,31 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -908,16 +893,16 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -929,13 +914,13 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -949,10 +934,10 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -961,16 +946,16 @@
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -990,31 +975,31 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
@@ -1037,10 +1022,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1072,13 +1057,13 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -1093,7 +1078,7 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
@@ -1107,40 +1092,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
       <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
         <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1151,13 +1136,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1166,16 +1151,16 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -1216,10 +1201,10 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -1236,34 +1221,34 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1271,40 +1256,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
         <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1312,40 +1297,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
         <v>15</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1363,25 +1348,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1415,25 +1400,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-20</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1444,22 +1429,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>-20</v>
+      </c>
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>19</v>
-      </c>
       <c r="G4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1467,25 +1452,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
-      </c>
-      <c r="E5">
-        <v>-20</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1496,22 +1481,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="F6">
-        <v>-42</v>
+        <v>-2</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1519,25 +1504,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>-25</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>-42</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1545,25 +1530,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1571,25 +1556,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1597,25 +1582,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1623,19 +1608,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>-9</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -1659,13 +1644,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1676,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.416666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1687,13 +1672,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1701,13 +1686,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1715,10 +1700,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>6.666666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1729,13 +1714,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6.833333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1743,13 +1728,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6.916666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1757,13 +1742,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1771,13 +1756,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1785,13 +1770,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>7.666666666666667</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1799,13 +1784,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>7.666666666666667</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1816,10 +1801,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1827,13 +1812,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>7.916666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1851,16 +1836,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1868,16 +1853,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1885,16 +1870,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>9.5</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-0.8333333333333339</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1905,10 +1890,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>8.75</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D4">
-        <v>-1.25</v>
+        <v>-1.166666666666666</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1922,10 +1907,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8.416666666666666</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D5">
-        <v>-0.5833333333333339</v>
+        <v>-0.1666666666666661</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1945,7 +1930,7 @@
         <v>-0.333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1953,16 +1938,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1970,16 +1955,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6.833333333333333</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.166666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1987,16 +1972,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2007,13 +1992,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D10">
-        <v>2.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2024,13 +2009,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.583333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D11">
-        <v>0.583333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2041,13 +2026,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>5.083333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333304</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2058,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="D13">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -2082,46 +2067,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2129,16 +2114,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>38.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>19.2</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>38.2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2182,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>64.7</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2229,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2264,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>46.8</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2305,16 +2290,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>38.1</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2349,16 +2334,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>40.1</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>54.5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2411,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>64.7</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>34.3</v>
+        <v>100</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2505,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2543,16 +2528,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>35.2</v>
+        <v>100</v>
       </c>
       <c r="I11">
-        <v>62.9</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2587,19 +2572,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>48.5</v>
+        <v>100</v>
       </c>
       <c r="K12">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2634,16 +2619,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>42.3</v>
+        <v>100</v>
       </c>
       <c r="L13">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2659,95 +2644,98 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>65.5</v>
+        <v>64.3</v>
       </c>
       <c r="C2">
-        <v>73.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D2">
-        <v>91.2</v>
+        <v>90.2</v>
       </c>
       <c r="E2">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="G2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H2">
         <v>98.5</v>
       </c>
-      <c r="H2">
-        <v>98.8</v>
-      </c>
       <c r="I2">
-        <v>94.69999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="J2">
-        <v>98.5</v>
+        <v>99.3</v>
       </c>
       <c r="K2">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="L2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2761,49 +2749,52 @@
       <c r="P2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="D3">
         <v>94.19999999999999</v>
       </c>
       <c r="E3">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F3">
-        <v>90.5</v>
+        <v>89.8</v>
       </c>
       <c r="G3">
-        <v>71.39999999999999</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="H3">
-        <v>86.3</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="I3">
-        <v>96.59999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="J3">
-        <v>90.60000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="K3">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="L3">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="M3">
-        <v>98.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="N3">
-        <v>93.5</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2811,8 +2802,11 @@
       <c r="P3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2826,43 +2820,46 @@
         <v>21.6</v>
       </c>
       <c r="E4">
-        <v>45.2</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="F4">
-        <v>21.4</v>
+        <v>22.3</v>
       </c>
       <c r="G4">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="H4">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="I4">
-        <v>17.6</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>18.4</v>
+        <v>20.8</v>
       </c>
       <c r="K4">
-        <v>7.8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="L4">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="M4">
-        <v>34.8</v>
+        <v>34.2</v>
       </c>
       <c r="N4">
-        <v>56.89999999999999</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="O4">
-        <v>89.5</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="P4">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2870,40 +2867,40 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>97.2</v>
       </c>
       <c r="E5">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="F5">
-        <v>81.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="G5">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="H5">
-        <v>78.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I5">
-        <v>58.8</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="J5">
-        <v>67.80000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="K5">
-        <v>85.5</v>
+        <v>84.8</v>
       </c>
       <c r="L5">
-        <v>94.5</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="M5">
-        <v>87.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="N5">
-        <v>94.69999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2911,46 +2908,49 @@
       <c r="P5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>99.2</v>
+        <v>98.5</v>
       </c>
       <c r="C6">
-        <v>39.90000000000001</v>
+        <v>40.7</v>
       </c>
       <c r="D6">
-        <v>64.7</v>
+        <v>64.8</v>
       </c>
       <c r="E6">
-        <v>76.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="F6">
-        <v>87</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G6">
-        <v>93.8</v>
+        <v>94.3</v>
       </c>
       <c r="H6">
-        <v>89.3</v>
+        <v>90.3</v>
       </c>
       <c r="I6">
-        <v>96.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J6">
-        <v>93.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="K6">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="M6">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -2961,43 +2961,46 @@
       <c r="P6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
+        <v>99.3</v>
+      </c>
+      <c r="C7">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="D7">
+        <v>83.3</v>
+      </c>
+      <c r="E7">
+        <v>87.2</v>
+      </c>
+      <c r="F7">
+        <v>94.8</v>
+      </c>
+      <c r="G7">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="H7">
+        <v>90.2</v>
+      </c>
+      <c r="I7">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="J7">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="K7">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="L7">
         <v>99.2</v>
-      </c>
-      <c r="C7">
-        <v>71</v>
-      </c>
-      <c r="D7">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="E7">
-        <v>88.3</v>
-      </c>
-      <c r="F7">
-        <v>94.3</v>
-      </c>
-      <c r="G7">
-        <v>79.7</v>
-      </c>
-      <c r="H7">
-        <v>90</v>
-      </c>
-      <c r="I7">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J7">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-      <c r="L7">
-        <v>99.40000000000001</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -3011,88 +3014,94 @@
       <c r="P7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="D8">
-        <v>60.6</v>
+        <v>58.4</v>
       </c>
       <c r="E8">
-        <v>39.3</v>
+        <v>38.6</v>
       </c>
       <c r="F8">
-        <v>37.2</v>
+        <v>34.2</v>
       </c>
       <c r="G8">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="H8">
-        <v>36.9</v>
+        <v>33.6</v>
       </c>
       <c r="I8">
-        <v>45.3</v>
+        <v>43.3</v>
       </c>
       <c r="J8">
-        <v>26.1</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>53.5</v>
+        <v>54.2</v>
       </c>
       <c r="L8">
-        <v>60.9</v>
+        <v>64</v>
       </c>
       <c r="M8">
-        <v>56.7</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="N8">
-        <v>35.09999999999999</v>
+        <v>33.7</v>
       </c>
       <c r="O8">
-        <v>6.3</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>20.3</v>
+        <v>22.3</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="E9">
-        <v>5.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="G9">
         <v>6.3</v>
       </c>
       <c r="H9">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="J9">
         <v>0.2</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
@@ -3111,43 +3120,46 @@
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="C10">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="D10">
-        <v>11.2</v>
+        <v>13.7</v>
       </c>
       <c r="E10">
-        <v>13.7</v>
+        <v>15.2</v>
       </c>
       <c r="F10">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="G10">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H10">
-        <v>22.5</v>
+        <v>21.9</v>
       </c>
       <c r="I10">
         <v>13.6</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3161,99 +3173,105 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>8.6</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="C11">
-        <v>9.9</v>
+        <v>11.2</v>
       </c>
       <c r="D11">
-        <v>17.3</v>
+        <v>15.9</v>
       </c>
       <c r="E11">
-        <v>9.700000000000001</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="G11">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H11">
-        <v>16.6</v>
+        <v>15.1</v>
       </c>
       <c r="I11">
-        <v>28.6</v>
+        <v>26.1</v>
       </c>
       <c r="J11">
-        <v>43.2</v>
+        <v>44.4</v>
       </c>
       <c r="K11">
-        <v>17.3</v>
+        <v>16</v>
       </c>
       <c r="L11">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>13.1</v>
+        <v>14.9</v>
       </c>
       <c r="N11">
-        <v>18.2</v>
+        <v>20.7</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="C12">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="D12">
         <v>2.3</v>
       </c>
       <c r="E12">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="G12">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="H12">
-        <v>32.6</v>
+        <v>35.4</v>
       </c>
       <c r="I12">
-        <v>33.8</v>
+        <v>38.7</v>
       </c>
       <c r="J12">
-        <v>48.8</v>
+        <v>48.2</v>
       </c>
       <c r="K12">
-        <v>36.7</v>
+        <v>37.5</v>
       </c>
       <c r="L12">
-        <v>17.6</v>
+        <v>16.4</v>
       </c>
       <c r="M12">
-        <v>9.700000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="N12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3261,8 +3279,11 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3270,37 +3291,37 @@
         <v>100</v>
       </c>
       <c r="C13">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D13">
-        <v>58.59999999999999</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="E13">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
       <c r="F13">
-        <v>59.7</v>
+        <v>61.7</v>
       </c>
       <c r="G13">
-        <v>46.40000000000001</v>
+        <v>45.6</v>
       </c>
       <c r="H13">
-        <v>19.5</v>
+        <v>22.9</v>
       </c>
       <c r="I13">
-        <v>17.4</v>
+        <v>18.6</v>
       </c>
       <c r="J13">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L13">
         <v>3.8</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3309,6 +3330,9 @@
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
       </c>
     </row>
@@ -3327,28 +3351,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3356,28 +3380,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>133.61</v>
+        <v>125.53</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>137.89</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.714</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3385,28 +3409,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>132.2</v>
+        <v>99.36</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>138.66</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.714</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3417,25 +3441,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4">
-        <v>137.89</v>
+        <v>137.04</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>133.61</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.714</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3443,28 +3467,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>124.45</v>
+        <v>121.55</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>120.91</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3472,28 +3496,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>116.78</v>
+        <v>129.91</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>132.86</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.607</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3501,28 +3525,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>138.66</v>
+        <v>124.38</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>132.2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.643</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3530,28 +3554,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>114.71</v>
+        <v>123.85</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>124.6</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3559,28 +3583,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>97.59</v>
+        <v>131.77</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>121.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3588,28 +3612,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>132.86</v>
+        <v>132.84</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>116.78</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.357</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3617,28 +3641,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>120.91</v>
+        <v>118.79</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>124.45</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.536</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3646,28 +3670,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>124.6</v>
+        <v>142.35</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>114.71</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.357</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3675,28 +3699,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>121.3</v>
+        <v>117.06</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13">
-        <v>97.59</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3714,31 +3738,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3746,16 +3770,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D2">
-        <v>137.8885714285715</v>
+        <v>137.0426666666667</v>
       </c>
       <c r="E2">
-        <v>1930.44</v>
+        <v>2055.64</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3764,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3775,16 +3799,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>0.6071428571428571</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D3">
-        <v>132.8614285714286</v>
+        <v>129.9106666666667</v>
       </c>
       <c r="E3">
-        <v>1860.06</v>
+        <v>1948.66</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3793,10 +3817,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3807,13 +3831,13 @@
         <v>26</v>
       </c>
       <c r="C4">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>124.4528571428571</v>
+        <v>124.3786666666667</v>
       </c>
       <c r="E4">
-        <v>1742.34</v>
+        <v>1865.68</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3822,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3833,16 +3857,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>132.2042857142857</v>
+        <v>131.772</v>
       </c>
       <c r="E5">
-        <v>1850.86</v>
+        <v>1976.58</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3851,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3862,16 +3886,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>133.6085714285714</v>
+        <v>132.8413333333333</v>
       </c>
       <c r="E6">
-        <v>1870.52</v>
+        <v>1992.62</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -3880,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3891,16 +3915,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D7">
-        <v>138.6585714285714</v>
+        <v>142.348</v>
       </c>
       <c r="E7">
-        <v>1941.22</v>
+        <v>2135.22</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -3909,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3920,16 +3944,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>124.5985714285714</v>
+        <v>125.528</v>
       </c>
       <c r="E8">
-        <v>1744.38</v>
+        <v>1882.92</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3938,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3949,16 +3973,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C9">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>97.59428571428569</v>
+        <v>99.35733333333332</v>
       </c>
       <c r="E9">
-        <v>1366.32</v>
+        <v>1490.36</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3967,10 +3991,10 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3978,16 +4002,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C10">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>120.9057142857143</v>
+        <v>121.5466666666667</v>
       </c>
       <c r="E10">
-        <v>1692.68</v>
+        <v>1823.2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3996,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4007,16 +4031,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C11">
-        <v>0.4285714285714285</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="D11">
-        <v>121.3028571428571</v>
+        <v>123.8493333333333</v>
       </c>
       <c r="E11">
-        <v>1698.24</v>
+        <v>1857.74</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4025,10 +4049,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4039,13 +4063,13 @@
         <v>93</v>
       </c>
       <c r="C12">
-        <v>0.3571428571428572</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>116.7785714285714</v>
+        <v>118.7933333333333</v>
       </c>
       <c r="E12">
-        <v>1634.9</v>
+        <v>1781.9</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4054,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4068,13 +4092,13 @@
         <v>93</v>
       </c>
       <c r="C13">
-        <v>0.3571428571428572</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>114.7085714285714</v>
+        <v>117.06</v>
       </c>
       <c r="E13">
-        <v>1605.92</v>
+        <v>1755.9</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4083,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4104,19 +4128,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4127,16 +4151,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4147,16 +4171,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4164,19 +4188,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4184,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -4193,10 +4217,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4204,19 +4228,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4224,7 +4248,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
@@ -4233,10 +4257,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4244,19 +4268,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4267,16 +4291,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4287,16 +4311,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4307,16 +4331,16 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4327,16 +4351,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D12">
-        <v>-26</v>
+        <v>-20</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4347,16 +4371,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4366,60 +4390,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4465,11 +4492,14 @@
       <c r="O2">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4515,261 +4545,279 @@
       <c r="O3">
         <v>21</v>
       </c>
-      <c r="P3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C4">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>-1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="Q4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="L4">
-        <v>19</v>
-      </c>
-      <c r="M4">
-        <v>19</v>
-      </c>
-      <c r="N4">
-        <v>14</v>
-      </c>
-      <c r="O4">
-        <v>13</v>
-      </c>
-      <c r="P4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>-6</v>
+      </c>
+      <c r="J5">
+        <v>-9</v>
+      </c>
+      <c r="K5">
+        <v>-9</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>-2</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>7</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>12</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>9</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>7</v>
-      </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>-5</v>
-      </c>
-      <c r="D6">
-        <v>-5</v>
-      </c>
-      <c r="E6">
-        <v>-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>-8</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
       </c>
       <c r="M6">
         <v>7</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
         <v>8</v>
       </c>
-      <c r="P6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>19</v>
+      </c>
+      <c r="M7">
+        <v>19</v>
+      </c>
+      <c r="N7">
+        <v>14</v>
+      </c>
+      <c r="O7">
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8">
+        <v>-5</v>
+      </c>
+      <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-8</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-      <c r="M7">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
         <v>4</v>
       </c>
-      <c r="N7">
-        <v>8</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>-6</v>
-      </c>
-      <c r="J8">
-        <v>-9</v>
-      </c>
-      <c r="K8">
-        <v>-9</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>-2</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4815,11 +4863,14 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4865,11 +4916,14 @@
       <c r="O10">
         <v>-8</v>
       </c>
-      <c r="P10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4915,11 +4969,14 @@
       <c r="O11">
         <v>-10</v>
       </c>
-      <c r="P11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11">
+        <v>-14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4965,11 +5022,14 @@
       <c r="O12">
         <v>-26</v>
       </c>
-      <c r="P12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -5015,8 +5075,11 @@
       <c r="O13">
         <v>-55</v>
       </c>
-      <c r="P13" t="s">
-        <v>122</v>
+      <c r="P13">
+        <v>-54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="153">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -61,216 +61,246 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>2-14-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>11-4-1</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>9-6-1</t>
+  </si>
+  <si>
+    <t>7-8-1</t>
+  </si>
+  <si>
+    <t>13-3-0</t>
+  </si>
+  <si>
+    <t>8-7-1</t>
+  </si>
+  <si>
+    <t>14-2-0</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Week_16</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Dave Linton</t>
+  </si>
+  <si>
+    <t>Jeffrey Laidacker</t>
+  </si>
+  <si>
+    <t>Justin Fox</t>
+  </si>
+  <si>
+    <t>Jessica Stratton</t>
+  </si>
+  <si>
+    <t>Dale Goodwin</t>
+  </si>
+  <si>
+    <t>Robert Schottler</t>
+  </si>
+  <si>
+    <t>Garrett Sullivan</t>
+  </si>
+  <si>
+    <t>Chungfu Yang</t>
+  </si>
+  <si>
+    <t>Roy Armbruster</t>
+  </si>
+  <si>
+    <t>Daniel Tracey</t>
+  </si>
+  <si>
+    <t>Matthew Graesser</t>
+  </si>
+  <si>
+    <t>Hannah Davis</t>
+  </si>
+  <si>
     <t>6-9-0</t>
   </si>
   <si>
-    <t>1-14-0</t>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
+    <t>7-7-1</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
   </si>
   <si>
     <t>10-5-0</t>
   </si>
   <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>8-6-1</t>
-  </si>
-  <si>
-    <t>6-8-1</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>7-7-1</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>11th Place</t>
-  </si>
-  <si>
-    <t>12th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Week_16</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Dave Linton</t>
-  </si>
-  <si>
-    <t>Jeffrey Laidacker</t>
-  </si>
-  <si>
-    <t>Justin Fox</t>
-  </si>
-  <si>
-    <t>Jessica Stratton</t>
-  </si>
-  <si>
-    <t>Dale Goodwin</t>
-  </si>
-  <si>
-    <t>Robert Schottler</t>
-  </si>
-  <si>
-    <t>Garrett Sullivan</t>
-  </si>
-  <si>
-    <t>Chungfu Yang</t>
-  </si>
-  <si>
-    <t>Roy Armbruster</t>
-  </si>
-  <si>
-    <t>Daniel Tracey</t>
-  </si>
-  <si>
-    <t>Matthew Graesser</t>
-  </si>
-  <si>
-    <t>Hannah Davis</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -352,10 +382,10 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑11</t>
   </si>
   <si>
     <t>↑4</t>
@@ -364,13 +394,22 @@
     <t>↓2</t>
   </si>
   <si>
-    <t>↓7</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↑1</t>
@@ -419,6 +458,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -849,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -858,10 +900,10 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -873,7 +915,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -890,37 +932,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -931,34 +973,34 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -972,16 +1014,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -996,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -1010,40 +1052,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1051,40 +1093,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1092,10 +1134,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1104,28 +1146,28 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
       </c>
       <c r="L8" t="s">
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1136,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1151,19 +1193,19 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
@@ -1174,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1192,10 +1234,10 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -1204,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -1215,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1227,13 +1269,13 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -1242,13 +1284,13 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1256,10 +1298,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1268,25 +1310,25 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -1297,10 +1339,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1312,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1324,7 +1366,7 @@
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
@@ -1348,25 +1390,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1400,25 +1442,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-20</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>-53</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1426,25 +1468,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-20</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1455,22 +1497,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>-20</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>19</v>
-      </c>
       <c r="G5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1478,25 +1520,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
-      </c>
-      <c r="E6">
-        <v>-20</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1507,22 +1549,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="F7">
-        <v>-42</v>
+        <v>-2</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1530,25 +1572,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>-25</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>-42</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1556,25 +1598,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>-14</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1582,25 +1624,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1608,25 +1650,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1644,13 +1686,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1661,10 +1703,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>6.166666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1675,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.75</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1689,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1700,13 +1742,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>7.166666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1714,13 +1756,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.333333333333333</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1728,10 +1770,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>7.333333333333333</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1742,13 +1784,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>7.583333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1756,13 +1798,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1770,13 +1812,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1787,10 +1829,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>8.166666666666666</v>
+        <v>8.5</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1798,13 +1840,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>8.25</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1815,7 +1857,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>8.333333333333334</v>
+        <v>8.75</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1836,16 +1878,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1856,13 +1898,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>10.5</v>
+        <v>11.41666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>0.4166666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1873,13 +1915,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10.16666666666667</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>-0.8333333333333339</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1890,10 +1932,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>8.833333333333334</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D4">
-        <v>-1.166666666666666</v>
+        <v>-1.416666666666666</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1907,10 +1949,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8.833333333333334</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D5">
-        <v>-0.1666666666666661</v>
+        <v>-0.08333333333333393</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1921,16 +1963,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.666666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D6">
-        <v>-0.333333333333333</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1938,16 +1980,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.666666666666667</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D7">
-        <v>0.666666666666667</v>
+        <v>-0.8333333333333339</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1958,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.583333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D8">
-        <v>1.583333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1975,13 +2017,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1992,13 +2034,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>6.833333333333333</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>1.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2009,13 +2051,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D11">
-        <v>0.333333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2043,13 +2085,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.5</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2067,46 +2109,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2652,52 +2694,52 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2705,37 +2747,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>64.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C2">
-        <v>72.59999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="D2">
-        <v>90.2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E2">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="H2">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I2">
-        <v>95.8</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="J2">
-        <v>99.3</v>
+        <v>98.2</v>
       </c>
       <c r="K2">
         <v>99.5</v>
       </c>
       <c r="L2">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2758,43 +2800,43 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C3">
-        <v>92.80000000000001</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>94.19999999999999</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="E3">
-        <v>76.59999999999999</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="F3">
-        <v>89.8</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G3">
-        <v>70.19999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="H3">
         <v>87.59999999999999</v>
       </c>
       <c r="I3">
-        <v>95.89999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="J3">
-        <v>90.10000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="K3">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="L3">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="M3">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="N3">
-        <v>93.89999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2811,49 +2853,49 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C4">
-        <v>28.1</v>
+        <v>30.9</v>
       </c>
       <c r="D4">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="E4">
-        <v>47.09999999999999</v>
+        <v>46.9</v>
       </c>
       <c r="F4">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="G4">
-        <v>39.3</v>
+        <v>37.3</v>
       </c>
       <c r="H4">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="J4">
-        <v>20.8</v>
+        <v>16.4</v>
       </c>
       <c r="K4">
-        <v>7.000000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="L4">
-        <v>14.3</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>34.2</v>
+        <v>36.5</v>
       </c>
       <c r="N4">
-        <v>54.40000000000001</v>
+        <v>55.7</v>
       </c>
       <c r="O4">
-        <v>87.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="P4">
-        <v>66.10000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="Q4">
         <v>100</v>
@@ -2867,40 +2909,40 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D5">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E5">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="F5">
-        <v>82.5</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="G5">
-        <v>75.40000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="H5">
-        <v>76.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="I5">
-        <v>56.59999999999999</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="J5">
-        <v>63.5</v>
+        <v>67.5</v>
       </c>
       <c r="K5">
-        <v>84.8</v>
+        <v>85.7</v>
       </c>
       <c r="L5">
-        <v>93.30000000000001</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="M5">
-        <v>87.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="N5">
-        <v>95.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2917,40 +2959,40 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C6">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>64.8</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>75.7</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="F6">
-        <v>85.59999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="G6">
-        <v>94.3</v>
+        <v>95.5</v>
       </c>
       <c r="H6">
-        <v>90.3</v>
+        <v>90.8</v>
       </c>
       <c r="I6">
-        <v>97.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="J6">
-        <v>93.7</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="K6">
-        <v>98.3</v>
+        <v>97.5</v>
       </c>
       <c r="L6">
-        <v>95.19999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="M6">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -2970,37 +3012,37 @@
         <v>10</v>
       </c>
       <c r="B7">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C7">
+        <v>69</v>
+      </c>
+      <c r="D7">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="F7">
+        <v>93.5</v>
+      </c>
+      <c r="G7">
+        <v>81.10000000000001</v>
+      </c>
+      <c r="H7">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="I7">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="J7">
         <v>99.3</v>
       </c>
-      <c r="C7">
-        <v>69.39999999999999</v>
-      </c>
-      <c r="D7">
-        <v>83.3</v>
-      </c>
-      <c r="E7">
-        <v>87.2</v>
-      </c>
-      <c r="F7">
-        <v>94.8</v>
-      </c>
-      <c r="G7">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="H7">
-        <v>90.2</v>
-      </c>
-      <c r="I7">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="J7">
-        <v>98.09999999999999</v>
-      </c>
       <c r="K7">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L7">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -3023,46 +3065,46 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>43.9</v>
+        <v>46.2</v>
       </c>
       <c r="D8">
         <v>58.4</v>
       </c>
       <c r="E8">
-        <v>38.6</v>
+        <v>36.5</v>
       </c>
       <c r="F8">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="G8">
-        <v>21.3</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>33.6</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="I8">
-        <v>43.3</v>
+        <v>45.4</v>
       </c>
       <c r="J8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>54.2</v>
+        <v>53</v>
       </c>
       <c r="L8">
-        <v>64</v>
+        <v>62.7</v>
       </c>
       <c r="M8">
-        <v>56.10000000000001</v>
+        <v>54.6</v>
       </c>
       <c r="N8">
-        <v>33.7</v>
+        <v>33.2</v>
       </c>
       <c r="O8">
-        <v>7.000000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3076,31 +3118,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>22.3</v>
+        <v>18.9</v>
       </c>
       <c r="C9">
+        <v>0.4</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9">
+        <v>4.8</v>
+      </c>
+      <c r="F9">
+        <v>3.1</v>
+      </c>
+      <c r="G9">
+        <v>5.1</v>
+      </c>
+      <c r="H9">
+        <v>1.8</v>
+      </c>
+      <c r="I9">
         <v>0.3</v>
       </c>
-      <c r="D9">
-        <v>1.8</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>2.4</v>
-      </c>
-      <c r="G9">
-        <v>6.3</v>
-      </c>
-      <c r="H9">
-        <v>1.2</v>
-      </c>
-      <c r="I9">
-        <v>0.4</v>
-      </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3129,34 +3171,34 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D10">
         <v>13.7</v>
       </c>
       <c r="E10">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="F10">
         <v>8.4</v>
       </c>
       <c r="G10">
-        <v>15.8</v>
+        <v>15.1</v>
       </c>
       <c r="H10">
-        <v>21.9</v>
+        <v>23.3</v>
       </c>
       <c r="I10">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="J10">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>0.2</v>
@@ -3182,49 +3224,49 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>9.700000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="C11">
-        <v>11.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D11">
-        <v>15.9</v>
+        <v>17.5</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="F11">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G11">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="H11">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="I11">
-        <v>26.1</v>
+        <v>31.1</v>
       </c>
       <c r="J11">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="K11">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>22.9</v>
       </c>
       <c r="M11">
-        <v>14.9</v>
+        <v>13.9</v>
       </c>
       <c r="N11">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="O11">
-        <v>5.1</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="P11">
-        <v>33.90000000000001</v>
+        <v>34.7</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3235,40 +3277,40 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="C12">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="D12">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="F12">
-        <v>15.6</v>
+        <v>18.3</v>
       </c>
       <c r="G12">
-        <v>42.3</v>
+        <v>40.3</v>
       </c>
       <c r="H12">
-        <v>35.4</v>
+        <v>30.2</v>
       </c>
       <c r="I12">
-        <v>38.7</v>
+        <v>37.4</v>
       </c>
       <c r="J12">
-        <v>48.2</v>
+        <v>50.5</v>
       </c>
       <c r="K12">
-        <v>37.5</v>
+        <v>39.3</v>
       </c>
       <c r="L12">
-        <v>16.4</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>9.1</v>
+        <v>10.3</v>
       </c>
       <c r="N12">
         <v>1.5</v>
@@ -3288,40 +3330,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C13">
-        <v>98.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D13">
-        <v>56.59999999999999</v>
+        <v>57.8</v>
       </c>
       <c r="E13">
-        <v>46.2</v>
+        <v>43.5</v>
       </c>
       <c r="F13">
-        <v>61.7</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="G13">
-        <v>45.6</v>
+        <v>49</v>
       </c>
       <c r="H13">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="I13">
-        <v>18.6</v>
+        <v>17.7</v>
       </c>
       <c r="J13">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="K13">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3351,28 +3393,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3383,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>125.53</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3412,13 +3454,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>99.36</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3441,13 +3483,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>137.04</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3470,13 +3512,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>121.55</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3499,13 +3541,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>129.91</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3528,13 +3570,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>124.38</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3557,13 +3599,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>123.85</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3586,13 +3628,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>131.77</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3615,13 +3657,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>132.84</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3644,13 +3686,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>118.79</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3673,13 +3715,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>142.35</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3702,13 +3744,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>117.06</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3738,31 +3780,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3770,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>0.7333333333333333</v>
@@ -3788,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3799,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0.5666666666666667</v>
@@ -3817,10 +3859,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3828,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -3846,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3857,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -3875,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3886,7 +3928,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>0.6666666666666666</v>
@@ -3904,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3915,7 +3957,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>0.7333333333333333</v>
@@ -3933,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3944,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -3962,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3973,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -3991,10 +4033,10 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4002,7 +4044,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>0.3333333333333333</v>
@@ -4020,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4031,7 +4073,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>0.4666666666666667</v>
@@ -4049,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4060,7 +4102,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>0.4</v>
@@ -4078,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4089,7 +4131,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <v>0.4</v>
@@ -4107,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4128,19 +4170,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4151,16 +4193,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4171,16 +4213,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4188,19 +4230,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4208,19 +4250,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4231,16 +4273,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4248,19 +4290,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4268,19 +4310,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4288,19 +4330,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4308,19 +4350,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4328,19 +4370,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4351,16 +4393,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12">
-        <v>-20</v>
+        <v>-28</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4371,16 +4413,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>-54</v>
+        <v>-53</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4390,63 +4432,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4495,11 +4540,14 @@
       <c r="P2">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4548,105 +4596,111 @@
       <c r="P3">
         <v>27</v>
       </c>
-      <c r="Q3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
         <v>6</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="J5">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="K5">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M5">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O5">
         <v>6</v>
@@ -4654,11 +4708,14 @@
       <c r="P5">
         <v>10</v>
       </c>
-      <c r="Q5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4707,276 +4764,294 @@
       <c r="P6">
         <v>8</v>
       </c>
-      <c r="Q6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <v>-9</v>
+      </c>
+      <c r="K7">
+        <v>-9</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>-2</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <v>19</v>
-      </c>
-      <c r="M7">
-        <v>19</v>
-      </c>
-      <c r="N7">
-        <v>14</v>
-      </c>
-      <c r="O7">
-        <v>13</v>
-      </c>
-      <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>-5</v>
-      </c>
-      <c r="D8">
-        <v>-5</v>
-      </c>
-      <c r="E8">
-        <v>-10</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>-8</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>8</v>
       </c>
       <c r="P8">
         <v>4</v>
       </c>
-      <c r="Q8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D9">
+        <v>-5</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
       <c r="I9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P9">
         <v>4</v>
       </c>
-      <c r="Q9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>-3</v>
       </c>
       <c r="I10">
         <v>-8</v>
       </c>
       <c r="J10">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="K10">
+        <v>-20</v>
+      </c>
+      <c r="L10">
+        <v>-20</v>
+      </c>
+      <c r="M10">
+        <v>-20</v>
+      </c>
+      <c r="N10">
+        <v>-18</v>
+      </c>
+      <c r="O10">
+        <v>-10</v>
+      </c>
+      <c r="P10">
+        <v>-14</v>
+      </c>
+      <c r="Q10">
+        <v>-12</v>
+      </c>
+      <c r="R10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>-2</v>
       </c>
-      <c r="L10">
-        <v>-5</v>
-      </c>
-      <c r="M10">
-        <v>-7</v>
-      </c>
-      <c r="N10">
-        <v>-7</v>
-      </c>
-      <c r="O10">
-        <v>-8</v>
-      </c>
-      <c r="P10">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>-11</v>
+      </c>
+      <c r="F11">
         <v>-10</v>
       </c>
-      <c r="Q10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I11">
         <v>-8</v>
       </c>
       <c r="J11">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="K11">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="L11">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="M11">
-        <v>-20</v>
+        <v>-7</v>
       </c>
       <c r="N11">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="O11">
+        <v>-8</v>
+      </c>
+      <c r="P11">
         <v>-10</v>
       </c>
-      <c r="P11">
-        <v>-14</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11">
+        <v>-16</v>
+      </c>
+      <c r="R11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5025,11 +5100,14 @@
       <c r="P12">
         <v>-20</v>
       </c>
-      <c r="Q12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12">
+        <v>-28</v>
+      </c>
+      <c r="R12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -5078,8 +5156,11 @@
       <c r="P13">
         <v>-54</v>
       </c>
-      <c r="Q13" t="s">
-        <v>116</v>
+      <c r="Q13">
+        <v>-53</v>
+      </c>
+      <c r="R13" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="153">
   <si>
     <t>Fear the Turtle</t>
   </si>
@@ -61,55 +61,58 @@
     <t>Hannah's Hail Mary</t>
   </si>
   <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>2-14-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>11-4-1</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>9-6-1</t>
-  </si>
-  <si>
-    <t>7-8-1</t>
-  </si>
-  <si>
-    <t>13-3-0</t>
-  </si>
-  <si>
-    <t>8-7-1</t>
-  </si>
-  <si>
-    <t>14-2-0</t>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>11-5-1</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>9-7-1</t>
+  </si>
+  <si>
+    <t>7-9-1</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>8-8-1</t>
+  </si>
+  <si>
+    <t>12-4-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -286,10 +289,7 @@
     <t>5-10-0</t>
   </si>
   <si>
-    <t>8-6-1</t>
-  </si>
-  <si>
-    <t>7-7-1</t>
+    <t>8-7-0</t>
   </si>
   <si>
     <t>7-8-0</t>
@@ -328,6 +328,12 @@
     <t>11-4</t>
   </si>
   <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
     <t>9-6</t>
   </si>
   <si>
@@ -343,16 +349,13 @@
     <t>5-10</t>
   </si>
   <si>
-    <t>7-8</t>
-  </si>
-  <si>
     <t>11.0-4.0</t>
   </si>
   <si>
-    <t>8.0-6.0-1.0</t>
-  </si>
-  <si>
-    <t>7.0-7.0-1.0</t>
+    <t>8.0-7.0</t>
+  </si>
+  <si>
+    <t>7.0-8.0</t>
   </si>
   <si>
     <t>9.0-6.0</t>
@@ -370,9 +373,6 @@
     <t>5.0-10.0</t>
   </si>
   <si>
-    <t>7.0-8.0</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -385,36 +385,33 @@
     <t>↑9</t>
   </si>
   <si>
-    <t>↑11</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -894,16 +894,16 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -915,10 +915,10 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -938,13 +938,13 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -973,37 +973,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1014,34 +1014,34 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
@@ -1064,10 +1064,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -1079,10 +1079,10 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -1096,34 +1096,34 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -1187,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1202,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1228,10 +1228,10 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
@@ -1243,10 +1243,10 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -1260,37 +1260,37 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
         <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1310,10 +1310,10 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1328,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -1342,37 +1342,37 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1382,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1520,25 +1520,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1546,25 +1546,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>7</v>
-      </c>
-      <c r="E7">
-        <v>-20</v>
-      </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1575,22 +1575,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="F8">
-        <v>-42</v>
+        <v>-2</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1598,77 +1598,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>-25</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>-42</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
         <v>1</v>
-      </c>
-      <c r="F10">
-        <v>-14</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1686,13 +1634,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1703,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>6.416666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1717,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.166666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1731,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1745,10 +1693,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7.833333333333333</v>
+        <v>8.25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1756,13 +1704,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1773,10 +1721,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>8.083333333333334</v>
+        <v>8.25</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1784,13 +1732,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>8.166666666666666</v>
+        <v>8.5</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1798,13 +1746,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1812,13 +1760,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1826,13 +1774,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>8.5</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1843,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>8.583333333333334</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1857,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>8.75</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1878,16 +1826,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1898,13 +1846,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>11.41666666666667</v>
+        <v>12.41666666666667</v>
       </c>
       <c r="D2">
         <v>0.4166666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1915,13 +1863,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1932,10 +1880,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>9.583333333333334</v>
+        <v>10.25</v>
       </c>
       <c r="D4">
-        <v>-1.416666666666666</v>
+        <v>-1.75</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1949,10 +1897,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8.916666666666666</v>
+        <v>9.75</v>
       </c>
       <c r="D5">
-        <v>-0.08333333333333393</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1966,10 +1914,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>8.333333333333334</v>
+        <v>9.25</v>
       </c>
       <c r="D6">
-        <v>0.3333333333333339</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1983,13 +1931,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>8.166666666666666</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D7">
-        <v>-0.8333333333333339</v>
+        <v>-0.1666666666666661</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2000,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.833333333333333</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D8">
-        <v>1.833333333333333</v>
+        <v>1.416666666666666</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -2017,13 +1965,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>7.5</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2034,10 +1982,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -2051,13 +1999,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.75</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.25</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2068,13 +2016,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>5.916666666666667</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>-0.08333333333333304</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2109,46 +2057,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2694,52 +2642,52 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2747,37 +2695,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>66.90000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="C2">
-        <v>70.8</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="D2">
-        <v>90.40000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="E2">
         <v>98.2</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G2">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="H2">
         <v>98.5</v>
       </c>
-      <c r="H2">
-        <v>98.59999999999999</v>
-      </c>
       <c r="I2">
-        <v>97.39999999999999</v>
+        <v>96</v>
       </c>
       <c r="J2">
-        <v>98.2</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="K2">
         <v>99.5</v>
       </c>
       <c r="L2">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2800,49 +2748,49 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <v>98.7</v>
+      </c>
+      <c r="C3">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D3">
+        <v>93.89999999999999</v>
+      </c>
+      <c r="E3">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F3">
+        <v>90.3</v>
+      </c>
+      <c r="G3">
+        <v>69.19999999999999</v>
+      </c>
+      <c r="H3">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="I3">
+        <v>95.8</v>
+      </c>
+      <c r="J3">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="K3">
+        <v>97.2</v>
+      </c>
+      <c r="L3">
+        <v>90.10000000000001</v>
+      </c>
+      <c r="M3">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="N3">
+        <v>93</v>
+      </c>
+      <c r="O3">
         <v>98.59999999999999</v>
       </c>
-      <c r="C3">
-        <v>92</v>
-      </c>
-      <c r="D3">
-        <v>92.60000000000001</v>
-      </c>
-      <c r="E3">
-        <v>80.10000000000001</v>
-      </c>
-      <c r="F3">
-        <v>91.60000000000001</v>
-      </c>
-      <c r="G3">
-        <v>70.8</v>
-      </c>
-      <c r="H3">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="I3">
-        <v>96.2</v>
-      </c>
-      <c r="J3">
-        <v>91.60000000000001</v>
-      </c>
-      <c r="K3">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="L3">
-        <v>91.5</v>
-      </c>
-      <c r="M3">
-        <v>98.2</v>
-      </c>
-      <c r="N3">
-        <v>94.19999999999999</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
       <c r="P3">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="Q3">
         <v>100</v>
@@ -2853,49 +2801,49 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4.399999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="C4">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="D4">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="E4">
         <v>46.9</v>
       </c>
       <c r="F4">
-        <v>22.5</v>
+        <v>25.6</v>
       </c>
       <c r="G4">
-        <v>37.3</v>
+        <v>40.9</v>
       </c>
       <c r="H4">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="I4">
-        <v>14.5</v>
+        <v>16.3</v>
       </c>
       <c r="J4">
         <v>16.4</v>
       </c>
       <c r="K4">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>13.3</v>
       </c>
       <c r="M4">
-        <v>36.5</v>
+        <v>34.8</v>
       </c>
       <c r="N4">
-        <v>55.7</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="O4">
-        <v>85.59999999999999</v>
+        <v>67.80000000000001</v>
       </c>
       <c r="P4">
-        <v>65.3</v>
+        <v>43.9</v>
       </c>
       <c r="Q4">
         <v>100</v>
@@ -2909,40 +2857,40 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>96.59999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="E5">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F5">
-        <v>82.19999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="G5">
         <v>75.8</v>
       </c>
       <c r="H5">
-        <v>78.2</v>
+        <v>76.5</v>
       </c>
       <c r="I5">
-        <v>55.00000000000001</v>
+        <v>56.2</v>
       </c>
       <c r="J5">
-        <v>67.5</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="K5">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="L5">
-        <v>94.19999999999999</v>
+        <v>94</v>
       </c>
       <c r="M5">
-        <v>86.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="N5">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2959,40 +2907,40 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="E6">
-        <v>78.10000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F6">
-        <v>85.39999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="G6">
-        <v>95.5</v>
+        <v>93.8</v>
       </c>
       <c r="H6">
-        <v>90.8</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="I6">
-        <v>96.8</v>
+        <v>96</v>
       </c>
       <c r="J6">
-        <v>92.60000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="K6">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="L6">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -3015,34 +2963,34 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C7">
-        <v>69</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="D7">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E7">
-        <v>85.90000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="F7">
-        <v>93.5</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G7">
-        <v>81.10000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="H7">
-        <v>89.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="I7">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="J7">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K7">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -3065,49 +3013,49 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="D8">
-        <v>58.4</v>
+        <v>56.7</v>
       </c>
       <c r="E8">
-        <v>36.5</v>
+        <v>38.7</v>
       </c>
       <c r="F8">
-        <v>34.1</v>
+        <v>32.7</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="H8">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="I8">
+        <v>46.7</v>
+      </c>
+      <c r="J8">
+        <v>29.7</v>
+      </c>
+      <c r="K8">
+        <v>54.8</v>
+      </c>
+      <c r="L8">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="M8">
+        <v>57.2</v>
+      </c>
+      <c r="N8">
         <v>34.59999999999999</v>
       </c>
-      <c r="I8">
-        <v>45.4</v>
-      </c>
-      <c r="J8">
-        <v>28</v>
-      </c>
-      <c r="K8">
-        <v>53</v>
-      </c>
-      <c r="L8">
-        <v>62.7</v>
-      </c>
-      <c r="M8">
-        <v>54.6</v>
-      </c>
-      <c r="N8">
-        <v>33.2</v>
-      </c>
       <c r="O8">
-        <v>7.8</v>
+        <v>21.8</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3118,31 +3066,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>18.9</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E9">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="F9">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="G9">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="H9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I9">
+        <v>0.8</v>
+      </c>
+      <c r="J9">
         <v>0.3</v>
-      </c>
-      <c r="J9">
-        <v>0.1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3171,34 +3119,34 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C10">
-        <v>35.4</v>
+        <v>33.1</v>
       </c>
       <c r="D10">
-        <v>13.7</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>13.8</v>
+        <v>12.2</v>
       </c>
       <c r="F10">
-        <v>8.4</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="G10">
-        <v>15.1</v>
+        <v>16.4</v>
       </c>
       <c r="H10">
-        <v>23.3</v>
+        <v>22.4</v>
       </c>
       <c r="I10">
-        <v>12.1</v>
+        <v>14.1</v>
       </c>
       <c r="J10">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="L10">
         <v>0.2</v>
@@ -3224,49 +3172,49 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>8.9</v>
+        <v>11.1</v>
       </c>
       <c r="C11">
-        <v>9.199999999999999</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="D11">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="E11">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="F11">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="G11">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="H11">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="I11">
-        <v>31.1</v>
+        <v>28.5</v>
       </c>
       <c r="J11">
-        <v>43.8</v>
+        <v>48.2</v>
       </c>
       <c r="K11">
-        <v>16.5</v>
+        <v>19.2</v>
       </c>
       <c r="L11">
-        <v>22.9</v>
+        <v>21.9</v>
       </c>
       <c r="M11">
-        <v>13.9</v>
+        <v>13.4</v>
       </c>
       <c r="N11">
         <v>20.3</v>
       </c>
       <c r="O11">
-        <v>6.600000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="P11">
-        <v>34.7</v>
+        <v>51.7</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3277,49 +3225,49 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="C12">
-        <v>7.7</v>
+        <v>11.1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E12">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F12">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="G12">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>30.2</v>
+        <v>33.8</v>
       </c>
       <c r="I12">
-        <v>37.4</v>
+        <v>37.7</v>
       </c>
       <c r="J12">
-        <v>50.5</v>
+        <v>47.4</v>
       </c>
       <c r="K12">
-        <v>39.3</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="M12">
-        <v>10.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3330,40 +3278,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>97.5</v>
+        <v>98.2</v>
       </c>
       <c r="D13">
-        <v>57.8</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="E13">
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="F13">
-        <v>57.59999999999999</v>
+        <v>61</v>
       </c>
       <c r="G13">
-        <v>49</v>
+        <v>45.6</v>
       </c>
       <c r="H13">
-        <v>23.3</v>
+        <v>21.7</v>
       </c>
       <c r="I13">
-        <v>17.7</v>
+        <v>16.1</v>
       </c>
       <c r="J13">
-        <v>8.1</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="K13">
+        <v>3.7</v>
+      </c>
+      <c r="L13">
         <v>3.2</v>
       </c>
-      <c r="L13">
-        <v>3.3</v>
-      </c>
       <c r="M13">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3393,28 +3341,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3425,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>125.53</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3454,13 +3402,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>99.36</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3483,13 +3431,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>137.04</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3512,13 +3460,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>121.55</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3541,13 +3489,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>129.91</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3570,13 +3518,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>124.38</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3599,7 +3547,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>123.85</v>
@@ -3628,7 +3576,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>131.77</v>
@@ -3657,7 +3605,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>132.84</v>
@@ -3686,13 +3634,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>118.79</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3715,13 +3663,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>142.35</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3744,13 +3692,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>117.06</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -3780,7 +3728,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>92</v>
@@ -3830,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
         <v>100</v>
@@ -3841,10 +3789,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>0.5666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D3">
         <v>129.9106666666667</v>
@@ -3859,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3870,10 +3818,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="D4">
         <v>124.3786666666667</v>
@@ -3888,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3899,7 +3847,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -3917,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3928,7 +3876,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>0.6666666666666666</v>
@@ -3946,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3975,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
         <v>100</v>
@@ -3986,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -4004,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4015,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9">
         <v>0.2</v>
@@ -4033,10 +3981,10 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4044,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>0.3333333333333333</v>
@@ -4062,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4073,7 +4021,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>0.4666666666666667</v>
@@ -4091,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4102,7 +4050,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>0.4</v>
@@ -4120,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4131,7 +4079,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>0.4</v>
@@ -4149,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4118,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -4179,7 +4127,7 @@
         <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>118</v>
@@ -4190,16 +4138,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>119</v>
@@ -4210,16 +4158,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>120</v>
@@ -4233,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4250,16 +4198,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>122</v>
@@ -4270,16 +4218,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>123</v>
@@ -4290,16 +4238,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>124</v>
@@ -4310,16 +4258,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>125</v>
@@ -4330,16 +4278,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>126</v>
@@ -4353,16 +4301,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4373,16 +4321,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>-16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4393,16 +4341,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4413,16 +4361,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>-53</v>
+        <v>-59</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4432,178 +4380,187 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
         <v>-4</v>
       </c>
-      <c r="C2">
-        <v>-7</v>
-      </c>
-      <c r="D2">
-        <v>-6</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
       <c r="F2">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N2">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q2">
         <v>38</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E3">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M3">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N3">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="O3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="P3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q3">
         <v>38</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4655,52 +4612,55 @@
       <c r="Q4">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>-4</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
       <c r="G5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="N5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>6</v>
@@ -4709,237 +4669,252 @@
         <v>10</v>
       </c>
       <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
         <v>8</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-5</v>
+      </c>
+      <c r="D6">
+        <v>-5</v>
+      </c>
+      <c r="E6">
+        <v>-10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-8</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
       <c r="I6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>7</v>
       </c>
       <c r="N6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>7</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
+      <c r="O7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>-6</v>
-      </c>
-      <c r="J7">
-        <v>-9</v>
-      </c>
-      <c r="K7">
-        <v>-9</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>-2</v>
-      </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
       <c r="P7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q7">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>-4</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>-1</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-3</v>
+      </c>
+      <c r="J8">
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>3</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
       </c>
       <c r="L8">
         <v>-1</v>
       </c>
       <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-      <c r="R8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B9">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E9">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
         <v>8</v>
       </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4991,11 +4966,14 @@
       <c r="Q10">
         <v>-12</v>
       </c>
-      <c r="R10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="R10">
+        <v>-10</v>
+      </c>
+      <c r="S10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -5047,11 +5025,14 @@
       <c r="Q11">
         <v>-16</v>
       </c>
-      <c r="R11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="R11">
+        <v>-16</v>
+      </c>
+      <c r="S11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5103,11 +5084,14 @@
       <c r="Q12">
         <v>-28</v>
       </c>
-      <c r="R12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="R12">
+        <v>-35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -5159,8 +5143,11 @@
       <c r="Q13">
         <v>-53</v>
       </c>
-      <c r="R13" t="s">
-        <v>129</v>
+      <c r="R13">
+        <v>-59</v>
+      </c>
+      <c r="S13" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -2695,37 +2695,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>63.7</v>
+        <v>63.4</v>
       </c>
       <c r="C2">
-        <v>70.89999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="D2">
-        <v>91.10000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="E2">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G2">
         <v>98.2</v>
       </c>
-      <c r="F2">
+      <c r="H2">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="I2">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="J2">
         <v>98.90000000000001</v>
       </c>
-      <c r="G2">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="H2">
-        <v>98.5</v>
-      </c>
-      <c r="I2">
-        <v>96</v>
-      </c>
-      <c r="J2">
-        <v>97.89999999999999</v>
-      </c>
       <c r="K2">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2748,49 +2748,49 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="C3">
-        <v>89.09999999999999</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="D3">
-        <v>93.89999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="E3">
-        <v>76.09999999999999</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="F3">
-        <v>90.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G3">
-        <v>69.19999999999999</v>
+        <v>71</v>
       </c>
       <c r="H3">
-        <v>88.09999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="I3">
-        <v>95.8</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="J3">
-        <v>90.40000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="K3">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="L3">
-        <v>90.10000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="M3">
-        <v>97.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="N3">
-        <v>93</v>
+        <v>93.2</v>
       </c>
       <c r="O3">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="P3">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="Q3">
         <v>100</v>
@@ -2801,49 +2801,49 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="C4">
         <v>31.9</v>
       </c>
       <c r="D4">
-        <v>21.4</v>
+        <v>19.7</v>
       </c>
       <c r="E4">
         <v>46.9</v>
       </c>
       <c r="F4">
-        <v>25.6</v>
+        <v>21.8</v>
       </c>
       <c r="G4">
-        <v>40.9</v>
+        <v>38.3</v>
       </c>
       <c r="H4">
-        <v>26.8</v>
+        <v>28</v>
       </c>
       <c r="I4">
-        <v>16.3</v>
+        <v>14.5</v>
       </c>
       <c r="J4">
-        <v>16.4</v>
+        <v>18.1</v>
       </c>
       <c r="K4">
-        <v>6.7</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="L4">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>34.8</v>
+        <v>31.5</v>
       </c>
       <c r="N4">
-        <v>55.50000000000001</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="O4">
-        <v>67.80000000000001</v>
+        <v>64</v>
       </c>
       <c r="P4">
-        <v>43.9</v>
+        <v>41.9</v>
       </c>
       <c r="Q4">
         <v>100</v>
@@ -2857,40 +2857,40 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D5">
-        <v>96.39999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E5">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F5">
-        <v>83.8</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="G5">
-        <v>75.8</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="H5">
-        <v>76.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I5">
-        <v>56.2</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="J5">
-        <v>65.10000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="K5">
-        <v>85.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="L5">
-        <v>94</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="M5">
-        <v>89.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N5">
-        <v>94.8</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2907,40 +2907,40 @@
         <v>8</v>
       </c>
       <c r="B6">
+        <v>99.3</v>
+      </c>
+      <c r="C6">
+        <v>40.3</v>
+      </c>
+      <c r="D6">
+        <v>62.8</v>
+      </c>
+      <c r="E6">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F6">
+        <v>86.3</v>
+      </c>
+      <c r="G6">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="H6">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="I6">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="J6">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="K6">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="L6">
+        <v>96.3</v>
+      </c>
+      <c r="M6">
         <v>99.5</v>
-      </c>
-      <c r="C6">
-        <v>40.6</v>
-      </c>
-      <c r="D6">
-        <v>66.60000000000001</v>
-      </c>
-      <c r="E6">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F6">
-        <v>85.2</v>
-      </c>
-      <c r="G6">
-        <v>93.8</v>
-      </c>
-      <c r="H6">
-        <v>90.60000000000001</v>
-      </c>
-      <c r="I6">
-        <v>96</v>
-      </c>
-      <c r="J6">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="K6">
-        <v>97.7</v>
-      </c>
-      <c r="L6">
-        <v>96</v>
-      </c>
-      <c r="M6">
-        <v>99.7</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -2960,37 +2960,37 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C7">
-        <v>69.39999999999999</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>83.09999999999999</v>
       </c>
       <c r="E7">
-        <v>86.90000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="F7">
-        <v>94.19999999999999</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="G7">
-        <v>81.8</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>90.8</v>
       </c>
       <c r="I7">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="J7">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K7">
+        <v>99.8</v>
+      </c>
+      <c r="L7">
         <v>98.90000000000001</v>
-      </c>
-      <c r="K7">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="L7">
-        <v>99.5</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -3013,49 +3013,49 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>45.5</v>
+        <v>44.1</v>
       </c>
       <c r="D8">
-        <v>56.7</v>
+        <v>60.6</v>
       </c>
       <c r="E8">
-        <v>38.7</v>
+        <v>38.4</v>
       </c>
       <c r="F8">
         <v>32.7</v>
       </c>
       <c r="G8">
-        <v>21.9</v>
+        <v>24.1</v>
       </c>
       <c r="H8">
-        <v>33.90000000000001</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="I8">
-        <v>46.7</v>
+        <v>48.7</v>
       </c>
       <c r="J8">
-        <v>29.7</v>
+        <v>25.6</v>
       </c>
       <c r="K8">
-        <v>54.8</v>
+        <v>53.1</v>
       </c>
       <c r="L8">
-        <v>66.40000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="M8">
-        <v>57.2</v>
+        <v>58.7</v>
       </c>
       <c r="N8">
-        <v>34.59999999999999</v>
+        <v>33.2</v>
       </c>
       <c r="O8">
-        <v>21.8</v>
+        <v>27.1</v>
       </c>
       <c r="P8">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3066,31 +3066,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="E9">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="F9">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G9">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3119,37 +3119,37 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="C10">
-        <v>33.1</v>
+        <v>32.6</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14.1</v>
       </c>
       <c r="E10">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="F10">
-        <v>6.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="G10">
-        <v>16.4</v>
+        <v>15.1</v>
       </c>
       <c r="H10">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="I10">
-        <v>14.1</v>
+        <v>12.1</v>
       </c>
       <c r="J10">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="K10">
-        <v>0.8999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3172,49 +3172,49 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="C11">
-        <v>9.700000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="D11">
-        <v>17.8</v>
+        <v>17.2</v>
       </c>
       <c r="E11">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="G11">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H11">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="I11">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="J11">
-        <v>48.2</v>
+        <v>40.8</v>
       </c>
       <c r="K11">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="L11">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="M11">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="N11">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="O11">
-        <v>11.8</v>
+        <v>10.2</v>
       </c>
       <c r="P11">
-        <v>51.7</v>
+        <v>53.1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3225,49 +3225,49 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="C12">
-        <v>11.1</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="E12">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="F12">
-        <v>16.8</v>
+        <v>14.7</v>
       </c>
       <c r="G12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>33.8</v>
+        <v>32.2</v>
       </c>
       <c r="I12">
-        <v>37.7</v>
+        <v>36.9</v>
       </c>
       <c r="J12">
-        <v>47.4</v>
+        <v>51.9</v>
       </c>
       <c r="K12">
-        <v>35.09999999999999</v>
+        <v>35.3</v>
       </c>
       <c r="L12">
-        <v>15.5</v>
+        <v>16.4</v>
       </c>
       <c r="M12">
-        <v>8.300000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3278,49 +3278,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C13">
-        <v>98.2</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="D13">
-        <v>57.49999999999999</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="E13">
-        <v>46.5</v>
+        <v>43.1</v>
       </c>
       <c r="F13">
-        <v>61</v>
+        <v>59.3</v>
       </c>
       <c r="G13">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="H13">
-        <v>21.7</v>
+        <v>22.7</v>
       </c>
       <c r="I13">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="J13">
-        <v>8.200000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K13">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M13">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q13">
         <v>0</v>

--- a/leagues/BP- Loudoun 2025 2025.xlsx
+++ b/leagues/BP- Loudoun 2025 2025.xlsx
@@ -2695,37 +2695,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>63.4</v>
+        <v>66.2</v>
       </c>
       <c r="C2">
         <v>74.5</v>
       </c>
       <c r="D2">
-        <v>90.2</v>
+        <v>90.7</v>
       </c>
       <c r="E2">
-        <v>98.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="G2">
         <v>98.2</v>
       </c>
       <c r="H2">
-        <v>97.89999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="I2">
-        <v>96.39999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="J2">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="K2">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2748,49 +2748,49 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C3">
-        <v>90.60000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="D3">
-        <v>92.2</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>77.60000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="F3">
-        <v>91.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="G3">
-        <v>71</v>
+        <v>69.8</v>
       </c>
       <c r="H3">
-        <v>87.2</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="I3">
-        <v>95.89999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="J3">
-        <v>91.3</v>
+        <v>91</v>
       </c>
       <c r="K3">
-        <v>96.59999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="L3">
-        <v>93.10000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="M3">
-        <v>97.7</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="N3">
-        <v>93.2</v>
+        <v>93.8</v>
       </c>
       <c r="O3">
         <v>98.5</v>
       </c>
       <c r="P3">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="Q3">
         <v>100</v>
@@ -2801,49 +2801,49 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="C4">
-        <v>31.9</v>
+        <v>27.9</v>
       </c>
       <c r="D4">
-        <v>19.7</v>
+        <v>19.1</v>
       </c>
       <c r="E4">
-        <v>46.9</v>
+        <v>46.3</v>
       </c>
       <c r="F4">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>38.3</v>
+        <v>35.5</v>
       </c>
       <c r="H4">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="I4">
-        <v>14.5</v>
+        <v>15.8</v>
       </c>
       <c r="J4">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="K4">
-        <v>7.000000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="M4">
-        <v>31.5</v>
+        <v>36.1</v>
       </c>
       <c r="N4">
-        <v>55.60000000000001</v>
+        <v>54.7</v>
       </c>
       <c r="O4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4">
-        <v>41.9</v>
+        <v>44.6</v>
       </c>
       <c r="Q4">
         <v>100</v>
@@ -2860,37 +2860,37 @@
         <v>99.90000000000001</v>
       </c>
       <c r="D5">
-        <v>97.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="F5">
+        <v>84.2</v>
+      </c>
+      <c r="G5">
+        <v>78.5</v>
+      </c>
+      <c r="H5">
+        <v>75.8</v>
+      </c>
+      <c r="I5">
+        <v>55.3</v>
+      </c>
+      <c r="J5">
+        <v>67.5</v>
+      </c>
+      <c r="K5">
         <v>83.39999999999999</v>
       </c>
-      <c r="G5">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="H5">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="I5">
-        <v>56.39999999999999</v>
-      </c>
-      <c r="J5">
-        <v>66.2</v>
-      </c>
-      <c r="K5">
-        <v>84.8</v>
-      </c>
       <c r="L5">
-        <v>94.19999999999999</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="M5">
-        <v>86.40000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="N5">
-        <v>95.39999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2907,43 +2907,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="C6">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="D6">
-        <v>62.8</v>
+        <v>65.7</v>
       </c>
       <c r="E6">
-        <v>75.90000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F6">
-        <v>86.3</v>
+        <v>85.8</v>
       </c>
       <c r="G6">
-        <v>94.69999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="H6">
-        <v>90.40000000000001</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="I6">
-        <v>97.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="J6">
-        <v>93.60000000000001</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="K6">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="L6">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="M6">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2960,37 +2960,37 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>83.09999999999999</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="E7">
-        <v>88.2</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F7">
-        <v>93.89999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="G7">
-        <v>82.19999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="H7">
-        <v>90.8</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="I7">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="J7">
         <v>99.09999999999999</v>
       </c>
       <c r="K7">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="L7">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -3013,49 +3013,49 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>44.1</v>
+        <v>44.7</v>
       </c>
       <c r="D8">
-        <v>60.6</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="E8">
-        <v>38.4</v>
+        <v>39.6</v>
       </c>
       <c r="F8">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="G8">
-        <v>24.1</v>
+        <v>20.8</v>
       </c>
       <c r="H8">
-        <v>35.09999999999999</v>
+        <v>33.8</v>
       </c>
       <c r="I8">
-        <v>48.7</v>
+        <v>46</v>
       </c>
       <c r="J8">
-        <v>25.6</v>
+        <v>26.7</v>
       </c>
       <c r="K8">
-        <v>53.1</v>
+        <v>54.8</v>
       </c>
       <c r="L8">
-        <v>62.4</v>
+        <v>63.9</v>
       </c>
       <c r="M8">
-        <v>58.7</v>
+        <v>54.7</v>
       </c>
       <c r="N8">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="O8">
-        <v>27.1</v>
+        <v>25.8</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3066,31 +3066,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D9">
+        <v>1.1</v>
+      </c>
+      <c r="E9">
+        <v>5.4</v>
+      </c>
+      <c r="F9">
         <v>2.9</v>
       </c>
-      <c r="E9">
-        <v>6.3</v>
-      </c>
-      <c r="F9">
-        <v>1.7</v>
-      </c>
       <c r="G9">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="H9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3122,34 +3122,34 @@
         <v>1.7</v>
       </c>
       <c r="C10">
-        <v>32.6</v>
+        <v>34.8</v>
       </c>
       <c r="D10">
-        <v>14.1</v>
+        <v>16.4</v>
       </c>
       <c r="E10">
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="F10">
-        <v>10.3</v>
+        <v>7.6</v>
       </c>
       <c r="G10">
-        <v>15.1</v>
+        <v>17.5</v>
       </c>
       <c r="H10">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="I10">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="J10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3172,49 +3172,49 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>11.4</v>
+        <v>8.1</v>
       </c>
       <c r="C11">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="D11">
-        <v>17.2</v>
+        <v>18</v>
       </c>
       <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="G11">
         <v>8.6</v>
       </c>
-      <c r="F11">
-        <v>4.6</v>
-      </c>
-      <c r="G11">
-        <v>8.699999999999999</v>
-      </c>
       <c r="H11">
-        <v>15.4</v>
+        <v>17.6</v>
       </c>
       <c r="I11">
-        <v>28.3</v>
+        <v>31</v>
       </c>
       <c r="J11">
-        <v>40.8</v>
+        <v>42.5</v>
       </c>
       <c r="K11">
-        <v>19.3</v>
+        <v>20.5</v>
       </c>
       <c r="L11">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="M11">
-        <v>14.5</v>
+        <v>12.7</v>
       </c>
       <c r="N11">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="O11">
-        <v>10.2</v>
+        <v>8.4</v>
       </c>
       <c r="P11">
-        <v>53.1</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3225,49 +3225,49 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="D12">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="E12">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="F12">
-        <v>14.7</v>
+        <v>16.2</v>
       </c>
       <c r="G12">
-        <v>42</v>
+        <v>43.9</v>
       </c>
       <c r="H12">
-        <v>32.2</v>
+        <v>34.3</v>
       </c>
       <c r="I12">
-        <v>36.9</v>
+        <v>38</v>
       </c>
       <c r="J12">
-        <v>51.9</v>
+        <v>48.5</v>
       </c>
       <c r="K12">
-        <v>35.3</v>
+        <v>34.4</v>
       </c>
       <c r="L12">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="M12">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="N12">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O12">
+        <v>0.3</v>
+      </c>
+      <c r="P12">
         <v>0.1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3281,43 +3281,43 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C13">
-        <v>97.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D13">
-        <v>57.59999999999999</v>
+        <v>57.7</v>
       </c>
       <c r="E13">
-        <v>43.1</v>
+        <v>45.3</v>
       </c>
       <c r="F13">
-        <v>59.3</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="G13">
-        <v>45.8</v>
+        <v>46.6</v>
       </c>
       <c r="H13">
-        <v>22.7</v>
+        <v>19.5</v>
       </c>
       <c r="I13">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="J13">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L13">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0.1</v>
